--- a/src/doc/codificador.xlsx
+++ b/src/doc/codificador.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\db\Github\cantos\src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE537DE-E0BA-48D0-ACA3-7235B3AD3331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71180E2F-7B9D-4C8A-BFE4-16568BF36561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
     <sheet name="A NADIE DEMOS OCASIÓN DE TROPIE" sheetId="3" r:id="rId3"/>
+    <sheet name="A ti Señor en mi clamor imploro" sheetId="4" r:id="rId4"/>
+    <sheet name="atisenorsedebelaalabanzaension" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="74">
   <si>
     <t>viviendo en pureza, paciencia y bondad;</t>
   </si>
@@ -185,6 +187,81 @@
   </si>
   <si>
     <t>LAS TRIBULACIONES,</t>
+  </si>
+  <si>
+    <t>A TI, SEÑOR, EN MI CLAMOR IMPLORO.</t>
+  </si>
+  <si>
+    <t>A TI, SEÑOR, EN MI CLAMOR SUPLICO.</t>
+  </si>
+  <si>
+    <t>A TI DERRAMO MI LAMENTO,</t>
+  </si>
+  <si>
+    <t>A TI MI ANGUSTIA EXPONGO.</t>
+  </si>
+  <si>
+    <t>A TI, YO CLAMO SEÑOR;</t>
+  </si>
+  <si>
+    <t>A TI, YO DIGO: ¡TÚ SOLO ERES MI REFUGIO,</t>
+  </si>
+  <si>
+    <t>TÚ ERES MI PORCIÓN EN ESTA TIERRA,</t>
+  </si>
+  <si>
+    <t>MI ÚNICA FELICIDAD!</t>
+  </si>
+  <si>
+    <t>A TI QUE ESCUCHAS LA ORACIÓN</t>
+  </si>
+  <si>
+    <t>VIENE TODO MORTAL,</t>
+  </si>
+  <si>
+    <t>VIENE TODO MORTAL.</t>
+  </si>
+  <si>
+    <t>A ti, Señor, se debe la alabanza, en Sión.</t>
+  </si>
+  <si>
+    <t>A ti se te cumple el voto, en Jerusalén.</t>
+  </si>
+  <si>
+    <t>A ti que escuchas la oración</t>
+  </si>
+  <si>
+    <t>viene todo mortal, viene todo mortal.</t>
+  </si>
+  <si>
+    <t>Pesan sobre nosotros nuestros pecados,</t>
+  </si>
+  <si>
+    <t>mas tú perdonas nuestras culpas.</t>
+  </si>
+  <si>
+    <t>Dichoso el que tú eliges, el que tú llamas,</t>
+  </si>
+  <si>
+    <t>vivirá en tus atrios.</t>
+  </si>
+  <si>
+    <t>¡Nos saciaremos de los bienes de tu casa,</t>
+  </si>
+  <si>
+    <t>de la santidad de tu templo!</t>
+  </si>
+  <si>
+    <t>Con los prodigios de tu amor</t>
+  </si>
+  <si>
+    <t>tú nos hablas,</t>
+  </si>
+  <si>
+    <t>con los portentos de tu justicia</t>
+  </si>
+  <si>
+    <t>nos respondes.</t>
   </si>
 </sst>
 </file>
@@ -562,27 +639,27 @@
       <selection activeCell="N3" sqref="N3:N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="43.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.453125" customWidth="1"/>
-    <col min="8" max="8" width="56.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="1.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.42578125" customWidth="1"/>
+    <col min="8" max="8" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="1.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" customWidth="1"/>
-    <col min="14" max="14" width="51.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -626,7 +703,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -671,7 +748,7 @@
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -716,7 +793,7 @@
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -761,7 +838,7 @@
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -806,7 +883,7 @@
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -851,7 +928,7 @@
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -896,7 +973,7 @@
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -941,7 +1018,7 @@
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -986,7 +1063,7 @@
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -1031,7 +1108,7 @@
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -1076,7 +1153,7 @@
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -1121,7 +1198,7 @@
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -1166,7 +1243,7 @@
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -1211,7 +1288,7 @@
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -1256,7 +1333,7 @@
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -1301,7 +1378,7 @@
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -1346,7 +1423,7 @@
         <v>document.getElementById("c17").textContent = Cantor17;</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -1391,7 +1468,7 @@
         <v>document.getElementById("c18").textContent = Cantor18;</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -1436,7 +1513,7 @@
         <v>document.getElementById("c19").textContent = Cantor19;</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -1481,7 +1558,7 @@
         <v>document.getElementById("c20").textContent = Cantor20;</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>25</v>
       </c>
@@ -1526,7 +1603,7 @@
         <v>document.getElementById("c21").textContent = Cantor21;</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>25</v>
       </c>
@@ -1571,7 +1648,7 @@
         <v>document.getElementById("c22").textContent = Cantor22;</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>25</v>
       </c>
@@ -1616,7 +1693,7 @@
         <v>document.getElementById("c23").textContent = Cantor23;</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -1661,7 +1738,7 @@
         <v>document.getElementById("c24").textContent = Cantor24;</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -1706,7 +1783,7 @@
         <v>document.getElementById("c25").textContent = Cantor25;</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -1751,7 +1828,7 @@
         <v>document.getElementById("c26").textContent = Cantor26;</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>25</v>
       </c>
@@ -1809,27 +1886,27 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="34.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.453125" customWidth="1"/>
-    <col min="9" max="9" width="48.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="1.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.42578125" customWidth="1"/>
+    <col min="9" max="9" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="1.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="51.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -1876,7 +1953,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -1924,12 +2001,12 @@
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C29" si="2">+C4+1</f>
+        <f t="shared" ref="C5:C28" si="2">+C4+1</f>
         <v>3</v>
       </c>
       <c r="D5" t="s">
@@ -1972,7 +2049,7 @@
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -2020,7 +2097,7 @@
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -2068,7 +2145,7 @@
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -2116,7 +2193,7 @@
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -2164,7 +2241,7 @@
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -2212,7 +2289,7 @@
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -2260,7 +2337,7 @@
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -2308,7 +2385,7 @@
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -2353,7 +2430,7 @@
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -2398,7 +2475,7 @@
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -2443,7 +2520,7 @@
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -2488,7 +2565,7 @@
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -2533,7 +2610,7 @@
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -2578,7 +2655,7 @@
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>30</v>
       </c>
@@ -2626,7 +2703,7 @@
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -2674,7 +2751,7 @@
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -2722,7 +2799,7 @@
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -2770,7 +2847,7 @@
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>30</v>
       </c>
@@ -2815,7 +2892,7 @@
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -2860,7 +2937,7 @@
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -2905,7 +2982,7 @@
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -2950,7 +3027,7 @@
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -2995,7 +3072,7 @@
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>30</v>
       </c>
@@ -3040,7 +3117,7 @@
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>30</v>
       </c>
@@ -3085,7 +3162,7 @@
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -3130,7 +3207,7 @@
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -3175,7 +3252,7 @@
         <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -3220,7 +3297,7 @@
         <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -3265,7 +3342,7 @@
         <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>30</v>
       </c>
@@ -3310,7 +3387,7 @@
         <v>document.getElementById("a16").textContent = Asamblea16;</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>30</v>
       </c>
@@ -3355,7 +3432,7 @@
         <v>document.getElementById("a17").textContent = Asamblea17;</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>30</v>
       </c>
@@ -3400,7 +3477,7 @@
         <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>30</v>
       </c>
@@ -3445,7 +3522,7 @@
         <v>document.getElementById("a19").textContent = Asamblea19;</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>30</v>
       </c>
@@ -3490,7 +3567,7 @@
         <v>document.getElementById("a20").textContent = Asamblea20;</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>30</v>
       </c>
@@ -3535,7 +3612,7 @@
         <v>document.getElementById("a21").textContent = Asamblea21;</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>30</v>
       </c>
@@ -3580,7 +3657,7 @@
         <v>document.getElementById("a22").textContent = Asamblea22;</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>30</v>
       </c>
@@ -3625,7 +3702,7 @@
         <v>document.getElementById("a23").textContent = Asamblea23;</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>30</v>
       </c>
@@ -3670,7 +3747,7 @@
         <v>document.getElementById("a24").textContent = Asamblea24;</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>30</v>
       </c>
@@ -3715,7 +3792,7 @@
         <v>document.getElementById("a25").textContent = Asamblea25;</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>30</v>
       </c>
@@ -3760,7 +3837,7 @@
         <v>document.getElementById("a26").textContent = Asamblea26;</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>30</v>
       </c>
@@ -3805,7 +3882,7 @@
         <v>document.getElementById("a27").textContent = Asamblea27;</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>30</v>
       </c>
@@ -3850,7 +3927,7 @@
         <v>document.getElementById("a28").textContent = Asamblea28;</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>30</v>
       </c>
@@ -3904,31 +3981,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAAA137-FAE9-4E0E-84AF-F3BE0D33E015}">
   <dimension ref="B1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20:O39"/>
+    <sheetView topLeftCell="D29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="34.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.453125" customWidth="1"/>
-    <col min="9" max="9" width="48.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="1.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.42578125" customWidth="1"/>
+    <col min="9" max="9" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="1.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="51.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="F1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -3975,7 +4052,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -4023,7 +4100,7 @@
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -4071,7 +4148,7 @@
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -4119,7 +4196,7 @@
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -4167,7 +4244,7 @@
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -4215,7 +4292,7 @@
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -4263,7 +4340,7 @@
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -4311,7 +4388,7 @@
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -4359,7 +4436,7 @@
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -4407,7 +4484,7 @@
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -4452,7 +4529,7 @@
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -4497,7 +4574,7 @@
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -4542,7 +4619,7 @@
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -4587,7 +4664,7 @@
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -4632,7 +4709,7 @@
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -4677,7 +4754,7 @@
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>30</v>
       </c>
@@ -4725,7 +4802,7 @@
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -4773,7 +4850,7 @@
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -4821,7 +4898,7 @@
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -4869,7 +4946,7 @@
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>30</v>
       </c>
@@ -4917,7 +4994,7 @@
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -4965,7 +5042,7 @@
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -5013,7 +5090,7 @@
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -5061,7 +5138,7 @@
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -5109,7 +5186,7 @@
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>30</v>
       </c>
@@ -5157,7 +5234,7 @@
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>30</v>
       </c>
@@ -5205,7 +5282,7 @@
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -5253,7 +5330,7 @@
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -5301,7 +5378,7 @@
         <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -5349,7 +5426,7 @@
         <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -5397,7 +5474,7 @@
         <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>30</v>
       </c>
@@ -5445,7 +5522,7 @@
         <v>document.getElementById("a16").textContent = Asamblea16;</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>30</v>
       </c>
@@ -5493,7 +5570,7 @@
         <v>document.getElementById("a17").textContent = Asamblea17;</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>30</v>
       </c>
@@ -5541,7 +5618,7 @@
         <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>30</v>
       </c>
@@ -5589,7 +5666,7 @@
         <v>document.getElementById("a19").textContent = Asamblea19;</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>30</v>
       </c>
@@ -5637,7 +5714,7 @@
         <v>document.getElementById("a20").textContent = Asamblea20;</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>30</v>
       </c>
@@ -5682,7 +5759,7 @@
         <v>document.getElementById("a21").textContent = Asamblea21;</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>30</v>
       </c>
@@ -5727,7 +5804,7 @@
         <v>document.getElementById("a22").textContent = Asamblea22;</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>30</v>
       </c>
@@ -5772,7 +5849,7 @@
         <v>document.getElementById("a23").textContent = Asamblea23;</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>30</v>
       </c>
@@ -5817,7 +5894,7 @@
         <v>document.getElementById("a24").textContent = Asamblea24;</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>30</v>
       </c>
@@ -5862,7 +5939,7 @@
         <v>document.getElementById("a25").textContent = Asamblea25;</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>30</v>
       </c>
@@ -5907,7 +5984,7 @@
         <v>document.getElementById("a26").textContent = Asamblea26;</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>30</v>
       </c>
@@ -5952,7 +6029,7 @@
         <v>document.getElementById("a27").textContent = Asamblea27;</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>30</v>
       </c>
@@ -5997,7 +6074,7 @@
         <v>document.getElementById("a28").textContent = Asamblea28;</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>30</v>
       </c>
@@ -6039,6 +6116,4505 @@
       </c>
       <c r="O48" t="str">
         <f t="shared" si="4"/>
+        <v>document.getElementById("a29").textContent = Asamblea29;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9712BDCD-AD07-4820-8F76-3C6A7F47DCB4}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B1:O48"/>
+  <sheetViews>
+    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20:O35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.42578125" customWidth="1"/>
+    <col min="9" max="9" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" customWidth="1"/>
+    <col min="15" max="15" width="51.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="str">
+        <f>_xlfn.CONCAT(B3,C3," ",D3," ",E3,F3,G3,H3)</f>
+        <v>let Cantor1 = "En ti confío, Señor,";</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3">
+        <f>C3</f>
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",J3,L3,"c",M3,L3,K3,".textContent = Cantor",M3,N3)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <f>+C3+1</f>
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I48" si="0">_xlfn.CONCAT(B4,C4," ",D4," ",E4,F4,G4,H4)</f>
+        <v>let Cantor2 = "¡no triunfen sobre mí mis enemigos!";</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4">
+        <f>C4</f>
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:O18" si="1">_xlfn.CONCAT("document.getElementById",J4,L4,"c",M4,L4,K4,".textContent = Cantor",M4,N4)</f>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C28" si="2">+C4+1</f>
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor3 = "Muéstrame, Señor, tu camino,";</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M48" si="3">C5</f>
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor4 = "enséñame, Señor, tu sendero.";</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c4").textContent = Cantor4;</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor5 = "Acuérdate, Señor, de tu ternura,";</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c5").textContent = Cantor5;</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor6 = "de tu inmensa compasión, que son de siempre.";</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c6").textContent = Cantor6;</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor7 = "De mis pecados, Señor, no te acuerdes,";</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c7").textContent = Cantor7;</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor8 = "acuérdate, Señor, que eres misericordia.";</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="N10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c8").textContent = Cantor8;</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor9 = "Rocíame, Señor, de tu misericordia.";</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="N11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c9").textContent = Cantor9;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor10 = "Sumérgeme, Señor, en tu misericordia.";</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c10").textContent = Cantor10;</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor11 = "";</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="N13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c11").textContent = Cantor11;</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor12 = "";</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c12").textContent = Cantor12;</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor13 = "";</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="N15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c13").textContent = Cantor13;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor14 = "";</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c14").textContent = Cantor14;</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor15 = "";</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="N17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c15").textContent = Cantor15;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor16 = "";</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="N18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c16").textContent = Cantor16;</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea1 = "A TI, SEÑOR, EN MI CLAMOR IMPLORO.";</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",J20,L20,"a",M20,L20,K20,".textContent = Asamblea",M20,N20)</f>
+        <v>document.getElementById("a1").textContent = Asamblea1;</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea2 = "A TI, SEÑOR, EN MI CLAMOR SUPLICO.";</v>
+      </c>
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" ref="O21:O48" si="4">_xlfn.CONCAT("document.getElementById",J21,L21,"a",M21,L21,K21,".textContent = Asamblea",M21,N21)</f>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>51</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea3 = "A TI DERRAMO MI LAMENTO,";</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea4 = "A TI MI ANGUSTIA EXPONGO.";</v>
+      </c>
+      <c r="J23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea5 = "A TI, YO CLAMO SEÑOR;";</v>
+      </c>
+      <c r="J24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea6 = "A TI, YO DIGO: ¡TÚ SOLO ERES MI REFUGIO,";</v>
+      </c>
+      <c r="J25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="N25" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a6").textContent = Asamblea6;</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea7 = "TÚ ERES MI PORCIÓN EN ESTA TIERRA,";</v>
+      </c>
+      <c r="J26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="N26" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a7").textContent = Asamblea7;</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea8 = "MI ÚNICA FELICIDAD!";</v>
+      </c>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="N27" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a8").textContent = Asamblea8;</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea9 = "A TI, SEÑOR, EN MI CLAMOR IMPLORO.";</v>
+      </c>
+      <c r="J28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="N28" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a9").textContent = Asamblea9;</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <f>+C28+1</f>
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea10 = "A TI, SEÑOR, EN MI CLAMOR SUPLICO.";</v>
+      </c>
+      <c r="J29" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="N29" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a10").textContent = Asamblea10;</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:C48" si="5">+C29+1</f>
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea11 = "A TI DERRAMO MI LAMENTO,";</v>
+      </c>
+      <c r="J30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="N30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a11").textContent = Asamblea11;</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea12 = "A TI MI ANGUSTIA EXPONGO.";</v>
+      </c>
+      <c r="J31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N31" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a12").textContent = Asamblea12;</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea13 = "A TI, YO CLAMO SEÑOR;";</v>
+      </c>
+      <c r="J32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="N32" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a13").textContent = Asamblea13;</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea14 = "A TI, YO DIGO: ¡TÚ SOLO ERES MI REFUGIO,";</v>
+      </c>
+      <c r="J33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="N33" t="s">
+        <v>29</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a14").textContent = Asamblea14;</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea15 = "TÚ ERES MI PORCIÓN EN ESTA TIERRA,";</v>
+      </c>
+      <c r="J34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="N34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a15").textContent = Asamblea15;</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea16 = "MI ÚNICA FELICIDAD!";</v>
+      </c>
+      <c r="J35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="N35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a16").textContent = Asamblea16;</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea17 = "";</v>
+      </c>
+      <c r="J36" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="N36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a17").textContent = Asamblea17;</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea18 = "";</v>
+      </c>
+      <c r="J37" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="N37" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a18").textContent = Asamblea18;</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea19 = "";</v>
+      </c>
+      <c r="J38" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" t="s">
+        <v>28</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="N38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a19").textContent = Asamblea19;</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea20 = "";</v>
+      </c>
+      <c r="J39" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" t="s">
+        <v>28</v>
+      </c>
+      <c r="L39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="N39" t="s">
+        <v>29</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a20").textContent = Asamblea20;</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea21 = "";</v>
+      </c>
+      <c r="J40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" t="s">
+        <v>28</v>
+      </c>
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="N40" t="s">
+        <v>29</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a21").textContent = Asamblea21;</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea22 = "";</v>
+      </c>
+      <c r="J41" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="N41" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a22").textContent = Asamblea22;</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea23 = "";</v>
+      </c>
+      <c r="J42" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42" t="s">
+        <v>28</v>
+      </c>
+      <c r="L42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="N42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a23").textContent = Asamblea23;</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea24 = "";</v>
+      </c>
+      <c r="J43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" t="s">
+        <v>28</v>
+      </c>
+      <c r="L43" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="N43" t="s">
+        <v>29</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a24").textContent = Asamblea24;</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea25 = "";</v>
+      </c>
+      <c r="J44" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="N44" t="s">
+        <v>29</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a25").textContent = Asamblea25;</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea26 = "";</v>
+      </c>
+      <c r="J45" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45" t="s">
+        <v>28</v>
+      </c>
+      <c r="L45" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="N45" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a26").textContent = Asamblea26;</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea27 = "";</v>
+      </c>
+      <c r="J46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="N46" t="s">
+        <v>29</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a27").textContent = Asamblea27;</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea28 = "";</v>
+      </c>
+      <c r="J47" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="N47" t="s">
+        <v>29</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a28").textContent = Asamblea28;</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea29 = "";</v>
+      </c>
+      <c r="J48" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48" t="s">
+        <v>28</v>
+      </c>
+      <c r="L48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="N48" t="s">
+        <v>29</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a29").textContent = Asamblea29;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADF3CBC-D327-4417-AD62-C73F038CF578}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B1:O53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25:O33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.42578125" customWidth="1"/>
+    <col min="9" max="9" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" customWidth="1"/>
+    <col min="15" max="15" width="51.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="str">
+        <f>_xlfn.CONCAT(B3,C3," ",D3," ",E3,F3,G3,H3)</f>
+        <v>let Cantor1 = "A ti, Señor, se debe la alabanza, en Sión.";</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3">
+        <f>C3</f>
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",J3,L3,"c",M3,L3,K3,".textContent = Cantor",M3,N3)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <f>+C3+1</f>
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I53" si="0">_xlfn.CONCAT(B4,C4," ",D4," ",E4,F4,G4,H4)</f>
+        <v>let Cantor2 = "A ti se te cumple el voto, en Jerusalén.";</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4">
+        <f>C4</f>
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:O18" si="1">_xlfn.CONCAT("document.getElementById",J4,L4,"c",M4,L4,K4,".textContent = Cantor",M4,N4)</f>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C33" si="2">+C4+1</f>
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor3 = "A ti que escuchas la oración";</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M53" si="3">C5</f>
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor4 = "viene todo mortal, viene todo mortal.";</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c4").textContent = Cantor4;</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor5 = "Pesan sobre nosotros nuestros pecados,";</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c5").textContent = Cantor5;</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor6 = "mas tú perdonas nuestras culpas.";</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c6").textContent = Cantor6;</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor7 = "Dichoso el que tú eliges, el que tú llamas,";</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c7").textContent = Cantor7;</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor8 = "vivirá en tus atrios.";</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="N10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c8").textContent = Cantor8;</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor9 = "A ti que escuchas la oración";</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="N11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c9").textContent = Cantor9;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor10 = "viene todo mortal, viene todo mortal.";</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c10").textContent = Cantor10;</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor11 = "¡Nos saciaremos de los bienes de tu casa,";</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="N13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c11").textContent = Cantor11;</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor12 = "de la santidad de tu templo!";</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c12").textContent = Cantor12;</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor13 = "Con los prodigios de tu amor";</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="N15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c13").textContent = Cantor13;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor14 = "tú nos hablas,";</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c14").textContent = Cantor14;</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor15 = "con los portentos de tu justicia";</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="N17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c15").textContent = Cantor15;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor16 = "nos respondes.";</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="N18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c16").textContent = Cantor16;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" ref="I19:I23" si="4">_xlfn.CONCAT(B19,C19," ",D19," ",E19,F19,G19,H19)</f>
+        <v>let Cantor17 = "A ti que escuchas la oración";</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ref="M19:M23" si="5">C19</f>
+        <v>17</v>
+      </c>
+      <c r="N19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" ref="O19:O23" si="6">_xlfn.CONCAT("document.getElementById",J19,L19,"c",M19,L19,K19,".textContent = Cantor",M19,N19)</f>
+        <v>document.getElementById("c17").textContent = Cantor17;</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="4"/>
+        <v>let Cantor18 = "viene todo mortal, viene todo mortal.";</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="N20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("c18").textContent = Cantor18;</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="4"/>
+        <v>let Cantor19 = "";</v>
+      </c>
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="N21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("c19").textContent = Cantor19;</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="4"/>
+        <v>let Cantor20 = "";</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="N22" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("c20").textContent = Cantor20;</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="4"/>
+        <v>let Cantor21 = "";</v>
+      </c>
+      <c r="J23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="N23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("c21").textContent = Cantor21;</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea1 = "A TI QUE ESCUCHAS LA ORACIÓN";</v>
+      </c>
+      <c r="J25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",J25,L25,"a",M25,L25,K25,".textContent = Asamblea",M25,N25)</f>
+        <v>document.getElementById("a1").textContent = Asamblea1;</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea2 = "VIENE TODO MORTAL,";</v>
+      </c>
+      <c r="J26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" ref="O26:O53" si="7">_xlfn.CONCAT("document.getElementById",J26,L26,"a",M26,L26,K26,".textContent = Asamblea",M26,N26)</f>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea3 = "VIENE TODO MORTAL.";</v>
+      </c>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea4 = "A TI QUE ESCUCHAS LA ORACIÓN";</v>
+      </c>
+      <c r="J28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea5 = "VIENE TODO MORTAL,";</v>
+      </c>
+      <c r="J29" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea6 = "VIENE TODO MORTAL.";</v>
+      </c>
+      <c r="J30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="N30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a6").textContent = Asamblea6;</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea7 = "A TI QUE ESCUCHAS LA ORACIÓN";</v>
+      </c>
+      <c r="J31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="N31" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a7").textContent = Asamblea7;</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea8 = "VIENE TODO MORTAL,";</v>
+      </c>
+      <c r="J32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="N32" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a8").textContent = Asamblea8;</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea9 = "VIENE TODO MORTAL.";</v>
+      </c>
+      <c r="J33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="N33" t="s">
+        <v>29</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a9").textContent = Asamblea9;</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <f>+C33+1</f>
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea10 = "";</v>
+      </c>
+      <c r="J34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="N34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a10").textContent = Asamblea10;</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:C53" si="8">+C34+1</f>
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea11 = "";</v>
+      </c>
+      <c r="J35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="N35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a11").textContent = Asamblea11;</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea12 = "";</v>
+      </c>
+      <c r="J36" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a12").textContent = Asamblea12;</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea13 = "";</v>
+      </c>
+      <c r="J37" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="N37" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a13").textContent = Asamblea13;</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea14 = "";</v>
+      </c>
+      <c r="J38" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" t="s">
+        <v>28</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="N38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a14").textContent = Asamblea14;</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea15 = "";</v>
+      </c>
+      <c r="J39" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" t="s">
+        <v>28</v>
+      </c>
+      <c r="L39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="N39" t="s">
+        <v>29</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a15").textContent = Asamblea15;</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea16 = "";</v>
+      </c>
+      <c r="J40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" t="s">
+        <v>28</v>
+      </c>
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="N40" t="s">
+        <v>29</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a16").textContent = Asamblea16;</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea17 = "";</v>
+      </c>
+      <c r="J41" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="N41" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a17").textContent = Asamblea17;</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea18 = "";</v>
+      </c>
+      <c r="J42" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42" t="s">
+        <v>28</v>
+      </c>
+      <c r="L42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="N42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a18").textContent = Asamblea18;</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea19 = "";</v>
+      </c>
+      <c r="J43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" t="s">
+        <v>28</v>
+      </c>
+      <c r="L43" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="N43" t="s">
+        <v>29</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a19").textContent = Asamblea19;</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea20 = "";</v>
+      </c>
+      <c r="J44" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="N44" t="s">
+        <v>29</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a20").textContent = Asamblea20;</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea21 = "";</v>
+      </c>
+      <c r="J45" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45" t="s">
+        <v>28</v>
+      </c>
+      <c r="L45" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="N45" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a21").textContent = Asamblea21;</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea22 = "";</v>
+      </c>
+      <c r="J46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="N46" t="s">
+        <v>29</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a22").textContent = Asamblea22;</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea23 = "";</v>
+      </c>
+      <c r="J47" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="N47" t="s">
+        <v>29</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a23").textContent = Asamblea23;</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea24 = "";</v>
+      </c>
+      <c r="J48" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48" t="s">
+        <v>28</v>
+      </c>
+      <c r="L48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="N48" t="s">
+        <v>29</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a24").textContent = Asamblea24;</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea25 = "";</v>
+      </c>
+      <c r="J49" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49" t="s">
+        <v>28</v>
+      </c>
+      <c r="L49" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="N49" t="s">
+        <v>29</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a25").textContent = Asamblea25;</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea26 = "";</v>
+      </c>
+      <c r="J50" t="s">
+        <v>27</v>
+      </c>
+      <c r="K50" t="s">
+        <v>28</v>
+      </c>
+      <c r="L50" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="N50" t="s">
+        <v>29</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a26").textContent = Asamblea26;</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea27 = "";</v>
+      </c>
+      <c r="J51" t="s">
+        <v>27</v>
+      </c>
+      <c r="K51" t="s">
+        <v>28</v>
+      </c>
+      <c r="L51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="N51" t="s">
+        <v>29</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a27").textContent = Asamblea27;</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="D52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea28 = "";</v>
+      </c>
+      <c r="J52" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52" t="s">
+        <v>28</v>
+      </c>
+      <c r="L52" t="s">
+        <v>26</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="N52" t="s">
+        <v>29</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a28").textContent = Asamblea28;</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea29 = "";</v>
+      </c>
+      <c r="J53" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53" t="s">
+        <v>28</v>
+      </c>
+      <c r="L53" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="N53" t="s">
+        <v>29</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="7"/>
         <v>document.getElementById("a29").textContent = Asamblea29;</v>
       </c>
     </row>

--- a/src/doc/codificador.xlsx
+++ b/src/doc/codificador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\db\Github\cantos\src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71180E2F-7B9D-4C8A-BFE4-16568BF36561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9C64CC-43AA-4AC4-AAF1-1F94302C9B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="A NADIE DEMOS OCASIÓN DE TROPIE" sheetId="3" r:id="rId3"/>
     <sheet name="A ti Señor en mi clamor imploro" sheetId="4" r:id="rId4"/>
     <sheet name="atisenorsedebelaalabanzaension" sheetId="5" r:id="rId5"/>
+    <sheet name="Abraham" sheetId="6" r:id="rId6"/>
+    <sheet name="Aclamad al Señor" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="109">
   <si>
     <t>viviendo en pureza, paciencia y bondad;</t>
   </si>
@@ -262,6 +264,111 @@
   </si>
   <si>
     <t>nos respondes.</t>
+  </si>
+  <si>
+    <t>SIN DETENERTE, NO PASES TE RUEGO</t>
+  </si>
+  <si>
+    <t>SIN DETENERTE, SIN DETENERTE.</t>
+  </si>
+  <si>
+    <t>«OH SEÑOR MÍO, NO PASES TE RUEGO</t>
+  </si>
+  <si>
+    <t>SIN DETENERTE, SIN DETENERTE.»</t>
+  </si>
+  <si>
+    <t>Hacía calor aquel día</t>
+  </si>
+  <si>
+    <t>cuando Abraham estaba sentado</t>
+  </si>
+  <si>
+    <t>delante de su tienda.</t>
+  </si>
+  <si>
+    <t>cerca del encinar de Mambré.</t>
+  </si>
+  <si>
+    <t>Alzando los ojos, miró,</t>
+  </si>
+  <si>
+    <t>y tres hombres de pie</t>
+  </si>
+  <si>
+    <t>estaban delante.</t>
+  </si>
+  <si>
+    <t>En cuanto los vio</t>
+  </si>
+  <si>
+    <t>se inclinó hasta el suelo y dijo:</t>
+  </si>
+  <si>
+    <t>«Oh Señor mío,</t>
+  </si>
+  <si>
+    <t>no pases te ruego sin detenerte.»</t>
+  </si>
+  <si>
+    <t>«Os traeré un poco de agua,</t>
+  </si>
+  <si>
+    <t>os lavaré los pies</t>
+  </si>
+  <si>
+    <t>y reposaréis a la sombra,</t>
+  </si>
+  <si>
+    <t>os traeré un bocado, os reconfortaréis</t>
+  </si>
+  <si>
+    <t>y luego seguiréis adelante.</t>
+  </si>
+  <si>
+    <t>No por casualidad</t>
+  </si>
+  <si>
+    <t>habéis pasado hoy delante de mí.»</t>
+  </si>
+  <si>
+    <t>¡ACLAMAD AL SEÑOR,</t>
+  </si>
+  <si>
+    <t>TODA LA TIERRA,</t>
+  </si>
+  <si>
+    <t>SERVID AL SEÑOR CON ALEGRÍA!</t>
+  </si>
+  <si>
+    <t>¡Acercaos a él</t>
+  </si>
+  <si>
+    <t>con gritos de júbilo!</t>
+  </si>
+  <si>
+    <t>Porque el Señor es nuestro Dios,</t>
+  </si>
+  <si>
+    <t>y nosotros su pueblo.</t>
+  </si>
+  <si>
+    <t>¡Entrad por sus puertas</t>
+  </si>
+  <si>
+    <t>con himnos de alegría!</t>
+  </si>
+  <si>
+    <t>¡Bendecid su nombre,</t>
+  </si>
+  <si>
+    <t>dándole gracias!</t>
+  </si>
+  <si>
+    <t>Porque es bueno el Señor,</t>
+  </si>
+  <si>
+    <t>es eterno su amor con nosotros</t>
   </si>
 </sst>
 </file>
@@ -8265,7 +8372,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O25" sqref="O25:O33"/>
     </sheetView>
   </sheetViews>
@@ -10621,4 +10728,4728 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43D4B1B-CB7D-4001-A5E9-E2E4CEEFD63D}">
+  <dimension ref="B1:O53"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.42578125" customWidth="1"/>
+    <col min="9" max="9" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" customWidth="1"/>
+    <col min="15" max="15" width="51.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="str">
+        <f>_xlfn.CONCAT(B3,C3," ",D3," ",E3,F3,G3,H3)</f>
+        <v>let Cantor1 = "Hacía calor aquel día";</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3">
+        <f>C3</f>
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",J3,L3,"c",M3,L3,K3,".textContent = Cantor",M3,N3)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <f>+C3+1</f>
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I53" si="0">_xlfn.CONCAT(B4,C4," ",D4," ",E4,F4,G4,H4)</f>
+        <v>let Cantor2 = "cuando Abraham estaba sentado";</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4">
+        <f>C4</f>
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:O23" si="1">_xlfn.CONCAT("document.getElementById",J4,L4,"c",M4,L4,K4,".textContent = Cantor",M4,N4)</f>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C33" si="2">+C4+1</f>
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor3 = "delante de su tienda.";</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M53" si="3">C5</f>
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor4 = "Hacía calor aquel día";</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c4").textContent = Cantor4;</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor5 = "cuando Abraham estaba sentado";</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c5").textContent = Cantor5;</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor6 = "cerca del encinar de Mambré.";</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c6").textContent = Cantor6;</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor7 = "Alzando los ojos, miró,";</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c7").textContent = Cantor7;</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor8 = "y tres hombres de pie";</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="N10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c8").textContent = Cantor8;</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor9 = "estaban delante.";</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="N11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c9").textContent = Cantor9;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor10 = "En cuanto los vio";</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c10").textContent = Cantor10;</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor11 = "se inclinó hasta el suelo y dijo:";</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="N13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c11").textContent = Cantor11;</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor12 = "«Oh Señor mío,";</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c12").textContent = Cantor12;</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor13 = "no pases te ruego sin detenerte.»";</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="N15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c13").textContent = Cantor13;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor14 = "«Os traeré un poco de agua,";</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c14").textContent = Cantor14;</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor15 = "os lavaré los pies";</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="N17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c15").textContent = Cantor15;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor16 = "y reposaréis a la sombra,";</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="N18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c16").textContent = Cantor16;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor17 = "os traeré un bocado, os reconfortaréis";</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="N19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c17").textContent = Cantor17;</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor18 = "y luego seguiréis adelante.";</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="N20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c18").textContent = Cantor18;</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor19 = "No por casualidad";</v>
+      </c>
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="N21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c19").textContent = Cantor19;</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor20 = "habéis pasado hoy delante de mí.»";</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="N22" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c20").textContent = Cantor20;</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor21 = "";</v>
+      </c>
+      <c r="J23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="N23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c21").textContent = Cantor21;</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea1 = "SIN DETENERTE, NO PASES TE RUEGO";</v>
+      </c>
+      <c r="J25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",J25,L25,"a",M25,L25,K25,".textContent = Asamblea",M25,N25)</f>
+        <v>document.getElementById("a1").textContent = Asamblea1;</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea2 = "SIN DETENERTE, SIN DETENERTE.";</v>
+      </c>
+      <c r="J26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" ref="O26:O53" si="4">_xlfn.CONCAT("document.getElementById",J26,L26,"a",M26,L26,K26,".textContent = Asamblea",M26,N26)</f>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea3 = "«OH SEÑOR MÍO, NO PASES TE RUEGO";</v>
+      </c>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea4 = "SIN DETENERTE, SIN DETENERTE.";</v>
+      </c>
+      <c r="J28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea5 = "SIN DETENERTE, NO PASES TE RUEGO";</v>
+      </c>
+      <c r="J29" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea6 = "SIN DETENERTE, SIN DETENERTE.»";</v>
+      </c>
+      <c r="J30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="N30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a6").textContent = Asamblea6;</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea7 = "";</v>
+      </c>
+      <c r="J31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="N31" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a7").textContent = Asamblea7;</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea8 = "";</v>
+      </c>
+      <c r="J32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="N32" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a8").textContent = Asamblea8;</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea9 = "";</v>
+      </c>
+      <c r="J33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="N33" t="s">
+        <v>29</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a9").textContent = Asamblea9;</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <f>+C33+1</f>
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea10 = "";</v>
+      </c>
+      <c r="J34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="N34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a10").textContent = Asamblea10;</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:C53" si="5">+C34+1</f>
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea11 = "";</v>
+      </c>
+      <c r="J35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="N35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a11").textContent = Asamblea11;</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea12 = "";</v>
+      </c>
+      <c r="J36" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a12").textContent = Asamblea12;</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea13 = "";</v>
+      </c>
+      <c r="J37" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="N37" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a13").textContent = Asamblea13;</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea14 = "";</v>
+      </c>
+      <c r="J38" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" t="s">
+        <v>28</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="N38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a14").textContent = Asamblea14;</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea15 = "";</v>
+      </c>
+      <c r="J39" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" t="s">
+        <v>28</v>
+      </c>
+      <c r="L39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="N39" t="s">
+        <v>29</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a15").textContent = Asamblea15;</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea16 = "";</v>
+      </c>
+      <c r="J40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" t="s">
+        <v>28</v>
+      </c>
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="N40" t="s">
+        <v>29</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a16").textContent = Asamblea16;</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea17 = "";</v>
+      </c>
+      <c r="J41" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="N41" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a17").textContent = Asamblea17;</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea18 = "";</v>
+      </c>
+      <c r="J42" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42" t="s">
+        <v>28</v>
+      </c>
+      <c r="L42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="N42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a18").textContent = Asamblea18;</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea19 = "";</v>
+      </c>
+      <c r="J43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" t="s">
+        <v>28</v>
+      </c>
+      <c r="L43" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="N43" t="s">
+        <v>29</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a19").textContent = Asamblea19;</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea20 = "";</v>
+      </c>
+      <c r="J44" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="N44" t="s">
+        <v>29</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a20").textContent = Asamblea20;</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea21 = "";</v>
+      </c>
+      <c r="J45" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45" t="s">
+        <v>28</v>
+      </c>
+      <c r="L45" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="N45" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a21").textContent = Asamblea21;</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea22 = "";</v>
+      </c>
+      <c r="J46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="N46" t="s">
+        <v>29</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a22").textContent = Asamblea22;</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea23 = "";</v>
+      </c>
+      <c r="J47" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="N47" t="s">
+        <v>29</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a23").textContent = Asamblea23;</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea24 = "";</v>
+      </c>
+      <c r="J48" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48" t="s">
+        <v>28</v>
+      </c>
+      <c r="L48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="N48" t="s">
+        <v>29</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a24").textContent = Asamblea24;</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea25 = "";</v>
+      </c>
+      <c r="J49" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49" t="s">
+        <v>28</v>
+      </c>
+      <c r="L49" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="N49" t="s">
+        <v>29</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a25").textContent = Asamblea25;</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea26 = "";</v>
+      </c>
+      <c r="J50" t="s">
+        <v>27</v>
+      </c>
+      <c r="K50" t="s">
+        <v>28</v>
+      </c>
+      <c r="L50" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="N50" t="s">
+        <v>29</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a26").textContent = Asamblea26;</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea27 = "";</v>
+      </c>
+      <c r="J51" t="s">
+        <v>27</v>
+      </c>
+      <c r="K51" t="s">
+        <v>28</v>
+      </c>
+      <c r="L51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="N51" t="s">
+        <v>29</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a27").textContent = Asamblea27;</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="D52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea28 = "";</v>
+      </c>
+      <c r="J52" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52" t="s">
+        <v>28</v>
+      </c>
+      <c r="L52" t="s">
+        <v>26</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="N52" t="s">
+        <v>29</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a28").textContent = Asamblea28;</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea29 = "";</v>
+      </c>
+      <c r="J53" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53" t="s">
+        <v>28</v>
+      </c>
+      <c r="L53" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="N53" t="s">
+        <v>29</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a29").textContent = Asamblea29;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAFCEA5-0592-4659-9A45-F545BD6A9380}">
+  <dimension ref="B1:O53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.42578125" customWidth="1"/>
+    <col min="9" max="9" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" customWidth="1"/>
+    <col min="15" max="15" width="51.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="str">
+        <f>_xlfn.CONCAT(B3,C3," ",D3," ",E3,F3,G3,H3)</f>
+        <v>let Cantor1 = "¡Acercaos a él";</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3">
+        <f>C3</f>
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",J3,L3,"c",M3,L3,K3,".textContent = Cantor",M3,N3)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <f>+C3+1</f>
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I53" si="0">_xlfn.CONCAT(B4,C4," ",D4," ",E4,F4,G4,H4)</f>
+        <v>let Cantor2 = "con gritos de júbilo!";</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4">
+        <f>C4</f>
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:O23" si="1">_xlfn.CONCAT("document.getElementById",J4,L4,"c",M4,L4,K4,".textContent = Cantor",M4,N4)</f>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C33" si="2">+C4+1</f>
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor3 = "Porque el Señor es nuestro Dios,";</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M53" si="3">C5</f>
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor4 = "y nosotros su pueblo.";</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c4").textContent = Cantor4;</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor5 = "¡Entrad por sus puertas";</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c5").textContent = Cantor5;</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor6 = "con himnos de alegría!";</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c6").textContent = Cantor6;</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor7 = "¡Bendecid su nombre,";</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c7").textContent = Cantor7;</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor8 = "dándole gracias!";</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="N10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c8").textContent = Cantor8;</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor9 = "Porque es bueno el Señor,";</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="N11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c9").textContent = Cantor9;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor10 = "es eterno su amor con nosotros";</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c10").textContent = Cantor10;</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor11 = "";</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="N13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c11").textContent = Cantor11;</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor12 = "";</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c12").textContent = Cantor12;</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor13 = "";</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="N15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c13").textContent = Cantor13;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor14 = "";</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c14").textContent = Cantor14;</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor15 = "";</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="N17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c15").textContent = Cantor15;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor16 = "";</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="N18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c16").textContent = Cantor16;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor17 = "";</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="N19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c17").textContent = Cantor17;</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor18 = "";</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="N20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c18").textContent = Cantor18;</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor19 = "";</v>
+      </c>
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="N21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c19").textContent = Cantor19;</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor20 = "";</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="N22" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c20").textContent = Cantor20;</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor21 = "";</v>
+      </c>
+      <c r="J23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="N23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c21").textContent = Cantor21;</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea1 = "¡ACLAMAD AL SEÑOR,";</v>
+      </c>
+      <c r="J25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",J25,L25,"a",M25,L25,K25,".textContent = Asamblea",M25,N25)</f>
+        <v>document.getElementById("a1").textContent = Asamblea1;</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea2 = "TODA LA TIERRA,";</v>
+      </c>
+      <c r="J26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" ref="O26:O53" si="4">_xlfn.CONCAT("document.getElementById",J26,L26,"a",M26,L26,K26,".textContent = Asamblea",M26,N26)</f>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea3 = "SERVID AL SEÑOR CON ALEGRÍA!";</v>
+      </c>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea4 = "¡ACLAMAD AL SEÑOR,";</v>
+      </c>
+      <c r="J28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea5 = "TODA LA TIERRA,";</v>
+      </c>
+      <c r="J29" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea6 = "SERVID AL SEÑOR CON ALEGRÍA!";</v>
+      </c>
+      <c r="J30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="N30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a6").textContent = Asamblea6;</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea7 = "¡ACLAMAD AL SEÑOR,";</v>
+      </c>
+      <c r="J31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="N31" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a7").textContent = Asamblea7;</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea8 = "TODA LA TIERRA,";</v>
+      </c>
+      <c r="J32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="N32" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a8").textContent = Asamblea8;</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea9 = "SERVID AL SEÑOR CON ALEGRÍA!";</v>
+      </c>
+      <c r="J33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="N33" t="s">
+        <v>29</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a9").textContent = Asamblea9;</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <f>+C33+1</f>
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea10 = "¡ACLAMAD AL SEÑOR,";</v>
+      </c>
+      <c r="J34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="N34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a10").textContent = Asamblea10;</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:C53" si="5">+C34+1</f>
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea11 = "TODA LA TIERRA,";</v>
+      </c>
+      <c r="J35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="N35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a11").textContent = Asamblea11;</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea12 = "SERVID AL SEÑOR CON ALEGRÍA!";</v>
+      </c>
+      <c r="J36" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a12").textContent = Asamblea12;</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea13 = "¡ACLAMAD AL SEÑOR,";</v>
+      </c>
+      <c r="J37" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="N37" t="s">
+        <v>29</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a13").textContent = Asamblea13;</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
+        <v>97</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea14 = "TODA LA TIERRA,";</v>
+      </c>
+      <c r="J38" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" t="s">
+        <v>28</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="N38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a14").textContent = Asamblea14;</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea15 = "SERVID AL SEÑOR CON ALEGRÍA!";</v>
+      </c>
+      <c r="J39" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" t="s">
+        <v>28</v>
+      </c>
+      <c r="L39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="N39" t="s">
+        <v>29</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a15").textContent = Asamblea15;</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" t="s">
+        <v>96</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea16 = "¡ACLAMAD AL SEÑOR,";</v>
+      </c>
+      <c r="J40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" t="s">
+        <v>28</v>
+      </c>
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="N40" t="s">
+        <v>29</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a16").textContent = Asamblea16;</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" t="s">
+        <v>97</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea17 = "TODA LA TIERRA,";</v>
+      </c>
+      <c r="J41" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="N41" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a17").textContent = Asamblea17;</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea18 = "SERVID AL SEÑOR CON ALEGRÍA!";</v>
+      </c>
+      <c r="J42" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42" t="s">
+        <v>28</v>
+      </c>
+      <c r="L42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="N42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a18").textContent = Asamblea18;</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea19 = "";</v>
+      </c>
+      <c r="J43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" t="s">
+        <v>28</v>
+      </c>
+      <c r="L43" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="N43" t="s">
+        <v>29</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a19").textContent = Asamblea19;</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea20 = "";</v>
+      </c>
+      <c r="J44" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="N44" t="s">
+        <v>29</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a20").textContent = Asamblea20;</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea21 = "";</v>
+      </c>
+      <c r="J45" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45" t="s">
+        <v>28</v>
+      </c>
+      <c r="L45" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="N45" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a21").textContent = Asamblea21;</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea22 = "";</v>
+      </c>
+      <c r="J46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="N46" t="s">
+        <v>29</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a22").textContent = Asamblea22;</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea23 = "";</v>
+      </c>
+      <c r="J47" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="N47" t="s">
+        <v>29</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a23").textContent = Asamblea23;</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea24 = "";</v>
+      </c>
+      <c r="J48" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48" t="s">
+        <v>28</v>
+      </c>
+      <c r="L48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="N48" t="s">
+        <v>29</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a24").textContent = Asamblea24;</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea25 = "";</v>
+      </c>
+      <c r="J49" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49" t="s">
+        <v>28</v>
+      </c>
+      <c r="L49" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="N49" t="s">
+        <v>29</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a25").textContent = Asamblea25;</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea26 = "";</v>
+      </c>
+      <c r="J50" t="s">
+        <v>27</v>
+      </c>
+      <c r="K50" t="s">
+        <v>28</v>
+      </c>
+      <c r="L50" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="N50" t="s">
+        <v>29</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a26").textContent = Asamblea26;</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea27 = "";</v>
+      </c>
+      <c r="J51" t="s">
+        <v>27</v>
+      </c>
+      <c r="K51" t="s">
+        <v>28</v>
+      </c>
+      <c r="L51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="N51" t="s">
+        <v>29</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a27").textContent = Asamblea27;</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="D52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea28 = "";</v>
+      </c>
+      <c r="J52" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52" t="s">
+        <v>28</v>
+      </c>
+      <c r="L52" t="s">
+        <v>26</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="N52" t="s">
+        <v>29</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a28").textContent = Asamblea28;</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea29 = "";</v>
+      </c>
+      <c r="J53" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53" t="s">
+        <v>28</v>
+      </c>
+      <c r="L53" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="N53" t="s">
+        <v>29</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a29").textContent = Asamblea29;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/doc/codificador.xlsx
+++ b/src/doc/codificador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\db\Github\cantos\src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9C64CC-43AA-4AC4-AAF1-1F94302C9B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB756C45-50DC-4205-893E-A9912534DCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="7" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="atisenorsedebelaalabanzaension" sheetId="5" r:id="rId5"/>
     <sheet name="Abraham" sheetId="6" r:id="rId6"/>
     <sheet name="Aclamad al Señor" sheetId="7" r:id="rId7"/>
+    <sheet name="Aclamad al Señor (2)" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2966" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3507" uniqueCount="146">
   <si>
     <t>viviendo en pureza, paciencia y bondad;</t>
   </si>
@@ -369,6 +370,117 @@
   </si>
   <si>
     <t>es eterno su amor con nosotros</t>
+  </si>
+  <si>
+    <t>AL DESPERTAR</t>
+  </si>
+  <si>
+    <t>ME SACIARÉ DE TU SEMBLANTE, SEÑOR.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME SACIARÉ DE TU SEMBLANTE, SEÑOR. </t>
+  </si>
+  <si>
+    <t>Escucha, Señor, mi oración,</t>
+  </si>
+  <si>
+    <t>atiende, Señor, a mi clamor,</t>
+  </si>
+  <si>
+    <t>presta oídos a mi súplica,</t>
+  </si>
+  <si>
+    <t>que mis labios no traicionan, Señor.</t>
+  </si>
+  <si>
+    <t>Salga de ti la sentencia,</t>
+  </si>
+  <si>
+    <t>porque tus ojos ven, tus ojos ven mi rectitud.</t>
+  </si>
+  <si>
+    <t>Sondea, Señor, mi corazón,</t>
+  </si>
+  <si>
+    <t>escrútalo de noche, Señor;</t>
+  </si>
+  <si>
+    <t>pruébame al crisol, pruébame al crisol</t>
+  </si>
+  <si>
+    <t>porque tú sabes que no hay malicia en mí;</t>
+  </si>
+  <si>
+    <t>que mi boca no miente como hacen los hombres.</t>
+  </si>
+  <si>
+    <t>Que he guardado tu Palabra,</t>
+  </si>
+  <si>
+    <t>que no he seguido los caminos del violento,</t>
+  </si>
+  <si>
+    <t>que a tus huellas he ajustado mis pasos,</t>
+  </si>
+  <si>
+    <t>que no vacilaré, que no vacilaré.</t>
+  </si>
+  <si>
+    <t>A ti yo te invoco, Señor;</t>
+  </si>
+  <si>
+    <t>concédeme, Señor, una respuesta;</t>
+  </si>
+  <si>
+    <t>muéstrame los prodigios de tu amor,</t>
+  </si>
+  <si>
+    <t>porque tú salvas al que se apoya en ti,</t>
+  </si>
+  <si>
+    <t>porque tú ayudas</t>
+  </si>
+  <si>
+    <t>al que se refugia a tu derecha.</t>
+  </si>
+  <si>
+    <t>Como a la niña de tus ojos guárdame,</t>
+  </si>
+  <si>
+    <t>a la sombra de tus alas escóndeme,</t>
+  </si>
+  <si>
+    <t>mira que quieren matarme.</t>
+  </si>
+  <si>
+    <t>Míralos, están cerrados en su orgullo,</t>
+  </si>
+  <si>
+    <t>hablan, la arrogancia está en su boca.</t>
+  </si>
+  <si>
+    <t>Avanzan contra mí, avanzan contra mí.</t>
+  </si>
+  <si>
+    <t>¡Ayúdame tú, Señor,</t>
+  </si>
+  <si>
+    <t>líbrame de los hombres de este mundo,</t>
+  </si>
+  <si>
+    <t>de los hombres cuyo premio es esta vida!</t>
+  </si>
+  <si>
+    <t>¡Cólmalos de tus bienes, Señor,</t>
+  </si>
+  <si>
+    <t>llénales el vientre y que sus hijos se sacien!</t>
+  </si>
+  <si>
+    <t>Que yo al despertar, que yo por tu amor</t>
+  </si>
+  <si>
+    <t>me saciaré de tu rostro Señor.</t>
   </si>
 </sst>
 </file>
@@ -13093,7 +13205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAFCEA5-0592-4659-9A45-F545BD6A9380}">
   <dimension ref="B1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
@@ -15452,4 +15564,2627 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6657DC-60E8-46A1-B22F-0FD24184F242}">
+  <dimension ref="B1:O57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
+    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.42578125" customWidth="1"/>
+    <col min="9" max="9" width="48.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" customWidth="1"/>
+    <col min="15" max="15" width="51.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="str">
+        <f>_xlfn.CONCAT(B3,C3," ",D3," ",E3,F3,G3,H3)</f>
+        <v>let Cantor1 = "Escucha, Señor, mi oración,";</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3">
+        <f>C3</f>
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",J3,L3,"c",M3,L3,K3,".textContent = Cantor",M3,N3)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <f>+C3+1</f>
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I57" si="0">_xlfn.CONCAT(B4,C4," ",D4," ",E4,F4,G4,H4)</f>
+        <v>let Cantor2 = "atiende, Señor, a mi clamor,";</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4">
+        <f>C4</f>
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:O22" si="1">_xlfn.CONCAT("document.getElementById",J4,L4,"c",M4,L4,K4,".textContent = Cantor",M4,N4)</f>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C46" si="2">+C4+1</f>
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor3 = "presta oídos a mi súplica,";</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M57" si="3">C5</f>
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor4 = "que mis labios no traicionan, Señor.";</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c4").textContent = Cantor4;</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor5 = "Salga de ti la sentencia,";</v>
+      </c>
+      <c r="J7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c5").textContent = Cantor5;</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor6 = "porque tus ojos ven, tus ojos ven mi rectitud.";</v>
+      </c>
+      <c r="J8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="N8" t="s">
+        <v>29</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c6").textContent = Cantor6;</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor7 = "Sondea, Señor, mi corazón,";</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="N9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c7").textContent = Cantor7;</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor8 = "escrútalo de noche, Señor;";</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="N10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c8").textContent = Cantor8;</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor9 = "pruébame al crisol, pruébame al crisol";</v>
+      </c>
+      <c r="J11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="N11" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c9").textContent = Cantor9;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor10 = "porque tú sabes que no hay malicia en mí;";</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c10").textContent = Cantor10;</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor11 = "que mi boca no miente como hacen los hombres.";</v>
+      </c>
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="N13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c11").textContent = Cantor11;</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor12 = "Que he guardado tu Palabra,";</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c12").textContent = Cantor12;</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor13 = "que no he seguido los caminos del violento,";</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="N15" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c13").textContent = Cantor13;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor14 = "que a tus huellas he ajustado mis pasos,";</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="N16" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c14").textContent = Cantor14;</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor15 = "que no vacilaré, que no vacilaré.";</v>
+      </c>
+      <c r="J17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="N17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c15").textContent = Cantor15;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor16 = "A ti yo te invoco, Señor;";</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="N18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c16").textContent = Cantor16;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor17 = "concédeme, Señor, una respuesta;";</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="N19" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c17").textContent = Cantor17;</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor18 = "muéstrame los prodigios de tu amor,";</v>
+      </c>
+      <c r="J20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="N20" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c18").textContent = Cantor18;</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor19 = "porque tú salvas al que se apoya en ti,";</v>
+      </c>
+      <c r="J21" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="N21" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c19").textContent = Cantor19;</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>let Cantor20 = "porque tú ayudas";</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="N22" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c20").textContent = Cantor20;</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" ref="I23:I36" si="4">_xlfn.CONCAT(B23,C23," ",D23," ",E23,F23,G23,H23)</f>
+        <v>let Cantor21 = "al que se refugia a tu derecha.";</v>
+      </c>
+      <c r="J23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ref="M23:M36" si="5">C23</f>
+        <v>21</v>
+      </c>
+      <c r="N23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" ref="O23:O36" si="6">_xlfn.CONCAT("document.getElementById",J23,L23,"c",M23,L23,K23,".textContent = Cantor",M23,N23)</f>
+        <v>document.getElementById("c21").textContent = Cantor21;</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="4"/>
+        <v>let Cantor22 = "Como a la niña de tus ojos guárdame,";</v>
+      </c>
+      <c r="J24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="N24" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("c22").textContent = Cantor22;</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>134</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="4"/>
+        <v>let Cantor23 = "a la sombra de tus alas escóndeme,";</v>
+      </c>
+      <c r="J25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="N25" t="s">
+        <v>29</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("c23").textContent = Cantor23;</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="4"/>
+        <v>let Cantor24 = "mira que quieren matarme.";</v>
+      </c>
+      <c r="J26" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="N26" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("c24").textContent = Cantor24;</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="4"/>
+        <v>let Cantor25 = "Míralos, están cerrados en su orgullo,";</v>
+      </c>
+      <c r="J27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="N27" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("c25").textContent = Cantor25;</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="4"/>
+        <v>let Cantor26 = "hablan, la arrogancia está en su boca.";</v>
+      </c>
+      <c r="J28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="N28" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("c26").textContent = Cantor26;</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>138</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="4"/>
+        <v>let Cantor27 = "Avanzan contra mí, avanzan contra mí.";</v>
+      </c>
+      <c r="J29" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
+      <c r="N29" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("c27").textContent = Cantor27;</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>139</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="4"/>
+        <v>let Cantor28 = "¡Ayúdame tú, Señor,";</v>
+      </c>
+      <c r="J30" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="N30" t="s">
+        <v>29</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("c28").textContent = Cantor28;</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>140</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="4"/>
+        <v>let Cantor29 = "líbrame de los hombres de este mundo,";</v>
+      </c>
+      <c r="J31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="N31" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("c29").textContent = Cantor29;</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>141</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="4"/>
+        <v>let Cantor30 = "de los hombres cuyo premio es esta vida!";</v>
+      </c>
+      <c r="J32" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="N32" t="s">
+        <v>29</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("c30").textContent = Cantor30;</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="4"/>
+        <v>let Cantor31 = "¡Cólmalos de tus bienes, Señor,";</v>
+      </c>
+      <c r="J33" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="N33" t="s">
+        <v>29</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("c31").textContent = Cantor31;</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="4"/>
+        <v>let Cantor32 = "llénales el vientre y que sus hijos se sacien!";</v>
+      </c>
+      <c r="J34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="N34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("c32").textContent = Cantor32;</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" t="s">
+        <v>144</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="4"/>
+        <v>let Cantor33 = "Que yo al despertar, que yo por tu amor";</v>
+      </c>
+      <c r="J35" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="N35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("c33").textContent = Cantor33;</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="4"/>
+        <v>let Cantor34 = "me saciaré de tu rostro Señor.";</v>
+      </c>
+      <c r="J36" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="N36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("c34").textContent = Cantor34;</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea1 = "AL DESPERTAR";</v>
+      </c>
+      <c r="J38" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" t="s">
+        <v>28</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O38" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",J38,L38,"a",M38,L38,K38,".textContent = Asamblea",M38,N38)</f>
+        <v>document.getElementById("a1").textContent = Asamblea1;</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s">
+        <v>110</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea2 = "ME SACIARÉ DE TU SEMBLANTE, SEÑOR.";</v>
+      </c>
+      <c r="J39" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" t="s">
+        <v>28</v>
+      </c>
+      <c r="L39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>29</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" ref="O39:O57" si="7">_xlfn.CONCAT("document.getElementById",J39,L39,"a",M39,L39,K39,".textContent = Asamblea",M39,N39)</f>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea3 = "AL DESPERTAR";</v>
+      </c>
+      <c r="J40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" t="s">
+        <v>28</v>
+      </c>
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>29</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea4 = "ME SACIARÉ DE TU SEMBLANTE, SEÑOR. ";</v>
+      </c>
+      <c r="J41" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>29</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea5 = "AL DESPERTAR";</v>
+      </c>
+      <c r="J42" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42" t="s">
+        <v>28</v>
+      </c>
+      <c r="L42" t="s">
+        <v>26</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea6 = "ME SACIARÉ DE TU SEMBLANTE, SEÑOR.";</v>
+      </c>
+      <c r="J43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K43" t="s">
+        <v>28</v>
+      </c>
+      <c r="L43" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="N43" t="s">
+        <v>29</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a6").textContent = Asamblea6;</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" t="s">
+        <v>109</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea7 = "AL DESPERTAR";</v>
+      </c>
+      <c r="J44" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" t="s">
+        <v>26</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="N44" t="s">
+        <v>29</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a7").textContent = Asamblea7;</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" t="s">
+        <v>111</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea8 = "ME SACIARÉ DE TU SEMBLANTE, SEÑOR. ";</v>
+      </c>
+      <c r="J45" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45" t="s">
+        <v>28</v>
+      </c>
+      <c r="L45" t="s">
+        <v>26</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="N45" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a8").textContent = Asamblea8;</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" t="s">
+        <v>109</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea9 = "AL DESPERTAR";</v>
+      </c>
+      <c r="J46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="N46" t="s">
+        <v>29</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a9").textContent = Asamblea9;</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47">
+        <f>+C46+1</f>
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" t="s">
+        <v>110</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea10 = "ME SACIARÉ DE TU SEMBLANTE, SEÑOR.";</v>
+      </c>
+      <c r="J47" t="s">
+        <v>27</v>
+      </c>
+      <c r="K47" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="N47" t="s">
+        <v>29</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a10").textContent = Asamblea10;</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48:C57" si="8">+C47+1</f>
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" t="s">
+        <v>109</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea11 = "AL DESPERTAR";</v>
+      </c>
+      <c r="J48" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48" t="s">
+        <v>28</v>
+      </c>
+      <c r="L48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="N48" t="s">
+        <v>29</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a11").textContent = Asamblea11;</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" t="s">
+        <v>111</v>
+      </c>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea12 = "ME SACIARÉ DE TU SEMBLANTE, SEÑOR. ";</v>
+      </c>
+      <c r="J49" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49" t="s">
+        <v>28</v>
+      </c>
+      <c r="L49" t="s">
+        <v>26</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="N49" t="s">
+        <v>29</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a12").textContent = Asamblea12;</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" t="s">
+        <v>109</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea13 = "AL DESPERTAR";</v>
+      </c>
+      <c r="J50" t="s">
+        <v>27</v>
+      </c>
+      <c r="K50" t="s">
+        <v>28</v>
+      </c>
+      <c r="L50" t="s">
+        <v>26</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="N50" t="s">
+        <v>29</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a13").textContent = Asamblea13;</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" t="s">
+        <v>110</v>
+      </c>
+      <c r="G51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea14 = "ME SACIARÉ DE TU SEMBLANTE, SEÑOR.";</v>
+      </c>
+      <c r="J51" t="s">
+        <v>27</v>
+      </c>
+      <c r="K51" t="s">
+        <v>28</v>
+      </c>
+      <c r="L51" t="s">
+        <v>26</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="N51" t="s">
+        <v>29</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a14").textContent = Asamblea14;</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" t="s">
+        <v>109</v>
+      </c>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea15 = "AL DESPERTAR";</v>
+      </c>
+      <c r="J52" t="s">
+        <v>27</v>
+      </c>
+      <c r="K52" t="s">
+        <v>28</v>
+      </c>
+      <c r="L52" t="s">
+        <v>26</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="N52" t="s">
+        <v>29</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a15").textContent = Asamblea15;</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" t="s">
+        <v>111</v>
+      </c>
+      <c r="G53" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea16 = "ME SACIARÉ DE TU SEMBLANTE, SEÑOR. ";</v>
+      </c>
+      <c r="J53" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53" t="s">
+        <v>28</v>
+      </c>
+      <c r="L53" t="s">
+        <v>26</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="N53" t="s">
+        <v>29</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a16").textContent = Asamblea16;</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" t="s">
+        <v>109</v>
+      </c>
+      <c r="G54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea17 = "AL DESPERTAR";</v>
+      </c>
+      <c r="J54" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" t="s">
+        <v>26</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="N54" t="s">
+        <v>29</v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a17").textContent = Asamblea17;</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" t="s">
+        <v>110</v>
+      </c>
+      <c r="G55" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea18 = "ME SACIARÉ DE TU SEMBLANTE, SEÑOR.";</v>
+      </c>
+      <c r="J55" t="s">
+        <v>27</v>
+      </c>
+      <c r="K55" t="s">
+        <v>28</v>
+      </c>
+      <c r="L55" t="s">
+        <v>26</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="N55" t="s">
+        <v>29</v>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a18").textContent = Asamblea18;</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" t="s">
+        <v>109</v>
+      </c>
+      <c r="G56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea19 = "AL DESPERTAR";</v>
+      </c>
+      <c r="J56" t="s">
+        <v>27</v>
+      </c>
+      <c r="K56" t="s">
+        <v>28</v>
+      </c>
+      <c r="L56" t="s">
+        <v>26</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="N56" t="s">
+        <v>29</v>
+      </c>
+      <c r="O56" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a19").textContent = Asamblea19;</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="D57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" t="s">
+        <v>111</v>
+      </c>
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea20 = "ME SACIARÉ DE TU SEMBLANTE, SEÑOR. ";</v>
+      </c>
+      <c r="J57" t="s">
+        <v>27</v>
+      </c>
+      <c r="K57" t="s">
+        <v>28</v>
+      </c>
+      <c r="L57" t="s">
+        <v>26</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="N57" t="s">
+        <v>29</v>
+      </c>
+      <c r="O57" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("a20").textContent = Asamblea20;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/doc/codificador.xlsx
+++ b/src/doc/codificador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\db\Github\cantos\src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB756C45-50DC-4205-893E-A9912534DCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465ADB74-AB73-4B72-9A01-F0361771ABC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="7" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="8" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Abraham" sheetId="6" r:id="rId6"/>
     <sheet name="Aclamad al Señor" sheetId="7" r:id="rId7"/>
     <sheet name="Aclamad al Señor (2)" sheetId="8" r:id="rId8"/>
+    <sheet name="ALABAD AL SEÑOR EN EL CIELO" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3507" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4176" uniqueCount="194">
   <si>
     <t>viviendo en pureza, paciencia y bondad;</t>
   </si>
@@ -482,6 +483,150 @@
   <si>
     <t>me saciaré de tu rostro Señor.</t>
   </si>
+  <si>
+    <t xml:space="preserve">ALABAD AL SEÑOR EN EL CIELO </t>
+  </si>
+  <si>
+    <t>let titulo</t>
+  </si>
+  <si>
+    <t>document.getElementById("t1").textContent = titulo;</t>
+  </si>
+  <si>
+    <t>let salmo</t>
+  </si>
+  <si>
+    <t>Salmo 148</t>
+  </si>
+  <si>
+    <t>let dbnos</t>
+  </si>
+  <si>
+    <t>// Definir variables con la parte de la Asamble</t>
+  </si>
+  <si>
+    <t>// Titulo</t>
+  </si>
+  <si>
+    <t>// Asignando variable Tituto//</t>
+  </si>
+  <si>
+    <t>document.getElementById("dbno").textContent = dbnos;</t>
+  </si>
+  <si>
+    <t>document.getElementById("s1").textContent = salmo;</t>
+  </si>
+  <si>
+    <t>// Asignando variable para Asamble//</t>
+  </si>
+  <si>
+    <t>// Asignando variable para Cantor o Solista//</t>
+  </si>
+  <si>
+    <t>// Fin del Codigo //</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡ALABADLO! </t>
+  </si>
+  <si>
+    <t>¡ALABADLO!</t>
+  </si>
+  <si>
+    <t>¡Alabad al Señor en el Cielo,</t>
+  </si>
+  <si>
+    <t>alabad al Señor en lo alto,</t>
+  </si>
+  <si>
+    <t>alabadlo, todos sus ángeles,</t>
+  </si>
+  <si>
+    <t>alabadlo, todos sus ejércitos!</t>
+  </si>
+  <si>
+    <t>Alabadlo, sol y luna,</t>
+  </si>
+  <si>
+    <t>alabadlo, estrellas lucientes.</t>
+  </si>
+  <si>
+    <t>Alabadlo, espacios celestes</t>
+  </si>
+  <si>
+    <t>y aguas que cuelgan en el cielo.</t>
+  </si>
+  <si>
+    <t>Alaben el nombre del Señor,</t>
+  </si>
+  <si>
+    <t>porque Él lo mandó, y existieron.</t>
+  </si>
+  <si>
+    <t>Les dio consistencia perpetua</t>
+  </si>
+  <si>
+    <t>y una ley que no pasará.</t>
+  </si>
+  <si>
+    <t>Alabad al Señor en la tierra,</t>
+  </si>
+  <si>
+    <t>cetáceos y abismos del mar.</t>
+  </si>
+  <si>
+    <t>Rayos, granizo, nieve y bruma,</t>
+  </si>
+  <si>
+    <t>viento huracanado</t>
+  </si>
+  <si>
+    <t>que cumple sus órdenes.</t>
+  </si>
+  <si>
+    <t>Montes y todas las sierras,</t>
+  </si>
+  <si>
+    <t>árboles frutales y cedros.</t>
+  </si>
+  <si>
+    <t>Fieras y animales domésticos,</t>
+  </si>
+  <si>
+    <t>reptiles y pájaros que vuelan.</t>
+  </si>
+  <si>
+    <t>Reyes y pueblos del orbe,</t>
+  </si>
+  <si>
+    <t>príncipes y jefes del mundo.</t>
+  </si>
+  <si>
+    <t>Los jóvenes</t>
+  </si>
+  <si>
+    <t>y también las doncellas,</t>
+  </si>
+  <si>
+    <t>los viejos a una con los niños.</t>
+  </si>
+  <si>
+    <t>el único nombre sublime.</t>
+  </si>
+  <si>
+    <t>Su majestad,</t>
+  </si>
+  <si>
+    <t>sobre el cielo y la tierra,</t>
+  </si>
+  <si>
+    <t>Él da fuerza y vigor a su pueblo.</t>
+  </si>
+  <si>
+    <t>Alabanza de todos sus fieles,</t>
+  </si>
+  <si>
+    <t>de Israel, su pueblo elegido.</t>
+  </si>
 </sst>
 </file>
 
@@ -15570,7 +15715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6657DC-60E8-46A1-B22F-0FD24184F242}">
   <dimension ref="B1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
@@ -18187,4 +18332,3624 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B7D85A-549E-44B5-9CDC-8016415CF033}">
+  <dimension ref="B1:P145"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J145"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
+    <col min="6" max="6" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="4.42578125" customWidth="1"/>
+    <col min="10" max="10" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3" customWidth="1"/>
+    <col min="16" max="16" width="51.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="str">
+        <f>_xlfn.CONCAT(B2," ",D2," ",E2,F2,G2,H2)</f>
+        <v>let titulo = "ALABAD AL SEÑOR EN EL CIELO ";</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2:N4" si="0">C2</f>
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K2,M2,"t",N2,M2,L2,".textContent = titulo",O2)</f>
+        <v>document.getElementById("t1").textContent = titulo;</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="str">
+        <f>_xlfn.CONCAT(B3," ",D3," ",E3,F3,G3,H3)</f>
+        <v>let salmo = "Salmo 148";</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P4" si="1">_xlfn.CONCAT("document.getElementById",K3,M3,"c",N3,M3,L3,".textContent = Cantor",N3,O3)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="str">
+        <f>_xlfn.CONCAT(B4," ",D4," ",E4,F4,G4,H4,"      //Numero del libro")</f>
+        <v>let dbnos = "30";      //Numero del libro</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="str">
+        <f>_xlfn.CONCAT(B7,C7," ",D7," ",E7,F7,G7,H7)</f>
+        <v>let Asamblea1 = "¡ALABADLO! ";</v>
+      </c>
+      <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7">
+        <f>C7</f>
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K7,M7,"a",N7,M7,L7,".textContent = Asamblea",N7,O7)</f>
+        <v>document.getElementById("a1").textContent = Asamblea1;</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <f>+C7+1</f>
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" t="str">
+        <f>_xlfn.CONCAT(B8,C8," ",D8," ",E8,F8,G8,H8)</f>
+        <v>let Asamblea2 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8">
+        <f>C8</f>
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" ref="P8:P31" si="2">_xlfn.CONCAT("document.getElementById",K8,M8,"a",N8,M8,L8,".textContent = Asamblea",N8,O8)</f>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <f>+C8+1</f>
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="str">
+        <f>_xlfn.CONCAT(B9,C9," ",D9," ",E9,F9,G9,H9)</f>
+        <v>let Asamblea3 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9">
+        <f>C9</f>
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="2"/>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <f>+C9+1</f>
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="str">
+        <f>_xlfn.CONCAT(B10,C10," ",D10," ",E10,F10,G10,H10)</f>
+        <v>let Asamblea4 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10">
+        <f>C10</f>
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="2"/>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <f>+C10+1</f>
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT(B11,C11," ",D11," ",E11,F11,G11,H11)</f>
+        <v>let Asamblea5 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11">
+        <f>C11</f>
+        <v>5</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="2"/>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <f>+C11+1</f>
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>161</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT(B12,C12," ",D12," ",E12,F12,G12,H12)</f>
+        <v>let Asamblea6 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12">
+        <f>C12</f>
+        <v>6</v>
+      </c>
+      <c r="O12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="2"/>
+        <v>document.getElementById("a6").textContent = Asamblea6;</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <f>+C12+1</f>
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT(B13,C13," ",D13," ",E13,F13,G13,H13)</f>
+        <v>let Asamblea7 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13">
+        <f>C13</f>
+        <v>7</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="2"/>
+        <v>document.getElementById("a7").textContent = Asamblea7;</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <f>+C13+1</f>
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>161</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="str">
+        <f>_xlfn.CONCAT(B14,C14," ",D14," ",E14,F14,G14,H14)</f>
+        <v>let Asamblea8 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14">
+        <f>C14</f>
+        <v>8</v>
+      </c>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="2"/>
+        <v>document.getElementById("a8").textContent = Asamblea8;</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <f>+C14+1</f>
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" t="str">
+        <f>_xlfn.CONCAT(B15,C15," ",D15," ",E15,F15,G15,H15)</f>
+        <v>let Asamblea9 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15">
+        <f>C15</f>
+        <v>9</v>
+      </c>
+      <c r="O15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="2"/>
+        <v>document.getElementById("a9").textContent = Asamblea9;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <f>+C15+1</f>
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>161</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="str">
+        <f>_xlfn.CONCAT(B16,C16," ",D16," ",E16,F16,G16,H16)</f>
+        <v>let Asamblea10 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16">
+        <f>C16</f>
+        <v>10</v>
+      </c>
+      <c r="O16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="2"/>
+        <v>document.getElementById("a10").textContent = Asamblea10;</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:C36" si="3">+C16+1</f>
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" t="str">
+        <f>_xlfn.CONCAT(B17,C17," ",D17," ",E17,F17,G17,H17)</f>
+        <v>let Asamblea11 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17">
+        <f>C17</f>
+        <v>11</v>
+      </c>
+      <c r="O17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="2"/>
+        <v>document.getElementById("a11").textContent = Asamblea11;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" t="str">
+        <f>_xlfn.CONCAT(B18,C18," ",D18," ",E18,F18,G18,H18)</f>
+        <v>let Asamblea12 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18">
+        <f>C18</f>
+        <v>12</v>
+      </c>
+      <c r="O18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="2"/>
+        <v>document.getElementById("a12").textContent = Asamblea12;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="str">
+        <f>_xlfn.CONCAT(B19,C19," ",D19," ",E19,F19,G19,H19)</f>
+        <v>let Asamblea13 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19">
+        <f>C19</f>
+        <v>13</v>
+      </c>
+      <c r="O19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="2"/>
+        <v>document.getElementById("a13").textContent = Asamblea13;</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="str">
+        <f>_xlfn.CONCAT(B20,C20," ",D20," ",E20,F20,G20,H20)</f>
+        <v>let Asamblea14 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20">
+        <f>C20</f>
+        <v>14</v>
+      </c>
+      <c r="O20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="2"/>
+        <v>document.getElementById("a14").textContent = Asamblea14;</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" t="str">
+        <f>_xlfn.CONCAT(B21,C21," ",D21," ",E21,F21,G21,H21)</f>
+        <v>let Asamblea15 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21">
+        <f>C21</f>
+        <v>15</v>
+      </c>
+      <c r="O21" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="2"/>
+        <v>document.getElementById("a15").textContent = Asamblea15;</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="str">
+        <f>_xlfn.CONCAT(B22,C22," ",D22," ",E22,F22,G22,H22)</f>
+        <v>let Asamblea16 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22">
+        <f>C22</f>
+        <v>16</v>
+      </c>
+      <c r="O22" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="2"/>
+        <v>document.getElementById("a16").textContent = Asamblea16;</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" t="str">
+        <f>_xlfn.CONCAT(B23,C23," ",D23," ",E23,F23,G23,H23)</f>
+        <v>let Asamblea17 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23">
+        <f>C23</f>
+        <v>17</v>
+      </c>
+      <c r="O23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="2"/>
+        <v>document.getElementById("a17").textContent = Asamblea17;</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" t="str">
+        <f>_xlfn.CONCAT(B24,C24," ",D24," ",E24,F24,G24,H24)</f>
+        <v>let Asamblea18 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24">
+        <f>C24</f>
+        <v>18</v>
+      </c>
+      <c r="O24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="2"/>
+        <v>document.getElementById("a18").textContent = Asamblea18;</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" t="str">
+        <f>_xlfn.CONCAT(B25,C25," ",D25," ",E25,F25,G25,H25)</f>
+        <v>let Asamblea19 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25">
+        <f>C25</f>
+        <v>19</v>
+      </c>
+      <c r="O25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="2"/>
+        <v>document.getElementById("a19").textContent = Asamblea19;</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>161</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" ref="J26:J30" si="4">_xlfn.CONCAT(B26,C26," ",D26," ",E26,F26,G26,H26)</f>
+        <v>let Asamblea20 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ref="N26:N30" si="5">C26</f>
+        <v>20</v>
+      </c>
+      <c r="O26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" ref="P26:P30" si="6">_xlfn.CONCAT("document.getElementById",K26,M26,"a",N26,M26,L26,".textContent = Asamblea",N26,O26)</f>
+        <v>document.getElementById("a20").textContent = Asamblea20;</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="4"/>
+        <v>let Asamblea21 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="O27" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("a21").textContent = Asamblea21;</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="4"/>
+        <v>let Asamblea22 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="O28" t="s">
+        <v>29</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("a22").textContent = Asamblea22;</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="4"/>
+        <v>let Asamblea23 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="O29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("a23").textContent = Asamblea23;</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="4"/>
+        <v>let Asamblea24 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="O30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("a24").textContent = Asamblea24;</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>161</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" t="str">
+        <f>_xlfn.CONCAT(B31,C31," ",D31," ",E31,F31,G31,H31)</f>
+        <v>let Asamblea25 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31">
+        <f>C31</f>
+        <v>25</v>
+      </c>
+      <c r="O31" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="2"/>
+        <v>document.getElementById("a25").textContent = Asamblea25;</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>161</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" ref="J32:J35" si="7">_xlfn.CONCAT(B32,C32," ",D32," ",E32,F32,G32,H32)</f>
+        <v>let Asamblea26 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32">
+        <f t="shared" ref="N32:N35" si="8">C32</f>
+        <v>26</v>
+      </c>
+      <c r="O32" t="s">
+        <v>29</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" ref="P32:P35" si="9">_xlfn.CONCAT("document.getElementById",K32,M32,"a",N32,M32,L32,".textContent = Asamblea",N32,O32)</f>
+        <v>document.getElementById("a26").textContent = Asamblea26;</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>161</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="7"/>
+        <v>let Asamblea27 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="O33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="9"/>
+        <v>document.getElementById("a27").textContent = Asamblea27;</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="7"/>
+        <v>let Asamblea28 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="O34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="9"/>
+        <v>document.getElementById("a28").textContent = Asamblea28;</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" t="s">
+        <v>161</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="7"/>
+        <v>let Asamblea29 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="O35" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="9"/>
+        <v>document.getElementById("a29").textContent = Asamblea29;</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" t="s">
+        <v>161</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" ref="J36" si="10">_xlfn.CONCAT(B36,C36," ",D36," ",E36,F36,G36,H36)</f>
+        <v>let Asamblea30 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36">
+        <f t="shared" ref="N36" si="11">C36</f>
+        <v>30</v>
+      </c>
+      <c r="O36" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" ref="P36" si="12">_xlfn.CONCAT("document.getElementById",K36,M36,"a",N36,M36,L36,".textContent = Asamblea",N36,O36)</f>
+        <v>document.getElementById("a30").textContent = Asamblea30;</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" t="str">
+        <f>_xlfn.CONCAT(B39,C39," ",D39," ",E39,F39,G39,H39)</f>
+        <v>let Cantor1 = "¡Alabad al Señor en el Cielo,";</v>
+      </c>
+      <c r="K39" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" t="s">
+        <v>28</v>
+      </c>
+      <c r="M39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39">
+        <f>C39</f>
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>29</v>
+      </c>
+      <c r="P39" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K39,M39,"c",N39,M39,L39,".textContent = Cantor",N39,O39)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40">
+        <f>+C39+1</f>
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" t="s">
+        <v>163</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" ref="J40:J71" si="13">_xlfn.CONCAT(B40,C40," ",D40," ",E40,F40,G40,H40)</f>
+        <v>let Cantor2 = "alabad al Señor en lo alto,";</v>
+      </c>
+      <c r="K40" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" t="s">
+        <v>28</v>
+      </c>
+      <c r="M40" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40">
+        <f>C40</f>
+        <v>2</v>
+      </c>
+      <c r="O40" t="s">
+        <v>29</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" ref="P40:P71" si="14">_xlfn.CONCAT("document.getElementById",K40,M40,"c",N40,M40,L40,".textContent = Cantor",N40,O40)</f>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41">
+        <f t="shared" ref="C41:C71" si="15">+C40+1</f>
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" t="s">
+        <v>164</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor3 = "alabadlo, todos sus ángeles,";</v>
+      </c>
+      <c r="K41" t="s">
+        <v>27</v>
+      </c>
+      <c r="L41" t="s">
+        <v>28</v>
+      </c>
+      <c r="M41" t="s">
+        <v>26</v>
+      </c>
+      <c r="N41">
+        <f t="shared" ref="N41:N71" si="16">C41</f>
+        <v>3</v>
+      </c>
+      <c r="O41" t="s">
+        <v>29</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" t="s">
+        <v>165</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor4 = "alabadlo, todos sus ejércitos!";</v>
+      </c>
+      <c r="K42" t="s">
+        <v>27</v>
+      </c>
+      <c r="L42" t="s">
+        <v>28</v>
+      </c>
+      <c r="M42" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="O42" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c4").textContent = Cantor4;</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" t="s">
+        <v>166</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor5 = "Alabadlo, sol y luna,";</v>
+      </c>
+      <c r="K43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" t="s">
+        <v>28</v>
+      </c>
+      <c r="M43" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="O43" t="s">
+        <v>29</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c5").textContent = Cantor5;</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" t="s">
+        <v>167</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor6 = "alabadlo, estrellas lucientes.";</v>
+      </c>
+      <c r="K44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" t="s">
+        <v>28</v>
+      </c>
+      <c r="M44" t="s">
+        <v>26</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="O44" t="s">
+        <v>29</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c6").textContent = Cantor6;</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" t="s">
+        <v>168</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor7 = "Alabadlo, espacios celestes";</v>
+      </c>
+      <c r="K45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L45" t="s">
+        <v>28</v>
+      </c>
+      <c r="M45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="O45" t="s">
+        <v>29</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c7").textContent = Cantor7;</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" t="s">
+        <v>169</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor8 = "y aguas que cuelgan en el cielo.";</v>
+      </c>
+      <c r="K46" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M46" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="O46" t="s">
+        <v>29</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c8").textContent = Cantor8;</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" t="s">
+        <v>170</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor9 = "Alaben el nombre del Señor,";</v>
+      </c>
+      <c r="K47" t="s">
+        <v>27</v>
+      </c>
+      <c r="L47" t="s">
+        <v>28</v>
+      </c>
+      <c r="M47" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="16"/>
+        <v>9</v>
+      </c>
+      <c r="O47" t="s">
+        <v>29</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c9").textContent = Cantor9;</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" t="s">
+        <v>171</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor10 = "porque Él lo mandó, y existieron.";</v>
+      </c>
+      <c r="K48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M48" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="O48" t="s">
+        <v>29</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c10").textContent = Cantor10;</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" t="s">
+        <v>172</v>
+      </c>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor11 = "Les dio consistencia perpetua";</v>
+      </c>
+      <c r="K49" t="s">
+        <v>27</v>
+      </c>
+      <c r="L49" t="s">
+        <v>28</v>
+      </c>
+      <c r="M49" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="16"/>
+        <v>11</v>
+      </c>
+      <c r="O49" t="s">
+        <v>29</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c11").textContent = Cantor11;</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor12 = "y una ley que no pasará.";</v>
+      </c>
+      <c r="K50" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" t="s">
+        <v>28</v>
+      </c>
+      <c r="M50" t="s">
+        <v>26</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="O50" t="s">
+        <v>29</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c12").textContent = Cantor12;</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" t="s">
+        <v>174</v>
+      </c>
+      <c r="G51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor13 = "Alabad al Señor en la tierra,";</v>
+      </c>
+      <c r="K51" t="s">
+        <v>27</v>
+      </c>
+      <c r="L51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M51" t="s">
+        <v>26</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="O51" t="s">
+        <v>29</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c13").textContent = Cantor13;</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="D52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" t="s">
+        <v>175</v>
+      </c>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor14 = "cetáceos y abismos del mar.";</v>
+      </c>
+      <c r="K52" t="s">
+        <v>27</v>
+      </c>
+      <c r="L52" t="s">
+        <v>28</v>
+      </c>
+      <c r="M52" t="s">
+        <v>26</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="O52" t="s">
+        <v>29</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c14").textContent = Cantor14;</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" t="s">
+        <v>176</v>
+      </c>
+      <c r="G53" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor15 = "Rayos, granizo, nieve y bruma,";</v>
+      </c>
+      <c r="K53" t="s">
+        <v>27</v>
+      </c>
+      <c r="L53" t="s">
+        <v>28</v>
+      </c>
+      <c r="M53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="O53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c15").textContent = Cantor15;</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="15"/>
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" t="s">
+        <v>177</v>
+      </c>
+      <c r="G54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" t="s">
+        <v>29</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor16 = "viento huracanado";</v>
+      </c>
+      <c r="K54" t="s">
+        <v>27</v>
+      </c>
+      <c r="L54" t="s">
+        <v>28</v>
+      </c>
+      <c r="M54" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="O54" t="s">
+        <v>29</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c16").textContent = Cantor16;</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="15"/>
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" t="s">
+        <v>178</v>
+      </c>
+      <c r="G55" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor17 = "que cumple sus órdenes.";</v>
+      </c>
+      <c r="K55" t="s">
+        <v>27</v>
+      </c>
+      <c r="L55" t="s">
+        <v>28</v>
+      </c>
+      <c r="M55" t="s">
+        <v>26</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="16"/>
+        <v>17</v>
+      </c>
+      <c r="O55" t="s">
+        <v>29</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c17").textContent = Cantor17;</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="15"/>
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" t="s">
+        <v>179</v>
+      </c>
+      <c r="G56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" t="s">
+        <v>29</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor18 = "Montes y todas las sierras,";</v>
+      </c>
+      <c r="K56" t="s">
+        <v>27</v>
+      </c>
+      <c r="L56" t="s">
+        <v>28</v>
+      </c>
+      <c r="M56" t="s">
+        <v>26</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="O56" t="s">
+        <v>29</v>
+      </c>
+      <c r="P56" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c18").textContent = Cantor18;</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="15"/>
+        <v>19</v>
+      </c>
+      <c r="D57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" t="s">
+        <v>180</v>
+      </c>
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor19 = "árboles frutales y cedros.";</v>
+      </c>
+      <c r="K57" t="s">
+        <v>27</v>
+      </c>
+      <c r="L57" t="s">
+        <v>28</v>
+      </c>
+      <c r="M57" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="O57" t="s">
+        <v>29</v>
+      </c>
+      <c r="P57" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c19").textContent = Cantor19;</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="15"/>
+        <v>20</v>
+      </c>
+      <c r="D58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" t="s">
+        <v>181</v>
+      </c>
+      <c r="G58" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor20 = "Fieras y animales domésticos,";</v>
+      </c>
+      <c r="K58" t="s">
+        <v>27</v>
+      </c>
+      <c r="L58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M58" t="s">
+        <v>26</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="O58" t="s">
+        <v>29</v>
+      </c>
+      <c r="P58" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c20").textContent = Cantor20;</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="15"/>
+        <v>21</v>
+      </c>
+      <c r="D59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" t="s">
+        <v>182</v>
+      </c>
+      <c r="G59" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor21 = "reptiles y pájaros que vuelan.";</v>
+      </c>
+      <c r="K59" t="s">
+        <v>27</v>
+      </c>
+      <c r="L59" t="s">
+        <v>28</v>
+      </c>
+      <c r="M59" t="s">
+        <v>26</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="O59" t="s">
+        <v>29</v>
+      </c>
+      <c r="P59" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c21").textContent = Cantor21;</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="15"/>
+        <v>22</v>
+      </c>
+      <c r="D60" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" t="s">
+        <v>183</v>
+      </c>
+      <c r="G60" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" t="s">
+        <v>29</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor22 = "Reyes y pueblos del orbe,";</v>
+      </c>
+      <c r="K60" t="s">
+        <v>27</v>
+      </c>
+      <c r="L60" t="s">
+        <v>28</v>
+      </c>
+      <c r="M60" t="s">
+        <v>26</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="16"/>
+        <v>22</v>
+      </c>
+      <c r="O60" t="s">
+        <v>29</v>
+      </c>
+      <c r="P60" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c22").textContent = Cantor22;</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="15"/>
+        <v>23</v>
+      </c>
+      <c r="D61" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" t="s">
+        <v>184</v>
+      </c>
+      <c r="G61" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor23 = "príncipes y jefes del mundo.";</v>
+      </c>
+      <c r="K61" t="s">
+        <v>27</v>
+      </c>
+      <c r="L61" t="s">
+        <v>28</v>
+      </c>
+      <c r="M61" t="s">
+        <v>26</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="16"/>
+        <v>23</v>
+      </c>
+      <c r="O61" t="s">
+        <v>29</v>
+      </c>
+      <c r="P61" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c23").textContent = Cantor23;</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="15"/>
+        <v>24</v>
+      </c>
+      <c r="D62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" t="s">
+        <v>185</v>
+      </c>
+      <c r="G62" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" t="s">
+        <v>29</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor24 = "Los jóvenes";</v>
+      </c>
+      <c r="K62" t="s">
+        <v>27</v>
+      </c>
+      <c r="L62" t="s">
+        <v>28</v>
+      </c>
+      <c r="M62" t="s">
+        <v>26</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="16"/>
+        <v>24</v>
+      </c>
+      <c r="O62" t="s">
+        <v>29</v>
+      </c>
+      <c r="P62" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c24").textContent = Cantor24;</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="15"/>
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63" t="s">
+        <v>186</v>
+      </c>
+      <c r="G63" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" t="s">
+        <v>29</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor25 = "y también las doncellas,";</v>
+      </c>
+      <c r="K63" t="s">
+        <v>27</v>
+      </c>
+      <c r="L63" t="s">
+        <v>28</v>
+      </c>
+      <c r="M63" t="s">
+        <v>26</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="16"/>
+        <v>25</v>
+      </c>
+      <c r="O63" t="s">
+        <v>29</v>
+      </c>
+      <c r="P63" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c25").textContent = Cantor25;</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="15"/>
+        <v>26</v>
+      </c>
+      <c r="D64" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" t="s">
+        <v>187</v>
+      </c>
+      <c r="G64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" t="s">
+        <v>29</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor26 = "los viejos a una con los niños.";</v>
+      </c>
+      <c r="K64" t="s">
+        <v>27</v>
+      </c>
+      <c r="L64" t="s">
+        <v>28</v>
+      </c>
+      <c r="M64" t="s">
+        <v>26</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="16"/>
+        <v>26</v>
+      </c>
+      <c r="O64" t="s">
+        <v>29</v>
+      </c>
+      <c r="P64" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c26").textContent = Cantor26;</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="15"/>
+        <v>27</v>
+      </c>
+      <c r="D65" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" t="s">
+        <v>170</v>
+      </c>
+      <c r="G65" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" t="s">
+        <v>29</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor27 = "Alaben el nombre del Señor,";</v>
+      </c>
+      <c r="K65" t="s">
+        <v>27</v>
+      </c>
+      <c r="L65" t="s">
+        <v>28</v>
+      </c>
+      <c r="M65" t="s">
+        <v>26</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="16"/>
+        <v>27</v>
+      </c>
+      <c r="O65" t="s">
+        <v>29</v>
+      </c>
+      <c r="P65" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c27").textContent = Cantor27;</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="15"/>
+        <v>28</v>
+      </c>
+      <c r="D66" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" t="s">
+        <v>188</v>
+      </c>
+      <c r="G66" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" t="s">
+        <v>29</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor28 = "el único nombre sublime.";</v>
+      </c>
+      <c r="K66" t="s">
+        <v>27</v>
+      </c>
+      <c r="L66" t="s">
+        <v>28</v>
+      </c>
+      <c r="M66" t="s">
+        <v>26</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="16"/>
+        <v>28</v>
+      </c>
+      <c r="O66" t="s">
+        <v>29</v>
+      </c>
+      <c r="P66" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c28").textContent = Cantor28;</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="15"/>
+        <v>29</v>
+      </c>
+      <c r="D67" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" t="s">
+        <v>189</v>
+      </c>
+      <c r="G67" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" t="s">
+        <v>29</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor29 = "Su majestad,";</v>
+      </c>
+      <c r="K67" t="s">
+        <v>27</v>
+      </c>
+      <c r="L67" t="s">
+        <v>28</v>
+      </c>
+      <c r="M67" t="s">
+        <v>26</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="16"/>
+        <v>29</v>
+      </c>
+      <c r="O67" t="s">
+        <v>29</v>
+      </c>
+      <c r="P67" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c29").textContent = Cantor29;</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="15"/>
+        <v>30</v>
+      </c>
+      <c r="D68" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" t="s">
+        <v>190</v>
+      </c>
+      <c r="G68" t="s">
+        <v>26</v>
+      </c>
+      <c r="H68" t="s">
+        <v>29</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor30 = "sobre el cielo y la tierra,";</v>
+      </c>
+      <c r="K68" t="s">
+        <v>27</v>
+      </c>
+      <c r="L68" t="s">
+        <v>28</v>
+      </c>
+      <c r="M68" t="s">
+        <v>26</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="16"/>
+        <v>30</v>
+      </c>
+      <c r="O68" t="s">
+        <v>29</v>
+      </c>
+      <c r="P68" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c30").textContent = Cantor30;</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="15"/>
+        <v>31</v>
+      </c>
+      <c r="D69" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" t="s">
+        <v>191</v>
+      </c>
+      <c r="G69" t="s">
+        <v>26</v>
+      </c>
+      <c r="H69" t="s">
+        <v>29</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor31 = "Él da fuerza y vigor a su pueblo.";</v>
+      </c>
+      <c r="K69" t="s">
+        <v>27</v>
+      </c>
+      <c r="L69" t="s">
+        <v>28</v>
+      </c>
+      <c r="M69" t="s">
+        <v>26</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="16"/>
+        <v>31</v>
+      </c>
+      <c r="O69" t="s">
+        <v>29</v>
+      </c>
+      <c r="P69" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c31").textContent = Cantor31;</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="15"/>
+        <v>32</v>
+      </c>
+      <c r="D70" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" t="s">
+        <v>26</v>
+      </c>
+      <c r="F70" t="s">
+        <v>192</v>
+      </c>
+      <c r="G70" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" t="s">
+        <v>29</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor32 = "Alabanza de todos sus fieles,";</v>
+      </c>
+      <c r="K70" t="s">
+        <v>27</v>
+      </c>
+      <c r="L70" t="s">
+        <v>28</v>
+      </c>
+      <c r="M70" t="s">
+        <v>26</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="16"/>
+        <v>32</v>
+      </c>
+      <c r="O70" t="s">
+        <v>29</v>
+      </c>
+      <c r="P70" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c32").textContent = Cantor32;</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="15"/>
+        <v>33</v>
+      </c>
+      <c r="D71" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71" t="s">
+        <v>193</v>
+      </c>
+      <c r="G71" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71" t="s">
+        <v>29</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="13"/>
+        <v>let Cantor33 = "de Israel, su pueblo elegido.";</v>
+      </c>
+      <c r="K71" t="s">
+        <v>27</v>
+      </c>
+      <c r="L71" t="s">
+        <v>28</v>
+      </c>
+      <c r="M71" t="s">
+        <v>26</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="16"/>
+        <v>33</v>
+      </c>
+      <c r="O71" t="s">
+        <v>29</v>
+      </c>
+      <c r="P71" t="str">
+        <f t="shared" si="14"/>
+        <v>document.getElementById("c33").textContent = Cantor33;</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I73" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J74" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J75" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J76" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I78" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J79" t="str">
+        <f>P7</f>
+        <v>document.getElementById("a1").textContent = Asamblea1;</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J80" t="str">
+        <f>P8</f>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+      </c>
+    </row>
+    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J81" t="str">
+        <f>P9</f>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+      </c>
+    </row>
+    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J82" t="str">
+        <f>P10</f>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+      </c>
+    </row>
+    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J83" t="str">
+        <f>P11</f>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J84" t="str">
+        <f>P12</f>
+        <v>document.getElementById("a6").textContent = Asamblea6;</v>
+      </c>
+    </row>
+    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J85" t="str">
+        <f>P13</f>
+        <v>document.getElementById("a7").textContent = Asamblea7;</v>
+      </c>
+    </row>
+    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J86" t="str">
+        <f>P14</f>
+        <v>document.getElementById("a8").textContent = Asamblea8;</v>
+      </c>
+    </row>
+    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J87" t="str">
+        <f>P15</f>
+        <v>document.getElementById("a9").textContent = Asamblea9;</v>
+      </c>
+    </row>
+    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J88" t="str">
+        <f>P16</f>
+        <v>document.getElementById("a10").textContent = Asamblea10;</v>
+      </c>
+    </row>
+    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J89" t="str">
+        <f>P17</f>
+        <v>document.getElementById("a11").textContent = Asamblea11;</v>
+      </c>
+    </row>
+    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J90" t="str">
+        <f>P18</f>
+        <v>document.getElementById("a12").textContent = Asamblea12;</v>
+      </c>
+    </row>
+    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J91" t="str">
+        <f>P19</f>
+        <v>document.getElementById("a13").textContent = Asamblea13;</v>
+      </c>
+    </row>
+    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J92" t="str">
+        <f>P20</f>
+        <v>document.getElementById("a14").textContent = Asamblea14;</v>
+      </c>
+    </row>
+    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J93" t="str">
+        <f>P21</f>
+        <v>document.getElementById("a15").textContent = Asamblea15;</v>
+      </c>
+    </row>
+    <row r="94" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J94" t="str">
+        <f>P22</f>
+        <v>document.getElementById("a16").textContent = Asamblea16;</v>
+      </c>
+    </row>
+    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J95" t="str">
+        <f>P23</f>
+        <v>document.getElementById("a17").textContent = Asamblea17;</v>
+      </c>
+    </row>
+    <row r="96" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J96" t="str">
+        <f>P24</f>
+        <v>document.getElementById("a18").textContent = Asamblea18;</v>
+      </c>
+    </row>
+    <row r="97" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J97" t="str">
+        <f>P25</f>
+        <v>document.getElementById("a19").textContent = Asamblea19;</v>
+      </c>
+    </row>
+    <row r="98" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J98" t="str">
+        <f>P26</f>
+        <v>document.getElementById("a20").textContent = Asamblea20;</v>
+      </c>
+    </row>
+    <row r="99" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J99" t="str">
+        <f>P27</f>
+        <v>document.getElementById("a21").textContent = Asamblea21;</v>
+      </c>
+    </row>
+    <row r="100" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J100" t="str">
+        <f>P28</f>
+        <v>document.getElementById("a22").textContent = Asamblea22;</v>
+      </c>
+    </row>
+    <row r="101" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J101" t="str">
+        <f>P29</f>
+        <v>document.getElementById("a23").textContent = Asamblea23;</v>
+      </c>
+    </row>
+    <row r="102" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J102" t="str">
+        <f>P30</f>
+        <v>document.getElementById("a24").textContent = Asamblea24;</v>
+      </c>
+    </row>
+    <row r="103" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J103" t="str">
+        <f>P31</f>
+        <v>document.getElementById("a25").textContent = Asamblea25;</v>
+      </c>
+    </row>
+    <row r="104" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J104" t="str">
+        <f>P32</f>
+        <v>document.getElementById("a26").textContent = Asamblea26;</v>
+      </c>
+    </row>
+    <row r="105" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J105" t="str">
+        <f>P33</f>
+        <v>document.getElementById("a27").textContent = Asamblea27;</v>
+      </c>
+    </row>
+    <row r="106" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J106" t="str">
+        <f>P34</f>
+        <v>document.getElementById("a28").textContent = Asamblea28;</v>
+      </c>
+    </row>
+    <row r="107" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J107" t="str">
+        <f>P35</f>
+        <v>document.getElementById("a29").textContent = Asamblea29;</v>
+      </c>
+    </row>
+    <row r="108" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J108" t="str">
+        <f>P36</f>
+        <v>document.getElementById("a30").textContent = Asamblea30;</v>
+      </c>
+    </row>
+    <row r="110" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I110" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="111" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J111" t="str">
+        <f>P39</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="112" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J112" t="str">
+        <f>P40</f>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
+      </c>
+    </row>
+    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J113" t="str">
+        <f>P41</f>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J114" t="str">
+        <f>P42</f>
+        <v>document.getElementById("c4").textContent = Cantor4;</v>
+      </c>
+    </row>
+    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J115" t="str">
+        <f>P43</f>
+        <v>document.getElementById("c5").textContent = Cantor5;</v>
+      </c>
+    </row>
+    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J116" t="str">
+        <f>P44</f>
+        <v>document.getElementById("c6").textContent = Cantor6;</v>
+      </c>
+    </row>
+    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J117" t="str">
+        <f>P45</f>
+        <v>document.getElementById("c7").textContent = Cantor7;</v>
+      </c>
+    </row>
+    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J118" t="str">
+        <f>P46</f>
+        <v>document.getElementById("c8").textContent = Cantor8;</v>
+      </c>
+    </row>
+    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J119" t="str">
+        <f>P47</f>
+        <v>document.getElementById("c9").textContent = Cantor9;</v>
+      </c>
+    </row>
+    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J120" t="str">
+        <f>P48</f>
+        <v>document.getElementById("c10").textContent = Cantor10;</v>
+      </c>
+    </row>
+    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J121" t="str">
+        <f>P49</f>
+        <v>document.getElementById("c11").textContent = Cantor11;</v>
+      </c>
+    </row>
+    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J122" t="str">
+        <f>P50</f>
+        <v>document.getElementById("c12").textContent = Cantor12;</v>
+      </c>
+    </row>
+    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J123" t="str">
+        <f>P51</f>
+        <v>document.getElementById("c13").textContent = Cantor13;</v>
+      </c>
+    </row>
+    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J124" t="str">
+        <f>P52</f>
+        <v>document.getElementById("c14").textContent = Cantor14;</v>
+      </c>
+    </row>
+    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J125" t="str">
+        <f>P53</f>
+        <v>document.getElementById("c15").textContent = Cantor15;</v>
+      </c>
+    </row>
+    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J126" t="str">
+        <f>P54</f>
+        <v>document.getElementById("c16").textContent = Cantor16;</v>
+      </c>
+    </row>
+    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J127" t="str">
+        <f>P55</f>
+        <v>document.getElementById("c17").textContent = Cantor17;</v>
+      </c>
+    </row>
+    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J128" t="str">
+        <f>P56</f>
+        <v>document.getElementById("c18").textContent = Cantor18;</v>
+      </c>
+    </row>
+    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J129" t="str">
+        <f>P57</f>
+        <v>document.getElementById("c19").textContent = Cantor19;</v>
+      </c>
+    </row>
+    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J130" t="str">
+        <f>P58</f>
+        <v>document.getElementById("c20").textContent = Cantor20;</v>
+      </c>
+    </row>
+    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J131" t="str">
+        <f>P59</f>
+        <v>document.getElementById("c21").textContent = Cantor21;</v>
+      </c>
+    </row>
+    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J132" t="str">
+        <f>P60</f>
+        <v>document.getElementById("c22").textContent = Cantor22;</v>
+      </c>
+    </row>
+    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J133" t="str">
+        <f>P61</f>
+        <v>document.getElementById("c23").textContent = Cantor23;</v>
+      </c>
+    </row>
+    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J134" t="str">
+        <f>P62</f>
+        <v>document.getElementById("c24").textContent = Cantor24;</v>
+      </c>
+    </row>
+    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J135" t="str">
+        <f>P63</f>
+        <v>document.getElementById("c25").textContent = Cantor25;</v>
+      </c>
+    </row>
+    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J136" t="str">
+        <f>P64</f>
+        <v>document.getElementById("c26").textContent = Cantor26;</v>
+      </c>
+    </row>
+    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J137" t="str">
+        <f>P65</f>
+        <v>document.getElementById("c27").textContent = Cantor27;</v>
+      </c>
+    </row>
+    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J138" t="str">
+        <f>P66</f>
+        <v>document.getElementById("c28").textContent = Cantor28;</v>
+      </c>
+    </row>
+    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J139" t="str">
+        <f>P67</f>
+        <v>document.getElementById("c29").textContent = Cantor29;</v>
+      </c>
+    </row>
+    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J140" t="str">
+        <f>P68</f>
+        <v>document.getElementById("c30").textContent = Cantor30;</v>
+      </c>
+    </row>
+    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J141" t="str">
+        <f>P69</f>
+        <v>document.getElementById("c31").textContent = Cantor31;</v>
+      </c>
+    </row>
+    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J142" t="str">
+        <f>P70</f>
+        <v>document.getElementById("c32").textContent = Cantor32;</v>
+      </c>
+    </row>
+    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J143" t="str">
+        <f>P71</f>
+        <v>document.getElementById("c33").textContent = Cantor33;</v>
+      </c>
+    </row>
+    <row r="145" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I145" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/doc/codificador.xlsx
+++ b/src/doc/codificador.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\db\Github\cantos\src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465ADB74-AB73-4B72-9A01-F0361771ABC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB400C5-09F4-47D2-AF4D-DEA225609471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="8" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="9" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Aclamad al Señor" sheetId="7" r:id="rId7"/>
     <sheet name="Aclamad al Señor (2)" sheetId="8" r:id="rId8"/>
     <sheet name="ALABAD AL SEÑOR EN EL CIELO" sheetId="9" r:id="rId9"/>
+    <sheet name="ALEGRÍA, HA NACIDO EL SALVADOR" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,8 +44,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4176" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4363" uniqueCount="208">
   <si>
     <t>viviendo en pureza, paciencia y bondad;</t>
   </si>
@@ -484,9 +507,6 @@
     <t>me saciaré de tu rostro Señor.</t>
   </si>
   <si>
-    <t xml:space="preserve">ALABAD AL SEÑOR EN EL CIELO </t>
-  </si>
-  <si>
     <t>let titulo</t>
   </si>
   <si>
@@ -494,9 +514,6 @@
   </si>
   <si>
     <t>let salmo</t>
-  </si>
-  <si>
-    <t>Salmo 148</t>
   </si>
   <si>
     <t>let dbnos</t>
@@ -627,12 +644,60 @@
   <si>
     <t>de Israel, su pueblo elegido.</t>
   </si>
+  <si>
+    <t>Villancico</t>
+  </si>
+  <si>
+    <t>Un ángel vino del cielo trayendo una gran noticia,</t>
+  </si>
+  <si>
+    <t>UN ÁNGEL VINO DEL CIELO</t>
+  </si>
+  <si>
+    <t>TRAYENDO UNA GRAN NOTICIA:</t>
+  </si>
+  <si>
+    <t>«¡Hoy os ha nacido, os ha nacido el Salvador!»</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> «¡HOY OS HA NACIDO, OS HA NACIDO EL SALVADOR!»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡ALEGRÍA, ALEGRÍA, ALEGRÍA, </t>
+  </si>
+  <si>
+    <t>HA NACIDO EL SALVADOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACOSTADO EN UN PESEBRE! </t>
+  </si>
+  <si>
+    <t>¡ÉL ES EL CRISTO, EL SEÑOR!</t>
+  </si>
+  <si>
+    <t>¡Fajado con lindos pañales y acostado en un pesebre!</t>
+  </si>
+  <si>
+    <t>¡FAJADO CON LINDOS PAÑALES</t>
+  </si>
+  <si>
+    <t>Y ACOSTADO EN UN PESEBRE!</t>
+  </si>
+  <si>
+    <t>Esta será la señal de que Él, es el Señor.</t>
+  </si>
+  <si>
+    <t>ESTA SERÁ LA SEÑAL DE QUE ÉL, ES EL SEÑOR..</t>
+  </si>
+  <si>
+    <t>¡ALEGRÍA, ALEGRÍA, ALEGRÍA …</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,13 +705,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -661,8 +745,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -997,6 +1084,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D161BF-9A46-4806-B97F-1465BA763EEF}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:N29"/>
   <sheetViews>
     <sheetView topLeftCell="G9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -2242,8 +2330,1056 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B6819E-DA11-4D98-9374-A7D8841EED69}">
+  <sheetPr codeName="Sheet10"/>
+  <dimension ref="B1:P51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
+    <col min="6" max="6" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="4.42578125" customWidth="1"/>
+    <col min="10" max="10" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3" customWidth="1"/>
+    <col min="16" max="16" width="51.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="str">
+        <f ca="1">LOWER(SUBSTITUTE(SUBSTITUTE(F4, " ", ""), ",", ""))</f>
+        <v>alegríahanacidoelsalvador</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="str">
+        <f ca="1">(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F1, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"))</f>
+        <v>alegriahanacidoelsalvador</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="str">
+        <f ca="1">UPPER(LEFT(F4,1)) &amp; LOWER(MID(F4,2,LEN(F4)-1))</f>
+        <v>Alegría, ha nacido el salvador</v>
+      </c>
+      <c r="I3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="F4" ca="1">MID(CELL("filename", A3), FIND("]", CELL("filename", A3)) + 1, 255)</f>
+        <v>ALEGRÍA, HA NACIDO EL SALVADOR</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="str">
+        <f ca="1">_xlfn.CONCAT(B4," ",D4," ",E4,F4,G4,H4)</f>
+        <v>let titulo = "ALEGRÍA, HA NACIDO EL SALVADOR";</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N6" si="0">C4</f>
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K4,M4,"t",N4,M4,L4,".textContent = titulo",O4)</f>
+        <v>document.getElementById("t1").textContent = titulo;</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="str">
+        <f>_xlfn.CONCAT(B5," ",D5," ",E5,F5,G5,H5)</f>
+        <v>let salmo = "Villancico";</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" ref="P5:P6" si="1">_xlfn.CONCAT("document.getElementById",K5,M5,"c",N5,M5,L5,".textContent = Cantor",N5,O5)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <f>+'ALABAD AL SEÑOR EN EL CIELO'!F4+1</f>
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="str">
+        <f>_xlfn.CONCAT(B6," ",D6," ",E6,F6,G6,H6,"      //Numero del libro")</f>
+        <v>let dbnos = "31";      //Numero del libro</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="1"/>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>194</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" ref="J9:J19" si="2">_xlfn.CONCAT(B9,C9," ",D9," ",E9,F9,G9,H9)</f>
+        <v>let Asamblea1 = "UN ÁNGEL VINO DEL CIELO";</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:N19" si="3">C9</f>
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K9,M9,"a",N9,M9,L9,".textContent = Asamblea",N9,O9)</f>
+        <v>document.getElementById("a1").textContent = Asamblea1;</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C19" si="4">+C9+1</f>
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="2"/>
+        <v>let Asamblea2 = "TRAYENDO UNA GRAN NOTICIA:";</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" ref="P10:P19" si="5">_xlfn.CONCAT("document.getElementById",K10,M10,"a",N10,M10,L10,".textContent = Asamblea",N10,O10)</f>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="2"/>
+        <v>let Asamblea3 = " «¡HOY OS HA NACIDO, OS HA NACIDO EL SALVADOR!»";</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="2"/>
+        <v>let Asamblea4 = "¡ALEGRÍA, ALEGRÍA, ALEGRÍA, ";</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="O12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="2"/>
+        <v>let Asamblea5 = "HA NACIDO EL SALVADOR";</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>200</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="2"/>
+        <v>let Asamblea6 = "ACOSTADO EN UN PESEBRE! ";</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a6").textContent = Asamblea6;</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>201</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="2"/>
+        <v>let Asamblea7 = "¡ÉL ES EL CRISTO, EL SEÑOR!";</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="O15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a7").textContent = Asamblea7;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>203</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="2"/>
+        <v>let Asamblea8 = "¡FAJADO CON LINDOS PAÑALES";</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="O16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a8").textContent = Asamblea8;</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>204</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="2"/>
+        <v>let Asamblea9 = "Y ACOSTADO EN UN PESEBRE!";</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="O17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a9").textContent = Asamblea9;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>206</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="2"/>
+        <v>let Asamblea10 = "ESTA SERÁ LA SEÑAL DE QUE ÉL, ES EL SEÑOR..";</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="O18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a10").textContent = Asamblea10;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="2"/>
+        <v>let Asamblea11 = "¡ALEGRÍA, ALEGRÍA, ALEGRÍA …";</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="O19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a11").textContent = Asamblea11;</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="str">
+        <f>_xlfn.CONCAT(B22,C22," ",D22," ",E22,F22,G22,H22)</f>
+        <v>let Cantor1 = "Un ángel vino del cielo trayendo una gran noticia,";</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22">
+        <f>C22</f>
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K22,M22,"c",N22,M22,L22,".textContent = Cantor",N22,O22)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <f>+C22+1</f>
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" ref="J23:J25" si="6">_xlfn.CONCAT(B23,C23," ",D23," ",E23,F23,G23,H23)</f>
+        <v>let Cantor2 = "«¡Hoy os ha nacido, os ha nacido el Salvador!»";</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23">
+        <f>C23</f>
+        <v>2</v>
+      </c>
+      <c r="O23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" ref="P23:P25" si="7">_xlfn.CONCAT("document.getElementById",K23,M23,"c",N23,M23,L23,".textContent = Cantor",N23,O23)</f>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <f t="shared" ref="C24:C25" si="8">+C23+1</f>
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>202</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="6"/>
+        <v>let Cantor3 = "¡Fajado con lindos pañales y acostado en un pesebre!";</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24">
+        <f t="shared" ref="N24:N25" si="9">C24</f>
+        <v>3</v>
+      </c>
+      <c r="O24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>205</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="6"/>
+        <v>let Cantor4 = "Esta será la señal de que Él, es el Señor.";</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="O25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c4").textContent = Cantor4;</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J33" t="str">
+        <f>P9</f>
+        <v>document.getElementById("a1").textContent = Asamblea1;</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J34" t="str">
+        <f>P10</f>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+      </c>
+    </row>
+    <row r="35" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J35" t="str">
+        <f>P11</f>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+      </c>
+    </row>
+    <row r="36" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J36" t="str">
+        <f>P12</f>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+      </c>
+    </row>
+    <row r="37" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J37" t="str">
+        <f>P13</f>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="38" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J38" t="str">
+        <f>P14</f>
+        <v>document.getElementById("a6").textContent = Asamblea6;</v>
+      </c>
+    </row>
+    <row r="39" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J39" t="str">
+        <f>P15</f>
+        <v>document.getElementById("a7").textContent = Asamblea7;</v>
+      </c>
+    </row>
+    <row r="40" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J40" t="str">
+        <f>P16</f>
+        <v>document.getElementById("a8").textContent = Asamblea8;</v>
+      </c>
+    </row>
+    <row r="41" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J41" t="str">
+        <f>P17</f>
+        <v>document.getElementById("a9").textContent = Asamblea9;</v>
+      </c>
+    </row>
+    <row r="42" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J42" t="str">
+        <f>P18</f>
+        <v>document.getElementById("a10").textContent = Asamblea10;</v>
+      </c>
+    </row>
+    <row r="43" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J43" t="str">
+        <f>P19</f>
+        <v>document.getElementById("a11").textContent = Asamblea11;</v>
+      </c>
+    </row>
+    <row r="45" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J46" t="str">
+        <f>P22</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="47" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J47" t="str">
+        <f>P23</f>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
+      </c>
+    </row>
+    <row r="48" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J48" t="str">
+        <f>P24</f>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J49" t="str">
+        <f>P25</f>
+        <v>document.getElementById("c4").textContent = Cantor4;</v>
+      </c>
+    </row>
+    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FAC074-0309-4E16-A081-20233D9C2004}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:O48"/>
   <sheetViews>
     <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
@@ -4343,6 +5479,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAAA137-FAE9-4E0E-84AF-F3BE0D33E015}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="B1:O48"/>
   <sheetViews>
     <sheetView topLeftCell="D29" zoomScaleNormal="100" workbookViewId="0">
@@ -10989,6 +12126,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43D4B1B-CB7D-4001-A5E9-E2E4CEEFD63D}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="B1:O53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -13348,6 +14486,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAFCEA5-0592-4659-9A45-F545BD6A9380}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="B1:O53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -15713,9 +16852,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6657DC-60E8-46A1-B22F-0FD24184F242}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="B1:O57"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
@@ -18336,10 +19476,11 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B7D85A-549E-44B5-9CDC-8016415CF033}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="B1:P145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J145"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18360,12 +19501,12 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -18376,8 +19517,9 @@
       <c r="E2" t="s">
         <v>26</v>
       </c>
-      <c r="F2" t="s">
-        <v>146</v>
+      <c r="F2" t="str" cm="1">
+        <f t="array" aca="1" ref="F2" ca="1">MID(CELL("filename", A1), FIND("]", CELL("filename", A1)) + 1, 255)</f>
+        <v>ALABAD AL SEÑOR EN EL CIELO</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
@@ -18386,8 +19528,8 @@
         <v>29</v>
       </c>
       <c r="J2" t="str">
-        <f>_xlfn.CONCAT(B2," ",D2," ",E2,F2,G2,H2)</f>
-        <v>let titulo = "ALABAD AL SEÑOR EN EL CIELO ";</v>
+        <f ca="1">_xlfn.CONCAT(B2," ",D2," ",E2,F2,G2,H2)</f>
+        <v>let titulo = "ALABAD AL SEÑOR EN EL CIELO";</v>
       </c>
       <c r="K2" t="s">
         <v>27</v>
@@ -18412,7 +19554,7 @@
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -18424,7 +19566,7 @@
         <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="G3" t="s">
         <v>26</v>
@@ -18434,7 +19576,7 @@
       </c>
       <c r="J3" t="str">
         <f>_xlfn.CONCAT(B3," ",D3," ",E3,F3,G3,H3)</f>
-        <v>let salmo = "Salmo 148";</v>
+        <v>let salmo = "Villancico";</v>
       </c>
       <c r="K3" t="s">
         <v>27</v>
@@ -18459,7 +19601,7 @@
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -18506,7 +19648,7 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -18523,7 +19665,7 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G7" t="s">
         <v>26</v>
@@ -18532,7 +19674,7 @@
         <v>29</v>
       </c>
       <c r="J7" t="str">
-        <f>_xlfn.CONCAT(B7,C7," ",D7," ",E7,F7,G7,H7)</f>
+        <f t="shared" ref="J7:J25" si="2">_xlfn.CONCAT(B7,C7," ",D7," ",E7,F7,G7,H7)</f>
         <v>let Asamblea1 = "¡ALABADLO! ";</v>
       </c>
       <c r="K7" t="s">
@@ -18545,7 +19687,7 @@
         <v>26</v>
       </c>
       <c r="N7">
-        <f>C7</f>
+        <f t="shared" ref="N7:N25" si="3">C7</f>
         <v>1</v>
       </c>
       <c r="O7" t="s">
@@ -18561,7 +19703,7 @@
         <v>30</v>
       </c>
       <c r="C8">
-        <f>+C7+1</f>
+        <f t="shared" ref="C8:C16" si="4">+C7+1</f>
         <v>2</v>
       </c>
       <c r="D8" t="s">
@@ -18571,7 +19713,7 @@
         <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G8" t="s">
         <v>26</v>
@@ -18580,7 +19722,7 @@
         <v>29</v>
       </c>
       <c r="J8" t="str">
-        <f>_xlfn.CONCAT(B8,C8," ",D8," ",E8,F8,G8,H8)</f>
+        <f t="shared" si="2"/>
         <v>let Asamblea2 = "¡ALABADLO!";</v>
       </c>
       <c r="K8" t="s">
@@ -18593,14 +19735,14 @@
         <v>26</v>
       </c>
       <c r="N8">
-        <f>C8</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O8" t="s">
         <v>29</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" ref="P8:P31" si="2">_xlfn.CONCAT("document.getElementById",K8,M8,"a",N8,M8,L8,".textContent = Asamblea",N8,O8)</f>
+        <f t="shared" ref="P8:P31" si="5">_xlfn.CONCAT("document.getElementById",K8,M8,"a",N8,M8,L8,".textContent = Asamblea",N8,O8)</f>
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
@@ -18609,7 +19751,7 @@
         <v>30</v>
       </c>
       <c r="C9">
-        <f>+C8+1</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="D9" t="s">
@@ -18619,7 +19761,7 @@
         <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G9" t="s">
         <v>26</v>
@@ -18628,7 +19770,7 @@
         <v>29</v>
       </c>
       <c r="J9" t="str">
-        <f>_xlfn.CONCAT(B9,C9," ",D9," ",E9,F9,G9,H9)</f>
+        <f t="shared" si="2"/>
         <v>let Asamblea3 = "¡ALABADLO!";</v>
       </c>
       <c r="K9" t="s">
@@ -18641,14 +19783,14 @@
         <v>26</v>
       </c>
       <c r="N9">
-        <f>C9</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="O9" t="s">
         <v>29</v>
       </c>
       <c r="P9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
@@ -18657,7 +19799,7 @@
         <v>30</v>
       </c>
       <c r="C10">
-        <f>+C9+1</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D10" t="s">
@@ -18667,7 +19809,7 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G10" t="s">
         <v>26</v>
@@ -18676,7 +19818,7 @@
         <v>29</v>
       </c>
       <c r="J10" t="str">
-        <f>_xlfn.CONCAT(B10,C10," ",D10," ",E10,F10,G10,H10)</f>
+        <f t="shared" si="2"/>
         <v>let Asamblea4 = "¡ALABADLO!";</v>
       </c>
       <c r="K10" t="s">
@@ -18689,14 +19831,14 @@
         <v>26</v>
       </c>
       <c r="N10">
-        <f>C10</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="O10" t="s">
         <v>29</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
@@ -18705,7 +19847,7 @@
         <v>30</v>
       </c>
       <c r="C11">
-        <f>+C10+1</f>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="D11" t="s">
@@ -18715,7 +19857,7 @@
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G11" t="s">
         <v>26</v>
@@ -18724,7 +19866,7 @@
         <v>29</v>
       </c>
       <c r="J11" t="str">
-        <f>_xlfn.CONCAT(B11,C11," ",D11," ",E11,F11,G11,H11)</f>
+        <f t="shared" si="2"/>
         <v>let Asamblea5 = "¡ALABADLO!";</v>
       </c>
       <c r="K11" t="s">
@@ -18737,14 +19879,14 @@
         <v>26</v>
       </c>
       <c r="N11">
-        <f>C11</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="O11" t="s">
         <v>29</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
@@ -18753,7 +19895,7 @@
         <v>30</v>
       </c>
       <c r="C12">
-        <f>+C11+1</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="D12" t="s">
@@ -18763,7 +19905,7 @@
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G12" t="s">
         <v>26</v>
@@ -18772,7 +19914,7 @@
         <v>29</v>
       </c>
       <c r="J12" t="str">
-        <f>_xlfn.CONCAT(B12,C12," ",D12," ",E12,F12,G12,H12)</f>
+        <f t="shared" si="2"/>
         <v>let Asamblea6 = "¡ALABADLO!";</v>
       </c>
       <c r="K12" t="s">
@@ -18785,14 +19927,14 @@
         <v>26</v>
       </c>
       <c r="N12">
-        <f>C12</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="O12" t="s">
         <v>29</v>
       </c>
       <c r="P12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
@@ -18801,7 +19943,7 @@
         <v>30</v>
       </c>
       <c r="C13">
-        <f>+C12+1</f>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="D13" t="s">
@@ -18811,7 +19953,7 @@
         <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G13" t="s">
         <v>26</v>
@@ -18820,7 +19962,7 @@
         <v>29</v>
       </c>
       <c r="J13" t="str">
-        <f>_xlfn.CONCAT(B13,C13," ",D13," ",E13,F13,G13,H13)</f>
+        <f t="shared" si="2"/>
         <v>let Asamblea7 = "¡ALABADLO!";</v>
       </c>
       <c r="K13" t="s">
@@ -18833,14 +19975,14 @@
         <v>26</v>
       </c>
       <c r="N13">
-        <f>C13</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="O13" t="s">
         <v>29</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
@@ -18849,7 +19991,7 @@
         <v>30</v>
       </c>
       <c r="C14">
-        <f>+C13+1</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="D14" t="s">
@@ -18859,7 +20001,7 @@
         <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
@@ -18868,7 +20010,7 @@
         <v>29</v>
       </c>
       <c r="J14" t="str">
-        <f>_xlfn.CONCAT(B14,C14," ",D14," ",E14,F14,G14,H14)</f>
+        <f t="shared" si="2"/>
         <v>let Asamblea8 = "¡ALABADLO!";</v>
       </c>
       <c r="K14" t="s">
@@ -18881,14 +20023,14 @@
         <v>26</v>
       </c>
       <c r="N14">
-        <f>C14</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="O14" t="s">
         <v>29</v>
       </c>
       <c r="P14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
@@ -18897,7 +20039,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <f>+C14+1</f>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="D15" t="s">
@@ -18907,7 +20049,7 @@
         <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
         <v>26</v>
@@ -18916,7 +20058,7 @@
         <v>29</v>
       </c>
       <c r="J15" t="str">
-        <f>_xlfn.CONCAT(B15,C15," ",D15," ",E15,F15,G15,H15)</f>
+        <f t="shared" si="2"/>
         <v>let Asamblea9 = "¡ALABADLO!";</v>
       </c>
       <c r="K15" t="s">
@@ -18929,14 +20071,14 @@
         <v>26</v>
       </c>
       <c r="N15">
-        <f>C15</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="O15" t="s">
         <v>29</v>
       </c>
       <c r="P15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
@@ -18945,7 +20087,7 @@
         <v>30</v>
       </c>
       <c r="C16">
-        <f>+C15+1</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D16" t="s">
@@ -18955,7 +20097,7 @@
         <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
         <v>26</v>
@@ -18964,7 +20106,7 @@
         <v>29</v>
       </c>
       <c r="J16" t="str">
-        <f>_xlfn.CONCAT(B16,C16," ",D16," ",E16,F16,G16,H16)</f>
+        <f t="shared" si="2"/>
         <v>let Asamblea10 = "¡ALABADLO!";</v>
       </c>
       <c r="K16" t="s">
@@ -18977,14 +20119,14 @@
         <v>26</v>
       </c>
       <c r="N16">
-        <f>C16</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="O16" t="s">
         <v>29</v>
       </c>
       <c r="P16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
@@ -18993,7 +20135,7 @@
         <v>30</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:C36" si="3">+C16+1</f>
+        <f t="shared" ref="C17:C36" si="6">+C16+1</f>
         <v>11</v>
       </c>
       <c r="D17" t="s">
@@ -19003,7 +20145,7 @@
         <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
         <v>26</v>
@@ -19012,7 +20154,7 @@
         <v>29</v>
       </c>
       <c r="J17" t="str">
-        <f>_xlfn.CONCAT(B17,C17," ",D17," ",E17,F17,G17,H17)</f>
+        <f t="shared" si="2"/>
         <v>let Asamblea11 = "¡ALABADLO!";</v>
       </c>
       <c r="K17" t="s">
@@ -19025,14 +20167,14 @@
         <v>26</v>
       </c>
       <c r="N17">
-        <f>C17</f>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="O17" t="s">
         <v>29</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
@@ -19041,7 +20183,7 @@
         <v>30</v>
       </c>
       <c r="C18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="D18" t="s">
@@ -19051,7 +20193,7 @@
         <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G18" t="s">
         <v>26</v>
@@ -19060,7 +20202,7 @@
         <v>29</v>
       </c>
       <c r="J18" t="str">
-        <f>_xlfn.CONCAT(B18,C18," ",D18," ",E18,F18,G18,H18)</f>
+        <f t="shared" si="2"/>
         <v>let Asamblea12 = "¡ALABADLO!";</v>
       </c>
       <c r="K18" t="s">
@@ -19073,14 +20215,14 @@
         <v>26</v>
       </c>
       <c r="N18">
-        <f>C18</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="O18" t="s">
         <v>29</v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
@@ -19089,7 +20231,7 @@
         <v>30</v>
       </c>
       <c r="C19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="D19" t="s">
@@ -19099,7 +20241,7 @@
         <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G19" t="s">
         <v>26</v>
@@ -19108,7 +20250,7 @@
         <v>29</v>
       </c>
       <c r="J19" t="str">
-        <f>_xlfn.CONCAT(B19,C19," ",D19," ",E19,F19,G19,H19)</f>
+        <f t="shared" si="2"/>
         <v>let Asamblea13 = "¡ALABADLO!";</v>
       </c>
       <c r="K19" t="s">
@@ -19121,14 +20263,14 @@
         <v>26</v>
       </c>
       <c r="N19">
-        <f>C19</f>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="O19" t="s">
         <v>29</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
@@ -19137,7 +20279,7 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="D20" t="s">
@@ -19147,7 +20289,7 @@
         <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G20" t="s">
         <v>26</v>
@@ -19156,7 +20298,7 @@
         <v>29</v>
       </c>
       <c r="J20" t="str">
-        <f>_xlfn.CONCAT(B20,C20," ",D20," ",E20,F20,G20,H20)</f>
+        <f t="shared" si="2"/>
         <v>let Asamblea14 = "¡ALABADLO!";</v>
       </c>
       <c r="K20" t="s">
@@ -19169,14 +20311,14 @@
         <v>26</v>
       </c>
       <c r="N20">
-        <f>C20</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="O20" t="s">
         <v>29</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
@@ -19185,7 +20327,7 @@
         <v>30</v>
       </c>
       <c r="C21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="D21" t="s">
@@ -19195,7 +20337,7 @@
         <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
@@ -19204,7 +20346,7 @@
         <v>29</v>
       </c>
       <c r="J21" t="str">
-        <f>_xlfn.CONCAT(B21,C21," ",D21," ",E21,F21,G21,H21)</f>
+        <f t="shared" si="2"/>
         <v>let Asamblea15 = "¡ALABADLO!";</v>
       </c>
       <c r="K21" t="s">
@@ -19217,14 +20359,14 @@
         <v>26</v>
       </c>
       <c r="N21">
-        <f>C21</f>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="O21" t="s">
         <v>29</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
@@ -19233,7 +20375,7 @@
         <v>30</v>
       </c>
       <c r="C22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="D22" t="s">
@@ -19243,7 +20385,7 @@
         <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
@@ -19252,7 +20394,7 @@
         <v>29</v>
       </c>
       <c r="J22" t="str">
-        <f>_xlfn.CONCAT(B22,C22," ",D22," ",E22,F22,G22,H22)</f>
+        <f t="shared" si="2"/>
         <v>let Asamblea16 = "¡ALABADLO!";</v>
       </c>
       <c r="K22" t="s">
@@ -19265,14 +20407,14 @@
         <v>26</v>
       </c>
       <c r="N22">
-        <f>C22</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="O22" t="s">
         <v>29</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>document.getElementById("a16").textContent = Asamblea16;</v>
       </c>
     </row>
@@ -19281,7 +20423,7 @@
         <v>30</v>
       </c>
       <c r="C23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="D23" t="s">
@@ -19291,7 +20433,7 @@
         <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G23" t="s">
         <v>26</v>
@@ -19300,7 +20442,7 @@
         <v>29</v>
       </c>
       <c r="J23" t="str">
-        <f>_xlfn.CONCAT(B23,C23," ",D23," ",E23,F23,G23,H23)</f>
+        <f t="shared" si="2"/>
         <v>let Asamblea17 = "¡ALABADLO!";</v>
       </c>
       <c r="K23" t="s">
@@ -19313,14 +20455,14 @@
         <v>26</v>
       </c>
       <c r="N23">
-        <f>C23</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="O23" t="s">
         <v>29</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>document.getElementById("a17").textContent = Asamblea17;</v>
       </c>
     </row>
@@ -19329,7 +20471,7 @@
         <v>30</v>
       </c>
       <c r="C24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="D24" t="s">
@@ -19339,7 +20481,7 @@
         <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G24" t="s">
         <v>26</v>
@@ -19348,7 +20490,7 @@
         <v>29</v>
       </c>
       <c r="J24" t="str">
-        <f>_xlfn.CONCAT(B24,C24," ",D24," ",E24,F24,G24,H24)</f>
+        <f t="shared" si="2"/>
         <v>let Asamblea18 = "¡ALABADLO!";</v>
       </c>
       <c r="K24" t="s">
@@ -19361,14 +20503,14 @@
         <v>26</v>
       </c>
       <c r="N24">
-        <f>C24</f>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="O24" t="s">
         <v>29</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
@@ -19377,7 +20519,7 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="D25" t="s">
@@ -19387,7 +20529,7 @@
         <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G25" t="s">
         <v>26</v>
@@ -19396,7 +20538,7 @@
         <v>29</v>
       </c>
       <c r="J25" t="str">
-        <f>_xlfn.CONCAT(B25,C25," ",D25," ",E25,F25,G25,H25)</f>
+        <f t="shared" si="2"/>
         <v>let Asamblea19 = "¡ALABADLO!";</v>
       </c>
       <c r="K25" t="s">
@@ -19409,14 +20551,14 @@
         <v>26</v>
       </c>
       <c r="N25">
-        <f>C25</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="O25" t="s">
         <v>29</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>document.getElementById("a19").textContent = Asamblea19;</v>
       </c>
     </row>
@@ -19425,7 +20567,7 @@
         <v>30</v>
       </c>
       <c r="C26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="D26" t="s">
@@ -19435,7 +20577,7 @@
         <v>26</v>
       </c>
       <c r="F26" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G26" t="s">
         <v>26</v>
@@ -19444,7 +20586,7 @@
         <v>29</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" ref="J26:J30" si="4">_xlfn.CONCAT(B26,C26," ",D26," ",E26,F26,G26,H26)</f>
+        <f t="shared" ref="J26:J30" si="7">_xlfn.CONCAT(B26,C26," ",D26," ",E26,F26,G26,H26)</f>
         <v>let Asamblea20 = "¡ALABADLO!";</v>
       </c>
       <c r="K26" t="s">
@@ -19457,14 +20599,14 @@
         <v>26</v>
       </c>
       <c r="N26">
-        <f t="shared" ref="N26:N30" si="5">C26</f>
+        <f t="shared" ref="N26:N30" si="8">C26</f>
         <v>20</v>
       </c>
       <c r="O26" t="s">
         <v>29</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" ref="P26:P30" si="6">_xlfn.CONCAT("document.getElementById",K26,M26,"a",N26,M26,L26,".textContent = Asamblea",N26,O26)</f>
+        <f t="shared" ref="P26:P30" si="9">_xlfn.CONCAT("document.getElementById",K26,M26,"a",N26,M26,L26,".textContent = Asamblea",N26,O26)</f>
         <v>document.getElementById("a20").textContent = Asamblea20;</v>
       </c>
     </row>
@@ -19473,7 +20615,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="D27" t="s">
@@ -19483,7 +20625,7 @@
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G27" t="s">
         <v>26</v>
@@ -19492,7 +20634,7 @@
         <v>29</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>let Asamblea21 = "¡ALABADLO!";</v>
       </c>
       <c r="K27" t="s">
@@ -19505,14 +20647,14 @@
         <v>26</v>
       </c>
       <c r="N27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="O27" t="s">
         <v>29</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>document.getElementById("a21").textContent = Asamblea21;</v>
       </c>
     </row>
@@ -19521,7 +20663,7 @@
         <v>30</v>
       </c>
       <c r="C28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="D28" t="s">
@@ -19531,7 +20673,7 @@
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G28" t="s">
         <v>26</v>
@@ -19540,7 +20682,7 @@
         <v>29</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>let Asamblea22 = "¡ALABADLO!";</v>
       </c>
       <c r="K28" t="s">
@@ -19553,14 +20695,14 @@
         <v>26</v>
       </c>
       <c r="N28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="O28" t="s">
         <v>29</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>document.getElementById("a22").textContent = Asamblea22;</v>
       </c>
     </row>
@@ -19569,7 +20711,7 @@
         <v>30</v>
       </c>
       <c r="C29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="D29" t="s">
@@ -19579,7 +20721,7 @@
         <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G29" t="s">
         <v>26</v>
@@ -19588,7 +20730,7 @@
         <v>29</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>let Asamblea23 = "¡ALABADLO!";</v>
       </c>
       <c r="K29" t="s">
@@ -19601,14 +20743,14 @@
         <v>26</v>
       </c>
       <c r="N29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="O29" t="s">
         <v>29</v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>document.getElementById("a23").textContent = Asamblea23;</v>
       </c>
     </row>
@@ -19617,7 +20759,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="D30" t="s">
@@ -19627,7 +20769,7 @@
         <v>26</v>
       </c>
       <c r="F30" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G30" t="s">
         <v>26</v>
@@ -19636,7 +20778,7 @@
         <v>29</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>let Asamblea24 = "¡ALABADLO!";</v>
       </c>
       <c r="K30" t="s">
@@ -19649,14 +20791,14 @@
         <v>26</v>
       </c>
       <c r="N30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="O30" t="s">
         <v>29</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>document.getElementById("a24").textContent = Asamblea24;</v>
       </c>
     </row>
@@ -19665,7 +20807,7 @@
         <v>30</v>
       </c>
       <c r="C31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="D31" t="s">
@@ -19675,7 +20817,7 @@
         <v>26</v>
       </c>
       <c r="F31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G31" t="s">
         <v>26</v>
@@ -19704,7 +20846,7 @@
         <v>29</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>document.getElementById("a25").textContent = Asamblea25;</v>
       </c>
     </row>
@@ -19713,7 +20855,7 @@
         <v>30</v>
       </c>
       <c r="C32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="D32" t="s">
@@ -19723,7 +20865,7 @@
         <v>26</v>
       </c>
       <c r="F32" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G32" t="s">
         <v>26</v>
@@ -19732,7 +20874,7 @@
         <v>29</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" ref="J32:J35" si="7">_xlfn.CONCAT(B32,C32," ",D32," ",E32,F32,G32,H32)</f>
+        <f t="shared" ref="J32:J35" si="10">_xlfn.CONCAT(B32,C32," ",D32," ",E32,F32,G32,H32)</f>
         <v>let Asamblea26 = "¡ALABADLO!";</v>
       </c>
       <c r="K32" t="s">
@@ -19745,14 +20887,14 @@
         <v>26</v>
       </c>
       <c r="N32">
-        <f t="shared" ref="N32:N35" si="8">C32</f>
+        <f t="shared" ref="N32:N35" si="11">C32</f>
         <v>26</v>
       </c>
       <c r="O32" t="s">
         <v>29</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" ref="P32:P35" si="9">_xlfn.CONCAT("document.getElementById",K32,M32,"a",N32,M32,L32,".textContent = Asamblea",N32,O32)</f>
+        <f t="shared" ref="P32:P35" si="12">_xlfn.CONCAT("document.getElementById",K32,M32,"a",N32,M32,L32,".textContent = Asamblea",N32,O32)</f>
         <v>document.getElementById("a26").textContent = Asamblea26;</v>
       </c>
     </row>
@@ -19761,7 +20903,7 @@
         <v>30</v>
       </c>
       <c r="C33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="D33" t="s">
@@ -19771,7 +20913,7 @@
         <v>26</v>
       </c>
       <c r="F33" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G33" t="s">
         <v>26</v>
@@ -19780,7 +20922,7 @@
         <v>29</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>let Asamblea27 = "¡ALABADLO!";</v>
       </c>
       <c r="K33" t="s">
@@ -19793,14 +20935,14 @@
         <v>26</v>
       </c>
       <c r="N33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="O33" t="s">
         <v>29</v>
       </c>
       <c r="P33" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("a27").textContent = Asamblea27;</v>
       </c>
     </row>
@@ -19809,7 +20951,7 @@
         <v>30</v>
       </c>
       <c r="C34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="D34" t="s">
@@ -19819,7 +20961,7 @@
         <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G34" t="s">
         <v>26</v>
@@ -19828,7 +20970,7 @@
         <v>29</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>let Asamblea28 = "¡ALABADLO!";</v>
       </c>
       <c r="K34" t="s">
@@ -19841,14 +20983,14 @@
         <v>26</v>
       </c>
       <c r="N34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="O34" t="s">
         <v>29</v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("a28").textContent = Asamblea28;</v>
       </c>
     </row>
@@ -19857,7 +20999,7 @@
         <v>30</v>
       </c>
       <c r="C35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="D35" t="s">
@@ -19867,7 +21009,7 @@
         <v>26</v>
       </c>
       <c r="F35" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G35" t="s">
         <v>26</v>
@@ -19876,7 +21018,7 @@
         <v>29</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>let Asamblea29 = "¡ALABADLO!";</v>
       </c>
       <c r="K35" t="s">
@@ -19889,14 +21031,14 @@
         <v>26</v>
       </c>
       <c r="N35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
       <c r="O35" t="s">
         <v>29</v>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("a29").textContent = Asamblea29;</v>
       </c>
     </row>
@@ -19905,7 +21047,7 @@
         <v>30</v>
       </c>
       <c r="C36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="D36" t="s">
@@ -19915,7 +21057,7 @@
         <v>26</v>
       </c>
       <c r="F36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G36" t="s">
         <v>26</v>
@@ -19924,7 +21066,7 @@
         <v>29</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" ref="J36" si="10">_xlfn.CONCAT(B36,C36," ",D36," ",E36,F36,G36,H36)</f>
+        <f t="shared" ref="J36" si="13">_xlfn.CONCAT(B36,C36," ",D36," ",E36,F36,G36,H36)</f>
         <v>let Asamblea30 = "¡ALABADLO!";</v>
       </c>
       <c r="K36" t="s">
@@ -19937,20 +21079,20 @@
         <v>26</v>
       </c>
       <c r="N36">
-        <f t="shared" ref="N36" si="11">C36</f>
+        <f t="shared" ref="N36" si="14">C36</f>
         <v>30</v>
       </c>
       <c r="O36" t="s">
         <v>29</v>
       </c>
       <c r="P36" t="str">
-        <f t="shared" ref="P36" si="12">_xlfn.CONCAT("document.getElementById",K36,M36,"a",N36,M36,L36,".textContent = Asamblea",N36,O36)</f>
+        <f t="shared" ref="P36" si="15">_xlfn.CONCAT("document.getElementById",K36,M36,"a",N36,M36,L36,".textContent = Asamblea",N36,O36)</f>
         <v>document.getElementById("a30").textContent = Asamblea30;</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I38" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
@@ -19967,7 +21109,7 @@
         <v>26</v>
       </c>
       <c r="F39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G39" t="s">
         <v>26</v>
@@ -20015,7 +21157,7 @@
         <v>26</v>
       </c>
       <c r="F40" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G40" t="s">
         <v>26</v>
@@ -20024,7 +21166,7 @@
         <v>29</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" ref="J40:J71" si="13">_xlfn.CONCAT(B40,C40," ",D40," ",E40,F40,G40,H40)</f>
+        <f t="shared" ref="J40:J71" si="16">_xlfn.CONCAT(B40,C40," ",D40," ",E40,F40,G40,H40)</f>
         <v>let Cantor2 = "alabad al Señor en lo alto,";</v>
       </c>
       <c r="K40" t="s">
@@ -20044,7 +21186,7 @@
         <v>29</v>
       </c>
       <c r="P40" t="str">
-        <f t="shared" ref="P40:P71" si="14">_xlfn.CONCAT("document.getElementById",K40,M40,"c",N40,M40,L40,".textContent = Cantor",N40,O40)</f>
+        <f t="shared" ref="P40:P71" si="17">_xlfn.CONCAT("document.getElementById",K40,M40,"c",N40,M40,L40,".textContent = Cantor",N40,O40)</f>
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
@@ -20053,7 +21195,7 @@
         <v>25</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:C71" si="15">+C40+1</f>
+        <f t="shared" ref="C41:C71" si="18">+C40+1</f>
         <v>3</v>
       </c>
       <c r="D41" t="s">
@@ -20063,7 +21205,7 @@
         <v>26</v>
       </c>
       <c r="F41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G41" t="s">
         <v>26</v>
@@ -20072,7 +21214,7 @@
         <v>29</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor3 = "alabadlo, todos sus ángeles,";</v>
       </c>
       <c r="K41" t="s">
@@ -20085,14 +21227,14 @@
         <v>26</v>
       </c>
       <c r="N41">
-        <f t="shared" ref="N41:N71" si="16">C41</f>
+        <f t="shared" ref="N41:N71" si="19">C41</f>
         <v>3</v>
       </c>
       <c r="O41" t="s">
         <v>29</v>
       </c>
       <c r="P41" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
@@ -20101,7 +21243,7 @@
         <v>25</v>
       </c>
       <c r="C42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="D42" t="s">
@@ -20111,7 +21253,7 @@
         <v>26</v>
       </c>
       <c r="F42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G42" t="s">
         <v>26</v>
@@ -20120,7 +21262,7 @@
         <v>29</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor4 = "alabadlo, todos sus ejércitos!";</v>
       </c>
       <c r="K42" t="s">
@@ -20133,14 +21275,14 @@
         <v>26</v>
       </c>
       <c r="N42">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="O42" t="s">
         <v>29</v>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
@@ -20149,7 +21291,7 @@
         <v>25</v>
       </c>
       <c r="C43">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="D43" t="s">
@@ -20159,7 +21301,7 @@
         <v>26</v>
       </c>
       <c r="F43" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G43" t="s">
         <v>26</v>
@@ -20168,7 +21310,7 @@
         <v>29</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor5 = "Alabadlo, sol y luna,";</v>
       </c>
       <c r="K43" t="s">
@@ -20181,14 +21323,14 @@
         <v>26</v>
       </c>
       <c r="N43">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="O43" t="s">
         <v>29</v>
       </c>
       <c r="P43" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
@@ -20197,7 +21339,7 @@
         <v>25</v>
       </c>
       <c r="C44">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="D44" t="s">
@@ -20207,7 +21349,7 @@
         <v>26</v>
       </c>
       <c r="F44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G44" t="s">
         <v>26</v>
@@ -20216,7 +21358,7 @@
         <v>29</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor6 = "alabadlo, estrellas lucientes.";</v>
       </c>
       <c r="K44" t="s">
@@ -20229,14 +21371,14 @@
         <v>26</v>
       </c>
       <c r="N44">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="O44" t="s">
         <v>29</v>
       </c>
       <c r="P44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
@@ -20245,7 +21387,7 @@
         <v>25</v>
       </c>
       <c r="C45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="D45" t="s">
@@ -20255,7 +21397,7 @@
         <v>26</v>
       </c>
       <c r="F45" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G45" t="s">
         <v>26</v>
@@ -20264,7 +21406,7 @@
         <v>29</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor7 = "Alabadlo, espacios celestes";</v>
       </c>
       <c r="K45" t="s">
@@ -20277,14 +21419,14 @@
         <v>26</v>
       </c>
       <c r="N45">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="O45" t="s">
         <v>29</v>
       </c>
       <c r="P45" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
@@ -20293,7 +21435,7 @@
         <v>25</v>
       </c>
       <c r="C46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
       <c r="D46" t="s">
@@ -20303,7 +21445,7 @@
         <v>26</v>
       </c>
       <c r="F46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G46" t="s">
         <v>26</v>
@@ -20312,7 +21454,7 @@
         <v>29</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor8 = "y aguas que cuelgan en el cielo.";</v>
       </c>
       <c r="K46" t="s">
@@ -20325,14 +21467,14 @@
         <v>26</v>
       </c>
       <c r="N46">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="O46" t="s">
         <v>29</v>
       </c>
       <c r="P46" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
@@ -20341,7 +21483,7 @@
         <v>25</v>
       </c>
       <c r="C47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
       <c r="D47" t="s">
@@ -20351,7 +21493,7 @@
         <v>26</v>
       </c>
       <c r="F47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G47" t="s">
         <v>26</v>
@@ -20360,7 +21502,7 @@
         <v>29</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor9 = "Alaben el nombre del Señor,";</v>
       </c>
       <c r="K47" t="s">
@@ -20373,14 +21515,14 @@
         <v>26</v>
       </c>
       <c r="N47">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="O47" t="s">
         <v>29</v>
       </c>
       <c r="P47" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
@@ -20389,7 +21531,7 @@
         <v>25</v>
       </c>
       <c r="C48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
       <c r="D48" t="s">
@@ -20399,7 +21541,7 @@
         <v>26</v>
       </c>
       <c r="F48" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G48" t="s">
         <v>26</v>
@@ -20408,7 +21550,7 @@
         <v>29</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor10 = "porque Él lo mandó, y existieron.";</v>
       </c>
       <c r="K48" t="s">
@@ -20421,14 +21563,14 @@
         <v>26</v>
       </c>
       <c r="N48">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="O48" t="s">
         <v>29</v>
       </c>
       <c r="P48" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
@@ -20437,7 +21579,7 @@
         <v>25</v>
       </c>
       <c r="C49">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
       <c r="D49" t="s">
@@ -20447,7 +21589,7 @@
         <v>26</v>
       </c>
       <c r="F49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G49" t="s">
         <v>26</v>
@@ -20456,7 +21598,7 @@
         <v>29</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor11 = "Les dio consistencia perpetua";</v>
       </c>
       <c r="K49" t="s">
@@ -20469,14 +21611,14 @@
         <v>26</v>
       </c>
       <c r="N49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="O49" t="s">
         <v>29</v>
       </c>
       <c r="P49" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
@@ -20485,7 +21627,7 @@
         <v>25</v>
       </c>
       <c r="C50">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="D50" t="s">
@@ -20495,7 +21637,7 @@
         <v>26</v>
       </c>
       <c r="F50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G50" t="s">
         <v>26</v>
@@ -20504,7 +21646,7 @@
         <v>29</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor12 = "y una ley que no pasará.";</v>
       </c>
       <c r="K50" t="s">
@@ -20517,14 +21659,14 @@
         <v>26</v>
       </c>
       <c r="N50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
       <c r="O50" t="s">
         <v>29</v>
       </c>
       <c r="P50" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
@@ -20533,7 +21675,7 @@
         <v>25</v>
       </c>
       <c r="C51">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>13</v>
       </c>
       <c r="D51" t="s">
@@ -20543,7 +21685,7 @@
         <v>26</v>
       </c>
       <c r="F51" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G51" t="s">
         <v>26</v>
@@ -20552,7 +21694,7 @@
         <v>29</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor13 = "Alabad al Señor en la tierra,";</v>
       </c>
       <c r="K51" t="s">
@@ -20565,14 +21707,14 @@
         <v>26</v>
       </c>
       <c r="N51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>13</v>
       </c>
       <c r="O51" t="s">
         <v>29</v>
       </c>
       <c r="P51" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
@@ -20581,7 +21723,7 @@
         <v>25</v>
       </c>
       <c r="C52">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
       <c r="D52" t="s">
@@ -20591,7 +21733,7 @@
         <v>26</v>
       </c>
       <c r="F52" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G52" t="s">
         <v>26</v>
@@ -20600,7 +21742,7 @@
         <v>29</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor14 = "cetáceos y abismos del mar.";</v>
       </c>
       <c r="K52" t="s">
@@ -20613,14 +21755,14 @@
         <v>26</v>
       </c>
       <c r="N52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
       <c r="O52" t="s">
         <v>29</v>
       </c>
       <c r="P52" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
@@ -20629,7 +21771,7 @@
         <v>25</v>
       </c>
       <c r="C53">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="D53" t="s">
@@ -20639,7 +21781,7 @@
         <v>26</v>
       </c>
       <c r="F53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G53" t="s">
         <v>26</v>
@@ -20648,7 +21790,7 @@
         <v>29</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor15 = "Rayos, granizo, nieve y bruma,";</v>
       </c>
       <c r="K53" t="s">
@@ -20661,14 +21803,14 @@
         <v>26</v>
       </c>
       <c r="N53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="O53" t="s">
         <v>29</v>
       </c>
       <c r="P53" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
@@ -20677,7 +21819,7 @@
         <v>25</v>
       </c>
       <c r="C54">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="D54" t="s">
@@ -20687,7 +21829,7 @@
         <v>26</v>
       </c>
       <c r="F54" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G54" t="s">
         <v>26</v>
@@ -20696,7 +21838,7 @@
         <v>29</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor16 = "viento huracanado";</v>
       </c>
       <c r="K54" t="s">
@@ -20709,14 +21851,14 @@
         <v>26</v>
       </c>
       <c r="N54">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="O54" t="s">
         <v>29</v>
       </c>
       <c r="P54" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
@@ -20725,7 +21867,7 @@
         <v>25</v>
       </c>
       <c r="C55">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>17</v>
       </c>
       <c r="D55" t="s">
@@ -20735,7 +21877,7 @@
         <v>26</v>
       </c>
       <c r="F55" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G55" t="s">
         <v>26</v>
@@ -20744,7 +21886,7 @@
         <v>29</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor17 = "que cumple sus órdenes.";</v>
       </c>
       <c r="K55" t="s">
@@ -20757,14 +21899,14 @@
         <v>26</v>
       </c>
       <c r="N55">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
       <c r="O55" t="s">
         <v>29</v>
       </c>
       <c r="P55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c17").textContent = Cantor17;</v>
       </c>
     </row>
@@ -20773,7 +21915,7 @@
         <v>25</v>
       </c>
       <c r="C56">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
       <c r="D56" t="s">
@@ -20783,7 +21925,7 @@
         <v>26</v>
       </c>
       <c r="F56" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G56" t="s">
         <v>26</v>
@@ -20792,7 +21934,7 @@
         <v>29</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor18 = "Montes y todas las sierras,";</v>
       </c>
       <c r="K56" t="s">
@@ -20805,14 +21947,14 @@
         <v>26</v>
       </c>
       <c r="N56">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
       <c r="O56" t="s">
         <v>29</v>
       </c>
       <c r="P56" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c18").textContent = Cantor18;</v>
       </c>
     </row>
@@ -20821,7 +21963,7 @@
         <v>25</v>
       </c>
       <c r="C57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
       <c r="D57" t="s">
@@ -20831,7 +21973,7 @@
         <v>26</v>
       </c>
       <c r="F57" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G57" t="s">
         <v>26</v>
@@ -20840,7 +21982,7 @@
         <v>29</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor19 = "árboles frutales y cedros.";</v>
       </c>
       <c r="K57" t="s">
@@ -20853,14 +21995,14 @@
         <v>26</v>
       </c>
       <c r="N57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>19</v>
       </c>
       <c r="O57" t="s">
         <v>29</v>
       </c>
       <c r="P57" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c19").textContent = Cantor19;</v>
       </c>
     </row>
@@ -20869,7 +22011,7 @@
         <v>25</v>
       </c>
       <c r="C58">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="D58" t="s">
@@ -20879,7 +22021,7 @@
         <v>26</v>
       </c>
       <c r="F58" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G58" t="s">
         <v>26</v>
@@ -20888,7 +22030,7 @@
         <v>29</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor20 = "Fieras y animales domésticos,";</v>
       </c>
       <c r="K58" t="s">
@@ -20901,14 +22043,14 @@
         <v>26</v>
       </c>
       <c r="N58">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="O58" t="s">
         <v>29</v>
       </c>
       <c r="P58" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c20").textContent = Cantor20;</v>
       </c>
     </row>
@@ -20917,7 +22059,7 @@
         <v>25</v>
       </c>
       <c r="C59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="D59" t="s">
@@ -20927,7 +22069,7 @@
         <v>26</v>
       </c>
       <c r="F59" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G59" t="s">
         <v>26</v>
@@ -20936,7 +22078,7 @@
         <v>29</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor21 = "reptiles y pájaros que vuelan.";</v>
       </c>
       <c r="K59" t="s">
@@ -20949,14 +22091,14 @@
         <v>26</v>
       </c>
       <c r="N59">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="O59" t="s">
         <v>29</v>
       </c>
       <c r="P59" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c21").textContent = Cantor21;</v>
       </c>
     </row>
@@ -20965,7 +22107,7 @@
         <v>25</v>
       </c>
       <c r="C60">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="D60" t="s">
@@ -20975,7 +22117,7 @@
         <v>26</v>
       </c>
       <c r="F60" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G60" t="s">
         <v>26</v>
@@ -20984,7 +22126,7 @@
         <v>29</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor22 = "Reyes y pueblos del orbe,";</v>
       </c>
       <c r="K60" t="s">
@@ -20997,14 +22139,14 @@
         <v>26</v>
       </c>
       <c r="N60">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="O60" t="s">
         <v>29</v>
       </c>
       <c r="P60" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c22").textContent = Cantor22;</v>
       </c>
     </row>
@@ -21013,7 +22155,7 @@
         <v>25</v>
       </c>
       <c r="C61">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>23</v>
       </c>
       <c r="D61" t="s">
@@ -21023,7 +22165,7 @@
         <v>26</v>
       </c>
       <c r="F61" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G61" t="s">
         <v>26</v>
@@ -21032,7 +22174,7 @@
         <v>29</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor23 = "príncipes y jefes del mundo.";</v>
       </c>
       <c r="K61" t="s">
@@ -21045,14 +22187,14 @@
         <v>26</v>
       </c>
       <c r="N61">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>23</v>
       </c>
       <c r="O61" t="s">
         <v>29</v>
       </c>
       <c r="P61" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c23").textContent = Cantor23;</v>
       </c>
     </row>
@@ -21061,7 +22203,7 @@
         <v>25</v>
       </c>
       <c r="C62">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>24</v>
       </c>
       <c r="D62" t="s">
@@ -21071,7 +22213,7 @@
         <v>26</v>
       </c>
       <c r="F62" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G62" t="s">
         <v>26</v>
@@ -21080,7 +22222,7 @@
         <v>29</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor24 = "Los jóvenes";</v>
       </c>
       <c r="K62" t="s">
@@ -21093,14 +22235,14 @@
         <v>26</v>
       </c>
       <c r="N62">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>24</v>
       </c>
       <c r="O62" t="s">
         <v>29</v>
       </c>
       <c r="P62" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c24").textContent = Cantor24;</v>
       </c>
     </row>
@@ -21109,7 +22251,7 @@
         <v>25</v>
       </c>
       <c r="C63">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>25</v>
       </c>
       <c r="D63" t="s">
@@ -21119,7 +22261,7 @@
         <v>26</v>
       </c>
       <c r="F63" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G63" t="s">
         <v>26</v>
@@ -21128,7 +22270,7 @@
         <v>29</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor25 = "y también las doncellas,";</v>
       </c>
       <c r="K63" t="s">
@@ -21141,14 +22283,14 @@
         <v>26</v>
       </c>
       <c r="N63">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>25</v>
       </c>
       <c r="O63" t="s">
         <v>29</v>
       </c>
       <c r="P63" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c25").textContent = Cantor25;</v>
       </c>
     </row>
@@ -21157,7 +22299,7 @@
         <v>25</v>
       </c>
       <c r="C64">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
       <c r="D64" t="s">
@@ -21167,7 +22309,7 @@
         <v>26</v>
       </c>
       <c r="F64" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G64" t="s">
         <v>26</v>
@@ -21176,7 +22318,7 @@
         <v>29</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor26 = "los viejos a una con los niños.";</v>
       </c>
       <c r="K64" t="s">
@@ -21189,14 +22331,14 @@
         <v>26</v>
       </c>
       <c r="N64">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>26</v>
       </c>
       <c r="O64" t="s">
         <v>29</v>
       </c>
       <c r="P64" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c26").textContent = Cantor26;</v>
       </c>
     </row>
@@ -21205,7 +22347,7 @@
         <v>25</v>
       </c>
       <c r="C65">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>27</v>
       </c>
       <c r="D65" t="s">
@@ -21215,7 +22357,7 @@
         <v>26</v>
       </c>
       <c r="F65" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G65" t="s">
         <v>26</v>
@@ -21224,7 +22366,7 @@
         <v>29</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor27 = "Alaben el nombre del Señor,";</v>
       </c>
       <c r="K65" t="s">
@@ -21237,14 +22379,14 @@
         <v>26</v>
       </c>
       <c r="N65">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>27</v>
       </c>
       <c r="O65" t="s">
         <v>29</v>
       </c>
       <c r="P65" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c27").textContent = Cantor27;</v>
       </c>
     </row>
@@ -21253,7 +22395,7 @@
         <v>25</v>
       </c>
       <c r="C66">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>28</v>
       </c>
       <c r="D66" t="s">
@@ -21263,7 +22405,7 @@
         <v>26</v>
       </c>
       <c r="F66" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G66" t="s">
         <v>26</v>
@@ -21272,7 +22414,7 @@
         <v>29</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor28 = "el único nombre sublime.";</v>
       </c>
       <c r="K66" t="s">
@@ -21285,14 +22427,14 @@
         <v>26</v>
       </c>
       <c r="N66">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>28</v>
       </c>
       <c r="O66" t="s">
         <v>29</v>
       </c>
       <c r="P66" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c28").textContent = Cantor28;</v>
       </c>
     </row>
@@ -21301,7 +22443,7 @@
         <v>25</v>
       </c>
       <c r="C67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>29</v>
       </c>
       <c r="D67" t="s">
@@ -21311,7 +22453,7 @@
         <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G67" t="s">
         <v>26</v>
@@ -21320,7 +22462,7 @@
         <v>29</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor29 = "Su majestad,";</v>
       </c>
       <c r="K67" t="s">
@@ -21333,14 +22475,14 @@
         <v>26</v>
       </c>
       <c r="N67">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>29</v>
       </c>
       <c r="O67" t="s">
         <v>29</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c29").textContent = Cantor29;</v>
       </c>
     </row>
@@ -21349,7 +22491,7 @@
         <v>25</v>
       </c>
       <c r="C68">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>30</v>
       </c>
       <c r="D68" t="s">
@@ -21359,7 +22501,7 @@
         <v>26</v>
       </c>
       <c r="F68" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G68" t="s">
         <v>26</v>
@@ -21368,7 +22510,7 @@
         <v>29</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor30 = "sobre el cielo y la tierra,";</v>
       </c>
       <c r="K68" t="s">
@@ -21381,14 +22523,14 @@
         <v>26</v>
       </c>
       <c r="N68">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>30</v>
       </c>
       <c r="O68" t="s">
         <v>29</v>
       </c>
       <c r="P68" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c30").textContent = Cantor30;</v>
       </c>
     </row>
@@ -21397,7 +22539,7 @@
         <v>25</v>
       </c>
       <c r="C69">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>31</v>
       </c>
       <c r="D69" t="s">
@@ -21407,7 +22549,7 @@
         <v>26</v>
       </c>
       <c r="F69" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G69" t="s">
         <v>26</v>
@@ -21416,7 +22558,7 @@
         <v>29</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor31 = "Él da fuerza y vigor a su pueblo.";</v>
       </c>
       <c r="K69" t="s">
@@ -21429,14 +22571,14 @@
         <v>26</v>
       </c>
       <c r="N69">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>31</v>
       </c>
       <c r="O69" t="s">
         <v>29</v>
       </c>
       <c r="P69" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c31").textContent = Cantor31;</v>
       </c>
     </row>
@@ -21445,7 +22587,7 @@
         <v>25</v>
       </c>
       <c r="C70">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>32</v>
       </c>
       <c r="D70" t="s">
@@ -21455,7 +22597,7 @@
         <v>26</v>
       </c>
       <c r="F70" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G70" t="s">
         <v>26</v>
@@ -21464,7 +22606,7 @@
         <v>29</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor32 = "Alabanza de todos sus fieles,";</v>
       </c>
       <c r="K70" t="s">
@@ -21477,14 +22619,14 @@
         <v>26</v>
       </c>
       <c r="N70">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>32</v>
       </c>
       <c r="O70" t="s">
         <v>29</v>
       </c>
       <c r="P70" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c32").textContent = Cantor32;</v>
       </c>
     </row>
@@ -21493,7 +22635,7 @@
         <v>25</v>
       </c>
       <c r="C71">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>33</v>
       </c>
       <c r="D71" t="s">
@@ -21503,7 +22645,7 @@
         <v>26</v>
       </c>
       <c r="F71" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G71" t="s">
         <v>26</v>
@@ -21512,7 +22654,7 @@
         <v>29</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v>let Cantor33 = "de Israel, su pueblo elegido.";</v>
       </c>
       <c r="K71" t="s">
@@ -21525,428 +22667,428 @@
         <v>26</v>
       </c>
       <c r="N71">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>33</v>
       </c>
       <c r="O71" t="s">
         <v>29</v>
       </c>
       <c r="P71" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c33").textContent = Cantor33;</v>
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I73" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J75" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J76" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I78" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J79" t="str">
-        <f>P7</f>
+        <f t="shared" ref="J79:J108" si="20">P7</f>
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
     <row r="80" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J80" t="str">
-        <f>P8</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
     <row r="81" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J81" t="str">
-        <f>P9</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
     <row r="82" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J82" t="str">
-        <f>P10</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
     <row r="83" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J83" t="str">
-        <f>P11</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
     <row r="84" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J84" t="str">
-        <f>P12</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
     <row r="85" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J85" t="str">
-        <f>P13</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
     <row r="86" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J86" t="str">
-        <f>P14</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
     <row r="87" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J87" t="str">
-        <f>P15</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
     <row r="88" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J88" t="str">
-        <f>P16</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
     <row r="89" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J89" t="str">
-        <f>P17</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
     <row r="90" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J90" t="str">
-        <f>P18</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
     <row r="91" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J91" t="str">
-        <f>P19</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
     <row r="92" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J92" t="str">
-        <f>P20</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
     <row r="93" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J93" t="str">
-        <f>P21</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
     <row r="94" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J94" t="str">
-        <f>P22</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a16").textContent = Asamblea16;</v>
       </c>
     </row>
     <row r="95" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J95" t="str">
-        <f>P23</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a17").textContent = Asamblea17;</v>
       </c>
     </row>
     <row r="96" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J96" t="str">
-        <f>P24</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
     <row r="97" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J97" t="str">
-        <f>P25</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a19").textContent = Asamblea19;</v>
       </c>
     </row>
     <row r="98" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J98" t="str">
-        <f>P26</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a20").textContent = Asamblea20;</v>
       </c>
     </row>
     <row r="99" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J99" t="str">
-        <f>P27</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a21").textContent = Asamblea21;</v>
       </c>
     </row>
     <row r="100" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J100" t="str">
-        <f>P28</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a22").textContent = Asamblea22;</v>
       </c>
     </row>
     <row r="101" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J101" t="str">
-        <f>P29</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a23").textContent = Asamblea23;</v>
       </c>
     </row>
     <row r="102" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J102" t="str">
-        <f>P30</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a24").textContent = Asamblea24;</v>
       </c>
     </row>
     <row r="103" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J103" t="str">
-        <f>P31</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a25").textContent = Asamblea25;</v>
       </c>
     </row>
     <row r="104" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J104" t="str">
-        <f>P32</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a26").textContent = Asamblea26;</v>
       </c>
     </row>
     <row r="105" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J105" t="str">
-        <f>P33</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a27").textContent = Asamblea27;</v>
       </c>
     </row>
     <row r="106" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J106" t="str">
-        <f>P34</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a28").textContent = Asamblea28;</v>
       </c>
     </row>
     <row r="107" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J107" t="str">
-        <f>P35</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a29").textContent = Asamblea29;</v>
       </c>
     </row>
     <row r="108" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J108" t="str">
-        <f>P36</f>
+        <f t="shared" si="20"/>
         <v>document.getElementById("a30").textContent = Asamblea30;</v>
       </c>
     </row>
     <row r="110" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I110" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J111" t="str">
-        <f>P39</f>
+        <f t="shared" ref="J111:J143" si="21">P39</f>
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
     <row r="112" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J112" t="str">
-        <f>P40</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
     <row r="113" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J113" t="str">
-        <f>P41</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
     <row r="114" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J114" t="str">
-        <f>P42</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
     <row r="115" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J115" t="str">
-        <f>P43</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
     <row r="116" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J116" t="str">
-        <f>P44</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
     <row r="117" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J117" t="str">
-        <f>P45</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
     <row r="118" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J118" t="str">
-        <f>P46</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
     <row r="119" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J119" t="str">
-        <f>P47</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
     <row r="120" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J120" t="str">
-        <f>P48</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
     <row r="121" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J121" t="str">
-        <f>P49</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
     <row r="122" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J122" t="str">
-        <f>P50</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
     <row r="123" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J123" t="str">
-        <f>P51</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
     <row r="124" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J124" t="str">
-        <f>P52</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
     <row r="125" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J125" t="str">
-        <f>P53</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
     <row r="126" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J126" t="str">
-        <f>P54</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
     <row r="127" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J127" t="str">
-        <f>P55</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c17").textContent = Cantor17;</v>
       </c>
     </row>
     <row r="128" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J128" t="str">
-        <f>P56</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c18").textContent = Cantor18;</v>
       </c>
     </row>
     <row r="129" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J129" t="str">
-        <f>P57</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c19").textContent = Cantor19;</v>
       </c>
     </row>
     <row r="130" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J130" t="str">
-        <f>P58</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c20").textContent = Cantor20;</v>
       </c>
     </row>
     <row r="131" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J131" t="str">
-        <f>P59</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c21").textContent = Cantor21;</v>
       </c>
     </row>
     <row r="132" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J132" t="str">
-        <f>P60</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c22").textContent = Cantor22;</v>
       </c>
     </row>
     <row r="133" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J133" t="str">
-        <f>P61</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c23").textContent = Cantor23;</v>
       </c>
     </row>
     <row r="134" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J134" t="str">
-        <f>P62</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c24").textContent = Cantor24;</v>
       </c>
     </row>
     <row r="135" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J135" t="str">
-        <f>P63</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c25").textContent = Cantor25;</v>
       </c>
     </row>
     <row r="136" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J136" t="str">
-        <f>P64</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c26").textContent = Cantor26;</v>
       </c>
     </row>
     <row r="137" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J137" t="str">
-        <f>P65</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c27").textContent = Cantor27;</v>
       </c>
     </row>
     <row r="138" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J138" t="str">
-        <f>P66</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c28").textContent = Cantor28;</v>
       </c>
     </row>
     <row r="139" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J139" t="str">
-        <f>P67</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c29").textContent = Cantor29;</v>
       </c>
     </row>
     <row r="140" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J140" t="str">
-        <f>P68</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c30").textContent = Cantor30;</v>
       </c>
     </row>
     <row r="141" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J141" t="str">
-        <f>P69</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c31").textContent = Cantor31;</v>
       </c>
     </row>
     <row r="142" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J142" t="str">
-        <f>P70</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c32").textContent = Cantor32;</v>
       </c>
     </row>
     <row r="143" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J143" t="str">
-        <f>P71</f>
+        <f t="shared" si="21"/>
         <v>document.getElementById("c33").textContent = Cantor33;</v>
       </c>
     </row>
     <row r="145" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I145" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/src/doc/codificador.xlsx
+++ b/src/doc/codificador.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\db\Github\cantos\src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB400C5-09F4-47D2-AF4D-DEA225609471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12D2794F-2002-4F8C-81AB-D62CB3433BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="7" activeTab="9" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="ALEGRÍA, HA NACIDO EL SALVADOR" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1091,27 +1092,27 @@
       <selection activeCell="N3" sqref="N3:N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" customWidth="1"/>
-    <col min="8" max="8" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.453125" customWidth="1"/>
+    <col min="8" max="8" width="56.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="1.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" customWidth="1"/>
-    <col min="14" max="14" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="51.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
       <c r="F1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -1155,7 +1156,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -1200,7 +1201,7 @@
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -1290,7 +1291,7 @@
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -1335,7 +1336,7 @@
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -1425,7 +1426,7 @@
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -1470,7 +1471,7 @@
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -1515,7 +1516,7 @@
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -1560,7 +1561,7 @@
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -1605,7 +1606,7 @@
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -1650,7 +1651,7 @@
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -1695,7 +1696,7 @@
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -1740,7 +1741,7 @@
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -1785,7 +1786,7 @@
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -1830,7 +1831,7 @@
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -1875,7 +1876,7 @@
         <v>document.getElementById("c17").textContent = Cantor17;</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -1920,7 +1921,7 @@
         <v>document.getElementById("c18").textContent = Cantor18;</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -1965,7 +1966,7 @@
         <v>document.getElementById("c19").textContent = Cantor19;</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -2010,7 +2011,7 @@
         <v>document.getElementById("c20").textContent = Cantor20;</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>25</v>
       </c>
@@ -2055,7 +2056,7 @@
         <v>document.getElementById("c21").textContent = Cantor21;</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>25</v>
       </c>
@@ -2100,7 +2101,7 @@
         <v>document.getElementById("c22").textContent = Cantor22;</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>25</v>
       </c>
@@ -2145,7 +2146,7 @@
         <v>document.getElementById("c23").textContent = Cantor23;</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -2190,7 +2191,7 @@
         <v>document.getElementById("c24").textContent = Cantor24;</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>document.getElementById("c25").textContent = Cantor25;</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>document.getElementById("c26").textContent = Cantor26;</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>25</v>
       </c>
@@ -2339,35 +2340,35 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="4.42578125" customWidth="1"/>
-    <col min="10" max="10" width="60.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="4.453125" customWidth="1"/>
+    <col min="10" max="10" width="60.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="1.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3" customWidth="1"/>
-    <col min="16" max="16" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="51.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
       <c r="F1" s="3" t="str">
         <f ca="1">LOWER(SUBSTITUTE(SUBSTITUTE(F4, " ", ""), ",", ""))</f>
         <v>alegríahanacidoelsalvador</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
       <c r="F2" s="1" t="str">
         <f ca="1">(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F1, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"))</f>
         <v>alegriahanacidoelsalvador</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
       <c r="F3" s="2" t="str">
         <f ca="1">UPPER(LEFT(F4,1)) &amp; LOWER(MID(F4,2,LEN(F4)-1))</f>
         <v>Alegría, ha nacido el salvador</v>
@@ -2376,7 +2377,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>146</v>
       </c>
@@ -2413,7 +2414,7 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N6" si="0">C4</f>
+        <f>C4</f>
         <v>1</v>
       </c>
       <c r="O4" t="s">
@@ -2424,7 +2425,7 @@
         <v>document.getElementById("t1").textContent = titulo;</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>148</v>
       </c>
@@ -2460,18 +2461,18 @@
         <v>26</v>
       </c>
       <c r="N5">
-        <f t="shared" si="0"/>
+        <f>C5</f>
         <v>1</v>
       </c>
       <c r="O5" t="s">
         <v>29</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" ref="P5:P6" si="1">_xlfn.CONCAT("document.getElementById",K5,M5,"c",N5,M5,L5,".textContent = Cantor",N5,O5)</f>
+        <f>_xlfn.CONCAT("document.getElementById",K5,M5,"c",N5,M5,L5,".textContent = Cantor",N5,O5)</f>
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>149</v>
       </c>
@@ -2508,23 +2509,23 @@
         <v>26</v>
       </c>
       <c r="N6">
-        <f t="shared" si="0"/>
+        <f>C6</f>
         <v>1</v>
       </c>
       <c r="O6" t="s">
         <v>29</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("document.getElementById",K6,M6,"c",N6,M6,L6,".textContent = Cantor",N6,O6)</f>
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -2547,7 +2548,7 @@
         <v>29</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" ref="J9:J19" si="2">_xlfn.CONCAT(B9,C9," ",D9," ",E9,F9,G9,H9)</f>
+        <f t="shared" ref="J9:J19" si="0">_xlfn.CONCAT(B9,C9," ",D9," ",E9,F9,G9,H9)</f>
         <v>let Asamblea1 = "UN ÁNGEL VINO DEL CIELO";</v>
       </c>
       <c r="K9" t="s">
@@ -2560,7 +2561,7 @@
         <v>26</v>
       </c>
       <c r="N9">
-        <f t="shared" ref="N9:N19" si="3">C9</f>
+        <f t="shared" ref="N9:N19" si="1">C9</f>
         <v>1</v>
       </c>
       <c r="O9" t="s">
@@ -2571,12 +2572,12 @@
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:C19" si="4">+C9+1</f>
+        <f t="shared" ref="C10:C19" si="2">+C9+1</f>
         <v>2</v>
       </c>
       <c r="D10" t="s">
@@ -2595,36 +2596,36 @@
         <v>29</v>
       </c>
       <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea2 = "TRAYENDO UNA GRAN NOTICIA:";</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" ref="P10:P19" si="3">_xlfn.CONCAT("document.getElementById",K10,M10,"a",N10,M10,L10,".textContent = Asamblea",N10,O10)</f>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="2"/>
-        <v>let Asamblea2 = "TRAYENDO UNA GRAN NOTICIA:";</v>
-      </c>
-      <c r="K10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="O10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P10" t="str">
-        <f t="shared" ref="P10:P19" si="5">_xlfn.CONCAT("document.getElementById",K10,M10,"a",N10,M10,L10,".textContent = Asamblea",N10,O10)</f>
-        <v>document.getElementById("a2").textContent = Asamblea2;</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="D11" t="s">
@@ -2643,36 +2644,36 @@
         <v>29</v>
       </c>
       <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea3 = " «¡HOY OS HA NACIDO, OS HA NACIDO EL SALVADOR!»";</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
         <f t="shared" si="2"/>
-        <v>let Asamblea3 = " «¡HOY OS HA NACIDO, OS HA NACIDO EL SALVADOR!»";</v>
-      </c>
-      <c r="K11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" t="str">
-        <f t="shared" si="5"/>
-        <v>document.getElementById("a3").textContent = Asamblea3;</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D12" t="s">
@@ -2691,36 +2692,36 @@
         <v>29</v>
       </c>
       <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea4 = "¡ALEGRÍA, ALEGRÍA, ALEGRÍA, ";</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="2"/>
-        <v>let Asamblea4 = "¡ALEGRÍA, ALEGRÍA, ALEGRÍA, ";</v>
-      </c>
-      <c r="K12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="O12" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" t="str">
-        <f t="shared" si="5"/>
-        <v>document.getElementById("a4").textContent = Asamblea4;</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="D13" t="s">
@@ -2739,36 +2740,36 @@
         <v>29</v>
       </c>
       <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea5 = "HA NACIDO EL SALVADOR";</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
         <f t="shared" si="2"/>
-        <v>let Asamblea5 = "HA NACIDO EL SALVADOR";</v>
-      </c>
-      <c r="K13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="O13" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" t="str">
-        <f t="shared" si="5"/>
-        <v>document.getElementById("a5").textContent = Asamblea5;</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="D14" t="s">
@@ -2787,36 +2788,36 @@
         <v>29</v>
       </c>
       <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea6 = "ACOSTADO EN UN PESEBRE! ";</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a6").textContent = Asamblea6;</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
         <f t="shared" si="2"/>
-        <v>let Asamblea6 = "ACOSTADO EN UN PESEBRE! ";</v>
-      </c>
-      <c r="K14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="O14" t="s">
-        <v>29</v>
-      </c>
-      <c r="P14" t="str">
-        <f t="shared" si="5"/>
-        <v>document.getElementById("a6").textContent = Asamblea6;</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="D15" t="s">
@@ -2835,36 +2836,36 @@
         <v>29</v>
       </c>
       <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea7 = "¡ÉL ES EL CRISTO, EL SEÑOR!";</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a7").textContent = Asamblea7;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
         <f t="shared" si="2"/>
-        <v>let Asamblea7 = "¡ÉL ES EL CRISTO, EL SEÑOR!";</v>
-      </c>
-      <c r="K15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="O15" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" t="str">
-        <f t="shared" si="5"/>
-        <v>document.getElementById("a7").textContent = Asamblea7;</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="D16" t="s">
@@ -2883,36 +2884,36 @@
         <v>29</v>
       </c>
       <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea8 = "¡FAJADO CON LINDOS PAÑALES";</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="O16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a8").textContent = Asamblea8;</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
         <f t="shared" si="2"/>
-        <v>let Asamblea8 = "¡FAJADO CON LINDOS PAÑALES";</v>
-      </c>
-      <c r="K16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="O16" t="s">
-        <v>29</v>
-      </c>
-      <c r="P16" t="str">
-        <f t="shared" si="5"/>
-        <v>document.getElementById("a8").textContent = Asamblea8;</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="D17" t="s">
@@ -2931,36 +2932,36 @@
         <v>29</v>
       </c>
       <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea9 = "Y ACOSTADO EN UN PESEBRE!";</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="O17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a9").textContent = Asamblea9;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
         <f t="shared" si="2"/>
-        <v>let Asamblea9 = "Y ACOSTADO EN UN PESEBRE!";</v>
-      </c>
-      <c r="K17" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" t="s">
-        <v>28</v>
-      </c>
-      <c r="M17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="O17" t="s">
-        <v>29</v>
-      </c>
-      <c r="P17" t="str">
-        <f t="shared" si="5"/>
-        <v>document.getElementById("a9").textContent = Asamblea9;</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D18" t="s">
@@ -2979,36 +2980,36 @@
         <v>29</v>
       </c>
       <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea10 = "ESTA SERÁ LA SEÑAL DE QUE ÉL, ES EL SEÑOR..";</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a10").textContent = Asamblea10;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
         <f t="shared" si="2"/>
-        <v>let Asamblea10 = "ESTA SERÁ LA SEÑAL DE QUE ÉL, ES EL SEÑOR..";</v>
-      </c>
-      <c r="K18" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" t="s">
-        <v>28</v>
-      </c>
-      <c r="M18" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="O18" t="s">
-        <v>29</v>
-      </c>
-      <c r="P18" t="str">
-        <f t="shared" si="5"/>
-        <v>document.getElementById("a10").textContent = Asamblea10;</v>
-      </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="D19" t="s">
@@ -3027,7 +3028,7 @@
         <v>29</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>let Asamblea11 = "¡ALEGRÍA, ALEGRÍA, ALEGRÍA …";</v>
       </c>
       <c r="K19" t="s">
@@ -3040,23 +3041,23 @@
         <v>26</v>
       </c>
       <c r="N19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="O19" t="s">
         <v>29</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I21" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>25</v>
       </c>
@@ -3127,7 +3128,7 @@
         <v>29</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" ref="J23:J25" si="6">_xlfn.CONCAT(B23,C23," ",D23," ",E23,F23,G23,H23)</f>
+        <f>_xlfn.CONCAT(B23,C23," ",D23," ",E23,F23,G23,H23)</f>
         <v>let Cantor2 = "«¡Hoy os ha nacido, os ha nacido el Salvador!»";</v>
       </c>
       <c r="K23" t="s">
@@ -3147,16 +3148,16 @@
         <v>29</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" ref="P23:P25" si="7">_xlfn.CONCAT("document.getElementById",K23,M23,"c",N23,M23,L23,".textContent = Cantor",N23,O23)</f>
+        <f>_xlfn.CONCAT("document.getElementById",K23,M23,"c",N23,M23,L23,".textContent = Cantor",N23,O23)</f>
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:C25" si="8">+C23+1</f>
+        <f>+C23+1</f>
         <v>3</v>
       </c>
       <c r="D24" t="s">
@@ -3175,7 +3176,7 @@
         <v>29</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="6"/>
+        <f>_xlfn.CONCAT(B24,C24," ",D24," ",E24,F24,G24,H24)</f>
         <v>let Cantor3 = "¡Fajado con lindos pañales y acostado en un pesebre!";</v>
       </c>
       <c r="K24" t="s">
@@ -3188,23 +3189,23 @@
         <v>26</v>
       </c>
       <c r="N24">
-        <f t="shared" ref="N24:N25" si="9">C24</f>
+        <f>C24</f>
         <v>3</v>
       </c>
       <c r="O24" t="s">
         <v>29</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="7"/>
+        <f>_xlfn.CONCAT("document.getElementById",K24,M24,"c",N24,M24,L24,".textContent = Cantor",N24,O24)</f>
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>25</v>
       </c>
       <c r="C25">
-        <f t="shared" si="8"/>
+        <f>+C24+1</f>
         <v>4</v>
       </c>
       <c r="D25" t="s">
@@ -3223,7 +3224,7 @@
         <v>29</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="6"/>
+        <f>_xlfn.CONCAT(B25,C25," ",D25," ",E25,F25,G25,H25)</f>
         <v>let Cantor4 = "Esta será la señal de que Él, es el Señor.";</v>
       </c>
       <c r="K25" t="s">
@@ -3236,138 +3237,138 @@
         <v>26</v>
       </c>
       <c r="N25">
-        <f t="shared" si="9"/>
+        <f>C25</f>
         <v>4</v>
       </c>
       <c r="O25" t="s">
         <v>29</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="7"/>
+        <f>_xlfn.CONCAT("document.getElementById",K25,M25,"c",N25,M25,L25,".textContent = Cantor",N25,O25)</f>
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I27" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
       <c r="J28" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="J29" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="J30" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I32" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J33" t="str">
-        <f>P9</f>
+        <f t="shared" ref="J33:J43" si="4">P9</f>
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J34" t="str">
-        <f>P10</f>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J35" t="str">
-        <f>P11</f>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J36" t="str">
-        <f>P12</f>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J37" t="str">
-        <f>P13</f>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J38" t="str">
-        <f>P14</f>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J39" t="str">
-        <f>P15</f>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J40" t="str">
-        <f>P16</f>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J41" t="str">
-        <f>P17</f>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J42" t="str">
-        <f>P18</f>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J43" t="str">
-        <f>P19</f>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
-    <row r="45" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I45" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J46" t="str">
         <f>P22</f>
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="47" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J47" t="str">
         <f>P23</f>
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="48" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J48" t="str">
         <f>P24</f>
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J49" t="str">
         <f>P25</f>
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I51" t="s">
         <v>157</v>
       </c>
@@ -3386,27 +3387,27 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.42578125" customWidth="1"/>
-    <col min="9" max="9" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.453125" customWidth="1"/>
+    <col min="9" max="9" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="1.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="51.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
       <c r="F1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -3453,7 +3454,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -3501,7 +3502,7 @@
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -3549,7 +3550,7 @@
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -3597,7 +3598,7 @@
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -3645,7 +3646,7 @@
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -3693,7 +3694,7 @@
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -3741,7 +3742,7 @@
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -3789,7 +3790,7 @@
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -3837,7 +3838,7 @@
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -3885,7 +3886,7 @@
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -3930,7 +3931,7 @@
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -3975,7 +3976,7 @@
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -4020,7 +4021,7 @@
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -4065,7 +4066,7 @@
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -4110,7 +4111,7 @@
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -4155,7 +4156,7 @@
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>30</v>
       </c>
@@ -4203,7 +4204,7 @@
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -4251,7 +4252,7 @@
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -4299,7 +4300,7 @@
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -4347,7 +4348,7 @@
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>30</v>
       </c>
@@ -4392,7 +4393,7 @@
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -4437,7 +4438,7 @@
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -4482,7 +4483,7 @@
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -4527,7 +4528,7 @@
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -4572,7 +4573,7 @@
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>30</v>
       </c>
@@ -4617,7 +4618,7 @@
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>30</v>
       </c>
@@ -4662,7 +4663,7 @@
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -4707,7 +4708,7 @@
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -4752,7 +4753,7 @@
         <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -4797,7 +4798,7 @@
         <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -4842,7 +4843,7 @@
         <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>30</v>
       </c>
@@ -4887,7 +4888,7 @@
         <v>document.getElementById("a16").textContent = Asamblea16;</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>30</v>
       </c>
@@ -4932,7 +4933,7 @@
         <v>document.getElementById("a17").textContent = Asamblea17;</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>30</v>
       </c>
@@ -4977,7 +4978,7 @@
         <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>30</v>
       </c>
@@ -5022,7 +5023,7 @@
         <v>document.getElementById("a19").textContent = Asamblea19;</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>30</v>
       </c>
@@ -5067,7 +5068,7 @@
         <v>document.getElementById("a20").textContent = Asamblea20;</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>30</v>
       </c>
@@ -5112,7 +5113,7 @@
         <v>document.getElementById("a21").textContent = Asamblea21;</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>30</v>
       </c>
@@ -5157,7 +5158,7 @@
         <v>document.getElementById("a22").textContent = Asamblea22;</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>30</v>
       </c>
@@ -5202,7 +5203,7 @@
         <v>document.getElementById("a23").textContent = Asamblea23;</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>30</v>
       </c>
@@ -5247,7 +5248,7 @@
         <v>document.getElementById("a24").textContent = Asamblea24;</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>30</v>
       </c>
@@ -5292,7 +5293,7 @@
         <v>document.getElementById("a25").textContent = Asamblea25;</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>30</v>
       </c>
@@ -5337,7 +5338,7 @@
         <v>document.getElementById("a26").textContent = Asamblea26;</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>30</v>
       </c>
@@ -5382,7 +5383,7 @@
         <v>document.getElementById("a27").textContent = Asamblea27;</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>30</v>
       </c>
@@ -5427,7 +5428,7 @@
         <v>document.getElementById("a28").textContent = Asamblea28;</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>30</v>
       </c>
@@ -5486,27 +5487,27 @@
       <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.42578125" customWidth="1"/>
-    <col min="9" max="9" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.453125" customWidth="1"/>
+    <col min="9" max="9" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="1.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="51.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
       <c r="F1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -5553,7 +5554,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -5601,7 +5602,7 @@
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -5649,7 +5650,7 @@
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -5697,7 +5698,7 @@
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -5745,7 +5746,7 @@
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -5793,7 +5794,7 @@
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -5841,7 +5842,7 @@
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -5889,7 +5890,7 @@
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -5937,7 +5938,7 @@
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -5985,7 +5986,7 @@
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -6030,7 +6031,7 @@
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -6075,7 +6076,7 @@
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -6120,7 +6121,7 @@
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -6165,7 +6166,7 @@
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -6210,7 +6211,7 @@
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -6255,7 +6256,7 @@
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>30</v>
       </c>
@@ -6303,7 +6304,7 @@
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -6351,7 +6352,7 @@
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -6399,7 +6400,7 @@
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -6447,7 +6448,7 @@
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>30</v>
       </c>
@@ -6495,7 +6496,7 @@
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -6543,7 +6544,7 @@
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -6591,7 +6592,7 @@
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -6639,7 +6640,7 @@
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -6687,7 +6688,7 @@
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>30</v>
       </c>
@@ -6735,7 +6736,7 @@
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>30</v>
       </c>
@@ -6783,7 +6784,7 @@
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -6831,7 +6832,7 @@
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -6879,7 +6880,7 @@
         <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -6927,7 +6928,7 @@
         <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -6975,7 +6976,7 @@
         <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>30</v>
       </c>
@@ -7023,7 +7024,7 @@
         <v>document.getElementById("a16").textContent = Asamblea16;</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>30</v>
       </c>
@@ -7071,7 +7072,7 @@
         <v>document.getElementById("a17").textContent = Asamblea17;</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>30</v>
       </c>
@@ -7119,7 +7120,7 @@
         <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>30</v>
       </c>
@@ -7167,7 +7168,7 @@
         <v>document.getElementById("a19").textContent = Asamblea19;</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>30</v>
       </c>
@@ -7215,7 +7216,7 @@
         <v>document.getElementById("a20").textContent = Asamblea20;</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>30</v>
       </c>
@@ -7260,7 +7261,7 @@
         <v>document.getElementById("a21").textContent = Asamblea21;</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>30</v>
       </c>
@@ -7305,7 +7306,7 @@
         <v>document.getElementById("a22").textContent = Asamblea22;</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>30</v>
       </c>
@@ -7350,7 +7351,7 @@
         <v>document.getElementById("a23").textContent = Asamblea23;</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>30</v>
       </c>
@@ -7395,7 +7396,7 @@
         <v>document.getElementById("a24").textContent = Asamblea24;</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>30</v>
       </c>
@@ -7440,7 +7441,7 @@
         <v>document.getElementById("a25").textContent = Asamblea25;</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>30</v>
       </c>
@@ -7485,7 +7486,7 @@
         <v>document.getElementById("a26").textContent = Asamblea26;</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>30</v>
       </c>
@@ -7530,7 +7531,7 @@
         <v>document.getElementById("a27").textContent = Asamblea27;</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>30</v>
       </c>
@@ -7575,7 +7576,7 @@
         <v>document.getElementById("a28").textContent = Asamblea28;</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>30</v>
       </c>
@@ -7634,27 +7635,27 @@
       <selection activeCell="O20" sqref="O20:O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.42578125" customWidth="1"/>
-    <col min="9" max="9" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.453125" customWidth="1"/>
+    <col min="9" max="9" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="1.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="51.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
       <c r="F1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -7701,7 +7702,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -7749,7 +7750,7 @@
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -7797,7 +7798,7 @@
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -7845,7 +7846,7 @@
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -7893,7 +7894,7 @@
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -7941,7 +7942,7 @@
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -7989,7 +7990,7 @@
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -8037,7 +8038,7 @@
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -8085,7 +8086,7 @@
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -8133,7 +8134,7 @@
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -8178,7 +8179,7 @@
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -8223,7 +8224,7 @@
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -8268,7 +8269,7 @@
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -8313,7 +8314,7 @@
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -8358,7 +8359,7 @@
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -8403,7 +8404,7 @@
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>30</v>
       </c>
@@ -8451,7 +8452,7 @@
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -8499,7 +8500,7 @@
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -8547,7 +8548,7 @@
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -8595,7 +8596,7 @@
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>30</v>
       </c>
@@ -8643,7 +8644,7 @@
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -8691,7 +8692,7 @@
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -8739,7 +8740,7 @@
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -8787,7 +8788,7 @@
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -8835,7 +8836,7 @@
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>30</v>
       </c>
@@ -8883,7 +8884,7 @@
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>30</v>
       </c>
@@ -8931,7 +8932,7 @@
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -8979,7 +8980,7 @@
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -9027,7 +9028,7 @@
         <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -9075,7 +9076,7 @@
         <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -9123,7 +9124,7 @@
         <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>30</v>
       </c>
@@ -9171,7 +9172,7 @@
         <v>document.getElementById("a16").textContent = Asamblea16;</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>30</v>
       </c>
@@ -9216,7 +9217,7 @@
         <v>document.getElementById("a17").textContent = Asamblea17;</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>30</v>
       </c>
@@ -9261,7 +9262,7 @@
         <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>30</v>
       </c>
@@ -9306,7 +9307,7 @@
         <v>document.getElementById("a19").textContent = Asamblea19;</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>30</v>
       </c>
@@ -9351,7 +9352,7 @@
         <v>document.getElementById("a20").textContent = Asamblea20;</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>30</v>
       </c>
@@ -9396,7 +9397,7 @@
         <v>document.getElementById("a21").textContent = Asamblea21;</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>30</v>
       </c>
@@ -9441,7 +9442,7 @@
         <v>document.getElementById("a22").textContent = Asamblea22;</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>30</v>
       </c>
@@ -9486,7 +9487,7 @@
         <v>document.getElementById("a23").textContent = Asamblea23;</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>30</v>
       </c>
@@ -9531,7 +9532,7 @@
         <v>document.getElementById("a24").textContent = Asamblea24;</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>30</v>
       </c>
@@ -9576,7 +9577,7 @@
         <v>document.getElementById("a25").textContent = Asamblea25;</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>30</v>
       </c>
@@ -9621,7 +9622,7 @@
         <v>document.getElementById("a26").textContent = Asamblea26;</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>30</v>
       </c>
@@ -9666,7 +9667,7 @@
         <v>document.getElementById("a27").textContent = Asamblea27;</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>30</v>
       </c>
@@ -9711,7 +9712,7 @@
         <v>document.getElementById("a28").textContent = Asamblea28;</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>30</v>
       </c>
@@ -9770,27 +9771,27 @@
       <selection activeCell="O25" sqref="O25:O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.42578125" customWidth="1"/>
-    <col min="9" max="9" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.453125" customWidth="1"/>
+    <col min="9" max="9" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="1.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="51.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
       <c r="F1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -9837,7 +9838,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -9885,7 +9886,7 @@
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -9933,7 +9934,7 @@
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -9981,7 +9982,7 @@
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -10029,7 +10030,7 @@
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -10077,7 +10078,7 @@
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -10125,7 +10126,7 @@
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -10173,7 +10174,7 @@
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -10221,7 +10222,7 @@
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -10269,7 +10270,7 @@
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -10317,7 +10318,7 @@
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -10365,7 +10366,7 @@
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -10413,7 +10414,7 @@
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -10461,7 +10462,7 @@
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -10509,7 +10510,7 @@
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -10557,7 +10558,7 @@
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -10581,7 +10582,7 @@
         <v>29</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" ref="I19:I23" si="4">_xlfn.CONCAT(B19,C19," ",D19," ",E19,F19,G19,H19)</f>
+        <f>_xlfn.CONCAT(B19,C19," ",D19," ",E19,F19,G19,H19)</f>
         <v>let Cantor17 = "A ti que escuchas la oración";</v>
       </c>
       <c r="J19" t="s">
@@ -10594,18 +10595,18 @@
         <v>26</v>
       </c>
       <c r="M19">
-        <f t="shared" ref="M19:M23" si="5">C19</f>
+        <f>C19</f>
         <v>17</v>
       </c>
       <c r="N19" t="s">
         <v>29</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" ref="O19:O23" si="6">_xlfn.CONCAT("document.getElementById",J19,L19,"c",M19,L19,K19,".textContent = Cantor",M19,N19)</f>
+        <f>_xlfn.CONCAT("document.getElementById",J19,L19,"c",M19,L19,K19,".textContent = Cantor",M19,N19)</f>
         <v>document.getElementById("c17").textContent = Cantor17;</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -10629,7 +10630,7 @@
         <v>29</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.CONCAT(B20,C20," ",D20," ",E20,F20,G20,H20)</f>
         <v>let Cantor18 = "viene todo mortal, viene todo mortal.";</v>
       </c>
       <c r="J20" t="s">
@@ -10642,18 +10643,18 @@
         <v>26</v>
       </c>
       <c r="M20">
-        <f t="shared" si="5"/>
+        <f>C20</f>
         <v>18</v>
       </c>
       <c r="N20" t="s">
         <v>29</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="6"/>
+        <f>_xlfn.CONCAT("document.getElementById",J20,L20,"c",M20,L20,K20,".textContent = Cantor",M20,N20)</f>
         <v>document.getElementById("c18").textContent = Cantor18;</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -10674,7 +10675,7 @@
         <v>29</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.CONCAT(B21,C21," ",D21," ",E21,F21,G21,H21)</f>
         <v>let Cantor19 = "";</v>
       </c>
       <c r="J21" t="s">
@@ -10687,18 +10688,18 @@
         <v>26</v>
       </c>
       <c r="M21">
-        <f t="shared" si="5"/>
+        <f>C21</f>
         <v>19</v>
       </c>
       <c r="N21" t="s">
         <v>29</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="6"/>
+        <f>_xlfn.CONCAT("document.getElementById",J21,L21,"c",M21,L21,K21,".textContent = Cantor",M21,N21)</f>
         <v>document.getElementById("c19").textContent = Cantor19;</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -10719,7 +10720,7 @@
         <v>29</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.CONCAT(B22,C22," ",D22," ",E22,F22,G22,H22)</f>
         <v>let Cantor20 = "";</v>
       </c>
       <c r="J22" t="s">
@@ -10732,18 +10733,18 @@
         <v>26</v>
       </c>
       <c r="M22">
-        <f t="shared" si="5"/>
+        <f>C22</f>
         <v>20</v>
       </c>
       <c r="N22" t="s">
         <v>29</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="6"/>
+        <f>_xlfn.CONCAT("document.getElementById",J22,L22,"c",M22,L22,K22,".textContent = Cantor",M22,N22)</f>
         <v>document.getElementById("c20").textContent = Cantor20;</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>25</v>
       </c>
@@ -10764,7 +10765,7 @@
         <v>29</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="4"/>
+        <f>_xlfn.CONCAT(B23,C23," ",D23," ",E23,F23,G23,H23)</f>
         <v>let Cantor21 = "";</v>
       </c>
       <c r="J23" t="s">
@@ -10777,18 +10778,18 @@
         <v>26</v>
       </c>
       <c r="M23">
-        <f t="shared" si="5"/>
+        <f>C23</f>
         <v>21</v>
       </c>
       <c r="N23" t="s">
         <v>29</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="6"/>
+        <f>_xlfn.CONCAT("document.getElementById",J23,L23,"c",M23,L23,K23,".textContent = Cantor",M23,N23)</f>
         <v>document.getElementById("c21").textContent = Cantor21;</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -10835,7 +10836,7 @@
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -10879,11 +10880,11 @@
         <v>29</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" ref="O26:O53" si="7">_xlfn.CONCAT("document.getElementById",J26,L26,"a",M26,L26,K26,".textContent = Asamblea",M26,N26)</f>
+        <f t="shared" ref="O26:O53" si="4">_xlfn.CONCAT("document.getElementById",J26,L26,"a",M26,L26,K26,".textContent = Asamblea",M26,N26)</f>
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -10927,11 +10928,11 @@
         <v>29</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -10975,11 +10976,11 @@
         <v>29</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>30</v>
       </c>
@@ -11023,11 +11024,11 @@
         <v>29</v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>30</v>
       </c>
@@ -11071,11 +11072,11 @@
         <v>29</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -11119,11 +11120,11 @@
         <v>29</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -11167,11 +11168,11 @@
         <v>29</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -11215,11 +11216,11 @@
         <v>29</v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -11260,16 +11261,16 @@
         <v>29</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>30</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:C53" si="8">+C34+1</f>
+        <f t="shared" ref="C35:C53" si="5">+C34+1</f>
         <v>11</v>
       </c>
       <c r="D35" t="s">
@@ -11305,16 +11306,16 @@
         <v>29</v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>30</v>
       </c>
       <c r="C36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="D36" t="s">
@@ -11350,16 +11351,16 @@
         <v>29</v>
       </c>
       <c r="O36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>30</v>
       </c>
       <c r="C37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="D37" t="s">
@@ -11395,16 +11396,16 @@
         <v>29</v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>30</v>
       </c>
       <c r="C38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="D38" t="s">
@@ -11440,16 +11441,16 @@
         <v>29</v>
       </c>
       <c r="O38" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>30</v>
       </c>
       <c r="C39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="D39" t="s">
@@ -11485,16 +11486,16 @@
         <v>29</v>
       </c>
       <c r="O39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>30</v>
       </c>
       <c r="C40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="D40" t="s">
@@ -11530,16 +11531,16 @@
         <v>29</v>
       </c>
       <c r="O40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a16").textContent = Asamblea16;</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>30</v>
       </c>
       <c r="C41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="D41" t="s">
@@ -11575,16 +11576,16 @@
         <v>29</v>
       </c>
       <c r="O41" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a17").textContent = Asamblea17;</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>30</v>
       </c>
       <c r="C42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="D42" t="s">
@@ -11620,16 +11621,16 @@
         <v>29</v>
       </c>
       <c r="O42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>30</v>
       </c>
       <c r="C43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="D43" t="s">
@@ -11665,16 +11666,16 @@
         <v>29</v>
       </c>
       <c r="O43" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a19").textContent = Asamblea19;</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>30</v>
       </c>
       <c r="C44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="D44" t="s">
@@ -11710,16 +11711,16 @@
         <v>29</v>
       </c>
       <c r="O44" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a20").textContent = Asamblea20;</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>30</v>
       </c>
       <c r="C45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="D45" t="s">
@@ -11755,16 +11756,16 @@
         <v>29</v>
       </c>
       <c r="O45" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a21").textContent = Asamblea21;</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>30</v>
       </c>
       <c r="C46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="D46" t="s">
@@ -11800,16 +11801,16 @@
         <v>29</v>
       </c>
       <c r="O46" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a22").textContent = Asamblea22;</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>30</v>
       </c>
       <c r="C47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="D47" t="s">
@@ -11845,16 +11846,16 @@
         <v>29</v>
       </c>
       <c r="O47" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a23").textContent = Asamblea23;</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>30</v>
       </c>
       <c r="C48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="D48" t="s">
@@ -11890,16 +11891,16 @@
         <v>29</v>
       </c>
       <c r="O48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a24").textContent = Asamblea24;</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>30</v>
       </c>
       <c r="C49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="D49" t="s">
@@ -11935,16 +11936,16 @@
         <v>29</v>
       </c>
       <c r="O49" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a25").textContent = Asamblea25;</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>30</v>
       </c>
       <c r="C50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="D50" t="s">
@@ -11980,16 +11981,16 @@
         <v>29</v>
       </c>
       <c r="O50" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a26").textContent = Asamblea26;</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>30</v>
       </c>
       <c r="C51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>27</v>
       </c>
       <c r="D51" t="s">
@@ -12025,16 +12026,16 @@
         <v>29</v>
       </c>
       <c r="O51" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a27").textContent = Asamblea27;</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>30</v>
       </c>
       <c r="C52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="D52" t="s">
@@ -12070,16 +12071,16 @@
         <v>29</v>
       </c>
       <c r="O52" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a28").textContent = Asamblea28;</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>30</v>
       </c>
       <c r="C53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="D53" t="s">
@@ -12115,7 +12116,7 @@
         <v>29</v>
       </c>
       <c r="O53" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>document.getElementById("a29").textContent = Asamblea29;</v>
       </c>
     </row>
@@ -12133,27 +12134,27 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.42578125" customWidth="1"/>
-    <col min="9" max="9" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.453125" customWidth="1"/>
+    <col min="9" max="9" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="1.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="51.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
       <c r="F1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -12200,7 +12201,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -12248,7 +12249,7 @@
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -12296,7 +12297,7 @@
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -12344,7 +12345,7 @@
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -12392,7 +12393,7 @@
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -12440,7 +12441,7 @@
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -12488,7 +12489,7 @@
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -12536,7 +12537,7 @@
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -12584,7 +12585,7 @@
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -12632,7 +12633,7 @@
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -12680,7 +12681,7 @@
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -12728,7 +12729,7 @@
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -12776,7 +12777,7 @@
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -12824,7 +12825,7 @@
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -12872,7 +12873,7 @@
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -12920,7 +12921,7 @@
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -12968,7 +12969,7 @@
         <v>document.getElementById("c17").textContent = Cantor17;</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -13016,7 +13017,7 @@
         <v>document.getElementById("c18").textContent = Cantor18;</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -13064,7 +13065,7 @@
         <v>document.getElementById("c19").textContent = Cantor19;</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -13112,7 +13113,7 @@
         <v>document.getElementById("c20").textContent = Cantor20;</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>25</v>
       </c>
@@ -13157,7 +13158,7 @@
         <v>document.getElementById("c21").textContent = Cantor21;</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -13204,7 +13205,7 @@
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -13252,7 +13253,7 @@
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -13300,7 +13301,7 @@
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -13348,7 +13349,7 @@
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>30</v>
       </c>
@@ -13396,7 +13397,7 @@
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>30</v>
       </c>
@@ -13444,7 +13445,7 @@
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -13489,7 +13490,7 @@
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -13534,7 +13535,7 @@
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -13579,7 +13580,7 @@
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -13624,7 +13625,7 @@
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>30</v>
       </c>
@@ -13669,7 +13670,7 @@
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>30</v>
       </c>
@@ -13714,7 +13715,7 @@
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>30</v>
       </c>
@@ -13759,7 +13760,7 @@
         <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>30</v>
       </c>
@@ -13804,7 +13805,7 @@
         <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>30</v>
       </c>
@@ -13849,7 +13850,7 @@
         <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>30</v>
       </c>
@@ -13894,7 +13895,7 @@
         <v>document.getElementById("a16").textContent = Asamblea16;</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>30</v>
       </c>
@@ -13939,7 +13940,7 @@
         <v>document.getElementById("a17").textContent = Asamblea17;</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>30</v>
       </c>
@@ -13984,7 +13985,7 @@
         <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>30</v>
       </c>
@@ -14029,7 +14030,7 @@
         <v>document.getElementById("a19").textContent = Asamblea19;</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>30</v>
       </c>
@@ -14074,7 +14075,7 @@
         <v>document.getElementById("a20").textContent = Asamblea20;</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>30</v>
       </c>
@@ -14119,7 +14120,7 @@
         <v>document.getElementById("a21").textContent = Asamblea21;</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>30</v>
       </c>
@@ -14164,7 +14165,7 @@
         <v>document.getElementById("a22").textContent = Asamblea22;</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>30</v>
       </c>
@@ -14209,7 +14210,7 @@
         <v>document.getElementById("a23").textContent = Asamblea23;</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>30</v>
       </c>
@@ -14254,7 +14255,7 @@
         <v>document.getElementById("a24").textContent = Asamblea24;</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>30</v>
       </c>
@@ -14299,7 +14300,7 @@
         <v>document.getElementById("a25").textContent = Asamblea25;</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>30</v>
       </c>
@@ -14344,7 +14345,7 @@
         <v>document.getElementById("a26").textContent = Asamblea26;</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>30</v>
       </c>
@@ -14389,7 +14390,7 @@
         <v>document.getElementById("a27").textContent = Asamblea27;</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>30</v>
       </c>
@@ -14434,7 +14435,7 @@
         <v>document.getElementById("a28").textContent = Asamblea28;</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>30</v>
       </c>
@@ -14493,27 +14494,27 @@
       <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.42578125" customWidth="1"/>
-    <col min="9" max="9" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.453125" customWidth="1"/>
+    <col min="9" max="9" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="1.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="51.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
       <c r="F1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -14560,7 +14561,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -14608,7 +14609,7 @@
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -14656,7 +14657,7 @@
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -14704,7 +14705,7 @@
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -14752,7 +14753,7 @@
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -14800,7 +14801,7 @@
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -14848,7 +14849,7 @@
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -14896,7 +14897,7 @@
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -14944,7 +14945,7 @@
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -14992,7 +14993,7 @@
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -15037,7 +15038,7 @@
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -15082,7 +15083,7 @@
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -15127,7 +15128,7 @@
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -15172,7 +15173,7 @@
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -15217,7 +15218,7 @@
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -15262,7 +15263,7 @@
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -15307,7 +15308,7 @@
         <v>document.getElementById("c17").textContent = Cantor17;</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -15352,7 +15353,7 @@
         <v>document.getElementById("c18").textContent = Cantor18;</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -15397,7 +15398,7 @@
         <v>document.getElementById("c19").textContent = Cantor19;</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -15442,7 +15443,7 @@
         <v>document.getElementById("c20").textContent = Cantor20;</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>25</v>
       </c>
@@ -15487,7 +15488,7 @@
         <v>document.getElementById("c21").textContent = Cantor21;</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -15534,7 +15535,7 @@
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -15582,7 +15583,7 @@
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -15630,7 +15631,7 @@
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -15678,7 +15679,7 @@
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>30</v>
       </c>
@@ -15726,7 +15727,7 @@
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>30</v>
       </c>
@@ -15774,7 +15775,7 @@
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -15822,7 +15823,7 @@
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -15870,7 +15871,7 @@
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -15918,7 +15919,7 @@
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -15966,7 +15967,7 @@
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>30</v>
       </c>
@@ -16014,7 +16015,7 @@
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>30</v>
       </c>
@@ -16062,7 +16063,7 @@
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>30</v>
       </c>
@@ -16110,7 +16111,7 @@
         <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>30</v>
       </c>
@@ -16158,7 +16159,7 @@
         <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>30</v>
       </c>
@@ -16206,7 +16207,7 @@
         <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>30</v>
       </c>
@@ -16254,7 +16255,7 @@
         <v>document.getElementById("a16").textContent = Asamblea16;</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>30</v>
       </c>
@@ -16302,7 +16303,7 @@
         <v>document.getElementById("a17").textContent = Asamblea17;</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>30</v>
       </c>
@@ -16350,7 +16351,7 @@
         <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>30</v>
       </c>
@@ -16395,7 +16396,7 @@
         <v>document.getElementById("a19").textContent = Asamblea19;</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>30</v>
       </c>
@@ -16440,7 +16441,7 @@
         <v>document.getElementById("a20").textContent = Asamblea20;</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>30</v>
       </c>
@@ -16485,7 +16486,7 @@
         <v>document.getElementById("a21").textContent = Asamblea21;</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>30</v>
       </c>
@@ -16530,7 +16531,7 @@
         <v>document.getElementById("a22").textContent = Asamblea22;</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>30</v>
       </c>
@@ -16575,7 +16576,7 @@
         <v>document.getElementById("a23").textContent = Asamblea23;</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>30</v>
       </c>
@@ -16620,7 +16621,7 @@
         <v>document.getElementById("a24").textContent = Asamblea24;</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>30</v>
       </c>
@@ -16665,7 +16666,7 @@
         <v>document.getElementById("a25").textContent = Asamblea25;</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>30</v>
       </c>
@@ -16710,7 +16711,7 @@
         <v>document.getElementById("a26").textContent = Asamblea26;</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>30</v>
       </c>
@@ -16755,7 +16756,7 @@
         <v>document.getElementById("a27").textContent = Asamblea27;</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>30</v>
       </c>
@@ -16800,7 +16801,7 @@
         <v>document.getElementById("a28").textContent = Asamblea28;</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>30</v>
       </c>
@@ -16859,27 +16860,27 @@
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.42578125" customWidth="1"/>
-    <col min="9" max="9" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.453125" customWidth="1"/>
+    <col min="9" max="9" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="1.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="51.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
       <c r="F1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -16926,7 +16927,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -16974,7 +16975,7 @@
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -17022,7 +17023,7 @@
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -17070,7 +17071,7 @@
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -17118,7 +17119,7 @@
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -17166,7 +17167,7 @@
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -17214,7 +17215,7 @@
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -17262,7 +17263,7 @@
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -17310,7 +17311,7 @@
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -17358,7 +17359,7 @@
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -17406,7 +17407,7 @@
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -17454,7 +17455,7 @@
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -17502,7 +17503,7 @@
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -17550,7 +17551,7 @@
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -17598,7 +17599,7 @@
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -17646,7 +17647,7 @@
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -17694,7 +17695,7 @@
         <v>document.getElementById("c17").textContent = Cantor17;</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -17742,7 +17743,7 @@
         <v>document.getElementById("c18").textContent = Cantor18;</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -17790,7 +17791,7 @@
         <v>document.getElementById("c19").textContent = Cantor19;</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -17838,7 +17839,7 @@
         <v>document.getElementById("c20").textContent = Cantor20;</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>25</v>
       </c>
@@ -17886,7 +17887,7 @@
         <v>document.getElementById("c21").textContent = Cantor21;</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>25</v>
       </c>
@@ -17934,7 +17935,7 @@
         <v>document.getElementById("c22").textContent = Cantor22;</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>25</v>
       </c>
@@ -17982,7 +17983,7 @@
         <v>document.getElementById("c23").textContent = Cantor23;</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -18030,7 +18031,7 @@
         <v>document.getElementById("c24").textContent = Cantor24;</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -18078,7 +18079,7 @@
         <v>document.getElementById("c25").textContent = Cantor25;</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -18126,7 +18127,7 @@
         <v>document.getElementById("c26").textContent = Cantor26;</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>25</v>
       </c>
@@ -18174,7 +18175,7 @@
         <v>document.getElementById("c27").textContent = Cantor27;</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>25</v>
       </c>
@@ -18222,7 +18223,7 @@
         <v>document.getElementById("c28").textContent = Cantor28;</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>25</v>
       </c>
@@ -18270,7 +18271,7 @@
         <v>document.getElementById("c29").textContent = Cantor29;</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>25</v>
       </c>
@@ -18318,7 +18319,7 @@
         <v>document.getElementById("c30").textContent = Cantor30;</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>25</v>
       </c>
@@ -18366,7 +18367,7 @@
         <v>document.getElementById("c31").textContent = Cantor31;</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>25</v>
       </c>
@@ -18414,7 +18415,7 @@
         <v>document.getElementById("c32").textContent = Cantor32;</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>25</v>
       </c>
@@ -18462,7 +18463,7 @@
         <v>document.getElementById("c33").textContent = Cantor33;</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>25</v>
       </c>
@@ -18510,7 +18511,7 @@
         <v>document.getElementById("c34").textContent = Cantor34;</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>30</v>
       </c>
@@ -18557,7 +18558,7 @@
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>30</v>
       </c>
@@ -18605,7 +18606,7 @@
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>30</v>
       </c>
@@ -18653,7 +18654,7 @@
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>30</v>
       </c>
@@ -18701,7 +18702,7 @@
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>30</v>
       </c>
@@ -18749,7 +18750,7 @@
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>30</v>
       </c>
@@ -18797,7 +18798,7 @@
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>30</v>
       </c>
@@ -18845,7 +18846,7 @@
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>30</v>
       </c>
@@ -18893,7 +18894,7 @@
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>30</v>
       </c>
@@ -18941,7 +18942,7 @@
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>30</v>
       </c>
@@ -18989,7 +18990,7 @@
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>30</v>
       </c>
@@ -19037,7 +19038,7 @@
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>30</v>
       </c>
@@ -19085,7 +19086,7 @@
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>30</v>
       </c>
@@ -19133,7 +19134,7 @@
         <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>30</v>
       </c>
@@ -19181,7 +19182,7 @@
         <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>30</v>
       </c>
@@ -19229,7 +19230,7 @@
         <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>30</v>
       </c>
@@ -19277,7 +19278,7 @@
         <v>document.getElementById("a16").textContent = Asamblea16;</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>30</v>
       </c>
@@ -19325,7 +19326,7 @@
         <v>document.getElementById("a17").textContent = Asamblea17;</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>30</v>
       </c>
@@ -19373,7 +19374,7 @@
         <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>30</v>
       </c>
@@ -19421,7 +19422,7 @@
         <v>document.getElementById("a19").textContent = Asamblea19;</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>30</v>
       </c>
@@ -19483,28 +19484,28 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="4.42578125" customWidth="1"/>
-    <col min="10" max="10" width="60.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="4.453125" customWidth="1"/>
+    <col min="10" max="10" width="60.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="1.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3" customWidth="1"/>
-    <col min="16" max="16" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="51.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>146</v>
       </c>
@@ -19541,7 +19542,7 @@
         <v>26</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N4" si="0">C2</f>
+        <f>C2</f>
         <v>1</v>
       </c>
       <c r="O2" t="s">
@@ -19552,7 +19553,7 @@
         <v>document.getElementById("t1").textContent = titulo;</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>148</v>
       </c>
@@ -19588,18 +19589,18 @@
         <v>26</v>
       </c>
       <c r="N3">
-        <f t="shared" si="0"/>
+        <f>C3</f>
         <v>1</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P4" si="1">_xlfn.CONCAT("document.getElementById",K3,M3,"c",N3,M3,L3,".textContent = Cantor",N3,O3)</f>
+        <f>_xlfn.CONCAT("document.getElementById",K3,M3,"c",N3,M3,L3,".textContent = Cantor",N3,O3)</f>
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>149</v>
       </c>
@@ -19635,23 +19636,23 @@
         <v>26</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f>C4</f>
         <v>1</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" si="1"/>
+        <f>_xlfn.CONCAT("document.getElementById",K4,M4,"c",N4,M4,L4,".textContent = Cantor",N4,O4)</f>
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>30</v>
       </c>
@@ -19674,7 +19675,7 @@
         <v>29</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" ref="J7:J25" si="2">_xlfn.CONCAT(B7,C7," ",D7," ",E7,F7,G7,H7)</f>
+        <f t="shared" ref="J7:J25" si="0">_xlfn.CONCAT(B7,C7," ",D7," ",E7,F7,G7,H7)</f>
         <v>let Asamblea1 = "¡ALABADLO! ";</v>
       </c>
       <c r="K7" t="s">
@@ -19687,7 +19688,7 @@
         <v>26</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:N25" si="3">C7</f>
+        <f t="shared" ref="N7:N25" si="1">C7</f>
         <v>1</v>
       </c>
       <c r="O7" t="s">
@@ -19698,12 +19699,12 @@
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>30</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C16" si="4">+C7+1</f>
+        <f t="shared" ref="C8:C16" si="2">+C7+1</f>
         <v>2</v>
       </c>
       <c r="D8" t="s">
@@ -19722,36 +19723,36 @@
         <v>29</v>
       </c>
       <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea2 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" ref="P8:P31" si="3">_xlfn.CONCAT("document.getElementById",K8,M8,"a",N8,M8,L8,".textContent = Asamblea",N8,O8)</f>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="2"/>
-        <v>let Asamblea2 = "¡ALABADLO!";</v>
-      </c>
-      <c r="K8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="O8" t="s">
-        <v>29</v>
-      </c>
-      <c r="P8" t="str">
-        <f t="shared" ref="P8:P31" si="5">_xlfn.CONCAT("document.getElementById",K8,M8,"a",N8,M8,L8,".textContent = Asamblea",N8,O8)</f>
-        <v>document.getElementById("a2").textContent = Asamblea2;</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="D9" t="s">
@@ -19770,36 +19771,36 @@
         <v>29</v>
       </c>
       <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea3 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="2"/>
-        <v>let Asamblea3 = "¡ALABADLO!";</v>
-      </c>
-      <c r="K9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" t="s">
-        <v>26</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="O9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P9" t="str">
-        <f t="shared" si="5"/>
-        <v>document.getElementById("a3").textContent = Asamblea3;</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="D10" t="s">
@@ -19818,36 +19819,36 @@
         <v>29</v>
       </c>
       <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea4 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="2"/>
-        <v>let Asamblea4 = "¡ALABADLO!";</v>
-      </c>
-      <c r="K10" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" t="s">
-        <v>26</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="O10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P10" t="str">
-        <f t="shared" si="5"/>
-        <v>document.getElementById("a4").textContent = Asamblea4;</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="D11" t="s">
@@ -19866,36 +19867,36 @@
         <v>29</v>
       </c>
       <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea5 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
         <f t="shared" si="2"/>
-        <v>let Asamblea5 = "¡ALABADLO!";</v>
-      </c>
-      <c r="K11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" t="s">
-        <v>26</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="O11" t="s">
-        <v>29</v>
-      </c>
-      <c r="P11" t="str">
-        <f t="shared" si="5"/>
-        <v>document.getElementById("a5").textContent = Asamblea5;</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="D12" t="s">
@@ -19914,36 +19915,36 @@
         <v>29</v>
       </c>
       <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea6 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a6").textContent = Asamblea6;</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="2"/>
-        <v>let Asamblea6 = "¡ALABADLO!";</v>
-      </c>
-      <c r="K12" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="O12" t="s">
-        <v>29</v>
-      </c>
-      <c r="P12" t="str">
-        <f t="shared" si="5"/>
-        <v>document.getElementById("a6").textContent = Asamblea6;</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="D13" t="s">
@@ -19962,36 +19963,36 @@
         <v>29</v>
       </c>
       <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea7 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a7").textContent = Asamblea7;</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
         <f t="shared" si="2"/>
-        <v>let Asamblea7 = "¡ALABADLO!";</v>
-      </c>
-      <c r="K13" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="O13" t="s">
-        <v>29</v>
-      </c>
-      <c r="P13" t="str">
-        <f t="shared" si="5"/>
-        <v>document.getElementById("a7").textContent = Asamblea7;</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="D14" t="s">
@@ -20010,36 +20011,36 @@
         <v>29</v>
       </c>
       <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea8 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a8").textContent = Asamblea8;</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
         <f t="shared" si="2"/>
-        <v>let Asamblea8 = "¡ALABADLO!";</v>
-      </c>
-      <c r="K14" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" t="s">
-        <v>26</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="O14" t="s">
-        <v>29</v>
-      </c>
-      <c r="P14" t="str">
-        <f t="shared" si="5"/>
-        <v>document.getElementById("a8").textContent = Asamblea8;</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="D15" t="s">
@@ -20058,36 +20059,36 @@
         <v>29</v>
       </c>
       <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea9 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="O15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a9").textContent = Asamblea9;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
         <f t="shared" si="2"/>
-        <v>let Asamblea9 = "¡ALABADLO!";</v>
-      </c>
-      <c r="K15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="O15" t="s">
-        <v>29</v>
-      </c>
-      <c r="P15" t="str">
-        <f t="shared" si="5"/>
-        <v>document.getElementById("a9").textContent = Asamblea9;</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="D16" t="s">
@@ -20106,7 +20107,7 @@
         <v>29</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>let Asamblea10 = "¡ALABADLO!";</v>
       </c>
       <c r="K16" t="s">
@@ -20119,23 +20120,23 @@
         <v>26</v>
       </c>
       <c r="N16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="O16" t="s">
         <v>29</v>
       </c>
       <c r="P16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>30</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:C36" si="6">+C16+1</f>
+        <f t="shared" ref="C17:C36" si="4">+C16+1</f>
         <v>11</v>
       </c>
       <c r="D17" t="s">
@@ -20154,7 +20155,7 @@
         <v>29</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>let Asamblea11 = "¡ALABADLO!";</v>
       </c>
       <c r="K17" t="s">
@@ -20167,23 +20168,23 @@
         <v>26</v>
       </c>
       <c r="N17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="O17" t="s">
         <v>29</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>30</v>
       </c>
       <c r="C18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="D18" t="s">
@@ -20202,7 +20203,7 @@
         <v>29</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>let Asamblea12 = "¡ALABADLO!";</v>
       </c>
       <c r="K18" t="s">
@@ -20215,23 +20216,23 @@
         <v>26</v>
       </c>
       <c r="N18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="O18" t="s">
         <v>29</v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="C19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="D19" t="s">
@@ -20250,7 +20251,7 @@
         <v>29</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>let Asamblea13 = "¡ALABADLO!";</v>
       </c>
       <c r="K19" t="s">
@@ -20263,23 +20264,23 @@
         <v>26</v>
       </c>
       <c r="N19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="O19" t="s">
         <v>29</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>30</v>
       </c>
       <c r="C20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="D20" t="s">
@@ -20298,7 +20299,7 @@
         <v>29</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>let Asamblea14 = "¡ALABADLO!";</v>
       </c>
       <c r="K20" t="s">
@@ -20311,23 +20312,23 @@
         <v>26</v>
       </c>
       <c r="N20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="O20" t="s">
         <v>29</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>30</v>
       </c>
       <c r="C21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="D21" t="s">
@@ -20346,7 +20347,7 @@
         <v>29</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>let Asamblea15 = "¡ALABADLO!";</v>
       </c>
       <c r="K21" t="s">
@@ -20359,23 +20360,23 @@
         <v>26</v>
       </c>
       <c r="N21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="O21" t="s">
         <v>29</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>30</v>
       </c>
       <c r="C22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="D22" t="s">
@@ -20394,7 +20395,7 @@
         <v>29</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>let Asamblea16 = "¡ALABADLO!";</v>
       </c>
       <c r="K22" t="s">
@@ -20407,23 +20408,23 @@
         <v>26</v>
       </c>
       <c r="N22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="O22" t="s">
         <v>29</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>document.getElementById("a16").textContent = Asamblea16;</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>30</v>
       </c>
       <c r="C23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="D23" t="s">
@@ -20442,7 +20443,7 @@
         <v>29</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>let Asamblea17 = "¡ALABADLO!";</v>
       </c>
       <c r="K23" t="s">
@@ -20455,23 +20456,23 @@
         <v>26</v>
       </c>
       <c r="N23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="O23" t="s">
         <v>29</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>document.getElementById("a17").textContent = Asamblea17;</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>30</v>
       </c>
       <c r="C24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="D24" t="s">
@@ -20490,7 +20491,7 @@
         <v>29</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>let Asamblea18 = "¡ALABADLO!";</v>
       </c>
       <c r="K24" t="s">
@@ -20503,23 +20504,23 @@
         <v>26</v>
       </c>
       <c r="N24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="O24" t="s">
         <v>29</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>30</v>
       </c>
       <c r="C25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="D25" t="s">
@@ -20538,7 +20539,7 @@
         <v>29</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>let Asamblea19 = "¡ALABADLO!";</v>
       </c>
       <c r="K25" t="s">
@@ -20551,23 +20552,23 @@
         <v>26</v>
       </c>
       <c r="N25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="O25" t="s">
         <v>29</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>document.getElementById("a19").textContent = Asamblea19;</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>30</v>
       </c>
       <c r="C26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="D26" t="s">
@@ -20586,7 +20587,7 @@
         <v>29</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" ref="J26:J30" si="7">_xlfn.CONCAT(B26,C26," ",D26," ",E26,F26,G26,H26)</f>
+        <f t="shared" ref="J26:J36" si="5">_xlfn.CONCAT(B26,C26," ",D26," ",E26,F26,G26,H26)</f>
         <v>let Asamblea20 = "¡ALABADLO!";</v>
       </c>
       <c r="K26" t="s">
@@ -20599,167 +20600,167 @@
         <v>26</v>
       </c>
       <c r="N26">
-        <f t="shared" ref="N26:N30" si="8">C26</f>
+        <f t="shared" ref="N26:N36" si="6">C26</f>
         <v>20</v>
       </c>
       <c r="O26" t="s">
         <v>29</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" ref="P26:P30" si="9">_xlfn.CONCAT("document.getElementById",K26,M26,"a",N26,M26,L26,".textContent = Asamblea",N26,O26)</f>
+        <f>_xlfn.CONCAT("document.getElementById",K26,M26,"a",N26,M26,L26,".textContent = Asamblea",N26,O26)</f>
         <v>document.getElementById("a20").textContent = Asamblea20;</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>30</v>
       </c>
       <c r="C27">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="5"/>
+        <v>let Asamblea21 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27">
         <f t="shared" si="6"/>
         <v>21</v>
       </c>
-      <c r="D27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="O27" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K27,M27,"a",N27,M27,L27,".textContent = Asamblea",N27,O27)</f>
+        <v>document.getElementById("a21").textContent = Asamblea21;</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
         <v>159</v>
       </c>
-      <c r="G27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" t="str">
-        <f t="shared" si="7"/>
-        <v>let Asamblea21 = "¡ALABADLO!";</v>
-      </c>
-      <c r="K27" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" t="s">
-        <v>28</v>
-      </c>
-      <c r="M27" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="8"/>
-        <v>21</v>
-      </c>
-      <c r="O27" t="s">
-        <v>29</v>
-      </c>
-      <c r="P27" t="str">
-        <f t="shared" si="9"/>
-        <v>document.getElementById("a21").textContent = Asamblea21;</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28">
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="5"/>
+        <v>let Asamblea22 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="D28" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="O28" t="s">
+        <v>29</v>
+      </c>
+      <c r="P28" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K28,M28,"a",N28,M28,L28,".textContent = Asamblea",N28,O28)</f>
+        <v>document.getElementById("a22").textContent = Asamblea22;</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
         <v>159</v>
       </c>
-      <c r="G28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" t="str">
-        <f t="shared" si="7"/>
-        <v>let Asamblea22 = "¡ALABADLO!";</v>
-      </c>
-      <c r="K28" t="s">
-        <v>27</v>
-      </c>
-      <c r="L28" t="s">
-        <v>28</v>
-      </c>
-      <c r="M28" t="s">
-        <v>26</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="8"/>
-        <v>22</v>
-      </c>
-      <c r="O28" t="s">
-        <v>29</v>
-      </c>
-      <c r="P28" t="str">
-        <f t="shared" si="9"/>
-        <v>document.getElementById("a22").textContent = Asamblea22;</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29">
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="5"/>
+        <v>let Asamblea23 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29">
         <f t="shared" si="6"/>
         <v>23</v>
       </c>
-      <c r="D29" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F29" t="s">
-        <v>159</v>
-      </c>
-      <c r="G29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" t="str">
-        <f t="shared" si="7"/>
-        <v>let Asamblea23 = "¡ALABADLO!";</v>
-      </c>
-      <c r="K29" t="s">
-        <v>27</v>
-      </c>
-      <c r="L29" t="s">
-        <v>28</v>
-      </c>
-      <c r="M29" t="s">
-        <v>26</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="8"/>
-        <v>23</v>
-      </c>
       <c r="O29" t="s">
         <v>29</v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT("document.getElementById",K29,M29,"a",N29,M29,L29,".textContent = Asamblea",N29,O29)</f>
         <v>document.getElementById("a23").textContent = Asamblea23;</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="D30" t="s">
@@ -20778,7 +20779,7 @@
         <v>29</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>let Asamblea24 = "¡ALABADLO!";</v>
       </c>
       <c r="K30" t="s">
@@ -20791,71 +20792,71 @@
         <v>26</v>
       </c>
       <c r="N30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="O30" t="s">
         <v>29</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" si="9"/>
+        <f>_xlfn.CONCAT("document.getElementById",K30,M30,"a",N30,M30,L30,".textContent = Asamblea",N30,O30)</f>
         <v>document.getElementById("a24").textContent = Asamblea24;</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>30</v>
       </c>
       <c r="C31">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="5"/>
+        <v>let Asamblea25 = "¡ALABADLO!";</v>
+      </c>
+      <c r="K31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31" t="s">
-        <v>159</v>
-      </c>
-      <c r="G31" t="s">
-        <v>26</v>
-      </c>
-      <c r="H31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" t="str">
-        <f>_xlfn.CONCAT(B31,C31," ",D31," ",E31,F31,G31,H31)</f>
-        <v>let Asamblea25 = "¡ALABADLO!";</v>
-      </c>
-      <c r="K31" t="s">
-        <v>27</v>
-      </c>
-      <c r="L31" t="s">
-        <v>28</v>
-      </c>
-      <c r="M31" t="s">
-        <v>26</v>
-      </c>
-      <c r="N31">
-        <f>C31</f>
-        <v>25</v>
-      </c>
       <c r="O31" t="s">
         <v>29</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>document.getElementById("a25").textContent = Asamblea25;</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>30</v>
       </c>
       <c r="C32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="D32" t="s">
@@ -20874,7 +20875,7 @@
         <v>29</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" ref="J32:J35" si="10">_xlfn.CONCAT(B32,C32," ",D32," ",E32,F32,G32,H32)</f>
+        <f t="shared" si="5"/>
         <v>let Asamblea26 = "¡ALABADLO!";</v>
       </c>
       <c r="K32" t="s">
@@ -20887,23 +20888,23 @@
         <v>26</v>
       </c>
       <c r="N32">
-        <f t="shared" ref="N32:N35" si="11">C32</f>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="O32" t="s">
         <v>29</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" ref="P32:P35" si="12">_xlfn.CONCAT("document.getElementById",K32,M32,"a",N32,M32,L32,".textContent = Asamblea",N32,O32)</f>
+        <f>_xlfn.CONCAT("document.getElementById",K32,M32,"a",N32,M32,L32,".textContent = Asamblea",N32,O32)</f>
         <v>document.getElementById("a26").textContent = Asamblea26;</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>30</v>
       </c>
       <c r="C33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="D33" t="s">
@@ -20922,7 +20923,7 @@
         <v>29</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>let Asamblea27 = "¡ALABADLO!";</v>
       </c>
       <c r="K33" t="s">
@@ -20935,23 +20936,23 @@
         <v>26</v>
       </c>
       <c r="N33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="O33" t="s">
         <v>29</v>
       </c>
       <c r="P33" t="str">
-        <f t="shared" si="12"/>
+        <f>_xlfn.CONCAT("document.getElementById",K33,M33,"a",N33,M33,L33,".textContent = Asamblea",N33,O33)</f>
         <v>document.getElementById("a27").textContent = Asamblea27;</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>30</v>
       </c>
       <c r="C34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="D34" t="s">
@@ -20970,7 +20971,7 @@
         <v>29</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>let Asamblea28 = "¡ALABADLO!";</v>
       </c>
       <c r="K34" t="s">
@@ -20983,23 +20984,23 @@
         <v>26</v>
       </c>
       <c r="N34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="O34" t="s">
         <v>29</v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" si="12"/>
+        <f>_xlfn.CONCAT("document.getElementById",K34,M34,"a",N34,M34,L34,".textContent = Asamblea",N34,O34)</f>
         <v>document.getElementById("a28").textContent = Asamblea28;</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>30</v>
       </c>
       <c r="C35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="D35" t="s">
@@ -21018,7 +21019,7 @@
         <v>29</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>let Asamblea29 = "¡ALABADLO!";</v>
       </c>
       <c r="K35" t="s">
@@ -21031,23 +21032,23 @@
         <v>26</v>
       </c>
       <c r="N35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="O35" t="s">
         <v>29</v>
       </c>
       <c r="P35" t="str">
-        <f t="shared" si="12"/>
+        <f>_xlfn.CONCAT("document.getElementById",K35,M35,"a",N35,M35,L35,".textContent = Asamblea",N35,O35)</f>
         <v>document.getElementById("a29").textContent = Asamblea29;</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>30</v>
       </c>
       <c r="C36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="D36" t="s">
@@ -21066,7 +21067,7 @@
         <v>29</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" ref="J36" si="13">_xlfn.CONCAT(B36,C36," ",D36," ",E36,F36,G36,H36)</f>
+        <f t="shared" si="5"/>
         <v>let Asamblea30 = "¡ALABADLO!";</v>
       </c>
       <c r="K36" t="s">
@@ -21079,23 +21080,23 @@
         <v>26</v>
       </c>
       <c r="N36">
-        <f t="shared" ref="N36" si="14">C36</f>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="O36" t="s">
         <v>29</v>
       </c>
       <c r="P36" t="str">
-        <f t="shared" ref="P36" si="15">_xlfn.CONCAT("document.getElementById",K36,M36,"a",N36,M36,L36,".textContent = Asamblea",N36,O36)</f>
+        <f>_xlfn.CONCAT("document.getElementById",K36,M36,"a",N36,M36,L36,".textContent = Asamblea",N36,O36)</f>
         <v>document.getElementById("a30").textContent = Asamblea30;</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I38" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>25</v>
       </c>
@@ -21142,7 +21143,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>25</v>
       </c>
@@ -21166,7 +21167,7 @@
         <v>29</v>
       </c>
       <c r="J40" t="str">
-        <f t="shared" ref="J40:J71" si="16">_xlfn.CONCAT(B40,C40," ",D40," ",E40,F40,G40,H40)</f>
+        <f t="shared" ref="J40:J71" si="7">_xlfn.CONCAT(B40,C40," ",D40," ",E40,F40,G40,H40)</f>
         <v>let Cantor2 = "alabad al Señor en lo alto,";</v>
       </c>
       <c r="K40" t="s">
@@ -21186,16 +21187,16 @@
         <v>29</v>
       </c>
       <c r="P40" t="str">
-        <f t="shared" ref="P40:P71" si="17">_xlfn.CONCAT("document.getElementById",K40,M40,"c",N40,M40,L40,".textContent = Cantor",N40,O40)</f>
+        <f t="shared" ref="P40:P71" si="8">_xlfn.CONCAT("document.getElementById",K40,M40,"c",N40,M40,L40,".textContent = Cantor",N40,O40)</f>
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>25</v>
       </c>
       <c r="C41">
-        <f t="shared" ref="C41:C71" si="18">+C40+1</f>
+        <f t="shared" ref="C41:C71" si="9">+C40+1</f>
         <v>3</v>
       </c>
       <c r="D41" t="s">
@@ -21214,7 +21215,7 @@
         <v>29</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor3 = "alabadlo, todos sus ángeles,";</v>
       </c>
       <c r="K41" t="s">
@@ -21227,23 +21228,23 @@
         <v>26</v>
       </c>
       <c r="N41">
-        <f t="shared" ref="N41:N71" si="19">C41</f>
+        <f t="shared" ref="N41:N71" si="10">C41</f>
         <v>3</v>
       </c>
       <c r="O41" t="s">
         <v>29</v>
       </c>
       <c r="P41" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>25</v>
       </c>
       <c r="C42">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D42" t="s">
@@ -21262,7 +21263,7 @@
         <v>29</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor4 = "alabadlo, todos sus ejércitos!";</v>
       </c>
       <c r="K42" t="s">
@@ -21275,23 +21276,23 @@
         <v>26</v>
       </c>
       <c r="N42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="O42" t="s">
         <v>29</v>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>25</v>
       </c>
       <c r="C43">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="D43" t="s">
@@ -21310,7 +21311,7 @@
         <v>29</v>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor5 = "Alabadlo, sol y luna,";</v>
       </c>
       <c r="K43" t="s">
@@ -21323,23 +21324,23 @@
         <v>26</v>
       </c>
       <c r="N43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="O43" t="s">
         <v>29</v>
       </c>
       <c r="P43" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>25</v>
       </c>
       <c r="C44">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="D44" t="s">
@@ -21358,7 +21359,7 @@
         <v>29</v>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor6 = "alabadlo, estrellas lucientes.";</v>
       </c>
       <c r="K44" t="s">
@@ -21371,23 +21372,23 @@
         <v>26</v>
       </c>
       <c r="N44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="O44" t="s">
         <v>29</v>
       </c>
       <c r="P44" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>25</v>
       </c>
       <c r="C45">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="D45" t="s">
@@ -21406,7 +21407,7 @@
         <v>29</v>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor7 = "Alabadlo, espacios celestes";</v>
       </c>
       <c r="K45" t="s">
@@ -21419,23 +21420,23 @@
         <v>26</v>
       </c>
       <c r="N45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="O45" t="s">
         <v>29</v>
       </c>
       <c r="P45" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>25</v>
       </c>
       <c r="C46">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="D46" t="s">
@@ -21454,7 +21455,7 @@
         <v>29</v>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor8 = "y aguas que cuelgan en el cielo.";</v>
       </c>
       <c r="K46" t="s">
@@ -21467,23 +21468,23 @@
         <v>26</v>
       </c>
       <c r="N46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="O46" t="s">
         <v>29</v>
       </c>
       <c r="P46" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>25</v>
       </c>
       <c r="C47">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="D47" t="s">
@@ -21502,7 +21503,7 @@
         <v>29</v>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor9 = "Alaben el nombre del Señor,";</v>
       </c>
       <c r="K47" t="s">
@@ -21515,23 +21516,23 @@
         <v>26</v>
       </c>
       <c r="N47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="O47" t="s">
         <v>29</v>
       </c>
       <c r="P47" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>25</v>
       </c>
       <c r="C48">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="D48" t="s">
@@ -21550,7 +21551,7 @@
         <v>29</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor10 = "porque Él lo mandó, y existieron.";</v>
       </c>
       <c r="K48" t="s">
@@ -21563,23 +21564,23 @@
         <v>26</v>
       </c>
       <c r="N48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="O48" t="s">
         <v>29</v>
       </c>
       <c r="P48" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>25</v>
       </c>
       <c r="C49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="D49" t="s">
@@ -21598,7 +21599,7 @@
         <v>29</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor11 = "Les dio consistencia perpetua";</v>
       </c>
       <c r="K49" t="s">
@@ -21611,23 +21612,23 @@
         <v>26</v>
       </c>
       <c r="N49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="O49" t="s">
         <v>29</v>
       </c>
       <c r="P49" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>25</v>
       </c>
       <c r="C50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="D50" t="s">
@@ -21646,7 +21647,7 @@
         <v>29</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor12 = "y una ley que no pasará.";</v>
       </c>
       <c r="K50" t="s">
@@ -21659,23 +21660,23 @@
         <v>26</v>
       </c>
       <c r="N50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="O50" t="s">
         <v>29</v>
       </c>
       <c r="P50" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>25</v>
       </c>
       <c r="C51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="D51" t="s">
@@ -21694,7 +21695,7 @@
         <v>29</v>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor13 = "Alabad al Señor en la tierra,";</v>
       </c>
       <c r="K51" t="s">
@@ -21707,23 +21708,23 @@
         <v>26</v>
       </c>
       <c r="N51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="O51" t="s">
         <v>29</v>
       </c>
       <c r="P51" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>25</v>
       </c>
       <c r="C52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="D52" t="s">
@@ -21742,7 +21743,7 @@
         <v>29</v>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor14 = "cetáceos y abismos del mar.";</v>
       </c>
       <c r="K52" t="s">
@@ -21755,23 +21756,23 @@
         <v>26</v>
       </c>
       <c r="N52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="O52" t="s">
         <v>29</v>
       </c>
       <c r="P52" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>25</v>
       </c>
       <c r="C53">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="D53" t="s">
@@ -21790,7 +21791,7 @@
         <v>29</v>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor15 = "Rayos, granizo, nieve y bruma,";</v>
       </c>
       <c r="K53" t="s">
@@ -21803,23 +21804,23 @@
         <v>26</v>
       </c>
       <c r="N53">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="O53" t="s">
         <v>29</v>
       </c>
       <c r="P53" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>25</v>
       </c>
       <c r="C54">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="D54" t="s">
@@ -21838,7 +21839,7 @@
         <v>29</v>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor16 = "viento huracanado";</v>
       </c>
       <c r="K54" t="s">
@@ -21851,23 +21852,23 @@
         <v>26</v>
       </c>
       <c r="N54">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="O54" t="s">
         <v>29</v>
       </c>
       <c r="P54" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>25</v>
       </c>
       <c r="C55">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="D55" t="s">
@@ -21886,7 +21887,7 @@
         <v>29</v>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor17 = "que cumple sus órdenes.";</v>
       </c>
       <c r="K55" t="s">
@@ -21899,23 +21900,23 @@
         <v>26</v>
       </c>
       <c r="N55">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="O55" t="s">
         <v>29</v>
       </c>
       <c r="P55" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c17").textContent = Cantor17;</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>25</v>
       </c>
       <c r="C56">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="D56" t="s">
@@ -21934,7 +21935,7 @@
         <v>29</v>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor18 = "Montes y todas las sierras,";</v>
       </c>
       <c r="K56" t="s">
@@ -21947,23 +21948,23 @@
         <v>26</v>
       </c>
       <c r="N56">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="O56" t="s">
         <v>29</v>
       </c>
       <c r="P56" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c18").textContent = Cantor18;</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>25</v>
       </c>
       <c r="C57">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="D57" t="s">
@@ -21982,7 +21983,7 @@
         <v>29</v>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor19 = "árboles frutales y cedros.";</v>
       </c>
       <c r="K57" t="s">
@@ -21995,23 +21996,23 @@
         <v>26</v>
       </c>
       <c r="N57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="O57" t="s">
         <v>29</v>
       </c>
       <c r="P57" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c19").textContent = Cantor19;</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>25</v>
       </c>
       <c r="C58">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="D58" t="s">
@@ -22030,7 +22031,7 @@
         <v>29</v>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor20 = "Fieras y animales domésticos,";</v>
       </c>
       <c r="K58" t="s">
@@ -22043,23 +22044,23 @@
         <v>26</v>
       </c>
       <c r="N58">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="O58" t="s">
         <v>29</v>
       </c>
       <c r="P58" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c20").textContent = Cantor20;</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>25</v>
       </c>
       <c r="C59">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="D59" t="s">
@@ -22078,7 +22079,7 @@
         <v>29</v>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor21 = "reptiles y pájaros que vuelan.";</v>
       </c>
       <c r="K59" t="s">
@@ -22091,23 +22092,23 @@
         <v>26</v>
       </c>
       <c r="N59">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="O59" t="s">
         <v>29</v>
       </c>
       <c r="P59" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c21").textContent = Cantor21;</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>25</v>
       </c>
       <c r="C60">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="D60" t="s">
@@ -22126,7 +22127,7 @@
         <v>29</v>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor22 = "Reyes y pueblos del orbe,";</v>
       </c>
       <c r="K60" t="s">
@@ -22139,23 +22140,23 @@
         <v>26</v>
       </c>
       <c r="N60">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="O60" t="s">
         <v>29</v>
       </c>
       <c r="P60" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c22").textContent = Cantor22;</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>25</v>
       </c>
       <c r="C61">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>23</v>
       </c>
       <c r="D61" t="s">
@@ -22174,7 +22175,7 @@
         <v>29</v>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor23 = "príncipes y jefes del mundo.";</v>
       </c>
       <c r="K61" t="s">
@@ -22187,23 +22188,23 @@
         <v>26</v>
       </c>
       <c r="N61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="O61" t="s">
         <v>29</v>
       </c>
       <c r="P61" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c23").textContent = Cantor23;</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>25</v>
       </c>
       <c r="C62">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="D62" t="s">
@@ -22222,7 +22223,7 @@
         <v>29</v>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor24 = "Los jóvenes";</v>
       </c>
       <c r="K62" t="s">
@@ -22235,23 +22236,23 @@
         <v>26</v>
       </c>
       <c r="N62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="O62" t="s">
         <v>29</v>
       </c>
       <c r="P62" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c24").textContent = Cantor24;</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>25</v>
       </c>
       <c r="C63">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="D63" t="s">
@@ -22270,7 +22271,7 @@
         <v>29</v>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor25 = "y también las doncellas,";</v>
       </c>
       <c r="K63" t="s">
@@ -22283,23 +22284,23 @@
         <v>26</v>
       </c>
       <c r="N63">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="O63" t="s">
         <v>29</v>
       </c>
       <c r="P63" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c25").textContent = Cantor25;</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>25</v>
       </c>
       <c r="C64">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="D64" t="s">
@@ -22318,7 +22319,7 @@
         <v>29</v>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor26 = "los viejos a una con los niños.";</v>
       </c>
       <c r="K64" t="s">
@@ -22331,23 +22332,23 @@
         <v>26</v>
       </c>
       <c r="N64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
       <c r="O64" t="s">
         <v>29</v>
       </c>
       <c r="P64" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c26").textContent = Cantor26;</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>25</v>
       </c>
       <c r="C65">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>27</v>
       </c>
       <c r="D65" t="s">
@@ -22366,7 +22367,7 @@
         <v>29</v>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor27 = "Alaben el nombre del Señor,";</v>
       </c>
       <c r="K65" t="s">
@@ -22379,23 +22380,23 @@
         <v>26</v>
       </c>
       <c r="N65">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
       <c r="O65" t="s">
         <v>29</v>
       </c>
       <c r="P65" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c27").textContent = Cantor27;</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>25</v>
       </c>
       <c r="C66">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="D66" t="s">
@@ -22414,7 +22415,7 @@
         <v>29</v>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor28 = "el único nombre sublime.";</v>
       </c>
       <c r="K66" t="s">
@@ -22427,23 +22428,23 @@
         <v>26</v>
       </c>
       <c r="N66">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="O66" t="s">
         <v>29</v>
       </c>
       <c r="P66" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c28").textContent = Cantor28;</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>25</v>
       </c>
       <c r="C67">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>29</v>
       </c>
       <c r="D67" t="s">
@@ -22462,7 +22463,7 @@
         <v>29</v>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor29 = "Su majestad,";</v>
       </c>
       <c r="K67" t="s">
@@ -22475,23 +22476,23 @@
         <v>26</v>
       </c>
       <c r="N67">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
       <c r="O67" t="s">
         <v>29</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c29").textContent = Cantor29;</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>25</v>
       </c>
       <c r="C68">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="D68" t="s">
@@ -22510,7 +22511,7 @@
         <v>29</v>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor30 = "sobre el cielo y la tierra,";</v>
       </c>
       <c r="K68" t="s">
@@ -22523,23 +22524,23 @@
         <v>26</v>
       </c>
       <c r="N68">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
       <c r="O68" t="s">
         <v>29</v>
       </c>
       <c r="P68" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c30").textContent = Cantor30;</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>25</v>
       </c>
       <c r="C69">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>31</v>
       </c>
       <c r="D69" t="s">
@@ -22558,7 +22559,7 @@
         <v>29</v>
       </c>
       <c r="J69" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor31 = "Él da fuerza y vigor a su pueblo.";</v>
       </c>
       <c r="K69" t="s">
@@ -22571,23 +22572,23 @@
         <v>26</v>
       </c>
       <c r="N69">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="O69" t="s">
         <v>29</v>
       </c>
       <c r="P69" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c31").textContent = Cantor31;</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>25</v>
       </c>
       <c r="C70">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="D70" t="s">
@@ -22606,7 +22607,7 @@
         <v>29</v>
       </c>
       <c r="J70" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor32 = "Alabanza de todos sus fieles,";</v>
       </c>
       <c r="K70" t="s">
@@ -22619,23 +22620,23 @@
         <v>26</v>
       </c>
       <c r="N70">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
       <c r="O70" t="s">
         <v>29</v>
       </c>
       <c r="P70" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c32").textContent = Cantor32;</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>25</v>
       </c>
       <c r="C71">
-        <f t="shared" si="18"/>
+        <f t="shared" si="9"/>
         <v>33</v>
       </c>
       <c r="D71" t="s">
@@ -22654,7 +22655,7 @@
         <v>29</v>
       </c>
       <c r="J71" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="7"/>
         <v>let Cantor33 = "de Israel, su pueblo elegido.";</v>
       </c>
       <c r="K71" t="s">
@@ -22667,426 +22668,426 @@
         <v>26</v>
       </c>
       <c r="N71">
-        <f t="shared" si="19"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
       <c r="O71" t="s">
         <v>29</v>
       </c>
       <c r="P71" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="8"/>
         <v>document.getElementById("c33").textContent = Cantor33;</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I73" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.35">
       <c r="J74" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.35">
       <c r="J75" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.35">
       <c r="J76" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I78" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.35">
       <c r="J79" t="str">
-        <f t="shared" ref="J79:J108" si="20">P7</f>
+        <f t="shared" ref="J79:J108" si="11">P7</f>
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.35">
       <c r="J80" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J81" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J82" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J83" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J84" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J85" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J86" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J87" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J88" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J89" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J90" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J91" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J92" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J93" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
-    <row r="94" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J94" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a16").textContent = Asamblea16;</v>
       </c>
     </row>
-    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J95" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a17").textContent = Asamblea17;</v>
       </c>
     </row>
-    <row r="96" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J96" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
-    <row r="97" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J97" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a19").textContent = Asamblea19;</v>
       </c>
     </row>
-    <row r="98" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J98" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a20").textContent = Asamblea20;</v>
       </c>
     </row>
-    <row r="99" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J99" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a21").textContent = Asamblea21;</v>
       </c>
     </row>
-    <row r="100" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J100" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a22").textContent = Asamblea22;</v>
       </c>
     </row>
-    <row r="101" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J101" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a23").textContent = Asamblea23;</v>
       </c>
     </row>
-    <row r="102" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J102" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a24").textContent = Asamblea24;</v>
       </c>
     </row>
-    <row r="103" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J103" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a25").textContent = Asamblea25;</v>
       </c>
     </row>
-    <row r="104" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J104" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a26").textContent = Asamblea26;</v>
       </c>
     </row>
-    <row r="105" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J105" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a27").textContent = Asamblea27;</v>
       </c>
     </row>
-    <row r="106" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J106" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a28").textContent = Asamblea28;</v>
       </c>
     </row>
-    <row r="107" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J107" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a29").textContent = Asamblea29;</v>
       </c>
     </row>
-    <row r="108" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J108" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="11"/>
         <v>document.getElementById("a30").textContent = Asamblea30;</v>
       </c>
     </row>
-    <row r="110" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I110" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="111" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J111" t="str">
-        <f t="shared" ref="J111:J143" si="21">P39</f>
+        <f t="shared" ref="J111:J143" si="12">P39</f>
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="112" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J112" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J113" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J114" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J115" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J116" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J117" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J118" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J119" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J120" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J121" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J122" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J123" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J124" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J125" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J126" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J127" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c17").textContent = Cantor17;</v>
       </c>
     </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J128" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c18").textContent = Cantor18;</v>
       </c>
     </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J129" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c19").textContent = Cantor19;</v>
       </c>
     </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J130" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c20").textContent = Cantor20;</v>
       </c>
     </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J131" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c21").textContent = Cantor21;</v>
       </c>
     </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J132" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c22").textContent = Cantor22;</v>
       </c>
     </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J133" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c23").textContent = Cantor23;</v>
       </c>
     </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J134" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c24").textContent = Cantor24;</v>
       </c>
     </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J135" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c25").textContent = Cantor25;</v>
       </c>
     </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J136" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c26").textContent = Cantor26;</v>
       </c>
     </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J137" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c27").textContent = Cantor27;</v>
       </c>
     </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J138" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c28").textContent = Cantor28;</v>
       </c>
     </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J139" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c29").textContent = Cantor29;</v>
       </c>
     </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J140" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c30").textContent = Cantor30;</v>
       </c>
     </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J141" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c31").textContent = Cantor31;</v>
       </c>
     </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J142" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c32").textContent = Cantor32;</v>
       </c>
     </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J143" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="12"/>
         <v>document.getElementById("c33").textContent = Cantor33;</v>
       </c>
     </row>
-    <row r="145" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I145" t="s">
         <v>157</v>
       </c>

--- a/src/doc/codificador.xlsx
+++ b/src/doc/codificador.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\db\Github\cantos\src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12D2794F-2002-4F8C-81AB-D62CB3433BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69992D0B-6A8F-4E92-83B5-D77841AFB3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="7" activeTab="10" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,9 @@
     <sheet name="Aclamad al Señor (2)" sheetId="8" r:id="rId8"/>
     <sheet name="ALABAD AL SEÑOR EN EL CIELO" sheetId="9" r:id="rId9"/>
     <sheet name="ALEGRÍA, HA NACIDO EL SALVADOR" sheetId="10" r:id="rId10"/>
+    <sheet name="CANTO DE MOISES" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4363" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5466" uniqueCount="242">
   <si>
     <t>viviendo en pureza, paciencia y bondad;</t>
   </si>
@@ -693,12 +693,114 @@
   <si>
     <t>¡ALEGRÍA, ALEGRÍA, ALEGRÍA …</t>
   </si>
+  <si>
+    <t>Cantemos al Señor, cantemos al Señor</t>
+  </si>
+  <si>
+    <t>que se cubrió de gloria, de gloria, de gloria,</t>
+  </si>
+  <si>
+    <t>precipitó en el mar caballo y caballero.</t>
+  </si>
+  <si>
+    <t>MI FUERZA Y MI CANCIÓN</t>
+  </si>
+  <si>
+    <t>ES EL SEÑOR.</t>
+  </si>
+  <si>
+    <t>ÉL ES MI SALVACIÓN,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES MI DIOS, Y YO LO ENSALZARÉ. </t>
+  </si>
+  <si>
+    <t>PRECIPITÓ EN EL MAR</t>
+  </si>
+  <si>
+    <t>CABALLO Y CABALLERO,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CABALLO Y CABALLERO. </t>
+  </si>
+  <si>
+    <t>Tu diestra poderosa, gloriosa por su fuerza</t>
+  </si>
+  <si>
+    <t>tu diestra, oh Señor, aplasta al enemigo,</t>
+  </si>
+  <si>
+    <t>aplasta al enemigo.</t>
+  </si>
+  <si>
+    <t>El enemigo había dicho:</t>
+  </si>
+  <si>
+    <t>«Les perseguiré y alcanzaré,</t>
+  </si>
+  <si>
+    <t>desnudaré la espada, se saciará mi alma,</t>
+  </si>
+  <si>
+    <t>los aniquilaré.»</t>
+  </si>
+  <si>
+    <t>Soplaste con tu aliento y el mar los sepultó.</t>
+  </si>
+  <si>
+    <t>Se hundieron como plomo</t>
+  </si>
+  <si>
+    <t>en las aguas de la muerte,</t>
+  </si>
+  <si>
+    <t>en las aguas formidables.</t>
+  </si>
+  <si>
+    <t>¿Quién como tú, Señor, glorioso en santidad,</t>
+  </si>
+  <si>
+    <t>terrible en las empresas, autor de maravillas,</t>
+  </si>
+  <si>
+    <t>autor de maravillas?</t>
+  </si>
+  <si>
+    <t>Rescatas a tu pueblo, lo llevas a tu casa.</t>
+  </si>
+  <si>
+    <t>Los príncipes de Edom, se estremecen</t>
+  </si>
+  <si>
+    <t>al paso de Jacob.</t>
+  </si>
+  <si>
+    <t>Lo llevas y lo plantas en el lugar sagrado</t>
+  </si>
+  <si>
+    <t>sobre tu monte santo, el santuario</t>
+  </si>
+  <si>
+    <t>que tus manos prepararon.</t>
+  </si>
+  <si>
+    <t>¡El Señor es un guerrero,</t>
+  </si>
+  <si>
+    <t>su nombre es Yahveh!</t>
+  </si>
+  <si>
+    <t>Los carros de Faraón y a todos sus valientes</t>
+  </si>
+  <si>
+    <t>precipitó en el mar.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -713,8 +815,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -733,8 +851,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -742,15 +878,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2336,7 +2519,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="B1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -3375,6 +3558,5391 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15036339-2941-4151-9BF0-3519FADA57A5}">
+  <dimension ref="B1:P154"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q69" sqref="Q69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
+    <col min="6" max="6" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="4.453125" customWidth="1"/>
+    <col min="10" max="10" width="60.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="1.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3" customWidth="1"/>
+    <col min="16" max="16" width="51.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="F1" s="3" t="str">
+        <f ca="1">LOWER(SUBSTITUTE(SUBSTITUTE(F4, " ", ""), ",", ""))</f>
+        <v>cantodemoises</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="F2" s="1" t="str">
+        <f ca="1">(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F1, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"))</f>
+        <v>cantodemoises</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="F3" s="2" t="str">
+        <f ca="1">UPPER(LEFT(F4,1)) &amp; LOWER(MID(F4,2,LEN(F4)-1))</f>
+        <v>Canto de moises</v>
+      </c>
+      <c r="I3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="F4" ca="1">MID(CELL("filename", A3), FIND("]", CELL("filename", A3)) + 1, 255)</f>
+        <v>CANTO DE MOISES</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="str">
+        <f ca="1">_xlfn.CONCAT(B4," ",D4," ",E4,F4,G4,H4)</f>
+        <v>let titulo = "CANTO DE MOISES";</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4">
+        <f>C4</f>
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K4,M4,"t",N4,M4,L4,".textContent = titulo",O4)</f>
+        <v>document.getElementById("t1").textContent = titulo;</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="str">
+        <f>_xlfn.CONCAT(B5," ",D5," ",E5,F5,G5,H5)</f>
+        <v>let salmo = "Villancico";</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5">
+        <f>C5</f>
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K5,M5,"c",N5,M5,L5,".textContent = Cantor",N5,O5)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <f>+'ALABAD AL SEÑOR EN EL CIELO'!F4+1</f>
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="str">
+        <f>_xlfn.CONCAT(B6," ",D6," ",E6,F6,G6,H6,"      //Numero del libro")</f>
+        <v>let dbnos = "31";      //Numero del libro</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6">
+        <f>C6</f>
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K6,M6,"c",N6,M6,L6,".textContent = Cantor",N6,O6)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="str">
+        <f>_xlfn.CONCAT(B9,C9," ",D9," ",E9,F9,G9,H9)</f>
+        <v>let Asamblea1 = "MI FUERZA Y MI CANCIÓN";</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:N18" si="0">C9</f>
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K9,M9,"a",N9,M9,L9,".textContent = Asamblea",N9,O9)</f>
+        <v>document.getElementById("a1").textContent = Asamblea1;</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" ref="C10:C73" si="1">+C9+1</f>
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="str">
+        <f>_xlfn.CONCAT(B10,C10," ",D10," ",E10,F10,G10,H10)</f>
+        <v>let Asamblea2 = "ES EL SEÑOR.";</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" ref="P10:P18" si="2">_xlfn.CONCAT("document.getElementById",K10,M10,"a",N10,M10,L10,".textContent = Asamblea",N10,O10)</f>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="str">
+        <f>_xlfn.CONCAT(B11,C11," ",D11," ",E11,F11,G11,H11)</f>
+        <v>let Asamblea3 = "ÉL ES MI SALVACIÓN,";</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="2"/>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="str">
+        <f>_xlfn.CONCAT(B12,C12," ",D12," ",E12,F12,G12,H12)</f>
+        <v>let Asamblea4 = "ES MI DIOS, Y YO LO ENSALZARÉ. ";</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="2"/>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="str">
+        <f>_xlfn.CONCAT(B13,C13," ",D13," ",E13,F13,G13,H13)</f>
+        <v>let Asamblea5 = "PRECIPITÓ EN EL MAR";</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="2"/>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="str">
+        <f>_xlfn.CONCAT(B14,C14," ",D14," ",E14,F14,G14,H14)</f>
+        <v>let Asamblea6 = "CABALLO Y CABALLERO,";</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="2"/>
+        <v>document.getElementById("a6").textContent = Asamblea6;</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" t="str">
+        <f>_xlfn.CONCAT(B15,C15," ",D15," ",E15,F15,G15,H15)</f>
+        <v>let Asamblea7 = "CABALLO Y CABALLERO,";</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="2"/>
+        <v>document.getElementById("a7").textContent = Asamblea7;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="str">
+        <f>_xlfn.CONCAT(B16,C16," ",D16," ",E16,F16,G16,H16)</f>
+        <v>let Asamblea8 = "PRECIPITÓ EN EL MAR";</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="2"/>
+        <v>document.getElementById("a8").textContent = Asamblea8;</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" t="str">
+        <f>_xlfn.CONCAT(B17,C17," ",D17," ",E17,F17,G17,H17)</f>
+        <v>let Asamblea9 = "CABALLO Y CABALLERO,";</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="O17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="2"/>
+        <v>document.getElementById("a9").textContent = Asamblea9;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" t="str">
+        <f>_xlfn.CONCAT(B18,C18," ",D18," ",E18,F18,G18,H18)</f>
+        <v>let Asamblea10 = "CABALLO Y CABALLERO. ";</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="2"/>
+        <v>document.getElementById("a10").textContent = Asamblea10;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" ref="J19:J82" si="3">_xlfn.CONCAT(B19,C19," ",D19," ",E19,F19,G19,H19)</f>
+        <v>let Asamblea11 = "MI FUERZA Y MI CANCIÓN";</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ref="N19:N82" si="4">C19</f>
+        <v>11</v>
+      </c>
+      <c r="O19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" ref="P19:P82" si="5">_xlfn.CONCAT("document.getElementById",K19,M19,"a",N19,M19,L19,".textContent = Asamblea",N19,O19)</f>
+        <v>document.getElementById("a11").textContent = Asamblea11;</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea12 = "ES EL SEÑOR.";</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="O20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a12").textContent = Asamblea12;</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea13 = "ÉL ES MI SALVACIÓN,";</v>
+      </c>
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="O21" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a13").textContent = Asamblea13;</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="5">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea14 = "ES MI DIOS, Y YO LO ENSALZARÉ. ";</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="O22" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a14").textContent = Asamblea14;</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea15 = "PRECIPITÓ EN EL MAR";</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="O23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a15").textContent = Asamblea15;</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea16 = "CABALLO Y CABALLERO,";</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="O24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a16").textContent = Asamblea16;</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="5">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea17 = "CABALLO Y CABALLERO. ";</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="O25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a17").textContent = Asamblea17;</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea18 = "PRECIPITÓ EN EL MAR";</v>
+      </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="O26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a18").textContent = Asamblea18;</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea19 = "CABALLO Y CABALLERO,";</v>
+      </c>
+      <c r="K27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="O27" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a19").textContent = Asamblea19;</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea20 = "CABALLO Y CABALLERO. ";</v>
+      </c>
+      <c r="K28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="O28" t="s">
+        <v>29</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a20").textContent = Asamblea20;</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea21 = "MI FUERZA Y MI CANCIÓN";</v>
+      </c>
+      <c r="K29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="O29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a21").textContent = Asamblea21;</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="5">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea22 = "ES EL SEÑOR.";</v>
+      </c>
+      <c r="K30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="O30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a22").textContent = Asamblea22;</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="5">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea23 = "ÉL ES MI SALVACIÓN,";</v>
+      </c>
+      <c r="K31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="O31" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a23").textContent = Asamblea23;</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="5">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea24 = "ES MI DIOS, Y YO LO ENSALZARÉ. ";</v>
+      </c>
+      <c r="K32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="O32" t="s">
+        <v>29</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a24").textContent = Asamblea24;</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="5">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea25 = "PRECIPITÓ EN EL MAR";</v>
+      </c>
+      <c r="K33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="O33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a25").textContent = Asamblea25;</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="5">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea26 = "CABALLO Y CABALLERO,";</v>
+      </c>
+      <c r="K34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="O34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a26").textContent = Asamblea26;</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="5">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea27 = "CABALLO Y CABALLERO. ";</v>
+      </c>
+      <c r="K35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="O35" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a27").textContent = Asamblea27;</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="5">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea28 = "PRECIPITÓ EN EL MAR";</v>
+      </c>
+      <c r="K36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="O36" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a28").textContent = Asamblea28;</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="5">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea29 = "CABALLO Y CABALLERO,";</v>
+      </c>
+      <c r="K37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="O37" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a29").textContent = Asamblea29;</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B38" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="5">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea30 = "CABALLO Y CABALLERO. ";</v>
+      </c>
+      <c r="K38" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" t="s">
+        <v>28</v>
+      </c>
+      <c r="M38" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="O38" t="s">
+        <v>29</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a30").textContent = Asamblea30;</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B39" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="6">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea31 = "MI FUERZA Y MI CANCIÓN";</v>
+      </c>
+      <c r="K39" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" t="s">
+        <v>28</v>
+      </c>
+      <c r="M39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="4"/>
+        <v>31</v>
+      </c>
+      <c r="O39" t="s">
+        <v>29</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a31").textContent = Asamblea31;</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B40" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="5">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea32 = "ES EL SEÑOR.";</v>
+      </c>
+      <c r="K40" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" t="s">
+        <v>28</v>
+      </c>
+      <c r="M40" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="O40" t="s">
+        <v>29</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a32").textContent = Asamblea32;</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="5">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea33 = "ÉL ES MI SALVACIÓN,";</v>
+      </c>
+      <c r="K41" t="s">
+        <v>27</v>
+      </c>
+      <c r="L41" t="s">
+        <v>28</v>
+      </c>
+      <c r="M41" t="s">
+        <v>26</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="O41" t="s">
+        <v>29</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a33").textContent = Asamblea33;</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B42" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="5">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea34 = "ES MI DIOS, Y YO LO ENSALZARÉ. ";</v>
+      </c>
+      <c r="K42" t="s">
+        <v>27</v>
+      </c>
+      <c r="L42" t="s">
+        <v>28</v>
+      </c>
+      <c r="M42" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="O42" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a34").textContent = Asamblea34;</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B43" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="5">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea35 = "PRECIPITÓ EN EL MAR";</v>
+      </c>
+      <c r="K43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" t="s">
+        <v>28</v>
+      </c>
+      <c r="M43" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="O43" t="s">
+        <v>29</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a35").textContent = Asamblea35;</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B44" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="5">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea36 = "CABALLO Y CABALLERO,";</v>
+      </c>
+      <c r="K44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" t="s">
+        <v>28</v>
+      </c>
+      <c r="M44" t="s">
+        <v>26</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="O44" t="s">
+        <v>29</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a36").textContent = Asamblea36;</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="5">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea37 = "CABALLO Y CABALLERO. ";</v>
+      </c>
+      <c r="K45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L45" t="s">
+        <v>28</v>
+      </c>
+      <c r="M45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="O45" t="s">
+        <v>29</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a37").textContent = Asamblea37;</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="5">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea38 = "PRECIPITÓ EN EL MAR";</v>
+      </c>
+      <c r="K46" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M46" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="O46" t="s">
+        <v>29</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a38").textContent = Asamblea38;</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B47" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="5">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea39 = "CABALLO Y CABALLERO,";</v>
+      </c>
+      <c r="K47" t="s">
+        <v>27</v>
+      </c>
+      <c r="L47" t="s">
+        <v>28</v>
+      </c>
+      <c r="M47" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="O47" t="s">
+        <v>29</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a39").textContent = Asamblea39;</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B48" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="5">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea40 = "CABALLO Y CABALLERO. ";</v>
+      </c>
+      <c r="K48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M48" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="O48" t="s">
+        <v>29</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a40").textContent = Asamblea40;</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B49" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="6">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea41 = "MI FUERZA Y MI CANCIÓN";</v>
+      </c>
+      <c r="K49" t="s">
+        <v>27</v>
+      </c>
+      <c r="L49" t="s">
+        <v>28</v>
+      </c>
+      <c r="M49" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="O49" t="s">
+        <v>29</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a41").textContent = Asamblea41;</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B50" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="5">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea42 = "ES EL SEÑOR.";</v>
+      </c>
+      <c r="K50" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" t="s">
+        <v>28</v>
+      </c>
+      <c r="M50" t="s">
+        <v>26</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="O50" t="s">
+        <v>29</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a42").textContent = Asamblea42;</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B51" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="5">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea43 = "ÉL ES MI SALVACIÓN,";</v>
+      </c>
+      <c r="K51" t="s">
+        <v>27</v>
+      </c>
+      <c r="L51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M51" t="s">
+        <v>26</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="O51" t="s">
+        <v>29</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a43").textContent = Asamblea43;</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B52" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="5">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea44 = "ES MI DIOS, Y YO LO ENSALZARÉ. ";</v>
+      </c>
+      <c r="K52" t="s">
+        <v>27</v>
+      </c>
+      <c r="L52" t="s">
+        <v>28</v>
+      </c>
+      <c r="M52" t="s">
+        <v>26</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="O52" t="s">
+        <v>29</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a44").textContent = Asamblea44;</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B53" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="5">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G53" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea45 = "PRECIPITÓ EN EL MAR";</v>
+      </c>
+      <c r="K53" t="s">
+        <v>27</v>
+      </c>
+      <c r="L53" t="s">
+        <v>28</v>
+      </c>
+      <c r="M53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="O53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a45").textContent = Asamblea45;</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B54" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="5">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" t="s">
+        <v>29</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea46 = "CABALLO Y CABALLERO,";</v>
+      </c>
+      <c r="K54" t="s">
+        <v>27</v>
+      </c>
+      <c r="L54" t="s">
+        <v>28</v>
+      </c>
+      <c r="M54" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="O54" t="s">
+        <v>29</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a46").textContent = Asamblea46;</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="5">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G55" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea47 = "CABALLO Y CABALLERO. ";</v>
+      </c>
+      <c r="K55" t="s">
+        <v>27</v>
+      </c>
+      <c r="L55" t="s">
+        <v>28</v>
+      </c>
+      <c r="M55" t="s">
+        <v>26</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+      <c r="O55" t="s">
+        <v>29</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a47").textContent = Asamblea47;</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="5">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="G56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" t="s">
+        <v>29</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea48 = "PRECIPITÓ EN EL MAR";</v>
+      </c>
+      <c r="K56" t="s">
+        <v>27</v>
+      </c>
+      <c r="L56" t="s">
+        <v>28</v>
+      </c>
+      <c r="M56" t="s">
+        <v>26</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="O56" t="s">
+        <v>29</v>
+      </c>
+      <c r="P56" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a48").textContent = Asamblea48;</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B57" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="5">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea49 = "CABALLO Y CABALLERO,";</v>
+      </c>
+      <c r="K57" t="s">
+        <v>27</v>
+      </c>
+      <c r="L57" t="s">
+        <v>28</v>
+      </c>
+      <c r="M57" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+      <c r="O57" t="s">
+        <v>29</v>
+      </c>
+      <c r="P57" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a49").textContent = Asamblea49;</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B58" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="5">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G58" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea50 = "CABALLO Y CABALLERO. ";</v>
+      </c>
+      <c r="K58" t="s">
+        <v>27</v>
+      </c>
+      <c r="L58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M58" t="s">
+        <v>26</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="O58" t="s">
+        <v>29</v>
+      </c>
+      <c r="P58" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a50").textContent = Asamblea50;</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B59" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="6">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea51 = "MI FUERZA Y MI CANCIÓN";</v>
+      </c>
+      <c r="K59" t="s">
+        <v>27</v>
+      </c>
+      <c r="L59" t="s">
+        <v>28</v>
+      </c>
+      <c r="M59" t="s">
+        <v>26</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+      <c r="O59" t="s">
+        <v>29</v>
+      </c>
+      <c r="P59" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a51").textContent = Asamblea51;</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B60" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="5">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G60" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" t="s">
+        <v>29</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea52 = "ES EL SEÑOR.";</v>
+      </c>
+      <c r="K60" t="s">
+        <v>27</v>
+      </c>
+      <c r="L60" t="s">
+        <v>28</v>
+      </c>
+      <c r="M60" t="s">
+        <v>26</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="O60" t="s">
+        <v>29</v>
+      </c>
+      <c r="P60" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a52").textContent = Asamblea52;</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B61" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="5">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G61" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea53 = "ÉL ES MI SALVACIÓN,";</v>
+      </c>
+      <c r="K61" t="s">
+        <v>27</v>
+      </c>
+      <c r="L61" t="s">
+        <v>28</v>
+      </c>
+      <c r="M61" t="s">
+        <v>26</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+      <c r="O61" t="s">
+        <v>29</v>
+      </c>
+      <c r="P61" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a53").textContent = Asamblea53;</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B62" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="5">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G62" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" t="s">
+        <v>29</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea54 = "ES MI DIOS, Y YO LO ENSALZARÉ. ";</v>
+      </c>
+      <c r="K62" t="s">
+        <v>27</v>
+      </c>
+      <c r="L62" t="s">
+        <v>28</v>
+      </c>
+      <c r="M62" t="s">
+        <v>26</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="O62" t="s">
+        <v>29</v>
+      </c>
+      <c r="P62" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a54").textContent = Asamblea54;</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B63" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="5">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G63" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" t="s">
+        <v>29</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea55 = "PRECIPITÓ EN EL MAR";</v>
+      </c>
+      <c r="K63" t="s">
+        <v>27</v>
+      </c>
+      <c r="L63" t="s">
+        <v>28</v>
+      </c>
+      <c r="M63" t="s">
+        <v>26</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="4"/>
+        <v>55</v>
+      </c>
+      <c r="O63" t="s">
+        <v>29</v>
+      </c>
+      <c r="P63" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a55").textContent = Asamblea55;</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B64" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="5">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" t="s">
+        <v>29</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea56 = "CABALLO Y CABALLERO,";</v>
+      </c>
+      <c r="K64" t="s">
+        <v>27</v>
+      </c>
+      <c r="L64" t="s">
+        <v>28</v>
+      </c>
+      <c r="M64" t="s">
+        <v>26</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="O64" t="s">
+        <v>29</v>
+      </c>
+      <c r="P64" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a56").textContent = Asamblea56;</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" s="5">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G65" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" t="s">
+        <v>29</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea57 = "CABALLO Y CABALLERO. ";</v>
+      </c>
+      <c r="K65" t="s">
+        <v>27</v>
+      </c>
+      <c r="L65" t="s">
+        <v>28</v>
+      </c>
+      <c r="M65" t="s">
+        <v>26</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="4"/>
+        <v>57</v>
+      </c>
+      <c r="O65" t="s">
+        <v>29</v>
+      </c>
+      <c r="P65" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a57").textContent = Asamblea57;</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" s="5">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="G66" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" t="s">
+        <v>29</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea58 = "PRECIPITÓ EN EL MAR";</v>
+      </c>
+      <c r="K66" t="s">
+        <v>27</v>
+      </c>
+      <c r="L66" t="s">
+        <v>28</v>
+      </c>
+      <c r="M66" t="s">
+        <v>26</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="O66" t="s">
+        <v>29</v>
+      </c>
+      <c r="P66" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a58").textContent = Asamblea58;</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B67" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="5">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G67" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" t="s">
+        <v>29</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea59 = "CABALLO Y CABALLERO,";</v>
+      </c>
+      <c r="K67" t="s">
+        <v>27</v>
+      </c>
+      <c r="L67" t="s">
+        <v>28</v>
+      </c>
+      <c r="M67" t="s">
+        <v>26</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+      <c r="O67" t="s">
+        <v>29</v>
+      </c>
+      <c r="P67" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a59").textContent = Asamblea59;</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B68" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" s="5">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G68" t="s">
+        <v>26</v>
+      </c>
+      <c r="H68" t="s">
+        <v>29</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea60 = "CABALLO Y CABALLERO. ";</v>
+      </c>
+      <c r="K68" t="s">
+        <v>27</v>
+      </c>
+      <c r="L68" t="s">
+        <v>28</v>
+      </c>
+      <c r="M68" t="s">
+        <v>26</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="O68" t="s">
+        <v>29</v>
+      </c>
+      <c r="P68" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a60").textContent = Asamblea60;</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B69" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" s="6">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea61 = "MI FUERZA Y MI CANCIÓN";</v>
+      </c>
+      <c r="K69" t="s">
+        <v>27</v>
+      </c>
+      <c r="L69" t="s">
+        <v>28</v>
+      </c>
+      <c r="M69" t="s">
+        <v>26</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="O69" t="s">
+        <v>29</v>
+      </c>
+      <c r="P69" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a61").textContent = Asamblea61;</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B70" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" s="5">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G70" t="s">
+        <v>26</v>
+      </c>
+      <c r="H70" t="s">
+        <v>29</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea62 = "ES EL SEÑOR.";</v>
+      </c>
+      <c r="K70" t="s">
+        <v>27</v>
+      </c>
+      <c r="L70" t="s">
+        <v>28</v>
+      </c>
+      <c r="M70" t="s">
+        <v>26</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="4"/>
+        <v>62</v>
+      </c>
+      <c r="O70" t="s">
+        <v>29</v>
+      </c>
+      <c r="P70" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a62").textContent = Asamblea62;</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B71" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="5">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G71" t="s">
+        <v>26</v>
+      </c>
+      <c r="H71" t="s">
+        <v>29</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea63 = "ÉL ES MI SALVACIÓN,";</v>
+      </c>
+      <c r="K71" t="s">
+        <v>27</v>
+      </c>
+      <c r="L71" t="s">
+        <v>28</v>
+      </c>
+      <c r="M71" t="s">
+        <v>26</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+      <c r="O71" t="s">
+        <v>29</v>
+      </c>
+      <c r="P71" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a63").textContent = Asamblea63;</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B72" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="5">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G72" t="s">
+        <v>26</v>
+      </c>
+      <c r="H72" t="s">
+        <v>29</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea64 = "ES MI DIOS, Y YO LO ENSALZARÉ. ";</v>
+      </c>
+      <c r="K72" t="s">
+        <v>27</v>
+      </c>
+      <c r="L72" t="s">
+        <v>28</v>
+      </c>
+      <c r="M72" t="s">
+        <v>26</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="O72" t="s">
+        <v>29</v>
+      </c>
+      <c r="P72" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a64").textContent = Asamblea64;</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B73" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" s="5">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G73" t="s">
+        <v>26</v>
+      </c>
+      <c r="H73" t="s">
+        <v>29</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea65 = "PRECIPITÓ EN EL MAR";</v>
+      </c>
+      <c r="K73" t="s">
+        <v>27</v>
+      </c>
+      <c r="L73" t="s">
+        <v>28</v>
+      </c>
+      <c r="M73" t="s">
+        <v>26</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="O73" t="s">
+        <v>29</v>
+      </c>
+      <c r="P73" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a65").textContent = Asamblea65;</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B74" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="5">
+        <f t="shared" ref="C74:C88" si="6">+C73+1</f>
+        <v>66</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G74" t="s">
+        <v>26</v>
+      </c>
+      <c r="H74" t="s">
+        <v>29</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea66 = "CABALLO Y CABALLERO,";</v>
+      </c>
+      <c r="K74" t="s">
+        <v>27</v>
+      </c>
+      <c r="L74" t="s">
+        <v>28</v>
+      </c>
+      <c r="M74" t="s">
+        <v>26</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="O74" t="s">
+        <v>29</v>
+      </c>
+      <c r="P74" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a66").textContent = Asamblea66;</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B75" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="5">
+        <f t="shared" si="6"/>
+        <v>67</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G75" t="s">
+        <v>26</v>
+      </c>
+      <c r="H75" t="s">
+        <v>29</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea67 = "CABALLO Y CABALLERO. ";</v>
+      </c>
+      <c r="K75" t="s">
+        <v>27</v>
+      </c>
+      <c r="L75" t="s">
+        <v>28</v>
+      </c>
+      <c r="M75" t="s">
+        <v>26</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="O75" t="s">
+        <v>29</v>
+      </c>
+      <c r="P75" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a67").textContent = Asamblea67;</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C76" s="5">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="G76" t="s">
+        <v>26</v>
+      </c>
+      <c r="H76" t="s">
+        <v>29</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea68 = "PRECIPITÓ EN EL MAR";</v>
+      </c>
+      <c r="K76" t="s">
+        <v>27</v>
+      </c>
+      <c r="L76" t="s">
+        <v>28</v>
+      </c>
+      <c r="M76" t="s">
+        <v>26</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="O76" t="s">
+        <v>29</v>
+      </c>
+      <c r="P76" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a68").textContent = Asamblea68;</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B77" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" s="5">
+        <f t="shared" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G77" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77" t="s">
+        <v>29</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea69 = "CABALLO Y CABALLERO,";</v>
+      </c>
+      <c r="K77" t="s">
+        <v>27</v>
+      </c>
+      <c r="L77" t="s">
+        <v>28</v>
+      </c>
+      <c r="M77" t="s">
+        <v>26</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="O77" t="s">
+        <v>29</v>
+      </c>
+      <c r="P77" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a69").textContent = Asamblea69;</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B78" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78" s="5">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G78" t="s">
+        <v>26</v>
+      </c>
+      <c r="H78" t="s">
+        <v>29</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea70 = "CABALLO Y CABALLERO. ";</v>
+      </c>
+      <c r="K78" t="s">
+        <v>27</v>
+      </c>
+      <c r="L78" t="s">
+        <v>28</v>
+      </c>
+      <c r="M78" t="s">
+        <v>26</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="O78" t="s">
+        <v>29</v>
+      </c>
+      <c r="P78" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a70").textContent = Asamblea70;</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B79" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79" s="6">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea71 = "MI FUERZA Y MI CANCIÓN";</v>
+      </c>
+      <c r="K79" t="s">
+        <v>27</v>
+      </c>
+      <c r="L79" t="s">
+        <v>28</v>
+      </c>
+      <c r="M79" t="s">
+        <v>26</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="O79" t="s">
+        <v>29</v>
+      </c>
+      <c r="P79" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a71").textContent = Asamblea71;</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B80" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80" s="5">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G80" t="s">
+        <v>26</v>
+      </c>
+      <c r="H80" t="s">
+        <v>29</v>
+      </c>
+      <c r="J80" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea72 = "ES EL SEÑOR.";</v>
+      </c>
+      <c r="K80" t="s">
+        <v>27</v>
+      </c>
+      <c r="L80" t="s">
+        <v>28</v>
+      </c>
+      <c r="M80" t="s">
+        <v>26</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="O80" t="s">
+        <v>29</v>
+      </c>
+      <c r="P80" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a72").textContent = Asamblea72;</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B81" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C81" s="5">
+        <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G81" t="s">
+        <v>26</v>
+      </c>
+      <c r="H81" t="s">
+        <v>29</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea73 = "ÉL ES MI SALVACIÓN,";</v>
+      </c>
+      <c r="K81" t="s">
+        <v>27</v>
+      </c>
+      <c r="L81" t="s">
+        <v>28</v>
+      </c>
+      <c r="M81" t="s">
+        <v>26</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="O81" t="s">
+        <v>29</v>
+      </c>
+      <c r="P81" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a73").textContent = Asamblea73;</v>
+      </c>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B82" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82" s="5">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G82" t="s">
+        <v>26</v>
+      </c>
+      <c r="H82" t="s">
+        <v>29</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="3"/>
+        <v>let Asamblea74 = "ES MI DIOS, Y YO LO ENSALZARÉ. ";</v>
+      </c>
+      <c r="K82" t="s">
+        <v>27</v>
+      </c>
+      <c r="L82" t="s">
+        <v>28</v>
+      </c>
+      <c r="M82" t="s">
+        <v>26</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="O82" t="s">
+        <v>29</v>
+      </c>
+      <c r="P82" t="str">
+        <f t="shared" si="5"/>
+        <v>document.getElementById("a74").textContent = Asamblea74;</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B83" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83" s="5">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="G83" t="s">
+        <v>26</v>
+      </c>
+      <c r="H83" t="s">
+        <v>29</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" ref="J83:J85" si="7">_xlfn.CONCAT(B83,C83," ",D83," ",E83,F83,G83,H83)</f>
+        <v>let Asamblea75 = "PRECIPITÓ EN EL MAR";</v>
+      </c>
+      <c r="K83" t="s">
+        <v>27</v>
+      </c>
+      <c r="L83" t="s">
+        <v>28</v>
+      </c>
+      <c r="M83" t="s">
+        <v>26</v>
+      </c>
+      <c r="N83">
+        <f t="shared" ref="N83:N85" si="8">C83</f>
+        <v>75</v>
+      </c>
+      <c r="O83" t="s">
+        <v>29</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" ref="P83:P85" si="9">_xlfn.CONCAT("document.getElementById",K83,M83,"a",N83,M83,L83,".textContent = Asamblea",N83,O83)</f>
+        <v>document.getElementById("a75").textContent = Asamblea75;</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B84" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" s="5">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G84" t="s">
+        <v>26</v>
+      </c>
+      <c r="H84" t="s">
+        <v>29</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" si="7"/>
+        <v>let Asamblea76 = "CABALLO Y CABALLERO,";</v>
+      </c>
+      <c r="K84" t="s">
+        <v>27</v>
+      </c>
+      <c r="L84" t="s">
+        <v>28</v>
+      </c>
+      <c r="M84" t="s">
+        <v>26</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="O84" t="s">
+        <v>29</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="9"/>
+        <v>document.getElementById("a76").textContent = Asamblea76;</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B85" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" s="5">
+        <f t="shared" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G85" t="s">
+        <v>26</v>
+      </c>
+      <c r="H85" t="s">
+        <v>29</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="7"/>
+        <v>let Asamblea77 = "CABALLO Y CABALLERO. ";</v>
+      </c>
+      <c r="K85" t="s">
+        <v>27</v>
+      </c>
+      <c r="L85" t="s">
+        <v>28</v>
+      </c>
+      <c r="M85" t="s">
+        <v>26</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="8"/>
+        <v>77</v>
+      </c>
+      <c r="O85" t="s">
+        <v>29</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="9"/>
+        <v>document.getElementById("a77").textContent = Asamblea77;</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" s="5">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F86" s="5"/>
+      <c r="G86" t="s">
+        <v>26</v>
+      </c>
+      <c r="H86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B87" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C87" s="5">
+        <f t="shared" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F87" s="5"/>
+      <c r="G87" t="s">
+        <v>26</v>
+      </c>
+      <c r="H87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B88" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C88" s="5">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F88" s="5"/>
+      <c r="G88" t="s">
+        <v>26</v>
+      </c>
+      <c r="H88" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="I97" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" t="s">
+        <v>26</v>
+      </c>
+      <c r="F98" t="s">
+        <v>208</v>
+      </c>
+      <c r="G98" t="s">
+        <v>26</v>
+      </c>
+      <c r="H98" t="s">
+        <v>29</v>
+      </c>
+      <c r="J98" t="str">
+        <f>_xlfn.CONCAT(B98,C98," ",D98," ",E98,F98,G98,H98)</f>
+        <v>let Cantor1 = "Cantemos al Señor, cantemos al Señor";</v>
+      </c>
+      <c r="K98" t="s">
+        <v>27</v>
+      </c>
+      <c r="L98" t="s">
+        <v>28</v>
+      </c>
+      <c r="M98" t="s">
+        <v>26</v>
+      </c>
+      <c r="N98">
+        <f>C98</f>
+        <v>1</v>
+      </c>
+      <c r="O98" t="s">
+        <v>29</v>
+      </c>
+      <c r="P98" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K98,M98,"c",N98,M98,L98,".textContent = Cantor",N98,O98)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B99" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99">
+        <f>+C98+1</f>
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" t="s">
+        <v>26</v>
+      </c>
+      <c r="F99" t="s">
+        <v>209</v>
+      </c>
+      <c r="G99" t="s">
+        <v>26</v>
+      </c>
+      <c r="H99" t="s">
+        <v>29</v>
+      </c>
+      <c r="J99" t="str">
+        <f>_xlfn.CONCAT(B99,C99," ",D99," ",E99,F99,G99,H99)</f>
+        <v>let Cantor2 = "que se cubrió de gloria, de gloria, de gloria,";</v>
+      </c>
+      <c r="K99" t="s">
+        <v>27</v>
+      </c>
+      <c r="L99" t="s">
+        <v>28</v>
+      </c>
+      <c r="M99" t="s">
+        <v>26</v>
+      </c>
+      <c r="N99">
+        <f>C99</f>
+        <v>2</v>
+      </c>
+      <c r="O99" t="s">
+        <v>29</v>
+      </c>
+      <c r="P99" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K99,M99,"c",N99,M99,L99,".textContent = Cantor",N99,O99)</f>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
+      </c>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100">
+        <f>+C99+1</f>
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>24</v>
+      </c>
+      <c r="E100" t="s">
+        <v>26</v>
+      </c>
+      <c r="F100" t="s">
+        <v>210</v>
+      </c>
+      <c r="G100" t="s">
+        <v>26</v>
+      </c>
+      <c r="H100" t="s">
+        <v>29</v>
+      </c>
+      <c r="J100" t="str">
+        <f>_xlfn.CONCAT(B100,C100," ",D100," ",E100,F100,G100,H100)</f>
+        <v>let Cantor3 = "precipitó en el mar caballo y caballero.";</v>
+      </c>
+      <c r="K100" t="s">
+        <v>27</v>
+      </c>
+      <c r="L100" t="s">
+        <v>28</v>
+      </c>
+      <c r="M100" t="s">
+        <v>26</v>
+      </c>
+      <c r="N100">
+        <f>C100</f>
+        <v>3</v>
+      </c>
+      <c r="O100" t="s">
+        <v>29</v>
+      </c>
+      <c r="P100" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K100,M100,"c",N100,M100,L100,".textContent = Cantor",N100,O100)</f>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101">
+        <f>+C100+1</f>
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" t="s">
+        <v>26</v>
+      </c>
+      <c r="F101" t="s">
+        <v>238</v>
+      </c>
+      <c r="G101" t="s">
+        <v>26</v>
+      </c>
+      <c r="H101" t="s">
+        <v>29</v>
+      </c>
+      <c r="J101" t="str">
+        <f>_xlfn.CONCAT(B101,C101," ",D101," ",E101,F101,G101,H101)</f>
+        <v>let Cantor4 = "¡El Señor es un guerrero,";</v>
+      </c>
+      <c r="K101" t="s">
+        <v>27</v>
+      </c>
+      <c r="L101" t="s">
+        <v>28</v>
+      </c>
+      <c r="M101" t="s">
+        <v>26</v>
+      </c>
+      <c r="N101">
+        <f>C101</f>
+        <v>4</v>
+      </c>
+      <c r="O101" t="s">
+        <v>29</v>
+      </c>
+      <c r="P101" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K101,M101,"c",N101,M101,L101,".textContent = Cantor",N101,O101)</f>
+        <v>document.getElementById("c4").textContent = Cantor4;</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102">
+        <f t="shared" ref="C102:C124" si="10">+C101+1</f>
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" t="s">
+        <v>26</v>
+      </c>
+      <c r="F102" t="s">
+        <v>239</v>
+      </c>
+      <c r="G102" t="s">
+        <v>26</v>
+      </c>
+      <c r="H102" t="s">
+        <v>29</v>
+      </c>
+      <c r="J102" t="str">
+        <f t="shared" ref="J102:J124" si="11">_xlfn.CONCAT(B102,C102," ",D102," ",E102,F102,G102,H102)</f>
+        <v>let Cantor5 = "su nombre es Yahveh!";</v>
+      </c>
+      <c r="K102" t="s">
+        <v>27</v>
+      </c>
+      <c r="L102" t="s">
+        <v>28</v>
+      </c>
+      <c r="M102" t="s">
+        <v>26</v>
+      </c>
+      <c r="N102">
+        <f t="shared" ref="N102:N124" si="12">C102</f>
+        <v>5</v>
+      </c>
+      <c r="O102" t="s">
+        <v>29</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" ref="P102:P124" si="13">_xlfn.CONCAT("document.getElementById",K102,M102,"c",N102,M102,L102,".textContent = Cantor",N102,O102)</f>
+        <v>document.getElementById("c5").textContent = Cantor5;</v>
+      </c>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B103" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>24</v>
+      </c>
+      <c r="E103" t="s">
+        <v>26</v>
+      </c>
+      <c r="F103" t="s">
+        <v>240</v>
+      </c>
+      <c r="G103" t="s">
+        <v>26</v>
+      </c>
+      <c r="H103" t="s">
+        <v>29</v>
+      </c>
+      <c r="J103" t="str">
+        <f t="shared" si="11"/>
+        <v>let Cantor6 = "Los carros de Faraón y a todos sus valientes";</v>
+      </c>
+      <c r="K103" t="s">
+        <v>27</v>
+      </c>
+      <c r="L103" t="s">
+        <v>28</v>
+      </c>
+      <c r="M103" t="s">
+        <v>26</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="O103" t="s">
+        <v>29</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById("c6").textContent = Cantor6;</v>
+      </c>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D104" t="s">
+        <v>24</v>
+      </c>
+      <c r="E104" t="s">
+        <v>26</v>
+      </c>
+      <c r="F104" t="s">
+        <v>241</v>
+      </c>
+      <c r="G104" t="s">
+        <v>26</v>
+      </c>
+      <c r="H104" t="s">
+        <v>29</v>
+      </c>
+      <c r="J104" t="str">
+        <f t="shared" si="11"/>
+        <v>let Cantor7 = "precipitó en el mar.";</v>
+      </c>
+      <c r="K104" t="s">
+        <v>27</v>
+      </c>
+      <c r="L104" t="s">
+        <v>28</v>
+      </c>
+      <c r="M104" t="s">
+        <v>26</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="O104" t="s">
+        <v>29</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById("c7").textContent = Cantor7;</v>
+      </c>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B105" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="D105" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" t="s">
+        <v>26</v>
+      </c>
+      <c r="F105" t="s">
+        <v>218</v>
+      </c>
+      <c r="G105" t="s">
+        <v>26</v>
+      </c>
+      <c r="H105" t="s">
+        <v>29</v>
+      </c>
+      <c r="J105" t="str">
+        <f t="shared" si="11"/>
+        <v>let Cantor8 = "Tu diestra poderosa, gloriosa por su fuerza";</v>
+      </c>
+      <c r="K105" t="s">
+        <v>27</v>
+      </c>
+      <c r="L105" t="s">
+        <v>28</v>
+      </c>
+      <c r="M105" t="s">
+        <v>26</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="O105" t="s">
+        <v>29</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById("c8").textContent = Cantor8;</v>
+      </c>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B106" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="D106" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" t="s">
+        <v>26</v>
+      </c>
+      <c r="F106" t="s">
+        <v>219</v>
+      </c>
+      <c r="G106" t="s">
+        <v>26</v>
+      </c>
+      <c r="H106" t="s">
+        <v>29</v>
+      </c>
+      <c r="J106" t="str">
+        <f t="shared" si="11"/>
+        <v>let Cantor9 = "tu diestra, oh Señor, aplasta al enemigo,";</v>
+      </c>
+      <c r="K106" t="s">
+        <v>27</v>
+      </c>
+      <c r="L106" t="s">
+        <v>28</v>
+      </c>
+      <c r="M106" t="s">
+        <v>26</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="O106" t="s">
+        <v>29</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById("c9").textContent = Cantor9;</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="D107" t="s">
+        <v>24</v>
+      </c>
+      <c r="E107" t="s">
+        <v>26</v>
+      </c>
+      <c r="F107" t="s">
+        <v>220</v>
+      </c>
+      <c r="G107" t="s">
+        <v>26</v>
+      </c>
+      <c r="H107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J107" t="str">
+        <f t="shared" si="11"/>
+        <v>let Cantor10 = "aplasta al enemigo.";</v>
+      </c>
+      <c r="K107" t="s">
+        <v>27</v>
+      </c>
+      <c r="L107" t="s">
+        <v>28</v>
+      </c>
+      <c r="M107" t="s">
+        <v>26</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="O107" t="s">
+        <v>29</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById("c10").textContent = Cantor10;</v>
+      </c>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B108" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="D108" t="s">
+        <v>24</v>
+      </c>
+      <c r="E108" t="s">
+        <v>26</v>
+      </c>
+      <c r="F108" t="s">
+        <v>221</v>
+      </c>
+      <c r="G108" t="s">
+        <v>26</v>
+      </c>
+      <c r="H108" t="s">
+        <v>29</v>
+      </c>
+      <c r="J108" t="str">
+        <f t="shared" si="11"/>
+        <v>let Cantor11 = "El enemigo había dicho:";</v>
+      </c>
+      <c r="K108" t="s">
+        <v>27</v>
+      </c>
+      <c r="L108" t="s">
+        <v>28</v>
+      </c>
+      <c r="M108" t="s">
+        <v>26</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="O108" t="s">
+        <v>29</v>
+      </c>
+      <c r="P108" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById("c11").textContent = Cantor11;</v>
+      </c>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B109" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="D109" t="s">
+        <v>24</v>
+      </c>
+      <c r="E109" t="s">
+        <v>26</v>
+      </c>
+      <c r="F109" t="s">
+        <v>222</v>
+      </c>
+      <c r="G109" t="s">
+        <v>26</v>
+      </c>
+      <c r="H109" t="s">
+        <v>29</v>
+      </c>
+      <c r="J109" t="str">
+        <f t="shared" si="11"/>
+        <v>let Cantor12 = "«Les perseguiré y alcanzaré,";</v>
+      </c>
+      <c r="K109" t="s">
+        <v>27</v>
+      </c>
+      <c r="L109" t="s">
+        <v>28</v>
+      </c>
+      <c r="M109" t="s">
+        <v>26</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="O109" t="s">
+        <v>29</v>
+      </c>
+      <c r="P109" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById("c12").textContent = Cantor12;</v>
+      </c>
+    </row>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B110" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="D110" t="s">
+        <v>24</v>
+      </c>
+      <c r="E110" t="s">
+        <v>26</v>
+      </c>
+      <c r="F110" t="s">
+        <v>223</v>
+      </c>
+      <c r="G110" t="s">
+        <v>26</v>
+      </c>
+      <c r="H110" t="s">
+        <v>29</v>
+      </c>
+      <c r="J110" t="str">
+        <f t="shared" si="11"/>
+        <v>let Cantor13 = "desnudaré la espada, se saciará mi alma,";</v>
+      </c>
+      <c r="K110" t="s">
+        <v>27</v>
+      </c>
+      <c r="L110" t="s">
+        <v>28</v>
+      </c>
+      <c r="M110" t="s">
+        <v>26</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="12"/>
+        <v>13</v>
+      </c>
+      <c r="O110" t="s">
+        <v>29</v>
+      </c>
+      <c r="P110" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById("c13").textContent = Cantor13;</v>
+      </c>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B111" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="D111" t="s">
+        <v>24</v>
+      </c>
+      <c r="E111" t="s">
+        <v>26</v>
+      </c>
+      <c r="F111" t="s">
+        <v>224</v>
+      </c>
+      <c r="G111" t="s">
+        <v>26</v>
+      </c>
+      <c r="H111" t="s">
+        <v>29</v>
+      </c>
+      <c r="J111" t="str">
+        <f t="shared" si="11"/>
+        <v>let Cantor14 = "los aniquilaré.»";</v>
+      </c>
+      <c r="K111" t="s">
+        <v>27</v>
+      </c>
+      <c r="L111" t="s">
+        <v>28</v>
+      </c>
+      <c r="M111" t="s">
+        <v>26</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="O111" t="s">
+        <v>29</v>
+      </c>
+      <c r="P111" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById("c14").textContent = Cantor14;</v>
+      </c>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B112" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>24</v>
+      </c>
+      <c r="E112" t="s">
+        <v>26</v>
+      </c>
+      <c r="F112" t="s">
+        <v>225</v>
+      </c>
+      <c r="G112" t="s">
+        <v>26</v>
+      </c>
+      <c r="H112" t="s">
+        <v>29</v>
+      </c>
+      <c r="J112" t="str">
+        <f t="shared" si="11"/>
+        <v>let Cantor15 = "Soplaste con tu aliento y el mar los sepultó.";</v>
+      </c>
+      <c r="K112" t="s">
+        <v>27</v>
+      </c>
+      <c r="L112" t="s">
+        <v>28</v>
+      </c>
+      <c r="M112" t="s">
+        <v>26</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="12"/>
+        <v>15</v>
+      </c>
+      <c r="O112" t="s">
+        <v>29</v>
+      </c>
+      <c r="P112" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById("c15").textContent = Cantor15;</v>
+      </c>
+    </row>
+    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" t="s">
+        <v>26</v>
+      </c>
+      <c r="F113" t="s">
+        <v>226</v>
+      </c>
+      <c r="G113" t="s">
+        <v>26</v>
+      </c>
+      <c r="H113" t="s">
+        <v>29</v>
+      </c>
+      <c r="J113" t="str">
+        <f t="shared" si="11"/>
+        <v>let Cantor16 = "Se hundieron como plomo";</v>
+      </c>
+      <c r="K113" t="s">
+        <v>27</v>
+      </c>
+      <c r="L113" t="s">
+        <v>28</v>
+      </c>
+      <c r="M113" t="s">
+        <v>26</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="12"/>
+        <v>16</v>
+      </c>
+      <c r="O113" t="s">
+        <v>29</v>
+      </c>
+      <c r="P113" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById("c16").textContent = Cantor16;</v>
+      </c>
+    </row>
+    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B114" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="D114" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" t="s">
+        <v>26</v>
+      </c>
+      <c r="F114" t="s">
+        <v>227</v>
+      </c>
+      <c r="G114" t="s">
+        <v>26</v>
+      </c>
+      <c r="H114" t="s">
+        <v>29</v>
+      </c>
+      <c r="J114" t="str">
+        <f t="shared" si="11"/>
+        <v>let Cantor17 = "en las aguas de la muerte,";</v>
+      </c>
+      <c r="K114" t="s">
+        <v>27</v>
+      </c>
+      <c r="L114" t="s">
+        <v>28</v>
+      </c>
+      <c r="M114" t="s">
+        <v>26</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="12"/>
+        <v>17</v>
+      </c>
+      <c r="O114" t="s">
+        <v>29</v>
+      </c>
+      <c r="P114" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById("c17").textContent = Cantor17;</v>
+      </c>
+    </row>
+    <row r="115" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B115" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="D115" t="s">
+        <v>24</v>
+      </c>
+      <c r="E115" t="s">
+        <v>26</v>
+      </c>
+      <c r="F115" t="s">
+        <v>228</v>
+      </c>
+      <c r="G115" t="s">
+        <v>26</v>
+      </c>
+      <c r="H115" t="s">
+        <v>29</v>
+      </c>
+      <c r="J115" t="str">
+        <f t="shared" si="11"/>
+        <v>let Cantor18 = "en las aguas formidables.";</v>
+      </c>
+      <c r="K115" t="s">
+        <v>27</v>
+      </c>
+      <c r="L115" t="s">
+        <v>28</v>
+      </c>
+      <c r="M115" t="s">
+        <v>26</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="12"/>
+        <v>18</v>
+      </c>
+      <c r="O115" t="s">
+        <v>29</v>
+      </c>
+      <c r="P115" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById("c18").textContent = Cantor18;</v>
+      </c>
+    </row>
+    <row r="116" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="D116" t="s">
+        <v>24</v>
+      </c>
+      <c r="E116" t="s">
+        <v>26</v>
+      </c>
+      <c r="F116" t="s">
+        <v>229</v>
+      </c>
+      <c r="G116" t="s">
+        <v>26</v>
+      </c>
+      <c r="H116" t="s">
+        <v>29</v>
+      </c>
+      <c r="J116" t="str">
+        <f t="shared" si="11"/>
+        <v>let Cantor19 = "¿Quién como tú, Señor, glorioso en santidad,";</v>
+      </c>
+      <c r="K116" t="s">
+        <v>27</v>
+      </c>
+      <c r="L116" t="s">
+        <v>28</v>
+      </c>
+      <c r="M116" t="s">
+        <v>26</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="O116" t="s">
+        <v>29</v>
+      </c>
+      <c r="P116" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById("c19").textContent = Cantor19;</v>
+      </c>
+    </row>
+    <row r="117" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B117" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="D117" t="s">
+        <v>24</v>
+      </c>
+      <c r="E117" t="s">
+        <v>26</v>
+      </c>
+      <c r="F117" t="s">
+        <v>230</v>
+      </c>
+      <c r="G117" t="s">
+        <v>26</v>
+      </c>
+      <c r="H117" t="s">
+        <v>29</v>
+      </c>
+      <c r="J117" t="str">
+        <f t="shared" si="11"/>
+        <v>let Cantor20 = "terrible en las empresas, autor de maravillas,";</v>
+      </c>
+      <c r="K117" t="s">
+        <v>27</v>
+      </c>
+      <c r="L117" t="s">
+        <v>28</v>
+      </c>
+      <c r="M117" t="s">
+        <v>26</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="O117" t="s">
+        <v>29</v>
+      </c>
+      <c r="P117" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById("c20").textContent = Cantor20;</v>
+      </c>
+    </row>
+    <row r="118" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B118" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="D118" t="s">
+        <v>24</v>
+      </c>
+      <c r="E118" t="s">
+        <v>26</v>
+      </c>
+      <c r="F118" t="s">
+        <v>231</v>
+      </c>
+      <c r="G118" t="s">
+        <v>26</v>
+      </c>
+      <c r="H118" t="s">
+        <v>29</v>
+      </c>
+      <c r="J118" t="str">
+        <f t="shared" si="11"/>
+        <v>let Cantor21 = "autor de maravillas?";</v>
+      </c>
+      <c r="K118" t="s">
+        <v>27</v>
+      </c>
+      <c r="L118" t="s">
+        <v>28</v>
+      </c>
+      <c r="M118" t="s">
+        <v>26</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="12"/>
+        <v>21</v>
+      </c>
+      <c r="O118" t="s">
+        <v>29</v>
+      </c>
+      <c r="P118" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById("c21").textContent = Cantor21;</v>
+      </c>
+    </row>
+    <row r="119" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B119" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="D119" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" t="s">
+        <v>26</v>
+      </c>
+      <c r="F119" t="s">
+        <v>232</v>
+      </c>
+      <c r="G119" t="s">
+        <v>26</v>
+      </c>
+      <c r="H119" t="s">
+        <v>29</v>
+      </c>
+      <c r="J119" t="str">
+        <f t="shared" si="11"/>
+        <v>let Cantor22 = "Rescatas a tu pueblo, lo llevas a tu casa.";</v>
+      </c>
+      <c r="K119" t="s">
+        <v>27</v>
+      </c>
+      <c r="L119" t="s">
+        <v>28</v>
+      </c>
+      <c r="M119" t="s">
+        <v>26</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="O119" t="s">
+        <v>29</v>
+      </c>
+      <c r="P119" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById("c22").textContent = Cantor22;</v>
+      </c>
+    </row>
+    <row r="120" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B120" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="D120" t="s">
+        <v>24</v>
+      </c>
+      <c r="E120" t="s">
+        <v>26</v>
+      </c>
+      <c r="F120" t="s">
+        <v>233</v>
+      </c>
+      <c r="G120" t="s">
+        <v>26</v>
+      </c>
+      <c r="H120" t="s">
+        <v>29</v>
+      </c>
+      <c r="J120" t="str">
+        <f t="shared" si="11"/>
+        <v>let Cantor23 = "Los príncipes de Edom, se estremecen";</v>
+      </c>
+      <c r="K120" t="s">
+        <v>27</v>
+      </c>
+      <c r="L120" t="s">
+        <v>28</v>
+      </c>
+      <c r="M120" t="s">
+        <v>26</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="O120" t="s">
+        <v>29</v>
+      </c>
+      <c r="P120" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById("c23").textContent = Cantor23;</v>
+      </c>
+    </row>
+    <row r="121" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="D121" t="s">
+        <v>24</v>
+      </c>
+      <c r="E121" t="s">
+        <v>26</v>
+      </c>
+      <c r="F121" t="s">
+        <v>234</v>
+      </c>
+      <c r="G121" t="s">
+        <v>26</v>
+      </c>
+      <c r="H121" t="s">
+        <v>29</v>
+      </c>
+      <c r="J121" t="str">
+        <f t="shared" si="11"/>
+        <v>let Cantor24 = "al paso de Jacob.";</v>
+      </c>
+      <c r="K121" t="s">
+        <v>27</v>
+      </c>
+      <c r="L121" t="s">
+        <v>28</v>
+      </c>
+      <c r="M121" t="s">
+        <v>26</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="O121" t="s">
+        <v>29</v>
+      </c>
+      <c r="P121" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById("c24").textContent = Cantor24;</v>
+      </c>
+    </row>
+    <row r="122" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B122" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="D122" t="s">
+        <v>24</v>
+      </c>
+      <c r="E122" t="s">
+        <v>26</v>
+      </c>
+      <c r="F122" t="s">
+        <v>235</v>
+      </c>
+      <c r="G122" t="s">
+        <v>26</v>
+      </c>
+      <c r="H122" t="s">
+        <v>29</v>
+      </c>
+      <c r="J122" t="str">
+        <f t="shared" si="11"/>
+        <v>let Cantor25 = "Lo llevas y lo plantas en el lugar sagrado";</v>
+      </c>
+      <c r="K122" t="s">
+        <v>27</v>
+      </c>
+      <c r="L122" t="s">
+        <v>28</v>
+      </c>
+      <c r="M122" t="s">
+        <v>26</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="O122" t="s">
+        <v>29</v>
+      </c>
+      <c r="P122" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById("c25").textContent = Cantor25;</v>
+      </c>
+    </row>
+    <row r="123" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B123" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="D123" t="s">
+        <v>24</v>
+      </c>
+      <c r="E123" t="s">
+        <v>26</v>
+      </c>
+      <c r="F123" t="s">
+        <v>236</v>
+      </c>
+      <c r="G123" t="s">
+        <v>26</v>
+      </c>
+      <c r="H123" t="s">
+        <v>29</v>
+      </c>
+      <c r="J123" t="str">
+        <f t="shared" si="11"/>
+        <v>let Cantor26 = "sobre tu monte santo, el santuario";</v>
+      </c>
+      <c r="K123" t="s">
+        <v>27</v>
+      </c>
+      <c r="L123" t="s">
+        <v>28</v>
+      </c>
+      <c r="M123" t="s">
+        <v>26</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="O123" t="s">
+        <v>29</v>
+      </c>
+      <c r="P123" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById("c26").textContent = Cantor26;</v>
+      </c>
+    </row>
+    <row r="124" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B124" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="D124" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" t="s">
+        <v>26</v>
+      </c>
+      <c r="F124" t="s">
+        <v>237</v>
+      </c>
+      <c r="G124" t="s">
+        <v>26</v>
+      </c>
+      <c r="H124" t="s">
+        <v>29</v>
+      </c>
+      <c r="J124" t="str">
+        <f t="shared" si="11"/>
+        <v>let Cantor27 = "que tus manos prepararon.";</v>
+      </c>
+      <c r="K124" t="s">
+        <v>27</v>
+      </c>
+      <c r="L124" t="s">
+        <v>28</v>
+      </c>
+      <c r="M124" t="s">
+        <v>26</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="O124" t="s">
+        <v>29</v>
+      </c>
+      <c r="P124" t="str">
+        <f t="shared" si="13"/>
+        <v>document.getElementById("c27").textContent = Cantor27;</v>
+      </c>
+    </row>
+    <row r="130" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I130" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="131" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J131" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="132" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J132" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="133" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J133" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="135" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I135" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="136" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J136" t="str">
+        <f>P9</f>
+        <v>document.getElementById("a1").textContent = Asamblea1;</v>
+      </c>
+    </row>
+    <row r="137" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J137" t="str">
+        <f>P10</f>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+      </c>
+    </row>
+    <row r="138" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J138" t="str">
+        <f>P11</f>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+      </c>
+    </row>
+    <row r="139" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J139" t="str">
+        <f>P12</f>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+      </c>
+    </row>
+    <row r="140" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J140" t="str">
+        <f>P13</f>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="141" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J141" t="str">
+        <f>P14</f>
+        <v>document.getElementById("a6").textContent = Asamblea6;</v>
+      </c>
+    </row>
+    <row r="142" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J142" t="str">
+        <f>P15</f>
+        <v>document.getElementById("a7").textContent = Asamblea7;</v>
+      </c>
+    </row>
+    <row r="143" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J143" t="str">
+        <f>P16</f>
+        <v>document.getElementById("a8").textContent = Asamblea8;</v>
+      </c>
+    </row>
+    <row r="144" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J144" t="str">
+        <f>P17</f>
+        <v>document.getElementById("a9").textContent = Asamblea9;</v>
+      </c>
+    </row>
+    <row r="145" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J145" t="str">
+        <f>P18</f>
+        <v>document.getElementById("a10").textContent = Asamblea10;</v>
+      </c>
+    </row>
+    <row r="146" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J146" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="148" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I148" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="149" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J149" t="str">
+        <f>P98</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="150" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J150" t="str">
+        <f>P99</f>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
+      </c>
+    </row>
+    <row r="151" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J151" t="str">
+        <f>P100</f>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="152" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J152" t="str">
+        <f>P101</f>
+        <v>document.getElementById("c4").textContent = Cantor4;</v>
+      </c>
+    </row>
+    <row r="154" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I154" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/doc/codificador.xlsx
+++ b/src/doc/codificador.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\db\Github\cantos\src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4A90F8-0276-4CD1-9FE6-0092BE4E97D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEE0C4F-48B7-4590-BA82-04F2270E2C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="9" activeTab="11" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="12" activeTab="14" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="ALELUYA, BENDECID AL SEÑOR" sheetId="14" r:id="rId12"/>
     <sheet name="CANTO DE MOISES" sheetId="11" r:id="rId13"/>
     <sheet name="OH MUERTE ¿DÓNDE ESTÁ TU VICTOR" sheetId="12" r:id="rId14"/>
+    <sheet name="OH SEÑOR, NUESTRO DIOS " sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6470" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6668" uniqueCount="323">
   <si>
     <t>viviendo en pureza, paciencia y bondad;</t>
   </si>
@@ -993,6 +994,54 @@
   <si>
     <t>Salmo 134 (133)</t>
   </si>
+  <si>
+    <t>Salmo 8</t>
+  </si>
+  <si>
+    <t>¡OH SEÑOR, NUESTRO DIOS,</t>
+  </si>
+  <si>
+    <t>QUÉ ADMIRABLE ES TU NOMBRE</t>
+  </si>
+  <si>
+    <t>POR TODA LA TIERRA, TU NOMBRE,</t>
+  </si>
+  <si>
+    <t>HASTA EL CIELO SE ELEVA TU AMOR!</t>
+  </si>
+  <si>
+    <t>¡OH SEÑOR, NUESTRO DIOS ...</t>
+  </si>
+  <si>
+    <t>Con la boca de los niños pequeños</t>
+  </si>
+  <si>
+    <t>afirmas tu gloria, oh Señor,</t>
+  </si>
+  <si>
+    <t>y reduces al silencio enemigos y rebeldes.</t>
+  </si>
+  <si>
+    <t>Si contemplo el cielo, obra de tus manos,</t>
+  </si>
+  <si>
+    <t>la luna y las estrellas, que has creado,</t>
+  </si>
+  <si>
+    <t>¿qué es el hombre para que te acuerdes de él,</t>
+  </si>
+  <si>
+    <t>el hijo del hombre para darle poder?</t>
+  </si>
+  <si>
+    <t>Lo hiciste, lo hiciste poco menos que los ángeles,</t>
+  </si>
+  <si>
+    <t>de gloria y honor lo has coronado;</t>
+  </si>
+  <si>
+    <t>todo lo has sometido bajo sus pies.</t>
+  </si>
 </sst>
 </file>
 
@@ -1469,27 +1518,27 @@
       <selection activeCell="N3" sqref="N3:N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" customWidth="1"/>
-    <col min="8" max="8" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.453125" customWidth="1"/>
+    <col min="8" max="8" width="56.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="1.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" customWidth="1"/>
-    <col min="14" max="14" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="51.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.35">
       <c r="F1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -1533,7 +1582,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -1578,7 +1627,7 @@
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -1623,7 +1672,7 @@
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -1668,7 +1717,7 @@
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -1713,7 +1762,7 @@
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -1758,7 +1807,7 @@
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -1803,7 +1852,7 @@
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -1848,7 +1897,7 @@
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -1893,7 +1942,7 @@
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -1938,7 +1987,7 @@
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -1983,7 +2032,7 @@
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -2028,7 +2077,7 @@
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -2073,7 +2122,7 @@
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -2118,7 +2167,7 @@
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -2163,7 +2212,7 @@
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -2208,7 +2257,7 @@
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -2253,7 +2302,7 @@
         <v>document.getElementById("c17").textContent = Cantor17;</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -2298,7 +2347,7 @@
         <v>document.getElementById("c18").textContent = Cantor18;</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -2343,7 +2392,7 @@
         <v>document.getElementById("c19").textContent = Cantor19;</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -2388,7 +2437,7 @@
         <v>document.getElementById("c20").textContent = Cantor20;</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>25</v>
       </c>
@@ -2433,7 +2482,7 @@
         <v>document.getElementById("c21").textContent = Cantor21;</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>25</v>
       </c>
@@ -2478,7 +2527,7 @@
         <v>document.getElementById("c22").textContent = Cantor22;</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>25</v>
       </c>
@@ -2523,7 +2572,7 @@
         <v>document.getElementById("c23").textContent = Cantor23;</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -2568,7 +2617,7 @@
         <v>document.getElementById("c24").textContent = Cantor24;</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -2613,7 +2662,7 @@
         <v>document.getElementById("c25").textContent = Cantor25;</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -2658,7 +2707,7 @@
         <v>document.getElementById("c26").textContent = Cantor26;</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>25</v>
       </c>
@@ -2717,35 +2766,35 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="4.42578125" customWidth="1"/>
-    <col min="10" max="10" width="60.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="4.453125" customWidth="1"/>
+    <col min="10" max="10" width="60.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="1.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3" customWidth="1"/>
-    <col min="16" max="16" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="51.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
       <c r="F1" s="3" t="str">
         <f ca="1">LOWER(SUBSTITUTE(SUBSTITUTE(F4, " ", ""), ",", ""))</f>
         <v>alegríahanacidoelsalvador</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
       <c r="F2" s="1" t="str">
         <f ca="1">(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F1, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"))</f>
         <v>alegriahanacidoelsalvador</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
       <c r="F3" s="2" t="str">
         <f ca="1">UPPER(LEFT(F4,1)) &amp; LOWER(MID(F4,2,LEN(F4)-1))</f>
         <v>Alegría, ha nacido el salvador</v>
@@ -2754,7 +2803,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>146</v>
       </c>
@@ -2802,7 +2851,7 @@
         <v>document.getElementById("t1").textContent = titulo;</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>148</v>
       </c>
@@ -2849,7 +2898,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>149</v>
       </c>
@@ -2897,12 +2946,12 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -2949,7 +2998,7 @@
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>30</v>
       </c>
@@ -2997,7 +3046,7 @@
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>30</v>
       </c>
@@ -3045,7 +3094,7 @@
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -3093,7 +3142,7 @@
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>30</v>
       </c>
@@ -3141,7 +3190,7 @@
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -3189,7 +3238,7 @@
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -3237,7 +3286,7 @@
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>30</v>
       </c>
@@ -3285,7 +3334,7 @@
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -3333,7 +3382,7 @@
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -3381,7 +3430,7 @@
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>30</v>
       </c>
@@ -3429,12 +3478,12 @@
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I21" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -3481,7 +3530,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>25</v>
       </c>
@@ -3529,7 +3578,7 @@
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>25</v>
       </c>
@@ -3577,7 +3626,7 @@
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>25</v>
       </c>
@@ -3625,127 +3674,127 @@
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I27" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
       <c r="J28" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="J29" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="J30" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I32" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J33" t="str">
         <f t="shared" ref="J33:J43" si="4">P9</f>
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J34" t="str">
         <f t="shared" si="4"/>
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J35" t="str">
         <f t="shared" si="4"/>
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J36" t="str">
         <f t="shared" si="4"/>
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J37" t="str">
         <f t="shared" si="4"/>
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J38" t="str">
         <f t="shared" si="4"/>
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J39" t="str">
         <f t="shared" si="4"/>
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J40" t="str">
         <f t="shared" si="4"/>
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J41" t="str">
         <f t="shared" si="4"/>
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J42" t="str">
         <f t="shared" si="4"/>
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J43" t="str">
         <f t="shared" si="4"/>
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
-    <row r="45" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I45" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J46" t="str">
         <f>P22</f>
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="47" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J47" t="str">
         <f>P23</f>
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="48" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J48" t="str">
         <f>P24</f>
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J49" t="str">
         <f>P25</f>
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I51" t="s">
         <v>157</v>
       </c>
@@ -3761,35 +3810,35 @@
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="4.42578125" customWidth="1"/>
-    <col min="10" max="10" width="60.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="4.453125" customWidth="1"/>
+    <col min="10" max="10" width="60.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="1.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3" customWidth="1"/>
-    <col min="16" max="16" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="51.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
       <c r="F1" s="3" t="str">
         <f ca="1">LOWER(SUBSTITUTE(SUBSTITUTE(F4, " ", ""), ",", ""))</f>
         <v>aleluyaalabadalseñor</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
       <c r="F2" s="1" t="str">
         <f ca="1">(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F1, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"))</f>
         <v>aleluyaalabadalseñor</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
       <c r="F3" s="2" t="str">
         <f ca="1">UPPER(LEFT(F4,1)) &amp; LOWER(MID(F4,2,LEN(F4)-1))</f>
         <v>Aleluya, alabad al señor</v>
@@ -3798,7 +3847,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>146</v>
       </c>
@@ -3846,7 +3895,7 @@
         <v>document.getElementById("t1").textContent = titulo;</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>148</v>
       </c>
@@ -3893,7 +3942,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>149</v>
       </c>
@@ -3940,12 +3989,12 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -3992,7 +4041,7 @@
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>30</v>
       </c>
@@ -4040,7 +4089,7 @@
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>30</v>
       </c>
@@ -4088,7 +4137,7 @@
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -4136,7 +4185,7 @@
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>30</v>
       </c>
@@ -4184,7 +4233,7 @@
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -4232,7 +4281,7 @@
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -4280,12 +4329,12 @@
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>25</v>
       </c>
@@ -4332,7 +4381,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -4380,7 +4429,7 @@
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -4428,7 +4477,7 @@
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -4476,7 +4525,7 @@
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>25</v>
       </c>
@@ -4524,7 +4573,7 @@
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>25</v>
       </c>
@@ -4572,7 +4621,7 @@
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>25</v>
       </c>
@@ -4620,7 +4669,7 @@
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>25</v>
       </c>
@@ -4668,7 +4717,7 @@
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>25</v>
       </c>
@@ -4716,7 +4765,7 @@
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>25</v>
       </c>
@@ -4764,139 +4813,139 @@
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I57" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J58" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J59" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J60" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="62" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I62" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="63" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J63" t="str">
-        <f>P9</f>
+        <f t="shared" ref="J63:J69" si="8">P9</f>
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="64" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J64" t="str">
-        <f>P10</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J65" t="str">
-        <f>P11</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="66" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J66" t="str">
-        <f>P12</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="67" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J67" t="str">
-        <f>P13</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J68" t="str">
-        <f>P14</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J69" t="str">
-        <f>P15</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I71" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J72" t="str">
-        <f>P25</f>
+        <f t="shared" ref="J72:J81" si="9">P25</f>
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="73" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J73" t="str">
-        <f>P26</f>
+        <f t="shared" si="9"/>
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J74" t="str">
-        <f>P27</f>
+        <f t="shared" si="9"/>
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J75" t="str">
-        <f>P28</f>
+        <f t="shared" si="9"/>
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J76" t="str">
-        <f>P29</f>
+        <f t="shared" si="9"/>
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J77" t="str">
-        <f>P30</f>
+        <f t="shared" si="9"/>
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="78" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J78" t="str">
-        <f>P31</f>
+        <f t="shared" si="9"/>
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="79" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J79" t="str">
-        <f>P32</f>
+        <f t="shared" si="9"/>
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="80" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J80" t="str">
-        <f>P33</f>
+        <f t="shared" si="9"/>
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="81" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J81" t="str">
-        <f>P34</f>
+        <f t="shared" si="9"/>
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="82" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I82" t="s">
         <v>157</v>
       </c>
@@ -4911,39 +4960,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FF7D7D-4BDF-4EA2-AFDC-CAD5086EE4F3}">
   <dimension ref="B1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="4.42578125" customWidth="1"/>
-    <col min="10" max="10" width="60.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="4.453125" customWidth="1"/>
+    <col min="10" max="10" width="60.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="1.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3" customWidth="1"/>
-    <col min="16" max="16" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="51.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
       <c r="F1" s="3" t="str">
         <f ca="1">LOWER(SUBSTITUTE(SUBSTITUTE(F4, " ", ""), ",", ""))</f>
         <v>aleluyabendecidalseñor</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
       <c r="F2" s="1" t="str">
         <f ca="1">(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F1, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"))</f>
         <v>aleluyabendecidalseñor</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
       <c r="F3" s="2" t="str">
         <f ca="1">UPPER(LEFT(F4,1)) &amp; LOWER(MID(F4,2,LEN(F4)-1))</f>
         <v>Aleluya, bendecid al señor</v>
@@ -4952,7 +5001,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>146</v>
       </c>
@@ -5000,7 +5049,7 @@
         <v>document.getElementById("t1").textContent = titulo;</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>148</v>
       </c>
@@ -5047,7 +5096,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>149</v>
       </c>
@@ -5094,12 +5143,12 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -5146,7 +5195,7 @@
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>30</v>
       </c>
@@ -5194,7 +5243,7 @@
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>30</v>
       </c>
@@ -5242,7 +5291,7 @@
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -5290,7 +5339,7 @@
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>30</v>
       </c>
@@ -5338,7 +5387,7 @@
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -5386,7 +5435,7 @@
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -5434,7 +5483,7 @@
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>30</v>
       </c>
@@ -5482,7 +5531,7 @@
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -5530,7 +5579,7 @@
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -5578,7 +5627,7 @@
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
@@ -5626,7 +5675,7 @@
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>30</v>
       </c>
@@ -5674,7 +5723,7 @@
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -5722,7 +5771,7 @@
         <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -5770,7 +5819,7 @@
         <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -5818,7 +5867,7 @@
         <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>30</v>
       </c>
@@ -5866,7 +5915,7 @@
         <v>document.getElementById("a16").textContent = Asamblea16;</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -5914,7 +5963,7 @@
         <v>document.getElementById("a17").textContent = Asamblea17;</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -5962,12 +6011,12 @@
         <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I29" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>25</v>
       </c>
@@ -6014,7 +6063,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>25</v>
       </c>
@@ -6062,7 +6111,7 @@
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>25</v>
       </c>
@@ -6110,7 +6159,7 @@
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>25</v>
       </c>
@@ -6158,12 +6207,12 @@
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>25</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:C56" si="4">+C33+1</f>
+        <f t="shared" ref="C34:C38" si="4">+C33+1</f>
         <v>5</v>
       </c>
       <c r="D34" t="s">
@@ -6182,7 +6231,7 @@
         <v>29</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" ref="J34:J56" si="5">_xlfn.CONCAT(B34,C34," ",D34," ",E34,F34,G34,H34)</f>
+        <f t="shared" ref="J34:J38" si="5">_xlfn.CONCAT(B34,C34," ",D34," ",E34,F34,G34,H34)</f>
         <v>let Cantor5 = "¡Alzad a él las manos,";</v>
       </c>
       <c r="K34" t="s">
@@ -6195,18 +6244,18 @@
         <v>26</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:N56" si="6">C34</f>
+        <f t="shared" ref="N34:N38" si="6">C34</f>
         <v>5</v>
       </c>
       <c r="O34" t="s">
         <v>29</v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" ref="P34:P56" si="7">_xlfn.CONCAT("document.getElementById",K34,M34,"c",N34,M34,L34,".textContent = Cantor",N34,O34)</f>
+        <f t="shared" ref="P34:P38" si="7">_xlfn.CONCAT("document.getElementById",K34,M34,"c",N34,M34,L34,".textContent = Cantor",N34,O34)</f>
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>25</v>
       </c>
@@ -6254,7 +6303,7 @@
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>25</v>
       </c>
@@ -6302,7 +6351,7 @@
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>25</v>
       </c>
@@ -6350,7 +6399,7 @@
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>25</v>
       </c>
@@ -6398,127 +6447,127 @@
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="62" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I62" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="63" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J63" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J64" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J65" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="67" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I67" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J68" t="str">
         <f t="shared" ref="J68:J77" si="8">P9</f>
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J69" t="str">
         <f t="shared" si="8"/>
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J70" t="str">
         <f t="shared" si="8"/>
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J71" t="str">
         <f t="shared" si="8"/>
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J72" t="str">
         <f t="shared" si="8"/>
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="73" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J73" t="str">
         <f t="shared" si="8"/>
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J74" t="str">
         <f t="shared" si="8"/>
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J75" t="str">
         <f t="shared" si="8"/>
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J76" t="str">
         <f t="shared" si="8"/>
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J77" t="str">
         <f t="shared" si="8"/>
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="78" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J78" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="80" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I80" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="81" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J81" t="str">
         <f>P30</f>
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="82" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J82" t="str">
         <f>P31</f>
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="83" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J83" t="str">
         <f>P32</f>
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="84" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J84" t="str">
         <f>P33</f>
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="86" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I86" t="s">
         <v>157</v>
       </c>
@@ -6537,35 +6586,35 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="4.42578125" customWidth="1"/>
-    <col min="10" max="10" width="60.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="4.453125" customWidth="1"/>
+    <col min="10" max="10" width="60.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="1.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3" customWidth="1"/>
-    <col min="16" max="16" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="51.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
       <c r="F1" s="3" t="str">
         <f ca="1">LOWER(SUBSTITUTE(SUBSTITUTE(F4, " ", ""), ",", ""))</f>
         <v>cantodemoises</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
       <c r="F2" s="1" t="str">
         <f ca="1">(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F1, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"))</f>
         <v>cantodemoises</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
       <c r="F3" s="2" t="str">
         <f ca="1">UPPER(LEFT(F4,1)) &amp; LOWER(MID(F4,2,LEN(F4)-1))</f>
         <v>Canto de moises</v>
@@ -6574,7 +6623,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>146</v>
       </c>
@@ -6622,7 +6671,7 @@
         <v>document.getElementById("t1").textContent = titulo;</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>148</v>
       </c>
@@ -6669,7 +6718,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>149</v>
       </c>
@@ -6717,12 +6766,12 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -6769,7 +6818,7 @@
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>30</v>
       </c>
@@ -6817,7 +6866,7 @@
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>30</v>
       </c>
@@ -6865,7 +6914,7 @@
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -6913,7 +6962,7 @@
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>30</v>
       </c>
@@ -6961,7 +7010,7 @@
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -7009,7 +7058,7 @@
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -7057,7 +7106,7 @@
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>30</v>
       </c>
@@ -7105,7 +7154,7 @@
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -7153,7 +7202,7 @@
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -7201,7 +7250,7 @@
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
@@ -7249,7 +7298,7 @@
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>30</v>
       </c>
@@ -7297,7 +7346,7 @@
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -7345,7 +7394,7 @@
         <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -7393,7 +7442,7 @@
         <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -7441,7 +7490,7 @@
         <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>30</v>
       </c>
@@ -7489,7 +7538,7 @@
         <v>document.getElementById("a16").textContent = Asamblea16;</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -7537,7 +7586,7 @@
         <v>document.getElementById("a17").textContent = Asamblea17;</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -7585,7 +7634,7 @@
         <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -7633,7 +7682,7 @@
         <v>document.getElementById("a19").textContent = Asamblea19;</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -7681,7 +7730,7 @@
         <v>document.getElementById("a20").textContent = Asamblea20;</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
         <v>30</v>
       </c>
@@ -7729,7 +7778,7 @@
         <v>document.getElementById("a21").textContent = Asamblea21;</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>30</v>
       </c>
@@ -7777,7 +7826,7 @@
         <v>document.getElementById("a22").textContent = Asamblea22;</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -7825,7 +7874,7 @@
         <v>document.getElementById("a23").textContent = Asamblea23;</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -7873,7 +7922,7 @@
         <v>document.getElementById("a24").textContent = Asamblea24;</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -7921,7 +7970,7 @@
         <v>document.getElementById("a25").textContent = Asamblea25;</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -7969,7 +8018,7 @@
         <v>document.getElementById("a26").textContent = Asamblea26;</v>
       </c>
     </row>
-    <row r="35" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>30</v>
       </c>
@@ -8017,7 +8066,7 @@
         <v>document.getElementById("a27").textContent = Asamblea27;</v>
       </c>
     </row>
-    <row r="36" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>30</v>
       </c>
@@ -8065,7 +8114,7 @@
         <v>document.getElementById("a28").textContent = Asamblea28;</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>30</v>
       </c>
@@ -8113,7 +8162,7 @@
         <v>document.getElementById("a29").textContent = Asamblea29;</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>30</v>
       </c>
@@ -8161,7 +8210,7 @@
         <v>document.getElementById("a30").textContent = Asamblea30;</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B39" s="4" t="s">
         <v>30</v>
       </c>
@@ -8209,7 +8258,7 @@
         <v>document.getElementById("a31").textContent = Asamblea31;</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>30</v>
       </c>
@@ -8257,7 +8306,7 @@
         <v>document.getElementById("a32").textContent = Asamblea32;</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>30</v>
       </c>
@@ -8305,7 +8354,7 @@
         <v>document.getElementById("a33").textContent = Asamblea33;</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>30</v>
       </c>
@@ -8353,7 +8402,7 @@
         <v>document.getElementById("a34").textContent = Asamblea34;</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>30</v>
       </c>
@@ -8401,7 +8450,7 @@
         <v>document.getElementById("a35").textContent = Asamblea35;</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>30</v>
       </c>
@@ -8449,7 +8498,7 @@
         <v>document.getElementById("a36").textContent = Asamblea36;</v>
       </c>
     </row>
-    <row r="45" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
         <v>30</v>
       </c>
@@ -8497,7 +8546,7 @@
         <v>document.getElementById("a37").textContent = Asamblea37;</v>
       </c>
     </row>
-    <row r="46" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>30</v>
       </c>
@@ -8545,7 +8594,7 @@
         <v>document.getElementById("a38").textContent = Asamblea38;</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>30</v>
       </c>
@@ -8593,7 +8642,7 @@
         <v>document.getElementById("a39").textContent = Asamblea39;</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>30</v>
       </c>
@@ -8641,7 +8690,7 @@
         <v>document.getElementById("a40").textContent = Asamblea40;</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B49" s="4" t="s">
         <v>30</v>
       </c>
@@ -8689,7 +8738,7 @@
         <v>document.getElementById("a41").textContent = Asamblea41;</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>30</v>
       </c>
@@ -8737,7 +8786,7 @@
         <v>document.getElementById("a42").textContent = Asamblea42;</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>30</v>
       </c>
@@ -8785,7 +8834,7 @@
         <v>document.getElementById("a43").textContent = Asamblea43;</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>30</v>
       </c>
@@ -8833,7 +8882,7 @@
         <v>document.getElementById("a44").textContent = Asamblea44;</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>30</v>
       </c>
@@ -8881,7 +8930,7 @@
         <v>document.getElementById("a45").textContent = Asamblea45;</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>30</v>
       </c>
@@ -8929,7 +8978,7 @@
         <v>document.getElementById("a46").textContent = Asamblea46;</v>
       </c>
     </row>
-    <row r="55" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
         <v>30</v>
       </c>
@@ -8977,7 +9026,7 @@
         <v>document.getElementById("a47").textContent = Asamblea47;</v>
       </c>
     </row>
-    <row r="56" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>30</v>
       </c>
@@ -9025,7 +9074,7 @@
         <v>document.getElementById("a48").textContent = Asamblea48;</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>30</v>
       </c>
@@ -9073,7 +9122,7 @@
         <v>document.getElementById("a49").textContent = Asamblea49;</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>30</v>
       </c>
@@ -9121,7 +9170,7 @@
         <v>document.getElementById("a50").textContent = Asamblea50;</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B59" s="4" t="s">
         <v>30</v>
       </c>
@@ -9169,7 +9218,7 @@
         <v>document.getElementById("a51").textContent = Asamblea51;</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>30</v>
       </c>
@@ -9217,7 +9266,7 @@
         <v>document.getElementById("a52").textContent = Asamblea52;</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>30</v>
       </c>
@@ -9265,7 +9314,7 @@
         <v>document.getElementById("a53").textContent = Asamblea53;</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>30</v>
       </c>
@@ -9313,7 +9362,7 @@
         <v>document.getElementById("a54").textContent = Asamblea54;</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>30</v>
       </c>
@@ -9361,7 +9410,7 @@
         <v>document.getElementById("a55").textContent = Asamblea55;</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>30</v>
       </c>
@@ -9409,7 +9458,7 @@
         <v>document.getElementById("a56").textContent = Asamblea56;</v>
       </c>
     </row>
-    <row r="65" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
         <v>30</v>
       </c>
@@ -9457,7 +9506,7 @@
         <v>document.getElementById("a57").textContent = Asamblea57;</v>
       </c>
     </row>
-    <row r="66" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>30</v>
       </c>
@@ -9505,7 +9554,7 @@
         <v>document.getElementById("a58").textContent = Asamblea58;</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>30</v>
       </c>
@@ -9553,7 +9602,7 @@
         <v>document.getElementById("a59").textContent = Asamblea59;</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>30</v>
       </c>
@@ -9601,7 +9650,7 @@
         <v>document.getElementById("a60").textContent = Asamblea60;</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B69" s="4" t="s">
         <v>30</v>
       </c>
@@ -9649,7 +9698,7 @@
         <v>document.getElementById("a61").textContent = Asamblea61;</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>30</v>
       </c>
@@ -9697,7 +9746,7 @@
         <v>document.getElementById("a62").textContent = Asamblea62;</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>30</v>
       </c>
@@ -9745,7 +9794,7 @@
         <v>document.getElementById("a63").textContent = Asamblea63;</v>
       </c>
     </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>30</v>
       </c>
@@ -9793,7 +9842,7 @@
         <v>document.getElementById("a64").textContent = Asamblea64;</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B73" t="s">
         <v>30</v>
       </c>
@@ -9841,7 +9890,7 @@
         <v>document.getElementById("a65").textContent = Asamblea65;</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B74" t="s">
         <v>30</v>
       </c>
@@ -9889,7 +9938,7 @@
         <v>document.getElementById("a66").textContent = Asamblea66;</v>
       </c>
     </row>
-    <row r="75" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B75" t="s">
         <v>30</v>
       </c>
@@ -9937,7 +9986,7 @@
         <v>document.getElementById("a67").textContent = Asamblea67;</v>
       </c>
     </row>
-    <row r="76" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B76" t="s">
         <v>30</v>
       </c>
@@ -9985,7 +10034,7 @@
         <v>document.getElementById("a68").textContent = Asamblea68;</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B77" t="s">
         <v>30</v>
       </c>
@@ -10033,7 +10082,7 @@
         <v>document.getElementById("a69").textContent = Asamblea69;</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B78" t="s">
         <v>30</v>
       </c>
@@ -10081,7 +10130,7 @@
         <v>document.getElementById("a70").textContent = Asamblea70;</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B79" s="4" t="s">
         <v>30</v>
       </c>
@@ -10129,7 +10178,7 @@
         <v>document.getElementById("a71").textContent = Asamblea71;</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B80" t="s">
         <v>30</v>
       </c>
@@ -10177,7 +10226,7 @@
         <v>document.getElementById("a72").textContent = Asamblea72;</v>
       </c>
     </row>
-    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B81" t="s">
         <v>30</v>
       </c>
@@ -10225,7 +10274,7 @@
         <v>document.getElementById("a73").textContent = Asamblea73;</v>
       </c>
     </row>
-    <row r="82" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B82" t="s">
         <v>30</v>
       </c>
@@ -10273,7 +10322,7 @@
         <v>document.getElementById("a74").textContent = Asamblea74;</v>
       </c>
     </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
         <v>30</v>
       </c>
@@ -10321,7 +10370,7 @@
         <v>document.getElementById("a75").textContent = Asamblea75;</v>
       </c>
     </row>
-    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
         <v>30</v>
       </c>
@@ -10369,7 +10418,7 @@
         <v>document.getElementById("a76").textContent = Asamblea76;</v>
       </c>
     </row>
-    <row r="85" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B85" t="s">
         <v>30</v>
       </c>
@@ -10417,7 +10466,7 @@
         <v>document.getElementById("a77").textContent = Asamblea77;</v>
       </c>
     </row>
-    <row r="86" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B86" t="s">
         <v>30</v>
       </c>
@@ -10438,7 +10487,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B87" t="s">
         <v>30</v>
       </c>
@@ -10459,7 +10508,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B88" t="s">
         <v>30</v>
       </c>
@@ -10480,12 +10529,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I97" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B98" t="s">
         <v>25</v>
       </c>
@@ -10532,7 +10581,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B99" t="s">
         <v>25</v>
       </c>
@@ -10580,7 +10629,7 @@
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B100" t="s">
         <v>25</v>
       </c>
@@ -10628,7 +10677,7 @@
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>25</v>
       </c>
@@ -10676,7 +10725,7 @@
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>25</v>
       </c>
@@ -10724,7 +10773,7 @@
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
         <v>25</v>
       </c>
@@ -10772,7 +10821,7 @@
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>25</v>
       </c>
@@ -10820,7 +10869,7 @@
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>25</v>
       </c>
@@ -10868,7 +10917,7 @@
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B106" t="s">
         <v>25</v>
       </c>
@@ -10916,7 +10965,7 @@
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>25</v>
       </c>
@@ -10964,7 +11013,7 @@
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>25</v>
       </c>
@@ -11012,7 +11061,7 @@
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>25</v>
       </c>
@@ -11060,7 +11109,7 @@
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B110" t="s">
         <v>25</v>
       </c>
@@ -11108,7 +11157,7 @@
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B111" t="s">
         <v>25</v>
       </c>
@@ -11156,7 +11205,7 @@
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
-    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B112" t="s">
         <v>25</v>
       </c>
@@ -11204,7 +11253,7 @@
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>25</v>
       </c>
@@ -11252,7 +11301,7 @@
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B114" t="s">
         <v>25</v>
       </c>
@@ -11300,7 +11349,7 @@
         <v>document.getElementById("c17").textContent = Cantor17;</v>
       </c>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B115" t="s">
         <v>25</v>
       </c>
@@ -11348,7 +11397,7 @@
         <v>document.getElementById("c18").textContent = Cantor18;</v>
       </c>
     </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>25</v>
       </c>
@@ -11396,7 +11445,7 @@
         <v>document.getElementById("c19").textContent = Cantor19;</v>
       </c>
     </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B117" t="s">
         <v>25</v>
       </c>
@@ -11444,7 +11493,7 @@
         <v>document.getElementById("c20").textContent = Cantor20;</v>
       </c>
     </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B118" t="s">
         <v>25</v>
       </c>
@@ -11492,7 +11541,7 @@
         <v>document.getElementById("c21").textContent = Cantor21;</v>
       </c>
     </row>
-    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B119" t="s">
         <v>25</v>
       </c>
@@ -11540,7 +11589,7 @@
         <v>document.getElementById("c22").textContent = Cantor22;</v>
       </c>
     </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>25</v>
       </c>
@@ -11588,7 +11637,7 @@
         <v>document.getElementById("c23").textContent = Cantor23;</v>
       </c>
     </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B121" t="s">
         <v>25</v>
       </c>
@@ -11636,7 +11685,7 @@
         <v>document.getElementById("c24").textContent = Cantor24;</v>
       </c>
     </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B122" t="s">
         <v>25</v>
       </c>
@@ -11684,7 +11733,7 @@
         <v>document.getElementById("c25").textContent = Cantor25;</v>
       </c>
     </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B123" t="s">
         <v>25</v>
       </c>
@@ -11732,7 +11781,7 @@
         <v>document.getElementById("c26").textContent = Cantor26;</v>
       </c>
     </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B124" t="s">
         <v>25</v>
       </c>
@@ -11780,127 +11829,127 @@
         <v>document.getElementById("c27").textContent = Cantor27;</v>
       </c>
     </row>
-    <row r="130" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I130" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="131" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J131" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="132" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J132" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="133" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J133" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="135" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I135" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="136" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J136" t="str">
         <f t="shared" ref="J136:J145" si="15">P9</f>
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="137" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J137" t="str">
         <f t="shared" si="15"/>
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="138" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J138" t="str">
         <f t="shared" si="15"/>
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="139" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J139" t="str">
         <f t="shared" si="15"/>
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="140" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J140" t="str">
         <f t="shared" si="15"/>
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="141" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J141" t="str">
         <f t="shared" si="15"/>
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="142" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J142" t="str">
         <f t="shared" si="15"/>
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="143" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J143" t="str">
         <f t="shared" si="15"/>
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="144" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J144" t="str">
         <f t="shared" si="15"/>
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="145" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J145" t="str">
         <f t="shared" si="15"/>
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="146" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J146" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="148" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I148" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="149" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J149" t="str">
         <f>P98</f>
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="150" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J150" t="str">
         <f>P99</f>
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="151" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J151" t="str">
         <f>P100</f>
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="152" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J152" t="str">
         <f>P101</f>
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="154" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I154" t="s">
         <v>157</v>
       </c>
@@ -11916,38 +11965,38 @@
   <dimension ref="B1:P93"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J85" sqref="J85"/>
+      <selection activeCell="J85" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="4.42578125" customWidth="1"/>
-    <col min="10" max="10" width="60.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="4.453125" customWidth="1"/>
+    <col min="10" max="10" width="60.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="1.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3" customWidth="1"/>
-    <col min="16" max="16" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="51.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
       <c r="F1" s="3" t="str">
         <f ca="1">LOWER(SUBSTITUTE(SUBSTITUTE(F4, " ", ""), ",", ""))</f>
         <v>ohmuerte¿dóndeestátuvictor</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
       <c r="F2" s="1" t="str">
         <f ca="1">(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F1, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"))</f>
         <v>ohmuerte¿dondeestatuvictor</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
       <c r="F3" s="2" t="str">
         <f ca="1">UPPER(LEFT(F4,1)) &amp; LOWER(MID(F4,2,LEN(F4)-1))</f>
         <v>Oh muerte ¿dónde está tu victor</v>
@@ -11956,7 +12005,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>146</v>
       </c>
@@ -12004,7 +12053,7 @@
         <v>document.getElementById("t1").textContent = titulo;</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>148</v>
       </c>
@@ -12051,7 +12100,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>149</v>
       </c>
@@ -12099,12 +12148,12 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -12151,7 +12200,7 @@
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>30</v>
       </c>
@@ -12199,7 +12248,7 @@
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>30</v>
       </c>
@@ -12247,7 +12296,7 @@
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -12295,7 +12344,7 @@
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>30</v>
       </c>
@@ -12343,7 +12392,7 @@
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -12391,7 +12440,7 @@
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -12439,7 +12488,7 @@
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>30</v>
       </c>
@@ -12487,7 +12536,7 @@
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -12535,7 +12584,7 @@
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -12583,7 +12632,7 @@
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
@@ -12631,7 +12680,7 @@
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>30</v>
       </c>
@@ -12679,7 +12728,7 @@
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -12727,7 +12776,7 @@
         <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -12775,7 +12824,7 @@
         <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -12823,7 +12872,7 @@
         <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>30</v>
       </c>
@@ -12871,7 +12920,7 @@
         <v>document.getElementById("a16").textContent = Asamblea16;</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -12919,7 +12968,7 @@
         <v>document.getElementById("a17").textContent = Asamblea17;</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -12967,7 +13016,7 @@
         <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -13015,7 +13064,7 @@
         <v>document.getElementById("a19").textContent = Asamblea19;</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -13063,7 +13112,7 @@
         <v>document.getElementById("a20").textContent = Asamblea20;</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
         <v>30</v>
       </c>
@@ -13111,7 +13160,7 @@
         <v>document.getElementById("a21").textContent = Asamblea21;</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>30</v>
       </c>
@@ -13159,7 +13208,7 @@
         <v>document.getElementById("a22").textContent = Asamblea22;</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -13207,7 +13256,7 @@
         <v>document.getElementById("a23").textContent = Asamblea23;</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -13255,7 +13304,7 @@
         <v>document.getElementById("a24").textContent = Asamblea24;</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -13303,7 +13352,7 @@
         <v>document.getElementById("a25").textContent = Asamblea25;</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -13351,7 +13400,7 @@
         <v>document.getElementById("a26").textContent = Asamblea26;</v>
       </c>
     </row>
-    <row r="35" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>30</v>
       </c>
@@ -13399,7 +13448,7 @@
         <v>document.getElementById("a27").textContent = Asamblea27;</v>
       </c>
     </row>
-    <row r="36" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>30</v>
       </c>
@@ -13447,12 +13496,12 @@
         <v>document.getElementById("a28").textContent = Asamblea28;</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I45" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>25</v>
       </c>
@@ -13499,7 +13548,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>25</v>
       </c>
@@ -13547,7 +13596,7 @@
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>25</v>
       </c>
@@ -13595,7 +13644,7 @@
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>25</v>
       </c>
@@ -13643,7 +13692,7 @@
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>25</v>
       </c>
@@ -13691,7 +13740,7 @@
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>25</v>
       </c>
@@ -13739,7 +13788,7 @@
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>25</v>
       </c>
@@ -13787,7 +13836,7 @@
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>25</v>
       </c>
@@ -13835,7 +13884,7 @@
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>25</v>
       </c>
@@ -13883,7 +13932,7 @@
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>25</v>
       </c>
@@ -13931,7 +13980,7 @@
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>25</v>
       </c>
@@ -13979,7 +14028,7 @@
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>25</v>
       </c>
@@ -14027,7 +14076,7 @@
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>25</v>
       </c>
@@ -14075,7 +14124,7 @@
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>25</v>
       </c>
@@ -14123,7 +14172,7 @@
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>25</v>
       </c>
@@ -14171,7 +14220,7 @@
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>25</v>
       </c>
@@ -14219,7 +14268,7 @@
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>25</v>
       </c>
@@ -14267,7 +14316,7 @@
         <v>document.getElementById("c17").textContent = Cantor17;</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>25</v>
       </c>
@@ -14315,122 +14364,1210 @@
         <v>document.getElementById("c18").textContent = Cantor18;</v>
       </c>
     </row>
-    <row r="69" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I69" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J70" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J71" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="72" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J72" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I74" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J75" t="str">
         <f t="shared" ref="J75:J84" si="8">P9</f>
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="76" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J76" t="str">
         <f t="shared" si="8"/>
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="77" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J77" t="str">
         <f t="shared" si="8"/>
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="78" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J78" t="str">
         <f t="shared" si="8"/>
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="79" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J79" t="str">
         <f t="shared" si="8"/>
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="80" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J80" t="str">
         <f t="shared" si="8"/>
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="81" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J81" t="str">
         <f t="shared" si="8"/>
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="82" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J82" t="str">
         <f t="shared" si="8"/>
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="83" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J83" t="str">
         <f t="shared" si="8"/>
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="84" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J84" t="str">
         <f t="shared" si="8"/>
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="87" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I87" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J88" t="str">
         <f>P46</f>
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="89" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J89" t="str">
         <f>P47</f>
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="90" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J90" t="str">
         <f>P48</f>
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="91" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J91" t="str">
         <f>P49</f>
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="93" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I93" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCA8C4A-B9E4-4232-9E1E-E47CEB7915C1}">
+  <dimension ref="B1:P64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
+    <col min="6" max="6" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="4.453125" customWidth="1"/>
+    <col min="10" max="10" width="60.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="1.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3" customWidth="1"/>
+    <col min="16" max="16" width="51.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="F1" s="3" t="str">
+        <f ca="1">LOWER(SUBSTITUTE(SUBSTITUTE(F4, " ", ""), ",", ""))</f>
+        <v>ohseñornuestrodios</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="F2" s="1" t="str">
+        <f ca="1">(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F1, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"))</f>
+        <v>ohseñornuestrodios</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="F3" s="2" t="str">
+        <f ca="1">UPPER(LEFT(F4,1)) &amp; LOWER(MID(F4,2,LEN(F4)-1))</f>
+        <v xml:space="preserve">Oh señor, nuestro dios </v>
+      </c>
+      <c r="I3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="F4" ca="1">MID(CELL("filename", A3), FIND("]", CELL("filename", A3)) + 1, 255)</f>
+        <v xml:space="preserve">OH SEÑOR, NUESTRO DIOS </v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="str">
+        <f ca="1">_xlfn.CONCAT(B4," ",D4," ",E4,F4,G4,H4)</f>
+        <v>let titulo = "OH SEÑOR, NUESTRO DIOS ";</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4">
+        <f>C4</f>
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K4,M4,"t",N4,M4,L4,".textContent = titulo",O4)</f>
+        <v>document.getElementById("t1").textContent = titulo;</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="str">
+        <f>_xlfn.CONCAT(B5," ",D5," ",E5,F5,G5,H5)</f>
+        <v>let salmo = "Salmo 8";</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5">
+        <f>C5</f>
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K5,M5,"c",N5,M5,L5,".textContent = Cantor",N5,O5)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>118</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="str">
+        <f>_xlfn.CONCAT(B6," ",D6," ",E6,F6,G6,H6,"      //Numero del libro")</f>
+        <v>let dbnos = "118";      //Numero del libro</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6">
+        <f>C6</f>
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K6,M6,"c",N6,M6,L6,".textContent = Cantor",N6,O6)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" ref="J9:J14" si="0">_xlfn.CONCAT(B9,C9," ",D9," ",E9,F9,G9,H9)</f>
+        <v>let Asamblea1 = "¡OH SEÑOR, NUESTRO DIOS,";</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:N14" si="1">C9</f>
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K9,M9,"a",N9,M9,L9,".textContent = Asamblea",N9,O9)</f>
+        <v>document.getElementById("a1").textContent = Asamblea1;</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C14" si="2">+C9+1</f>
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>309</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea2 = "QUÉ ADMIRABLE ES TU NOMBRE";</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" ref="P10:P14" si="3">_xlfn.CONCAT("document.getElementById",K10,M10,"a",N10,M10,L10,".textContent = Asamblea",N10,O10)</f>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>310</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea3 = "POR TODA LA TIERRA, TU NOMBRE,";</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>311</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea4 = "HASTA EL CIELO SE ELEVA TU AMOR!";</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea5 = "¡OH SEÑOR, NUESTRO DIOS ...";</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>312</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea6 = "¡OH SEÑOR, NUESTRO DIOS ...";</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a6").textContent = Asamblea6;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="I16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>313</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" t="str">
+        <f>_xlfn.CONCAT(B17,C17," ",D17," ",E17,F17,G17,H17)</f>
+        <v>let Cantor1 = "Con la boca de los niños pequeños";</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17">
+        <f>C17</f>
+        <v>1</v>
+      </c>
+      <c r="O17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K17,M17,"c",N17,M17,L17,".textContent = Cantor",N17,O17)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <f>+C17+1</f>
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>314</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" t="str">
+        <f>_xlfn.CONCAT(B18,C18," ",D18," ",E18,F18,G18,H18)</f>
+        <v>let Cantor2 = "afirmas tu gloria, oh Señor,";</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18">
+        <f>C18</f>
+        <v>2</v>
+      </c>
+      <c r="O18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K18,M18,"c",N18,M18,L18,".textContent = Cantor",N18,O18)</f>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <f>+C18+1</f>
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>315</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="str">
+        <f>_xlfn.CONCAT(B19,C19," ",D19," ",E19,F19,G19,H19)</f>
+        <v>let Cantor3 = "y reduces al silencio enemigos y rebeldes.";</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19">
+        <f>C19</f>
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K19,M19,"c",N19,M19,L19,".textContent = Cantor",N19,O19)</f>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <f>+C19+1</f>
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>316</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="str">
+        <f>_xlfn.CONCAT(B20,C20," ",D20," ",E20,F20,G20,H20)</f>
+        <v>let Cantor4 = "Si contemplo el cielo, obra de tus manos,";</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20">
+        <f>C20</f>
+        <v>4</v>
+      </c>
+      <c r="O20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K20,M20,"c",N20,M20,L20,".textContent = Cantor",N20,O20)</f>
+        <v>document.getElementById("c4").textContent = Cantor4;</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ref="C21:C26" si="4">+C20+1</f>
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>317</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" ref="J21:J26" si="5">_xlfn.CONCAT(B21,C21," ",D21," ",E21,F21,G21,H21)</f>
+        <v>let Cantor5 = "la luna y las estrellas, que has creado,";</v>
+      </c>
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21">
+        <f t="shared" ref="N21:N26" si="6">C21</f>
+        <v>5</v>
+      </c>
+      <c r="O21" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" ref="P21:P26" si="7">_xlfn.CONCAT("document.getElementById",K21,M21,"c",N21,M21,L21,".textContent = Cantor",N21,O21)</f>
+        <v>document.getElementById("c5").textContent = Cantor5;</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>318</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor6 = "¿qué es el hombre para que te acuerdes de él,";</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="O22" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c6").textContent = Cantor6;</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>319</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor7 = "el hijo del hombre para darle poder?";</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="O23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c7").textContent = Cantor7;</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>320</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor8 = "Lo hiciste, lo hiciste poco menos que los ángeles,";</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="O24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c8").textContent = Cantor8;</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>321</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor9 = "de gloria y honor lo has coronado;";</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="O25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c9").textContent = Cantor9;</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>322</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor10 = "todo lo has sometido bajo sus pies.";</v>
+      </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="O26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c10").textContent = Cantor10;</v>
+      </c>
+    </row>
+    <row r="40" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I40" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J42" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="43" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="45" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J46" t="str">
+        <f>P9</f>
+        <v>document.getElementById("a1").textContent = Asamblea1;</v>
+      </c>
+    </row>
+    <row r="47" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J47" t="str">
+        <f>P10</f>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+      </c>
+    </row>
+    <row r="48" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J48" t="str">
+        <f>P11</f>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+      </c>
+    </row>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J49" t="str">
+        <f>P12</f>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+      </c>
+    </row>
+    <row r="50" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J50" t="str">
+        <f>P13</f>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="51" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J51" t="str">
+        <f>P14</f>
+        <v>document.getElementById("a6").textContent = Asamblea6;</v>
+      </c>
+    </row>
+    <row r="52" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J52" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="53" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J53" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="54" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J54" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="55" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J55" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="58" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J59" t="str">
+        <f>P17</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="60" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J60" t="str">
+        <f>P18</f>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
+      </c>
+    </row>
+    <row r="61" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J61" t="str">
+        <f>P19</f>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="62" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J62" t="str">
+        <f>P20</f>
+        <v>document.getElementById("c4").textContent = Cantor4;</v>
+      </c>
+    </row>
+    <row r="64" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I64" t="s">
         <v>157</v>
       </c>
     </row>
@@ -14449,27 +15586,27 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.42578125" customWidth="1"/>
-    <col min="9" max="9" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.453125" customWidth="1"/>
+    <col min="9" max="9" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="1.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="51.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
       <c r="F1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -14516,7 +15653,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -14564,7 +15701,7 @@
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -14612,7 +15749,7 @@
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -14660,7 +15797,7 @@
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -14708,7 +15845,7 @@
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -14756,7 +15893,7 @@
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -14804,7 +15941,7 @@
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -14852,7 +15989,7 @@
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -14900,7 +16037,7 @@
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -14948,7 +16085,7 @@
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -14993,7 +16130,7 @@
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -15038,7 +16175,7 @@
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -15083,7 +16220,7 @@
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -15128,7 +16265,7 @@
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -15173,7 +16310,7 @@
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -15218,7 +16355,7 @@
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>30</v>
       </c>
@@ -15266,7 +16403,7 @@
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -15314,7 +16451,7 @@
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -15362,7 +16499,7 @@
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -15410,7 +16547,7 @@
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>30</v>
       </c>
@@ -15455,7 +16592,7 @@
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -15500,7 +16637,7 @@
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -15545,7 +16682,7 @@
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -15590,7 +16727,7 @@
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -15635,7 +16772,7 @@
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>30</v>
       </c>
@@ -15680,7 +16817,7 @@
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>30</v>
       </c>
@@ -15725,7 +16862,7 @@
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -15770,7 +16907,7 @@
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -15815,7 +16952,7 @@
         <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -15860,7 +16997,7 @@
         <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -15905,7 +17042,7 @@
         <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>30</v>
       </c>
@@ -15950,7 +17087,7 @@
         <v>document.getElementById("a16").textContent = Asamblea16;</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>30</v>
       </c>
@@ -15995,7 +17132,7 @@
         <v>document.getElementById("a17").textContent = Asamblea17;</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>30</v>
       </c>
@@ -16040,7 +17177,7 @@
         <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>30</v>
       </c>
@@ -16085,7 +17222,7 @@
         <v>document.getElementById("a19").textContent = Asamblea19;</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>30</v>
       </c>
@@ -16130,7 +17267,7 @@
         <v>document.getElementById("a20").textContent = Asamblea20;</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>30</v>
       </c>
@@ -16175,7 +17312,7 @@
         <v>document.getElementById("a21").textContent = Asamblea21;</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>30</v>
       </c>
@@ -16220,7 +17357,7 @@
         <v>document.getElementById("a22").textContent = Asamblea22;</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>30</v>
       </c>
@@ -16265,7 +17402,7 @@
         <v>document.getElementById("a23").textContent = Asamblea23;</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>30</v>
       </c>
@@ -16310,7 +17447,7 @@
         <v>document.getElementById("a24").textContent = Asamblea24;</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>30</v>
       </c>
@@ -16355,7 +17492,7 @@
         <v>document.getElementById("a25").textContent = Asamblea25;</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>30</v>
       </c>
@@ -16400,7 +17537,7 @@
         <v>document.getElementById("a26").textContent = Asamblea26;</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>30</v>
       </c>
@@ -16445,7 +17582,7 @@
         <v>document.getElementById("a27").textContent = Asamblea27;</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>30</v>
       </c>
@@ -16490,7 +17627,7 @@
         <v>document.getElementById("a28").textContent = Asamblea28;</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>30</v>
       </c>
@@ -16549,27 +17686,27 @@
       <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.42578125" customWidth="1"/>
-    <col min="9" max="9" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.453125" customWidth="1"/>
+    <col min="9" max="9" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="1.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="51.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
       <c r="F1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -16616,7 +17753,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -16664,7 +17801,7 @@
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -16712,7 +17849,7 @@
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -16760,7 +17897,7 @@
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -16808,7 +17945,7 @@
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -16856,7 +17993,7 @@
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -16904,7 +18041,7 @@
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -16952,7 +18089,7 @@
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -17000,7 +18137,7 @@
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -17048,7 +18185,7 @@
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -17093,7 +18230,7 @@
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -17138,7 +18275,7 @@
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -17183,7 +18320,7 @@
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -17228,7 +18365,7 @@
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -17273,7 +18410,7 @@
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -17318,7 +18455,7 @@
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>30</v>
       </c>
@@ -17366,7 +18503,7 @@
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -17414,7 +18551,7 @@
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -17462,7 +18599,7 @@
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -17510,7 +18647,7 @@
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>30</v>
       </c>
@@ -17558,7 +18695,7 @@
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -17606,7 +18743,7 @@
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -17654,7 +18791,7 @@
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -17702,7 +18839,7 @@
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -17750,7 +18887,7 @@
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>30</v>
       </c>
@@ -17798,7 +18935,7 @@
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>30</v>
       </c>
@@ -17846,7 +18983,7 @@
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -17894,7 +19031,7 @@
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -17942,7 +19079,7 @@
         <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -17990,7 +19127,7 @@
         <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -18038,7 +19175,7 @@
         <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>30</v>
       </c>
@@ -18086,7 +19223,7 @@
         <v>document.getElementById("a16").textContent = Asamblea16;</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>30</v>
       </c>
@@ -18134,7 +19271,7 @@
         <v>document.getElementById("a17").textContent = Asamblea17;</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>30</v>
       </c>
@@ -18182,7 +19319,7 @@
         <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>30</v>
       </c>
@@ -18230,7 +19367,7 @@
         <v>document.getElementById("a19").textContent = Asamblea19;</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>30</v>
       </c>
@@ -18278,7 +19415,7 @@
         <v>document.getElementById("a20").textContent = Asamblea20;</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>30</v>
       </c>
@@ -18323,7 +19460,7 @@
         <v>document.getElementById("a21").textContent = Asamblea21;</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>30</v>
       </c>
@@ -18368,7 +19505,7 @@
         <v>document.getElementById("a22").textContent = Asamblea22;</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>30</v>
       </c>
@@ -18413,7 +19550,7 @@
         <v>document.getElementById("a23").textContent = Asamblea23;</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>30</v>
       </c>
@@ -18458,7 +19595,7 @@
         <v>document.getElementById("a24").textContent = Asamblea24;</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>30</v>
       </c>
@@ -18503,7 +19640,7 @@
         <v>document.getElementById("a25").textContent = Asamblea25;</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>30</v>
       </c>
@@ -18548,7 +19685,7 @@
         <v>document.getElementById("a26").textContent = Asamblea26;</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>30</v>
       </c>
@@ -18593,7 +19730,7 @@
         <v>document.getElementById("a27").textContent = Asamblea27;</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>30</v>
       </c>
@@ -18638,7 +19775,7 @@
         <v>document.getElementById("a28").textContent = Asamblea28;</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>30</v>
       </c>
@@ -18697,27 +19834,27 @@
       <selection activeCell="O20" sqref="O20:O35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.42578125" customWidth="1"/>
-    <col min="9" max="9" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.453125" customWidth="1"/>
+    <col min="9" max="9" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="1.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="51.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
       <c r="F1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -18764,7 +19901,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -18812,7 +19949,7 @@
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -18860,7 +19997,7 @@
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -18908,7 +20045,7 @@
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -18956,7 +20093,7 @@
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -19004,7 +20141,7 @@
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -19052,7 +20189,7 @@
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -19100,7 +20237,7 @@
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -19148,7 +20285,7 @@
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -19196,7 +20333,7 @@
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -19241,7 +20378,7 @@
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -19286,7 +20423,7 @@
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -19331,7 +20468,7 @@
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -19376,7 +20513,7 @@
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -19421,7 +20558,7 @@
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -19466,7 +20603,7 @@
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>30</v>
       </c>
@@ -19514,7 +20651,7 @@
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -19562,7 +20699,7 @@
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -19610,7 +20747,7 @@
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -19658,7 +20795,7 @@
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>30</v>
       </c>
@@ -19706,7 +20843,7 @@
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -19754,7 +20891,7 @@
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -19802,7 +20939,7 @@
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -19850,7 +20987,7 @@
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -19898,7 +21035,7 @@
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>30</v>
       </c>
@@ -19946,7 +21083,7 @@
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>30</v>
       </c>
@@ -19994,7 +21131,7 @@
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -20042,7 +21179,7 @@
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -20090,7 +21227,7 @@
         <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -20138,7 +21275,7 @@
         <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -20186,7 +21323,7 @@
         <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>30</v>
       </c>
@@ -20234,7 +21371,7 @@
         <v>document.getElementById("a16").textContent = Asamblea16;</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>30</v>
       </c>
@@ -20279,7 +21416,7 @@
         <v>document.getElementById("a17").textContent = Asamblea17;</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>30</v>
       </c>
@@ -20324,7 +21461,7 @@
         <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>30</v>
       </c>
@@ -20369,7 +21506,7 @@
         <v>document.getElementById("a19").textContent = Asamblea19;</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>30</v>
       </c>
@@ -20414,7 +21551,7 @@
         <v>document.getElementById("a20").textContent = Asamblea20;</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>30</v>
       </c>
@@ -20459,7 +21596,7 @@
         <v>document.getElementById("a21").textContent = Asamblea21;</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>30</v>
       </c>
@@ -20504,7 +21641,7 @@
         <v>document.getElementById("a22").textContent = Asamblea22;</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>30</v>
       </c>
@@ -20549,7 +21686,7 @@
         <v>document.getElementById("a23").textContent = Asamblea23;</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>30</v>
       </c>
@@ -20594,7 +21731,7 @@
         <v>document.getElementById("a24").textContent = Asamblea24;</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>30</v>
       </c>
@@ -20639,7 +21776,7 @@
         <v>document.getElementById("a25").textContent = Asamblea25;</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>30</v>
       </c>
@@ -20684,7 +21821,7 @@
         <v>document.getElementById("a26").textContent = Asamblea26;</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>30</v>
       </c>
@@ -20729,7 +21866,7 @@
         <v>document.getElementById("a27").textContent = Asamblea27;</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>30</v>
       </c>
@@ -20774,7 +21911,7 @@
         <v>document.getElementById("a28").textContent = Asamblea28;</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>30</v>
       </c>
@@ -20833,27 +21970,27 @@
       <selection activeCell="O25" sqref="O25:O33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.42578125" customWidth="1"/>
-    <col min="9" max="9" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.453125" customWidth="1"/>
+    <col min="9" max="9" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="1.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="51.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
       <c r="F1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -20900,7 +22037,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -20948,7 +22085,7 @@
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -20996,7 +22133,7 @@
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -21044,7 +22181,7 @@
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -21092,7 +22229,7 @@
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -21140,7 +22277,7 @@
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -21188,7 +22325,7 @@
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -21236,7 +22373,7 @@
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -21284,7 +22421,7 @@
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -21332,7 +22469,7 @@
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -21380,7 +22517,7 @@
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -21428,7 +22565,7 @@
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -21476,7 +22613,7 @@
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -21524,7 +22661,7 @@
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -21572,7 +22709,7 @@
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -21620,7 +22757,7 @@
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -21668,7 +22805,7 @@
         <v>document.getElementById("c17").textContent = Cantor17;</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -21716,7 +22853,7 @@
         <v>document.getElementById("c18").textContent = Cantor18;</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -21761,7 +22898,7 @@
         <v>document.getElementById("c19").textContent = Cantor19;</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -21806,7 +22943,7 @@
         <v>document.getElementById("c20").textContent = Cantor20;</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>25</v>
       </c>
@@ -21851,7 +22988,7 @@
         <v>document.getElementById("c21").textContent = Cantor21;</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -21898,7 +23035,7 @@
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -21946,7 +23083,7 @@
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -21994,7 +23131,7 @@
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -22042,7 +23179,7 @@
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>30</v>
       </c>
@@ -22090,7 +23227,7 @@
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>30</v>
       </c>
@@ -22138,7 +23275,7 @@
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -22186,7 +23323,7 @@
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -22234,7 +23371,7 @@
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -22282,7 +23419,7 @@
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -22327,7 +23464,7 @@
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>30</v>
       </c>
@@ -22372,7 +23509,7 @@
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>30</v>
       </c>
@@ -22417,7 +23554,7 @@
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>30</v>
       </c>
@@ -22462,7 +23599,7 @@
         <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>30</v>
       </c>
@@ -22507,7 +23644,7 @@
         <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>30</v>
       </c>
@@ -22552,7 +23689,7 @@
         <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>30</v>
       </c>
@@ -22597,7 +23734,7 @@
         <v>document.getElementById("a16").textContent = Asamblea16;</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>30</v>
       </c>
@@ -22642,7 +23779,7 @@
         <v>document.getElementById("a17").textContent = Asamblea17;</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>30</v>
       </c>
@@ -22687,7 +23824,7 @@
         <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>30</v>
       </c>
@@ -22732,7 +23869,7 @@
         <v>document.getElementById("a19").textContent = Asamblea19;</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>30</v>
       </c>
@@ -22777,7 +23914,7 @@
         <v>document.getElementById("a20").textContent = Asamblea20;</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>30</v>
       </c>
@@ -22822,7 +23959,7 @@
         <v>document.getElementById("a21").textContent = Asamblea21;</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>30</v>
       </c>
@@ -22867,7 +24004,7 @@
         <v>document.getElementById("a22").textContent = Asamblea22;</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>30</v>
       </c>
@@ -22912,7 +24049,7 @@
         <v>document.getElementById("a23").textContent = Asamblea23;</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>30</v>
       </c>
@@ -22957,7 +24094,7 @@
         <v>document.getElementById("a24").textContent = Asamblea24;</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>30</v>
       </c>
@@ -23002,7 +24139,7 @@
         <v>document.getElementById("a25").textContent = Asamblea25;</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>30</v>
       </c>
@@ -23047,7 +24184,7 @@
         <v>document.getElementById("a26").textContent = Asamblea26;</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>30</v>
       </c>
@@ -23092,7 +24229,7 @@
         <v>document.getElementById("a27").textContent = Asamblea27;</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>30</v>
       </c>
@@ -23137,7 +24274,7 @@
         <v>document.getElementById("a28").textContent = Asamblea28;</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>30</v>
       </c>
@@ -23196,27 +24333,27 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.42578125" customWidth="1"/>
-    <col min="9" max="9" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.453125" customWidth="1"/>
+    <col min="9" max="9" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="1.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="51.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
       <c r="F1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -23263,7 +24400,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -23311,7 +24448,7 @@
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -23359,7 +24496,7 @@
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -23407,7 +24544,7 @@
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -23455,7 +24592,7 @@
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -23503,7 +24640,7 @@
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -23551,7 +24688,7 @@
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -23599,7 +24736,7 @@
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -23647,7 +24784,7 @@
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -23695,7 +24832,7 @@
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -23743,7 +24880,7 @@
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -23791,7 +24928,7 @@
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -23839,7 +24976,7 @@
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -23887,7 +25024,7 @@
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -23935,7 +25072,7 @@
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -23983,7 +25120,7 @@
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -24031,7 +25168,7 @@
         <v>document.getElementById("c17").textContent = Cantor17;</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -24079,7 +25216,7 @@
         <v>document.getElementById("c18").textContent = Cantor18;</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -24127,7 +25264,7 @@
         <v>document.getElementById("c19").textContent = Cantor19;</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -24175,7 +25312,7 @@
         <v>document.getElementById("c20").textContent = Cantor20;</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>25</v>
       </c>
@@ -24220,7 +25357,7 @@
         <v>document.getElementById("c21").textContent = Cantor21;</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -24267,7 +25404,7 @@
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -24315,7 +25452,7 @@
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -24363,7 +25500,7 @@
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -24411,7 +25548,7 @@
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>30</v>
       </c>
@@ -24459,7 +25596,7 @@
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>30</v>
       </c>
@@ -24507,7 +25644,7 @@
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -24552,7 +25689,7 @@
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -24597,7 +25734,7 @@
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -24642,7 +25779,7 @@
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -24687,7 +25824,7 @@
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>30</v>
       </c>
@@ -24732,7 +25869,7 @@
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>30</v>
       </c>
@@ -24777,7 +25914,7 @@
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>30</v>
       </c>
@@ -24822,7 +25959,7 @@
         <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>30</v>
       </c>
@@ -24867,7 +26004,7 @@
         <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>30</v>
       </c>
@@ -24912,7 +26049,7 @@
         <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>30</v>
       </c>
@@ -24957,7 +26094,7 @@
         <v>document.getElementById("a16").textContent = Asamblea16;</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>30</v>
       </c>
@@ -25002,7 +26139,7 @@
         <v>document.getElementById("a17").textContent = Asamblea17;</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>30</v>
       </c>
@@ -25047,7 +26184,7 @@
         <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>30</v>
       </c>
@@ -25092,7 +26229,7 @@
         <v>document.getElementById("a19").textContent = Asamblea19;</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>30</v>
       </c>
@@ -25137,7 +26274,7 @@
         <v>document.getElementById("a20").textContent = Asamblea20;</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>30</v>
       </c>
@@ -25182,7 +26319,7 @@
         <v>document.getElementById("a21").textContent = Asamblea21;</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>30</v>
       </c>
@@ -25227,7 +26364,7 @@
         <v>document.getElementById("a22").textContent = Asamblea22;</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>30</v>
       </c>
@@ -25272,7 +26409,7 @@
         <v>document.getElementById("a23").textContent = Asamblea23;</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>30</v>
       </c>
@@ -25317,7 +26454,7 @@
         <v>document.getElementById("a24").textContent = Asamblea24;</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>30</v>
       </c>
@@ -25362,7 +26499,7 @@
         <v>document.getElementById("a25").textContent = Asamblea25;</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>30</v>
       </c>
@@ -25407,7 +26544,7 @@
         <v>document.getElementById("a26").textContent = Asamblea26;</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>30</v>
       </c>
@@ -25452,7 +26589,7 @@
         <v>document.getElementById("a27").textContent = Asamblea27;</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>30</v>
       </c>
@@ -25497,7 +26634,7 @@
         <v>document.getElementById("a28").textContent = Asamblea28;</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>30</v>
       </c>
@@ -25556,27 +26693,27 @@
       <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.42578125" customWidth="1"/>
-    <col min="9" max="9" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.453125" customWidth="1"/>
+    <col min="9" max="9" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="1.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="51.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
       <c r="F1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -25623,7 +26760,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -25671,7 +26808,7 @@
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -25719,7 +26856,7 @@
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -25767,7 +26904,7 @@
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -25815,7 +26952,7 @@
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -25863,7 +27000,7 @@
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -25911,7 +27048,7 @@
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -25959,7 +27096,7 @@
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -26007,7 +27144,7 @@
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -26055,7 +27192,7 @@
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -26100,7 +27237,7 @@
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -26145,7 +27282,7 @@
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -26190,7 +27327,7 @@
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -26235,7 +27372,7 @@
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -26280,7 +27417,7 @@
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -26325,7 +27462,7 @@
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -26370,7 +27507,7 @@
         <v>document.getElementById("c17").textContent = Cantor17;</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -26415,7 +27552,7 @@
         <v>document.getElementById("c18").textContent = Cantor18;</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -26460,7 +27597,7 @@
         <v>document.getElementById("c19").textContent = Cantor19;</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -26505,7 +27642,7 @@
         <v>document.getElementById("c20").textContent = Cantor20;</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>25</v>
       </c>
@@ -26550,7 +27687,7 @@
         <v>document.getElementById("c21").textContent = Cantor21;</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -26597,7 +27734,7 @@
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -26645,7 +27782,7 @@
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -26693,7 +27830,7 @@
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -26741,7 +27878,7 @@
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>30</v>
       </c>
@@ -26789,7 +27926,7 @@
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>30</v>
       </c>
@@ -26837,7 +27974,7 @@
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -26885,7 +28022,7 @@
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -26933,7 +28070,7 @@
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -26981,7 +28118,7 @@
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -27029,7 +28166,7 @@
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>30</v>
       </c>
@@ -27077,7 +28214,7 @@
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>30</v>
       </c>
@@ -27125,7 +28262,7 @@
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
         <v>30</v>
       </c>
@@ -27173,7 +28310,7 @@
         <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>30</v>
       </c>
@@ -27221,7 +28358,7 @@
         <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>30</v>
       </c>
@@ -27269,7 +28406,7 @@
         <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>30</v>
       </c>
@@ -27317,7 +28454,7 @@
         <v>document.getElementById("a16").textContent = Asamblea16;</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>30</v>
       </c>
@@ -27365,7 +28502,7 @@
         <v>document.getElementById("a17").textContent = Asamblea17;</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>30</v>
       </c>
@@ -27413,7 +28550,7 @@
         <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>30</v>
       </c>
@@ -27458,7 +28595,7 @@
         <v>document.getElementById("a19").textContent = Asamblea19;</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>30</v>
       </c>
@@ -27503,7 +28640,7 @@
         <v>document.getElementById("a20").textContent = Asamblea20;</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>30</v>
       </c>
@@ -27548,7 +28685,7 @@
         <v>document.getElementById("a21").textContent = Asamblea21;</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>30</v>
       </c>
@@ -27593,7 +28730,7 @@
         <v>document.getElementById("a22").textContent = Asamblea22;</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>30</v>
       </c>
@@ -27638,7 +28775,7 @@
         <v>document.getElementById("a23").textContent = Asamblea23;</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>30</v>
       </c>
@@ -27683,7 +28820,7 @@
         <v>document.getElementById("a24").textContent = Asamblea24;</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>30</v>
       </c>
@@ -27728,7 +28865,7 @@
         <v>document.getElementById("a25").textContent = Asamblea25;</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>30</v>
       </c>
@@ -27773,7 +28910,7 @@
         <v>document.getElementById("a26").textContent = Asamblea26;</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>30</v>
       </c>
@@ -27818,7 +28955,7 @@
         <v>document.getElementById("a27").textContent = Asamblea27;</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>30</v>
       </c>
@@ -27863,7 +29000,7 @@
         <v>document.getElementById("a28").textContent = Asamblea28;</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>30</v>
       </c>
@@ -27922,27 +29059,27 @@
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="4.42578125" customWidth="1"/>
-    <col min="9" max="9" width="48.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="4.453125" customWidth="1"/>
+    <col min="9" max="9" width="48.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="1.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" customWidth="1"/>
-    <col min="15" max="15" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="51.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.35">
       <c r="F1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -27989,7 +29126,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -28037,7 +29174,7 @@
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -28085,7 +29222,7 @@
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -28133,7 +29270,7 @@
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>25</v>
       </c>
@@ -28181,7 +29318,7 @@
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -28229,7 +29366,7 @@
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -28277,7 +29414,7 @@
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>25</v>
       </c>
@@ -28325,7 +29462,7 @@
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>25</v>
       </c>
@@ -28373,7 +29510,7 @@
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>25</v>
       </c>
@@ -28421,7 +29558,7 @@
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>25</v>
       </c>
@@ -28469,7 +29606,7 @@
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>25</v>
       </c>
@@ -28517,7 +29654,7 @@
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -28565,7 +29702,7 @@
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -28613,7 +29750,7 @@
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -28661,7 +29798,7 @@
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>25</v>
       </c>
@@ -28709,7 +29846,7 @@
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>25</v>
       </c>
@@ -28757,7 +29894,7 @@
         <v>document.getElementById("c17").textContent = Cantor17;</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -28805,7 +29942,7 @@
         <v>document.getElementById("c18").textContent = Cantor18;</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>25</v>
       </c>
@@ -28853,7 +29990,7 @@
         <v>document.getElementById("c19").textContent = Cantor19;</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>25</v>
       </c>
@@ -28901,7 +30038,7 @@
         <v>document.getElementById("c20").textContent = Cantor20;</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>25</v>
       </c>
@@ -28949,7 +30086,7 @@
         <v>document.getElementById("c21").textContent = Cantor21;</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>25</v>
       </c>
@@ -28997,7 +30134,7 @@
         <v>document.getElementById("c22").textContent = Cantor22;</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>25</v>
       </c>
@@ -29045,7 +30182,7 @@
         <v>document.getElementById("c23").textContent = Cantor23;</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -29093,7 +30230,7 @@
         <v>document.getElementById("c24").textContent = Cantor24;</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>25</v>
       </c>
@@ -29141,7 +30278,7 @@
         <v>document.getElementById("c25").textContent = Cantor25;</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -29189,7 +30326,7 @@
         <v>document.getElementById("c26").textContent = Cantor26;</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>25</v>
       </c>
@@ -29237,7 +30374,7 @@
         <v>document.getElementById("c27").textContent = Cantor27;</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>25</v>
       </c>
@@ -29285,7 +30422,7 @@
         <v>document.getElementById("c28").textContent = Cantor28;</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>25</v>
       </c>
@@ -29333,7 +30470,7 @@
         <v>document.getElementById("c29").textContent = Cantor29;</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>25</v>
       </c>
@@ -29381,7 +30518,7 @@
         <v>document.getElementById("c30").textContent = Cantor30;</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>25</v>
       </c>
@@ -29429,7 +30566,7 @@
         <v>document.getElementById("c31").textContent = Cantor31;</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>25</v>
       </c>
@@ -29477,7 +30614,7 @@
         <v>document.getElementById("c32").textContent = Cantor32;</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>25</v>
       </c>
@@ -29525,7 +30662,7 @@
         <v>document.getElementById("c33").textContent = Cantor33;</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>25</v>
       </c>
@@ -29573,7 +30710,7 @@
         <v>document.getElementById("c34").textContent = Cantor34;</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
         <v>30</v>
       </c>
@@ -29620,7 +30757,7 @@
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>30</v>
       </c>
@@ -29668,7 +30805,7 @@
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>30</v>
       </c>
@@ -29716,7 +30853,7 @@
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>30</v>
       </c>
@@ -29764,7 +30901,7 @@
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>30</v>
       </c>
@@ -29812,7 +30949,7 @@
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>30</v>
       </c>
@@ -29860,7 +30997,7 @@
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>30</v>
       </c>
@@ -29908,7 +31045,7 @@
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>30</v>
       </c>
@@ -29956,7 +31093,7 @@
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>30</v>
       </c>
@@ -30004,7 +31141,7 @@
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>30</v>
       </c>
@@ -30052,7 +31189,7 @@
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>30</v>
       </c>
@@ -30100,7 +31237,7 @@
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>30</v>
       </c>
@@ -30148,7 +31285,7 @@
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>30</v>
       </c>
@@ -30196,7 +31333,7 @@
         <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>30</v>
       </c>
@@ -30244,7 +31381,7 @@
         <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>30</v>
       </c>
@@ -30292,7 +31429,7 @@
         <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>30</v>
       </c>
@@ -30340,7 +31477,7 @@
         <v>document.getElementById("a16").textContent = Asamblea16;</v>
       </c>
     </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>30</v>
       </c>
@@ -30388,7 +31525,7 @@
         <v>document.getElementById("a17").textContent = Asamblea17;</v>
       </c>
     </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>30</v>
       </c>
@@ -30436,7 +31573,7 @@
         <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>30</v>
       </c>
@@ -30484,7 +31621,7 @@
         <v>document.getElementById("a19").textContent = Asamblea19;</v>
       </c>
     </row>
-    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:15" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>30</v>
       </c>
@@ -30546,28 +31683,28 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="4.42578125" customWidth="1"/>
-    <col min="10" max="10" width="60.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="4.453125" customWidth="1"/>
+    <col min="10" max="10" width="60.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="1.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="3" customWidth="1"/>
-    <col min="16" max="16" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="51.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>146</v>
       </c>
@@ -30615,7 +31752,7 @@
         <v>document.getElementById("t1").textContent = titulo;</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>148</v>
       </c>
@@ -30662,7 +31799,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>149</v>
       </c>
@@ -30709,12 +31846,12 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>30</v>
       </c>
@@ -30761,7 +31898,7 @@
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>30</v>
       </c>
@@ -30809,7 +31946,7 @@
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>30</v>
       </c>
@@ -30857,7 +31994,7 @@
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>30</v>
       </c>
@@ -30905,7 +32042,7 @@
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>30</v>
       </c>
@@ -30953,7 +32090,7 @@
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -31001,7 +32138,7 @@
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>30</v>
       </c>
@@ -31049,7 +32186,7 @@
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -31097,7 +32234,7 @@
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -31145,7 +32282,7 @@
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>30</v>
       </c>
@@ -31193,7 +32330,7 @@
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -31241,7 +32378,7 @@
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>30</v>
       </c>
@@ -31289,7 +32426,7 @@
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>30</v>
       </c>
@@ -31337,7 +32474,7 @@
         <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>30</v>
       </c>
@@ -31385,7 +32522,7 @@
         <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>30</v>
       </c>
@@ -31433,7 +32570,7 @@
         <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>30</v>
       </c>
@@ -31481,7 +32618,7 @@
         <v>document.getElementById("a16").textContent = Asamblea16;</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>30</v>
       </c>
@@ -31529,7 +32666,7 @@
         <v>document.getElementById("a17").textContent = Asamblea17;</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>30</v>
       </c>
@@ -31577,7 +32714,7 @@
         <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -31625,7 +32762,7 @@
         <v>document.getElementById("a19").textContent = Asamblea19;</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>30</v>
       </c>
@@ -31673,7 +32810,7 @@
         <v>document.getElementById("a20").textContent = Asamblea20;</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -31721,7 +32858,7 @@
         <v>document.getElementById("a21").textContent = Asamblea21;</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>30</v>
       </c>
@@ -31769,7 +32906,7 @@
         <v>document.getElementById("a22").textContent = Asamblea22;</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>30</v>
       </c>
@@ -31817,7 +32954,7 @@
         <v>document.getElementById("a23").textContent = Asamblea23;</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>30</v>
       </c>
@@ -31865,7 +33002,7 @@
         <v>document.getElementById("a24").textContent = Asamblea24;</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>30</v>
       </c>
@@ -31913,7 +33050,7 @@
         <v>document.getElementById("a25").textContent = Asamblea25;</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>30</v>
       </c>
@@ -31961,7 +33098,7 @@
         <v>document.getElementById("a26").textContent = Asamblea26;</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -32009,7 +33146,7 @@
         <v>document.getElementById("a27").textContent = Asamblea27;</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>30</v>
       </c>
@@ -32057,7 +33194,7 @@
         <v>document.getElementById("a28").textContent = Asamblea28;</v>
       </c>
     </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
         <v>30</v>
       </c>
@@ -32105,7 +33242,7 @@
         <v>document.getElementById("a29").textContent = Asamblea29;</v>
       </c>
     </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B36" t="s">
         <v>30</v>
       </c>
@@ -32153,12 +33290,12 @@
         <v>document.getElementById("a30").textContent = Asamblea30;</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I38" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
         <v>25</v>
       </c>
@@ -32205,7 +33342,7 @@
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
         <v>25</v>
       </c>
@@ -32253,7 +33390,7 @@
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>25</v>
       </c>
@@ -32301,7 +33438,7 @@
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B42" t="s">
         <v>25</v>
       </c>
@@ -32349,7 +33486,7 @@
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B43" t="s">
         <v>25</v>
       </c>
@@ -32397,7 +33534,7 @@
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>25</v>
       </c>
@@ -32445,7 +33582,7 @@
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
         <v>25</v>
       </c>
@@ -32493,7 +33630,7 @@
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>25</v>
       </c>
@@ -32541,7 +33678,7 @@
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>25</v>
       </c>
@@ -32589,7 +33726,7 @@
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>25</v>
       </c>
@@ -32637,7 +33774,7 @@
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>25</v>
       </c>
@@ -32685,7 +33822,7 @@
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
-    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>25</v>
       </c>
@@ -32733,7 +33870,7 @@
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>25</v>
       </c>
@@ -32781,7 +33918,7 @@
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
-    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>25</v>
       </c>
@@ -32829,7 +33966,7 @@
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
-    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B53" t="s">
         <v>25</v>
       </c>
@@ -32877,7 +34014,7 @@
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
-    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>25</v>
       </c>
@@ -32925,7 +34062,7 @@
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
-    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>25</v>
       </c>
@@ -32973,7 +34110,7 @@
         <v>document.getElementById("c17").textContent = Cantor17;</v>
       </c>
     </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>25</v>
       </c>
@@ -33021,7 +34158,7 @@
         <v>document.getElementById("c18").textContent = Cantor18;</v>
       </c>
     </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B57" t="s">
         <v>25</v>
       </c>
@@ -33069,7 +34206,7 @@
         <v>document.getElementById("c19").textContent = Cantor19;</v>
       </c>
     </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>25</v>
       </c>
@@ -33117,7 +34254,7 @@
         <v>document.getElementById("c20").textContent = Cantor20;</v>
       </c>
     </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>25</v>
       </c>
@@ -33165,7 +34302,7 @@
         <v>document.getElementById("c21").textContent = Cantor21;</v>
       </c>
     </row>
-    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>25</v>
       </c>
@@ -33213,7 +34350,7 @@
         <v>document.getElementById("c22").textContent = Cantor22;</v>
       </c>
     </row>
-    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>25</v>
       </c>
@@ -33261,7 +34398,7 @@
         <v>document.getElementById("c23").textContent = Cantor23;</v>
       </c>
     </row>
-    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>25</v>
       </c>
@@ -33309,7 +34446,7 @@
         <v>document.getElementById("c24").textContent = Cantor24;</v>
       </c>
     </row>
-    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>25</v>
       </c>
@@ -33357,7 +34494,7 @@
         <v>document.getElementById("c25").textContent = Cantor25;</v>
       </c>
     </row>
-    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
         <v>25</v>
       </c>
@@ -33405,7 +34542,7 @@
         <v>document.getElementById("c26").textContent = Cantor26;</v>
       </c>
     </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
         <v>25</v>
       </c>
@@ -33453,7 +34590,7 @@
         <v>document.getElementById("c27").textContent = Cantor27;</v>
       </c>
     </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>25</v>
       </c>
@@ -33501,7 +34638,7 @@
         <v>document.getElementById("c28").textContent = Cantor28;</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>25</v>
       </c>
@@ -33549,7 +34686,7 @@
         <v>document.getElementById("c29").textContent = Cantor29;</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>25</v>
       </c>
@@ -33597,7 +34734,7 @@
         <v>document.getElementById("c30").textContent = Cantor30;</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B69" t="s">
         <v>25</v>
       </c>
@@ -33645,7 +34782,7 @@
         <v>document.getElementById("c31").textContent = Cantor31;</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>25</v>
       </c>
@@ -33693,7 +34830,7 @@
         <v>document.getElementById("c32").textContent = Cantor32;</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>25</v>
       </c>
@@ -33741,415 +34878,415 @@
         <v>document.getElementById("c33").textContent = Cantor33;</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I73" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.35">
       <c r="J74" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.35">
       <c r="J75" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.35">
       <c r="J76" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.35">
       <c r="I78" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.35">
       <c r="J79" t="str">
         <f t="shared" ref="J79:J108" si="11">P7</f>
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.35">
       <c r="J80" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J81" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J82" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J83" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J84" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J85" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J86" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J87" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J88" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J89" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J90" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J91" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J92" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J93" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
-    <row r="94" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J94" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a16").textContent = Asamblea16;</v>
       </c>
     </row>
-    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J95" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a17").textContent = Asamblea17;</v>
       </c>
     </row>
-    <row r="96" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J96" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
-    <row r="97" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J97" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a19").textContent = Asamblea19;</v>
       </c>
     </row>
-    <row r="98" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J98" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a20").textContent = Asamblea20;</v>
       </c>
     </row>
-    <row r="99" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J99" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a21").textContent = Asamblea21;</v>
       </c>
     </row>
-    <row r="100" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J100" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a22").textContent = Asamblea22;</v>
       </c>
     </row>
-    <row r="101" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J101" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a23").textContent = Asamblea23;</v>
       </c>
     </row>
-    <row r="102" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J102" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a24").textContent = Asamblea24;</v>
       </c>
     </row>
-    <row r="103" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J103" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a25").textContent = Asamblea25;</v>
       </c>
     </row>
-    <row r="104" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J104" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a26").textContent = Asamblea26;</v>
       </c>
     </row>
-    <row r="105" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J105" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a27").textContent = Asamblea27;</v>
       </c>
     </row>
-    <row r="106" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J106" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a28").textContent = Asamblea28;</v>
       </c>
     </row>
-    <row r="107" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J107" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a29").textContent = Asamblea29;</v>
       </c>
     </row>
-    <row r="108" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J108" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a30").textContent = Asamblea30;</v>
       </c>
     </row>
-    <row r="110" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="9:10" x14ac:dyDescent="0.35">
       <c r="I110" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="111" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J111" t="str">
         <f t="shared" ref="J111:J143" si="12">P39</f>
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="112" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J112" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J113" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J114" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J115" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J116" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J117" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J118" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J119" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J120" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J121" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J122" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J123" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J124" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J125" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J126" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J127" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c17").textContent = Cantor17;</v>
       </c>
     </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J128" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c18").textContent = Cantor18;</v>
       </c>
     </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J129" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c19").textContent = Cantor19;</v>
       </c>
     </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J130" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c20").textContent = Cantor20;</v>
       </c>
     </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J131" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c21").textContent = Cantor21;</v>
       </c>
     </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J132" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c22").textContent = Cantor22;</v>
       </c>
     </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J133" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c23").textContent = Cantor23;</v>
       </c>
     </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J134" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c24").textContent = Cantor24;</v>
       </c>
     </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J135" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c25").textContent = Cantor25;</v>
       </c>
     </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J136" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c26").textContent = Cantor26;</v>
       </c>
     </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J137" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c27").textContent = Cantor27;</v>
       </c>
     </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J138" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c28").textContent = Cantor28;</v>
       </c>
     </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J139" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c29").textContent = Cantor29;</v>
       </c>
     </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J140" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c30").textContent = Cantor30;</v>
       </c>
     </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J141" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c31").textContent = Cantor31;</v>
       </c>
     </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J142" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c32").textContent = Cantor32;</v>
       </c>
     </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J143" t="str">
         <f t="shared" si="12"/>
         <v>document.getElementById("c33").textContent = Cantor33;</v>
       </c>
     </row>
-    <row r="145" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I145" t="s">
         <v>157</v>
       </c>

--- a/src/doc/codificador.xlsx
+++ b/src/doc/codificador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\db\Github\cantos\src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEE0C4F-48B7-4590-BA82-04F2270E2C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409C2F1E-97AB-491C-97A2-005603EADDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="12" activeTab="14" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="19200" windowHeight="11170" firstSheet="12" activeTab="14" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6668" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6676" uniqueCount="323">
   <si>
     <t>viviendo en pureza, paciencia y bondad;</t>
   </si>
@@ -998,49 +998,49 @@
     <t>Salmo 8</t>
   </si>
   <si>
-    <t>¡OH SEÑOR, NUESTRO DIOS,</t>
+    <t>La aurora tiñe de púrpura el cielo,</t>
   </si>
   <si>
-    <t>QUÉ ADMIRABLE ES TU NOMBRE</t>
+    <t>resuena en los aires el eco de las alabanzas;</t>
   </si>
   <si>
-    <t>POR TODA LA TIERRA, TU NOMBRE,</t>
+    <t>el mundo triunfante se alegra,</t>
   </si>
   <si>
-    <t>HASTA EL CIELO SE ELEVA TU AMOR!</t>
+    <t>tenebroso el infierno brama</t>
   </si>
   <si>
-    <t>¡OH SEÑOR, NUESTRO DIOS ...</t>
+    <t>Una piedra sellaba su sepulcro;</t>
   </si>
   <si>
-    <t>Con la boca de los niños pequeños</t>
+    <t>muchos guardias le custodiaban.</t>
   </si>
   <si>
-    <t>afirmas tu gloria, oh Señor,</t>
+    <t>Pero él triunfa glorioso</t>
   </si>
   <si>
-    <t>y reduces al silencio enemigos y rebeldes.</t>
+    <t>y de la muerte se levanta.</t>
   </si>
   <si>
-    <t>Si contemplo el cielo, obra de tus manos,</t>
+    <t>MIENTRAS EL REY, CRISTO,</t>
   </si>
   <si>
-    <t>la luna y las estrellas, que has creado,</t>
+    <t>LIBRA A TODOS DE LA CÁRCEL</t>
   </si>
   <si>
-    <t>¿qué es el hombre para que te acuerdes de él,</t>
+    <t>TENEBROSA QUE ES LA MUERTE</t>
   </si>
   <si>
-    <t>el hijo del hombre para darle poder?</t>
+    <t>Y NOS CONDUCE A LA VIDA</t>
   </si>
   <si>
-    <t>Lo hiciste, lo hiciste poco menos que los ángeles,</t>
+    <t>NO MÁS LUTOS NI LLANTOS</t>
   </si>
   <si>
-    <t>de gloria y honor lo has coronado;</t>
+    <t>NI PESARES: ¡RESUCITÓ!</t>
   </si>
   <si>
-    <t>todo lo has sometido bajo sus pies.</t>
+    <t xml:space="preserve">¡RESUCITÓ! </t>
   </si>
 </sst>
 </file>
@@ -14491,10 +14491,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCA8C4A-B9E4-4232-9E1E-E47CEB7915C1}">
-  <dimension ref="B1:P64"/>
+  <dimension ref="B1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14695,7 +14695,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="G9" t="s">
         <v>26</v>
@@ -14705,7 +14705,7 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" ref="J9:J14" si="0">_xlfn.CONCAT(B9,C9," ",D9," ",E9,F9,G9,H9)</f>
-        <v>let Asamblea1 = "¡OH SEÑOR, NUESTRO DIOS,";</v>
+        <v>let Asamblea1 = "MIENTRAS EL REY, CRISTO,";</v>
       </c>
       <c r="K9" t="s">
         <v>27</v>
@@ -14733,7 +14733,7 @@
         <v>30</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:C14" si="2">+C9+1</f>
+        <f t="shared" ref="C10:C15" si="2">+C9+1</f>
         <v>2</v>
       </c>
       <c r="D10" t="s">
@@ -14743,7 +14743,7 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="G10" t="s">
         <v>26</v>
@@ -14753,7 +14753,7 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>let Asamblea2 = "QUÉ ADMIRABLE ES TU NOMBRE";</v>
+        <v>let Asamblea2 = "LIBRA A TODOS DE LA CÁRCEL";</v>
       </c>
       <c r="K10" t="s">
         <v>27</v>
@@ -14791,7 +14791,7 @@
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G11" t="s">
         <v>26</v>
@@ -14801,7 +14801,7 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>let Asamblea3 = "POR TODA LA TIERRA, TU NOMBRE,";</v>
+        <v>let Asamblea3 = "TENEBROSA QUE ES LA MUERTE";</v>
       </c>
       <c r="K11" t="s">
         <v>27</v>
@@ -14839,7 +14839,7 @@
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="G12" t="s">
         <v>26</v>
@@ -14849,7 +14849,7 @@
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>let Asamblea4 = "HASTA EL CIELO SE ELEVA TU AMOR!";</v>
+        <v>let Asamblea4 = "Y NOS CONDUCE A LA VIDA";</v>
       </c>
       <c r="K12" t="s">
         <v>27</v>
@@ -14887,7 +14887,7 @@
         <v>26</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="G13" t="s">
         <v>26</v>
@@ -14897,7 +14897,7 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>let Asamblea5 = "¡OH SEÑOR, NUESTRO DIOS ...";</v>
+        <v>let Asamblea5 = "NO MÁS LUTOS NI LLANTOS";</v>
       </c>
       <c r="K13" t="s">
         <v>27</v>
@@ -14935,7 +14935,7 @@
         <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
@@ -14945,7 +14945,7 @@
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
-        <v>let Asamblea6 = "¡OH SEÑOR, NUESTRO DIOS ...";</v>
+        <v>let Asamblea6 = "NI PESARES: ¡RESUCITÓ!";</v>
       </c>
       <c r="K14" t="s">
         <v>27</v>
@@ -14968,56 +14968,57 @@
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="I16" t="s">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>322</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" ref="J15" si="4">_xlfn.CONCAT(B15,C15," ",D15," ",E15,F15,G15,H15)</f>
+        <v>let Asamblea7 = "¡RESUCITÓ! ";</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ref="N15" si="5">C15</f>
+        <v>7</v>
+      </c>
+      <c r="O15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" ref="P15" si="6">_xlfn.CONCAT("document.getElementById",K15,M15,"a",N15,M15,L15,".textContent = Asamblea",N15,O15)</f>
+        <v>document.getElementById("a7").textContent = Asamblea7;</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="I17" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" t="s">
-        <v>313</v>
-      </c>
-      <c r="G17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" t="str">
-        <f>_xlfn.CONCAT(B17,C17," ",D17," ",E17,F17,G17,H17)</f>
-        <v>let Cantor1 = "Con la boca de los niños pequeños";</v>
-      </c>
-      <c r="K17" t="s">
-        <v>27</v>
-      </c>
-      <c r="L17" t="s">
-        <v>28</v>
-      </c>
-      <c r="M17" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17">
-        <f>C17</f>
-        <v>1</v>
-      </c>
-      <c r="O17" t="s">
-        <v>29</v>
-      </c>
-      <c r="P17" t="str">
-        <f>_xlfn.CONCAT("document.getElementById",K17,M17,"c",N17,M17,L17,".textContent = Cantor",N17,O17)</f>
-        <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.35">
@@ -15025,8 +15026,7 @@
         <v>25</v>
       </c>
       <c r="C18">
-        <f>+C17+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -15035,7 +15035,7 @@
         <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G18" t="s">
         <v>26</v>
@@ -15045,7 +15045,7 @@
       </c>
       <c r="J18" t="str">
         <f>_xlfn.CONCAT(B18,C18," ",D18," ",E18,F18,G18,H18)</f>
-        <v>let Cantor2 = "afirmas tu gloria, oh Señor,";</v>
+        <v>let Cantor1 = "La aurora tiñe de púrpura el cielo,";</v>
       </c>
       <c r="K18" t="s">
         <v>27</v>
@@ -15058,14 +15058,14 @@
       </c>
       <c r="N18">
         <f>C18</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O18" t="s">
         <v>29</v>
       </c>
       <c r="P18" t="str">
         <f>_xlfn.CONCAT("document.getElementById",K18,M18,"c",N18,M18,L18,".textContent = Cantor",N18,O18)</f>
-        <v>document.getElementById("c2").textContent = Cantor2;</v>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.35">
@@ -15074,7 +15074,7 @@
       </c>
       <c r="C19">
         <f>+C18+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
         <v>24</v>
@@ -15083,7 +15083,7 @@
         <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="G19" t="s">
         <v>26</v>
@@ -15093,7 +15093,7 @@
       </c>
       <c r="J19" t="str">
         <f>_xlfn.CONCAT(B19,C19," ",D19," ",E19,F19,G19,H19)</f>
-        <v>let Cantor3 = "y reduces al silencio enemigos y rebeldes.";</v>
+        <v>let Cantor2 = "resuena en los aires el eco de las alabanzas;";</v>
       </c>
       <c r="K19" t="s">
         <v>27</v>
@@ -15106,14 +15106,14 @@
       </c>
       <c r="N19">
         <f>C19</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O19" t="s">
         <v>29</v>
       </c>
       <c r="P19" t="str">
         <f>_xlfn.CONCAT("document.getElementById",K19,M19,"c",N19,M19,L19,".textContent = Cantor",N19,O19)</f>
-        <v>document.getElementById("c3").textContent = Cantor3;</v>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.35">
@@ -15122,7 +15122,7 @@
       </c>
       <c r="C20">
         <f>+C19+1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
@@ -15131,7 +15131,7 @@
         <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G20" t="s">
         <v>26</v>
@@ -15141,7 +15141,7 @@
       </c>
       <c r="J20" t="str">
         <f>_xlfn.CONCAT(B20,C20," ",D20," ",E20,F20,G20,H20)</f>
-        <v>let Cantor4 = "Si contemplo el cielo, obra de tus manos,";</v>
+        <v>let Cantor3 = "el mundo triunfante se alegra,";</v>
       </c>
       <c r="K20" t="s">
         <v>27</v>
@@ -15154,14 +15154,14 @@
       </c>
       <c r="N20">
         <f>C20</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O20" t="s">
         <v>29</v>
       </c>
       <c r="P20" t="str">
         <f>_xlfn.CONCAT("document.getElementById",K20,M20,"c",N20,M20,L20,".textContent = Cantor",N20,O20)</f>
-        <v>document.getElementById("c4").textContent = Cantor4;</v>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.35">
@@ -15169,8 +15169,8 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:C26" si="4">+C20+1</f>
-        <v>5</v>
+        <f>+C20+1</f>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -15179,7 +15179,7 @@
         <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
@@ -15188,8 +15188,8 @@
         <v>29</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" ref="J21:J26" si="5">_xlfn.CONCAT(B21,C21," ",D21," ",E21,F21,G21,H21)</f>
-        <v>let Cantor5 = "la luna y las estrellas, que has creado,";</v>
+        <f>_xlfn.CONCAT(B21,C21," ",D21," ",E21,F21,G21,H21)</f>
+        <v>let Cantor4 = "tenebroso el infierno brama";</v>
       </c>
       <c r="K21" t="s">
         <v>27</v>
@@ -15201,15 +15201,15 @@
         <v>26</v>
       </c>
       <c r="N21">
-        <f t="shared" ref="N21:N26" si="6">C21</f>
-        <v>5</v>
+        <f>C21</f>
+        <v>4</v>
       </c>
       <c r="O21" t="s">
         <v>29</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" ref="P21:P26" si="7">_xlfn.CONCAT("document.getElementById",K21,M21,"c",N21,M21,L21,".textContent = Cantor",N21,O21)</f>
-        <v>document.getElementById("c5").textContent = Cantor5;</v>
+        <f>_xlfn.CONCAT("document.getElementById",K21,M21,"c",N21,M21,L21,".textContent = Cantor",N21,O21)</f>
+        <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.35">
@@ -15217,8 +15217,8 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <f t="shared" si="4"/>
-        <v>6</v>
+        <f t="shared" ref="C22:C27" si="7">+C21+1</f>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -15227,7 +15227,7 @@
         <v>26</v>
       </c>
       <c r="F22" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
@@ -15236,8 +15236,8 @@
         <v>29</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="5"/>
-        <v>let Cantor6 = "¿qué es el hombre para que te acuerdes de él,";</v>
+        <f t="shared" ref="J22:J27" si="8">_xlfn.CONCAT(B22,C22," ",D22," ",E22,F22,G22,H22)</f>
+        <v>let Cantor5 = "Una piedra sellaba su sepulcro;";</v>
       </c>
       <c r="K22" t="s">
         <v>27</v>
@@ -15249,15 +15249,15 @@
         <v>26</v>
       </c>
       <c r="N22">
-        <f t="shared" si="6"/>
-        <v>6</v>
+        <f t="shared" ref="N22:N27" si="9">C22</f>
+        <v>5</v>
       </c>
       <c r="O22" t="s">
         <v>29</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" si="7"/>
-        <v>document.getElementById("c6").textContent = Cantor6;</v>
+        <f t="shared" ref="P22:P27" si="10">_xlfn.CONCAT("document.getElementById",K22,M22,"c",N22,M22,L22,".textContent = Cantor",N22,O22)</f>
+        <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.35">
@@ -15265,8 +15265,8 @@
         <v>25</v>
       </c>
       <c r="C23">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -15275,7 +15275,7 @@
         <v>26</v>
       </c>
       <c r="F23" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G23" t="s">
         <v>26</v>
@@ -15284,8 +15284,8 @@
         <v>29</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="5"/>
-        <v>let Cantor7 = "el hijo del hombre para darle poder?";</v>
+        <f t="shared" si="8"/>
+        <v>let Cantor6 = "muchos guardias le custodiaban.";</v>
       </c>
       <c r="K23" t="s">
         <v>27</v>
@@ -15297,15 +15297,15 @@
         <v>26</v>
       </c>
       <c r="N23">
-        <f t="shared" si="6"/>
-        <v>7</v>
+        <f t="shared" si="9"/>
+        <v>6</v>
       </c>
       <c r="O23" t="s">
         <v>29</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="7"/>
-        <v>document.getElementById("c7").textContent = Cantor7;</v>
+        <f t="shared" si="10"/>
+        <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.35">
@@ -15313,8 +15313,8 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -15323,7 +15323,7 @@
         <v>26</v>
       </c>
       <c r="F24" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G24" t="s">
         <v>26</v>
@@ -15332,8 +15332,8 @@
         <v>29</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="5"/>
-        <v>let Cantor8 = "Lo hiciste, lo hiciste poco menos que los ángeles,";</v>
+        <f t="shared" si="8"/>
+        <v>let Cantor7 = "Pero él triunfa glorioso";</v>
       </c>
       <c r="K24" t="s">
         <v>27</v>
@@ -15345,15 +15345,15 @@
         <v>26</v>
       </c>
       <c r="N24">
-        <f t="shared" si="6"/>
-        <v>8</v>
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
       <c r="O24" t="s">
         <v>29</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="7"/>
-        <v>document.getElementById("c8").textContent = Cantor8;</v>
+        <f t="shared" si="10"/>
+        <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.35">
@@ -15361,8 +15361,8 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <f t="shared" si="4"/>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
@@ -15371,7 +15371,7 @@
         <v>26</v>
       </c>
       <c r="F25" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G25" t="s">
         <v>26</v>
@@ -15380,8 +15380,8 @@
         <v>29</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="5"/>
-        <v>let Cantor9 = "de gloria y honor lo has coronado;";</v>
+        <f t="shared" si="8"/>
+        <v>let Cantor8 = "y de la muerte se levanta.";</v>
       </c>
       <c r="K25" t="s">
         <v>27</v>
@@ -15393,15 +15393,15 @@
         <v>26</v>
       </c>
       <c r="N25">
-        <f t="shared" si="6"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>8</v>
       </c>
       <c r="O25" t="s">
         <v>29</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="7"/>
-        <v>document.getElementById("c9").textContent = Cantor9;</v>
+        <f t="shared" si="10"/>
+        <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.35">
@@ -15409,114 +15409,150 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="8"/>
+        <v>let Cantor9 = "";</v>
+      </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="O26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="10"/>
+        <v>document.getElementById("c9").textContent = Cantor9;</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" t="s">
-        <v>322</v>
-      </c>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" t="str">
-        <f t="shared" si="5"/>
-        <v>let Cantor10 = "todo lo has sometido bajo sus pies.";</v>
-      </c>
-      <c r="K26" t="s">
-        <v>27</v>
-      </c>
-      <c r="L26" t="s">
-        <v>28</v>
-      </c>
-      <c r="M26" t="s">
-        <v>26</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="6"/>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="8"/>
+        <v>let Cantor10 = "";</v>
+      </c>
+      <c r="K27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="O26" t="s">
-        <v>29</v>
-      </c>
-      <c r="P26" t="str">
-        <f t="shared" si="7"/>
+      <c r="O27" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="10"/>
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I40" t="s">
+    <row r="41" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I41" t="s">
         <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J41" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="42" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J42" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J44" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I45" t="s">
+    <row r="46" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I46" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="46" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J46" t="str">
-        <f>P9</f>
-        <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
     <row r="47" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J47" t="str">
-        <f>P10</f>
-        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+        <f t="shared" ref="J47:J52" si="11">P9</f>
+        <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
     <row r="48" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J48" t="str">
-        <f>P11</f>
-        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+        <f t="shared" si="11"/>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
     <row r="49" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J49" t="str">
-        <f>P12</f>
-        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+        <f t="shared" si="11"/>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
     <row r="50" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J50" t="str">
-        <f>P13</f>
-        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+        <f t="shared" si="11"/>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
     <row r="51" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J51" t="str">
-        <f>P14</f>
+        <f t="shared" si="11"/>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="52" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J52" t="str">
+        <f t="shared" si="11"/>
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
-      </c>
-    </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J52" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
       </c>
     </row>
     <row r="53" spans="9:10" x14ac:dyDescent="0.35">
@@ -15537,37 +15573,43 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I58" t="s">
+    <row r="56" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J56" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="59" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I59" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J59" t="str">
-        <f>P17</f>
-        <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
     <row r="60" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J60" t="str">
         <f>P18</f>
-        <v>document.getElementById("c2").textContent = Cantor2;</v>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
     <row r="61" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J61" t="str">
         <f>P19</f>
-        <v>document.getElementById("c3").textContent = Cantor3;</v>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
     <row r="62" spans="9:10" x14ac:dyDescent="0.35">
       <c r="J62" t="str">
         <f>P20</f>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="63" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J63" t="str">
+        <f>P21</f>
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="64" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I64" t="s">
+    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I65" t="s">
         <v>157</v>
       </c>
     </row>

--- a/src/doc/codificador.xlsx
+++ b/src/doc/codificador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\db\Github\cantos\src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409C2F1E-97AB-491C-97A2-005603EADDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8633F1-1675-488C-AC1C-0113E194511E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="2660" windowWidth="19200" windowHeight="11170" firstSheet="12" activeTab="14" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="13" activeTab="15" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="CANTO DE MOISES" sheetId="11" r:id="rId13"/>
     <sheet name="OH MUERTE ¿DÓNDE ESTÁ TU VICTOR" sheetId="12" r:id="rId14"/>
     <sheet name="OH SEÑOR, NUESTRO DIOS " sheetId="15" r:id="rId15"/>
+    <sheet name="A LA CENA DEL CORDERO " sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6676" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7179" uniqueCount="349">
   <si>
     <t>viviendo en pureza, paciencia y bondad;</t>
   </si>
@@ -1042,6 +1043,84 @@
   <si>
     <t xml:space="preserve">¡RESUCITÓ! </t>
   </si>
+  <si>
+    <t>Himno lat. «Ad cenam Agni provldl</t>
+  </si>
+  <si>
+    <t>A LA CENA DEL CORDERO,</t>
+  </si>
+  <si>
+    <t>VESTIDOS CON BLANCAS TÚNICAS,</t>
+  </si>
+  <si>
+    <t>ATRAVESADO EL MAR ROJO,</t>
+  </si>
+  <si>
+    <t>CANTAMOS A CRISTO, EL SEÑOR</t>
+  </si>
+  <si>
+    <t>AMÉN.</t>
+  </si>
+  <si>
+    <t>Su cuerpo lleno de amor,</t>
+  </si>
+  <si>
+    <t>sobre la mesa es el Pan vivo.</t>
+  </si>
+  <si>
+    <t>Y su sangre sobre el altar,</t>
+  </si>
+  <si>
+    <t>es el cáliz del nuevo pacto.</t>
+  </si>
+  <si>
+    <t>Manso cordero inmolado,</t>
+  </si>
+  <si>
+    <t>es Cristo, nuestra Pascua.</t>
+  </si>
+  <si>
+    <t>Su cuerpo adorable</t>
+  </si>
+  <si>
+    <t>es el verdadero pan ácimo</t>
+  </si>
+  <si>
+    <t>En esta hora admirable</t>
+  </si>
+  <si>
+    <t>retornan los antiguos prodigios,</t>
+  </si>
+  <si>
+    <t>su brazo potente nos salva</t>
+  </si>
+  <si>
+    <t>del ángel de la muerte</t>
+  </si>
+  <si>
+    <t>Irradia sobre la Iglesia</t>
+  </si>
+  <si>
+    <t>el gozo pascual, oh Señor,</t>
+  </si>
+  <si>
+    <t>y une a tu gran victoria</t>
+  </si>
+  <si>
+    <t>a los que han renovado el Bautismo.</t>
+  </si>
+  <si>
+    <t>Sea honor, alabanza y gloria,</t>
+  </si>
+  <si>
+    <t>a Cristo victorioso de la muerte,</t>
+  </si>
+  <si>
+    <t>al Padre y al Santo Espíritu</t>
+  </si>
+  <si>
+    <t>ahora y por los siglos eternos.</t>
+  </si>
 </sst>
 </file>
 
@@ -11964,8 +12043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B486075-3C46-4392-ABA9-9DD3A602146D}">
   <dimension ref="B1:P93"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J85" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A39" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63:P65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13697,7 +13776,7 @@
         <v>25</v>
       </c>
       <c r="C50">
-        <f t="shared" ref="C50:C63" si="4">+C49+1</f>
+        <f t="shared" ref="C50:C65" si="4">+C49+1</f>
         <v>5</v>
       </c>
       <c r="D50" t="s">
@@ -14493,8 +14572,1136 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCA8C4A-B9E4-4232-9E1E-E47CEB7915C1}">
   <dimension ref="B1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:J25"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
+    <col min="6" max="6" width="45.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="4.453125" customWidth="1"/>
+    <col min="10" max="10" width="60.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="1.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3" customWidth="1"/>
+    <col min="16" max="16" width="51.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="F1" s="3" t="str">
+        <f ca="1">LOWER(SUBSTITUTE(SUBSTITUTE(F4, " ", ""), ",", ""))</f>
+        <v>ohseñornuestrodios</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="F2" s="1" t="str">
+        <f ca="1">(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F1, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"))</f>
+        <v>ohseñornuestrodios</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="F3" s="2" t="str">
+        <f ca="1">UPPER(LEFT(F4,1)) &amp; LOWER(MID(F4,2,LEN(F4)-1))</f>
+        <v xml:space="preserve">Oh señor, nuestro dios </v>
+      </c>
+      <c r="I3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="F4" ca="1">MID(CELL("filename", A3), FIND("]", CELL("filename", A3)) + 1, 255)</f>
+        <v xml:space="preserve">OH SEÑOR, NUESTRO DIOS </v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="str">
+        <f ca="1">_xlfn.CONCAT(B4," ",D4," ",E4,F4,G4,H4)</f>
+        <v>let titulo = "OH SEÑOR, NUESTRO DIOS ";</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4">
+        <f>C4</f>
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K4,M4,"t",N4,M4,L4,".textContent = titulo",O4)</f>
+        <v>document.getElementById("t1").textContent = titulo;</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="str">
+        <f>_xlfn.CONCAT(B5," ",D5," ",E5,F5,G5,H5)</f>
+        <v>let salmo = "Salmo 8";</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5">
+        <f>C5</f>
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K5,M5,"c",N5,M5,L5,".textContent = Cantor",N5,O5)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>118</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="str">
+        <f>_xlfn.CONCAT(B6," ",D6," ",E6,F6,G6,H6,"      //Numero del libro")</f>
+        <v>let dbnos = "118";      //Numero del libro</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6">
+        <f>C6</f>
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K6,M6,"c",N6,M6,L6,".textContent = Cantor",N6,O6)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" ref="J9:J14" si="0">_xlfn.CONCAT(B9,C9," ",D9," ",E9,F9,G9,H9)</f>
+        <v>let Asamblea1 = "MIENTRAS EL REY, CRISTO,";</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:N14" si="1">C9</f>
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K9,M9,"a",N9,M9,L9,".textContent = Asamblea",N9,O9)</f>
+        <v>document.getElementById("a1").textContent = Asamblea1;</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C15" si="2">+C9+1</f>
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>317</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea2 = "LIBRA A TODOS DE LA CÁRCEL";</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" ref="P10:P14" si="3">_xlfn.CONCAT("document.getElementById",K10,M10,"a",N10,M10,L10,".textContent = Asamblea",N10,O10)</f>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>318</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea3 = "TENEBROSA QUE ES LA MUERTE";</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>319</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea4 = "Y NOS CONDUCE A LA VIDA";</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea5 = "NO MÁS LUTOS NI LLANTOS";</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>321</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea6 = "NI PESARES: ¡RESUCITÓ!";</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a6").textContent = Asamblea6;</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>322</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" ref="J15" si="4">_xlfn.CONCAT(B15,C15," ",D15," ",E15,F15,G15,H15)</f>
+        <v>let Asamblea7 = "¡RESUCITÓ! ";</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15">
+        <f t="shared" ref="N15" si="5">C15</f>
+        <v>7</v>
+      </c>
+      <c r="O15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" ref="P15" si="6">_xlfn.CONCAT("document.getElementById",K15,M15,"a",N15,M15,L15,".textContent = Asamblea",N15,O15)</f>
+        <v>document.getElementById("a7").textContent = Asamblea7;</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="I17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>308</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" t="str">
+        <f>_xlfn.CONCAT(B18,C18," ",D18," ",E18,F18,G18,H18)</f>
+        <v>let Cantor1 = "La aurora tiñe de púrpura el cielo,";</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18">
+        <f>C18</f>
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K18,M18,"c",N18,M18,L18,".textContent = Cantor",N18,O18)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <f>+C18+1</f>
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>309</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="str">
+        <f>_xlfn.CONCAT(B19,C19," ",D19," ",E19,F19,G19,H19)</f>
+        <v>let Cantor2 = "resuena en los aires el eco de las alabanzas;";</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19">
+        <f>C19</f>
+        <v>2</v>
+      </c>
+      <c r="O19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K19,M19,"c",N19,M19,L19,".textContent = Cantor",N19,O19)</f>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <f>+C19+1</f>
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>310</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="str">
+        <f>_xlfn.CONCAT(B20,C20," ",D20," ",E20,F20,G20,H20)</f>
+        <v>let Cantor3 = "el mundo triunfante se alegra,";</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20">
+        <f>C20</f>
+        <v>3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K20,M20,"c",N20,M20,L20,".textContent = Cantor",N20,O20)</f>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <f>+C20+1</f>
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>311</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" t="str">
+        <f>_xlfn.CONCAT(B21,C21," ",D21," ",E21,F21,G21,H21)</f>
+        <v>let Cantor4 = "tenebroso el infierno brama";</v>
+      </c>
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21">
+        <f>C21</f>
+        <v>4</v>
+      </c>
+      <c r="O21" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K21,M21,"c",N21,M21,L21,".textContent = Cantor",N21,O21)</f>
+        <v>document.getElementById("c4").textContent = Cantor4;</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:C27" si="7">+C21+1</f>
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>312</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" ref="J22:J27" si="8">_xlfn.CONCAT(B22,C22," ",D22," ",E22,F22,G22,H22)</f>
+        <v>let Cantor5 = "Una piedra sellaba su sepulcro;";</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ref="N22:N27" si="9">C22</f>
+        <v>5</v>
+      </c>
+      <c r="O22" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" ref="P22:P27" si="10">_xlfn.CONCAT("document.getElementById",K22,M22,"c",N22,M22,L22,".textContent = Cantor",N22,O22)</f>
+        <v>document.getElementById("c5").textContent = Cantor5;</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>313</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="8"/>
+        <v>let Cantor6 = "muchos guardias le custodiaban.";</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="O23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="10"/>
+        <v>document.getElementById("c6").textContent = Cantor6;</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>314</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="8"/>
+        <v>let Cantor7 = "Pero él triunfa glorioso";</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="O24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="10"/>
+        <v>document.getElementById("c7").textContent = Cantor7;</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>315</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="8"/>
+        <v>let Cantor8 = "y de la muerte se levanta.";</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="O25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="10"/>
+        <v>document.getElementById("c8").textContent = Cantor8;</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="8"/>
+        <v>let Cantor9 = "";</v>
+      </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="O26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="10"/>
+        <v>document.getElementById("c9").textContent = Cantor9;</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="8"/>
+        <v>let Cantor10 = "";</v>
+      </c>
+      <c r="K27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="O27" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="10"/>
+        <v>document.getElementById("c10").textContent = Cantor10;</v>
+      </c>
+    </row>
+    <row r="41" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J47" t="str">
+        <f t="shared" ref="J47:J52" si="11">P9</f>
+        <v>document.getElementById("a1").textContent = Asamblea1;</v>
+      </c>
+    </row>
+    <row r="48" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J48" t="str">
+        <f t="shared" si="11"/>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+      </c>
+    </row>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J49" t="str">
+        <f t="shared" si="11"/>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+      </c>
+    </row>
+    <row r="50" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J50" t="str">
+        <f t="shared" si="11"/>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+      </c>
+    </row>
+    <row r="51" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J51" t="str">
+        <f t="shared" si="11"/>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="52" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J52" t="str">
+        <f t="shared" si="11"/>
+        <v>document.getElementById("a6").textContent = Asamblea6;</v>
+      </c>
+    </row>
+    <row r="53" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J53" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="54" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J54" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="55" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J55" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="56" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J56" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="59" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J60" t="str">
+        <f>P18</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="61" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J61" t="str">
+        <f>P19</f>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
+      </c>
+    </row>
+    <row r="62" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J62" t="str">
+        <f>P20</f>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="63" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J63" t="str">
+        <f>P21</f>
+        <v>document.getElementById("c4").textContent = Cantor4;</v>
+      </c>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I65" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8C3ACA1-09A2-4A07-ACA1-03BC8193B9F4}">
+  <dimension ref="B1:P109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J106" sqref="J106:J109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14516,19 +15723,19 @@
     <row r="1" spans="2:16" x14ac:dyDescent="0.35">
       <c r="F1" s="3" t="str">
         <f ca="1">LOWER(SUBSTITUTE(SUBSTITUTE(F4, " ", ""), ",", ""))</f>
-        <v>ohseñornuestrodios</v>
+        <v>alacenadelcordero</v>
       </c>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.35">
       <c r="F2" s="1" t="str">
         <f ca="1">(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F1, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"))</f>
-        <v>ohseñornuestrodios</v>
+        <v>alacenadelcordero</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.35">
       <c r="F3" s="2" t="str">
         <f ca="1">UPPER(LEFT(F4,1)) &amp; LOWER(MID(F4,2,LEN(F4)-1))</f>
-        <v xml:space="preserve">Oh señor, nuestro dios </v>
+        <v xml:space="preserve">A la cena del cordero </v>
       </c>
       <c r="I3" t="s">
         <v>151</v>
@@ -14549,7 +15756,7 @@
       </c>
       <c r="F4" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="F4" ca="1">MID(CELL("filename", A3), FIND("]", CELL("filename", A3)) + 1, 255)</f>
-        <v xml:space="preserve">OH SEÑOR, NUESTRO DIOS </v>
+        <v xml:space="preserve">A LA CENA DEL CORDERO </v>
       </c>
       <c r="G4" t="s">
         <v>26</v>
@@ -14559,7 +15766,7 @@
       </c>
       <c r="J4" t="str">
         <f ca="1">_xlfn.CONCAT(B4," ",D4," ",E4,F4,G4,H4)</f>
-        <v>let titulo = "OH SEÑOR, NUESTRO DIOS ";</v>
+        <v>let titulo = "A LA CENA DEL CORDERO ";</v>
       </c>
       <c r="K4" t="s">
         <v>27</v>
@@ -14596,7 +15803,7 @@
         <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
@@ -14606,7 +15813,7 @@
       </c>
       <c r="J5" t="str">
         <f>_xlfn.CONCAT(B5," ",D5," ",E5,F5,G5,H5)</f>
-        <v>let salmo = "Salmo 8";</v>
+        <v>let salmo = "Himno lat. «Ad cenam Agni provldl";</v>
       </c>
       <c r="K5" t="s">
         <v>27</v>
@@ -14643,7 +15850,7 @@
         <v>26</v>
       </c>
       <c r="F6">
-        <v>118</v>
+        <v>237</v>
       </c>
       <c r="G6" t="s">
         <v>26</v>
@@ -14653,7 +15860,7 @@
       </c>
       <c r="J6" t="str">
         <f>_xlfn.CONCAT(B6," ",D6," ",E6,F6,G6,H6,"      //Numero del libro")</f>
-        <v>let dbnos = "118";      //Numero del libro</v>
+        <v>let dbnos = "237";      //Numero del libro</v>
       </c>
       <c r="K6" t="s">
         <v>27</v>
@@ -14695,7 +15902,7 @@
         <v>26</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="G9" t="s">
         <v>26</v>
@@ -14704,8 +15911,8 @@
         <v>29</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" ref="J9:J14" si="0">_xlfn.CONCAT(B9,C9," ",D9," ",E9,F9,G9,H9)</f>
-        <v>let Asamblea1 = "MIENTRAS EL REY, CRISTO,";</v>
+        <f t="shared" ref="J9:J36" si="0">_xlfn.CONCAT(B9,C9," ",D9," ",E9,F9,G9,H9)</f>
+        <v>let Asamblea1 = "A LA CENA DEL CORDERO,";</v>
       </c>
       <c r="K9" t="s">
         <v>27</v>
@@ -14717,7 +15924,7 @@
         <v>26</v>
       </c>
       <c r="N9">
-        <f t="shared" ref="N9:N14" si="1">C9</f>
+        <f t="shared" ref="N9:N36" si="1">C9</f>
         <v>1</v>
       </c>
       <c r="O9" t="s">
@@ -14733,7 +15940,7 @@
         <v>30</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:C15" si="2">+C9+1</f>
+        <f t="shared" ref="C10:C36" si="2">+C9+1</f>
         <v>2</v>
       </c>
       <c r="D10" t="s">
@@ -14743,7 +15950,7 @@
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G10" t="s">
         <v>26</v>
@@ -14753,7 +15960,7 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" si="0"/>
-        <v>let Asamblea2 = "LIBRA A TODOS DE LA CÁRCEL";</v>
+        <v>let Asamblea2 = "VESTIDOS CON BLANCAS TÚNICAS,";</v>
       </c>
       <c r="K10" t="s">
         <v>27</v>
@@ -14772,7 +15979,7 @@
         <v>29</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" ref="P10:P14" si="3">_xlfn.CONCAT("document.getElementById",K10,M10,"a",N10,M10,L10,".textContent = Asamblea",N10,O10)</f>
+        <f t="shared" ref="P10:P36" si="3">_xlfn.CONCAT("document.getElementById",K10,M10,"a",N10,M10,L10,".textContent = Asamblea",N10,O10)</f>
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
@@ -14791,7 +15998,7 @@
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="G11" t="s">
         <v>26</v>
@@ -14801,7 +16008,7 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="0"/>
-        <v>let Asamblea3 = "TENEBROSA QUE ES LA MUERTE";</v>
+        <v>let Asamblea3 = "ATRAVESADO EL MAR ROJO,";</v>
       </c>
       <c r="K11" t="s">
         <v>27</v>
@@ -14839,7 +16046,7 @@
         <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="G12" t="s">
         <v>26</v>
@@ -14849,7 +16056,7 @@
       </c>
       <c r="J12" t="str">
         <f t="shared" si="0"/>
-        <v>let Asamblea4 = "Y NOS CONDUCE A LA VIDA";</v>
+        <v>let Asamblea4 = "CANTAMOS A CRISTO, EL SEÑOR";</v>
       </c>
       <c r="K12" t="s">
         <v>27</v>
@@ -14887,7 +16094,7 @@
         <v>26</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="G13" t="s">
         <v>26</v>
@@ -14897,7 +16104,7 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" si="0"/>
-        <v>let Asamblea5 = "NO MÁS LUTOS NI LLANTOS";</v>
+        <v>let Asamblea5 = "A LA CENA DEL CORDERO,";</v>
       </c>
       <c r="K13" t="s">
         <v>27</v>
@@ -14935,7 +16142,7 @@
         <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
@@ -14945,7 +16152,7 @@
       </c>
       <c r="J14" t="str">
         <f t="shared" si="0"/>
-        <v>let Asamblea6 = "NI PESARES: ¡RESUCITÓ!";</v>
+        <v>let Asamblea6 = "VESTIDOS CON BLANCAS TÚNICAS,";</v>
       </c>
       <c r="K14" t="s">
         <v>27</v>
@@ -14968,7 +16175,7 @@
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>30</v>
       </c>
@@ -14983,7 +16190,7 @@
         <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G15" t="s">
         <v>26</v>
@@ -14992,8 +16199,8 @@
         <v>29</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" ref="J15" si="4">_xlfn.CONCAT(B15,C15," ",D15," ",E15,F15,G15,H15)</f>
-        <v>let Asamblea7 = "¡RESUCITÓ! ";</v>
+        <f t="shared" si="0"/>
+        <v>let Asamblea7 = "ATRAVESADO EL MAR ROJO,";</v>
       </c>
       <c r="K15" t="s">
         <v>27</v>
@@ -15005,28 +16212,120 @@
         <v>26</v>
       </c>
       <c r="N15">
-        <f t="shared" ref="N15" si="5">C15</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="O15" t="s">
         <v>29</v>
       </c>
       <c r="P15" t="str">
-        <f t="shared" ref="P15" si="6">_xlfn.CONCAT("document.getElementById",K15,M15,"a",N15,M15,L15,".textContent = Asamblea",N15,O15)</f>
+        <f t="shared" si="3"/>
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
+    <row r="16" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea8 = "CANTAMOS A CRISTO, EL SEÑOR";</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="O16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a8").textContent = Asamblea8;</v>
+      </c>
+    </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="I17" t="s">
-        <v>150</v>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea9 = "A LA CENA DEL CORDERO,";</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="O17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -15034,8 +16333,8 @@
       <c r="E18" t="s">
         <v>26</v>
       </c>
-      <c r="F18" t="s">
-        <v>308</v>
+      <c r="F18" s="5" t="s">
+        <v>325</v>
       </c>
       <c r="G18" t="s">
         <v>26</v>
@@ -15044,8 +16343,8 @@
         <v>29</v>
       </c>
       <c r="J18" t="str">
-        <f>_xlfn.CONCAT(B18,C18," ",D18," ",E18,F18,G18,H18)</f>
-        <v>let Cantor1 = "La aurora tiñe de púrpura el cielo,";</v>
+        <f t="shared" si="0"/>
+        <v>let Asamblea10 = "VESTIDOS CON BLANCAS TÚNICAS,";</v>
       </c>
       <c r="K18" t="s">
         <v>27</v>
@@ -15057,43 +16356,43 @@
         <v>26</v>
       </c>
       <c r="N18">
-        <f>C18</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="O18" t="s">
         <v>29</v>
       </c>
       <c r="P18" t="str">
-        <f>_xlfn.CONCAT("document.getElementById",K18,M18,"c",N18,M18,L18,".textContent = Cantor",N18,O18)</f>
-        <v>document.getElementById("c1").textContent = Cantor1;</v>
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19">
-        <f>+C18+1</f>
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s">
-        <v>309</v>
-      </c>
-      <c r="G19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="B19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="4">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>29</v>
       </c>
       <c r="J19" t="str">
-        <f>_xlfn.CONCAT(B19,C19," ",D19," ",E19,F19,G19,H19)</f>
-        <v>let Cantor2 = "resuena en los aires el eco de las alabanzas;";</v>
+        <f t="shared" si="0"/>
+        <v>let Asamblea11 = "ATRAVESADO EL MAR ROJO,";</v>
       </c>
       <c r="K19" t="s">
         <v>27</v>
@@ -15105,24 +16404,24 @@
         <v>26</v>
       </c>
       <c r="N19">
-        <f>C19</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>11</v>
       </c>
       <c r="O19" t="s">
         <v>29</v>
       </c>
       <c r="P19" t="str">
-        <f>_xlfn.CONCAT("document.getElementById",K19,M19,"c",N19,M19,L19,".textContent = Cantor",N19,O19)</f>
-        <v>document.getElementById("c2").textContent = Cantor2;</v>
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <f>+C19+1</f>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="D20" t="s">
         <v>24</v>
@@ -15130,8 +16429,8 @@
       <c r="E20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" t="s">
-        <v>310</v>
+      <c r="F20" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="G20" t="s">
         <v>26</v>
@@ -15140,8 +16439,8 @@
         <v>29</v>
       </c>
       <c r="J20" t="str">
-        <f>_xlfn.CONCAT(B20,C20," ",D20," ",E20,F20,G20,H20)</f>
-        <v>let Cantor3 = "el mundo triunfante se alegra,";</v>
+        <f t="shared" si="0"/>
+        <v>let Asamblea12 = "CANTAMOS A CRISTO, EL SEÑOR";</v>
       </c>
       <c r="K20" t="s">
         <v>27</v>
@@ -15153,24 +16452,24 @@
         <v>26</v>
       </c>
       <c r="N20">
-        <f>C20</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
       <c r="O20" t="s">
         <v>29</v>
       </c>
       <c r="P20" t="str">
-        <f>_xlfn.CONCAT("document.getElementById",K20,M20,"c",N20,M20,L20,".textContent = Cantor",N20,O20)</f>
-        <v>document.getElementById("c3").textContent = Cantor3;</v>
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C21">
-        <f>+C20+1</f>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
         <v>24</v>
@@ -15178,8 +16477,8 @@
       <c r="E21" t="s">
         <v>26</v>
       </c>
-      <c r="F21" t="s">
-        <v>311</v>
+      <c r="F21" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
@@ -15188,8 +16487,8 @@
         <v>29</v>
       </c>
       <c r="J21" t="str">
-        <f>_xlfn.CONCAT(B21,C21," ",D21," ",E21,F21,G21,H21)</f>
-        <v>let Cantor4 = "tenebroso el infierno brama";</v>
+        <f t="shared" si="0"/>
+        <v>let Asamblea13 = "AMÉN.";</v>
       </c>
       <c r="K21" t="s">
         <v>27</v>
@@ -15201,24 +16500,24 @@
         <v>26</v>
       </c>
       <c r="N21">
-        <f>C21</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>13</v>
       </c>
       <c r="O21" t="s">
         <v>29</v>
       </c>
       <c r="P21" t="str">
-        <f>_xlfn.CONCAT("document.getElementById",K21,M21,"c",N21,M21,L21,".textContent = Cantor",N21,O21)</f>
-        <v>document.getElementById("c4").textContent = Cantor4;</v>
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:C27" si="7">+C21+1</f>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -15226,9 +16525,7 @@
       <c r="E22" t="s">
         <v>26</v>
       </c>
-      <c r="F22" t="s">
-        <v>312</v>
-      </c>
+      <c r="F22" s="5"/>
       <c r="G22" t="s">
         <v>26</v>
       </c>
@@ -15236,8 +16533,8 @@
         <v>29</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" ref="J22:J27" si="8">_xlfn.CONCAT(B22,C22," ",D22," ",E22,F22,G22,H22)</f>
-        <v>let Cantor5 = "Una piedra sellaba su sepulcro;";</v>
+        <f t="shared" si="0"/>
+        <v>let Asamblea14 = "";</v>
       </c>
       <c r="K22" t="s">
         <v>27</v>
@@ -15249,24 +16546,24 @@
         <v>26</v>
       </c>
       <c r="N22">
-        <f t="shared" ref="N22:N27" si="9">C22</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>14</v>
       </c>
       <c r="O22" t="s">
         <v>29</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" ref="P22:P27" si="10">_xlfn.CONCAT("document.getElementById",K22,M22,"c",N22,M22,L22,".textContent = Cantor",N22,O22)</f>
-        <v>document.getElementById("c5").textContent = Cantor5;</v>
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
         <v>24</v>
@@ -15274,9 +16571,7 @@
       <c r="E23" t="s">
         <v>26</v>
       </c>
-      <c r="F23" t="s">
-        <v>313</v>
-      </c>
+      <c r="F23" s="8"/>
       <c r="G23" t="s">
         <v>26</v>
       </c>
@@ -15284,8 +16579,8 @@
         <v>29</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="8"/>
-        <v>let Cantor6 = "muchos guardias le custodiaban.";</v>
+        <f t="shared" si="0"/>
+        <v>let Asamblea15 = "";</v>
       </c>
       <c r="K23" t="s">
         <v>27</v>
@@ -15297,24 +16592,24 @@
         <v>26</v>
       </c>
       <c r="N23">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="O23" t="s">
         <v>29</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" si="10"/>
-        <v>document.getElementById("c6").textContent = Cantor6;</v>
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C24">
-        <f t="shared" si="7"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -15322,9 +16617,7 @@
       <c r="E24" t="s">
         <v>26</v>
       </c>
-      <c r="F24" t="s">
-        <v>314</v>
-      </c>
+      <c r="F24" s="5"/>
       <c r="G24" t="s">
         <v>26</v>
       </c>
@@ -15332,8 +16625,8 @@
         <v>29</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="8"/>
-        <v>let Cantor7 = "Pero él triunfa glorioso";</v>
+        <f t="shared" si="0"/>
+        <v>let Asamblea16 = "";</v>
       </c>
       <c r="K24" t="s">
         <v>27</v>
@@ -15345,24 +16638,24 @@
         <v>26</v>
       </c>
       <c r="N24">
-        <f t="shared" si="9"/>
-        <v>7</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="O24" t="s">
         <v>29</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" si="10"/>
-        <v>document.getElementById("c7").textContent = Cantor7;</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a16").textContent = Asamblea16;</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <f t="shared" si="7"/>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>17</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
@@ -15370,9 +16663,7 @@
       <c r="E25" t="s">
         <v>26</v>
       </c>
-      <c r="F25" t="s">
-        <v>315</v>
-      </c>
+      <c r="F25" s="7"/>
       <c r="G25" t="s">
         <v>26</v>
       </c>
@@ -15380,8 +16671,8 @@
         <v>29</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="8"/>
-        <v>let Cantor8 = "y de la muerte se levanta.";</v>
+        <f t="shared" si="0"/>
+        <v>let Asamblea17 = "";</v>
       </c>
       <c r="K25" t="s">
         <v>27</v>
@@ -15393,24 +16684,24 @@
         <v>26</v>
       </c>
       <c r="N25">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
       <c r="O25" t="s">
         <v>29</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" si="10"/>
-        <v>document.getElementById("c8").textContent = Cantor8;</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a17").textContent = Asamblea17;</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <f t="shared" si="7"/>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
@@ -15418,6 +16709,7 @@
       <c r="E26" t="s">
         <v>26</v>
       </c>
+      <c r="F26" s="9"/>
       <c r="G26" t="s">
         <v>26</v>
       </c>
@@ -15425,8 +16717,8 @@
         <v>29</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="8"/>
-        <v>let Cantor9 = "";</v>
+        <f t="shared" si="0"/>
+        <v>let Asamblea18 = "";</v>
       </c>
       <c r="K26" t="s">
         <v>27</v>
@@ -15438,179 +16730,1670 @@
         <v>26</v>
       </c>
       <c r="N26">
-        <f t="shared" si="9"/>
-        <v>9</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
       <c r="O26" t="s">
         <v>29</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" si="10"/>
-        <v>document.getElementById("c9").textContent = Cantor9;</v>
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea19 = "";</v>
+      </c>
+      <c r="K27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="O27" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a19").textContent = Asamblea19;</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea20 = "";</v>
+      </c>
+      <c r="K28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="O28" t="s">
+        <v>29</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a20").textContent = Asamblea20;</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea21 = "";</v>
+      </c>
+      <c r="K29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="O29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a21").textContent = Asamblea21;</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea22 = "";</v>
+      </c>
+      <c r="K30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="O30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a22").textContent = Asamblea22;</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea23 = "";</v>
+      </c>
+      <c r="K31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="O31" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a23").textContent = Asamblea23;</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea24 = "";</v>
+      </c>
+      <c r="K32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="O32" t="s">
+        <v>29</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a24").textContent = Asamblea24;</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="C27">
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea25 = "";</v>
+      </c>
+      <c r="K33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="O33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a25").textContent = Asamblea25;</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea26 = "";</v>
+      </c>
+      <c r="K34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="O34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a26").textContent = Asamblea26;</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea27 = "";</v>
+      </c>
+      <c r="K35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="O35" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a27").textContent = Asamblea27;</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea28 = "";</v>
+      </c>
+      <c r="K36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="O36" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a28").textContent = Asamblea28;</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="I45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" t="s">
+        <v>329</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" t="str">
+        <f>_xlfn.CONCAT(B46,C46," ",D46," ",E46,F46,G46,H46)</f>
+        <v>let Cantor1 = "Su cuerpo lleno de amor,";</v>
+      </c>
+      <c r="K46" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M46" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46">
+        <f>C46</f>
+        <v>1</v>
+      </c>
+      <c r="O46" t="s">
+        <v>29</v>
+      </c>
+      <c r="P46" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K46,M46,"c",N46,M46,L46,".textContent = Cantor",N46,O46)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47">
+        <f>+C46+1</f>
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" t="s">
+        <v>330</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" t="str">
+        <f>_xlfn.CONCAT(B47,C47," ",D47," ",E47,F47,G47,H47)</f>
+        <v>let Cantor2 = "sobre la mesa es el Pan vivo.";</v>
+      </c>
+      <c r="K47" t="s">
+        <v>27</v>
+      </c>
+      <c r="L47" t="s">
+        <v>28</v>
+      </c>
+      <c r="M47" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47">
+        <f>C47</f>
+        <v>2</v>
+      </c>
+      <c r="O47" t="s">
+        <v>29</v>
+      </c>
+      <c r="P47" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K47,M47,"c",N47,M47,L47,".textContent = Cantor",N47,O47)</f>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48">
+        <f>+C47+1</f>
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" t="s">
+        <v>331</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" t="str">
+        <f>_xlfn.CONCAT(B48,C48," ",D48," ",E48,F48,G48,H48)</f>
+        <v>let Cantor3 = "Y su sangre sobre el altar,";</v>
+      </c>
+      <c r="K48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M48" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48">
+        <f>C48</f>
+        <v>3</v>
+      </c>
+      <c r="O48" t="s">
+        <v>29</v>
+      </c>
+      <c r="P48" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K48,M48,"c",N48,M48,L48,".textContent = Cantor",N48,O48)</f>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49">
+        <f>+C48+1</f>
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" t="s">
+        <v>332</v>
+      </c>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" t="str">
+        <f>_xlfn.CONCAT(B49,C49," ",D49," ",E49,F49,G49,H49)</f>
+        <v>let Cantor4 = "es el cáliz del nuevo pacto.";</v>
+      </c>
+      <c r="K49" t="s">
+        <v>27</v>
+      </c>
+      <c r="L49" t="s">
+        <v>28</v>
+      </c>
+      <c r="M49" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49">
+        <f>C49</f>
+        <v>4</v>
+      </c>
+      <c r="O49" t="s">
+        <v>29</v>
+      </c>
+      <c r="P49" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K49,M49,"c",N49,M49,L49,".textContent = Cantor",N49,O49)</f>
+        <v>document.getElementById("c4").textContent = Cantor4;</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50:C65" si="4">+C49+1</f>
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" t="s">
+        <v>333</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" ref="J50:J63" si="5">_xlfn.CONCAT(B50,C50," ",D50," ",E50,F50,G50,H50)</f>
+        <v>let Cantor5 = "Manso cordero inmolado,";</v>
+      </c>
+      <c r="K50" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" t="s">
+        <v>28</v>
+      </c>
+      <c r="M50" t="s">
+        <v>26</v>
+      </c>
+      <c r="N50">
+        <f t="shared" ref="N50:N63" si="6">C50</f>
+        <v>5</v>
+      </c>
+      <c r="O50" t="s">
+        <v>29</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" ref="P50:P63" si="7">_xlfn.CONCAT("document.getElementById",K50,M50,"c",N50,M50,L50,".textContent = Cantor",N50,O50)</f>
+        <v>document.getElementById("c5").textContent = Cantor5;</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" t="s">
+        <v>334</v>
+      </c>
+      <c r="G51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor6 = "es Cristo, nuestra Pascua.";</v>
+      </c>
+      <c r="K51" t="s">
+        <v>27</v>
+      </c>
+      <c r="L51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M51" t="s">
+        <v>26</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="O51" t="s">
+        <v>29</v>
+      </c>
+      <c r="P51" t="str">
         <f t="shared" si="7"/>
+        <v>document.getElementById("c6").textContent = Cantor6;</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" t="s">
+        <v>335</v>
+      </c>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor7 = "Su cuerpo adorable";</v>
+      </c>
+      <c r="K52" t="s">
+        <v>27</v>
+      </c>
+      <c r="L52" t="s">
+        <v>28</v>
+      </c>
+      <c r="M52" t="s">
+        <v>26</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="O52" t="s">
+        <v>29</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c7").textContent = Cantor7;</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" t="s">
+        <v>336</v>
+      </c>
+      <c r="G53" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor8 = "es el verdadero pan ácimo";</v>
+      </c>
+      <c r="K53" t="s">
+        <v>27</v>
+      </c>
+      <c r="L53" t="s">
+        <v>28</v>
+      </c>
+      <c r="M53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="O53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c8").textContent = Cantor8;</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" t="s">
+        <v>337</v>
+      </c>
+      <c r="G54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" t="s">
+        <v>29</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor9 = "En esta hora admirable";</v>
+      </c>
+      <c r="K54" t="s">
+        <v>27</v>
+      </c>
+      <c r="L54" t="s">
+        <v>28</v>
+      </c>
+      <c r="M54" t="s">
+        <v>26</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="O54" t="s">
+        <v>29</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c9").textContent = Cantor9;</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="D27" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" t="str">
+      <c r="D55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" t="s">
+        <v>338</v>
+      </c>
+      <c r="G55" t="s">
+        <v>26</v>
+      </c>
+      <c r="H55" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor10 = "retornan los antiguos prodigios,";</v>
+      </c>
+      <c r="K55" t="s">
+        <v>27</v>
+      </c>
+      <c r="L55" t="s">
+        <v>28</v>
+      </c>
+      <c r="M55" t="s">
+        <v>26</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="O55" t="s">
+        <v>29</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c10").textContent = Cantor10;</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D56" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" t="s">
+        <v>339</v>
+      </c>
+      <c r="G56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" t="s">
+        <v>29</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor11 = "su brazo potente nos salva";</v>
+      </c>
+      <c r="K56" t="s">
+        <v>27</v>
+      </c>
+      <c r="L56" t="s">
+        <v>28</v>
+      </c>
+      <c r="M56" t="s">
+        <v>26</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="O56" t="s">
+        <v>29</v>
+      </c>
+      <c r="P56" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c11").textContent = Cantor11;</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="D57" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57" t="s">
+        <v>340</v>
+      </c>
+      <c r="G57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H57" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor12 = "del ángel de la muerte";</v>
+      </c>
+      <c r="K57" t="s">
+        <v>27</v>
+      </c>
+      <c r="L57" t="s">
+        <v>28</v>
+      </c>
+      <c r="M57" t="s">
+        <v>26</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="O57" t="s">
+        <v>29</v>
+      </c>
+      <c r="P57" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c12").textContent = Cantor12;</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58" t="s">
+        <v>341</v>
+      </c>
+      <c r="G58" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor13 = "Irradia sobre la Iglesia";</v>
+      </c>
+      <c r="K58" t="s">
+        <v>27</v>
+      </c>
+      <c r="L58" t="s">
+        <v>28</v>
+      </c>
+      <c r="M58" t="s">
+        <v>26</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="O58" t="s">
+        <v>29</v>
+      </c>
+      <c r="P58" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c13").textContent = Cantor13;</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="D59" t="s">
+        <v>24</v>
+      </c>
+      <c r="E59" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59" t="s">
+        <v>342</v>
+      </c>
+      <c r="G59" t="s">
+        <v>26</v>
+      </c>
+      <c r="H59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor14 = "el gozo pascual, oh Señor,";</v>
+      </c>
+      <c r="K59" t="s">
+        <v>27</v>
+      </c>
+      <c r="L59" t="s">
+        <v>28</v>
+      </c>
+      <c r="M59" t="s">
+        <v>26</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="O59" t="s">
+        <v>29</v>
+      </c>
+      <c r="P59" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c14").textContent = Cantor14;</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="D60" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" t="s">
+        <v>343</v>
+      </c>
+      <c r="G60" t="s">
+        <v>26</v>
+      </c>
+      <c r="H60" t="s">
+        <v>29</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor15 = "y une a tu gran victoria";</v>
+      </c>
+      <c r="K60" t="s">
+        <v>27</v>
+      </c>
+      <c r="L60" t="s">
+        <v>28</v>
+      </c>
+      <c r="M60" t="s">
+        <v>26</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="O60" t="s">
+        <v>29</v>
+      </c>
+      <c r="P60" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c15").textContent = Cantor15;</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="D61" t="s">
+        <v>24</v>
+      </c>
+      <c r="E61" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" t="s">
+        <v>344</v>
+      </c>
+      <c r="G61" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" t="s">
+        <v>29</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor16 = "a los que han renovado el Bautismo.";</v>
+      </c>
+      <c r="K61" t="s">
+        <v>27</v>
+      </c>
+      <c r="L61" t="s">
+        <v>28</v>
+      </c>
+      <c r="M61" t="s">
+        <v>26</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="O61" t="s">
+        <v>29</v>
+      </c>
+      <c r="P61" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c16").textContent = Cantor16;</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="D62" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62" t="s">
+        <v>345</v>
+      </c>
+      <c r="G62" t="s">
+        <v>26</v>
+      </c>
+      <c r="H62" t="s">
+        <v>29</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor17 = "Sea honor, alabanza y gloria,";</v>
+      </c>
+      <c r="K62" t="s">
+        <v>27</v>
+      </c>
+      <c r="L62" t="s">
+        <v>28</v>
+      </c>
+      <c r="M62" t="s">
+        <v>26</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="O62" t="s">
+        <v>29</v>
+      </c>
+      <c r="P62" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c17").textContent = Cantor17;</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63" t="s">
+        <v>346</v>
+      </c>
+      <c r="G63" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" t="s">
+        <v>29</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor18 = "a Cristo victorioso de la muerte,";</v>
+      </c>
+      <c r="K63" t="s">
+        <v>27</v>
+      </c>
+      <c r="L63" t="s">
+        <v>28</v>
+      </c>
+      <c r="M63" t="s">
+        <v>26</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="O63" t="s">
+        <v>29</v>
+      </c>
+      <c r="P63" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c18").textContent = Cantor18;</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="D64" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" t="s">
+        <v>347</v>
+      </c>
+      <c r="G64" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" t="s">
+        <v>29</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" ref="J64:J66" si="8">_xlfn.CONCAT(B64,C64," ",D64," ",E64,F64,G64,H64)</f>
+        <v>let Cantor19 = "al Padre y al Santo Espíritu";</v>
+      </c>
+      <c r="K64" t="s">
+        <v>27</v>
+      </c>
+      <c r="L64" t="s">
+        <v>28</v>
+      </c>
+      <c r="M64" t="s">
+        <v>26</v>
+      </c>
+      <c r="N64">
+        <f t="shared" ref="N64:N66" si="9">C64</f>
+        <v>19</v>
+      </c>
+      <c r="O64" t="s">
+        <v>29</v>
+      </c>
+      <c r="P64" t="str">
+        <f t="shared" ref="P64:P66" si="10">_xlfn.CONCAT("document.getElementById",K64,M64,"c",N64,M64,L64,".textContent = Cantor",N64,O64)</f>
+        <v>document.getElementById("c19").textContent = Cantor19;</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="D65" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" t="s">
+        <v>348</v>
+      </c>
+      <c r="G65" t="s">
+        <v>26</v>
+      </c>
+      <c r="H65" t="s">
+        <v>29</v>
+      </c>
+      <c r="J65" t="str">
         <f t="shared" si="8"/>
-        <v>let Cantor10 = "";</v>
-      </c>
-      <c r="K27" t="s">
-        <v>27</v>
-      </c>
-      <c r="L27" t="s">
-        <v>28</v>
-      </c>
-      <c r="M27" t="s">
-        <v>26</v>
-      </c>
-      <c r="N27">
+        <v>let Cantor20 = "ahora y por los siglos eternos.";</v>
+      </c>
+      <c r="K65" t="s">
+        <v>27</v>
+      </c>
+      <c r="L65" t="s">
+        <v>28</v>
+      </c>
+      <c r="M65" t="s">
+        <v>26</v>
+      </c>
+      <c r="N65">
         <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="O27" t="s">
-        <v>29</v>
-      </c>
-      <c r="P27" t="str">
+        <v>20</v>
+      </c>
+      <c r="O65" t="s">
+        <v>29</v>
+      </c>
+      <c r="P65" t="str">
         <f t="shared" si="10"/>
-        <v>document.getElementById("c10").textContent = Cantor10;</v>
-      </c>
-    </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I41" t="s">
+        <v>document.getElementById("c20").textContent = Cantor20;</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="I69" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J42" t="s">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="J70" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J43" t="s">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="J71" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J44" t="s">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="J72" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I46" t="s">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="I74" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J47" t="str">
-        <f t="shared" ref="J47:J52" si="11">P9</f>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="J75" t="str">
+        <f t="shared" ref="J75:J87" si="11">P9</f>
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
-    <row r="48" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J48" t="str">
+    <row r="76" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="J76" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J49" t="str">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="J77" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J50" t="str">
+    <row r="78" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="J78" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J51" t="str">
+    <row r="79" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="J79" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J52" t="str">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="J80" t="str">
         <f t="shared" si="11"/>
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J53" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J54" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J55" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J56" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="I59" t="s">
+    <row r="81" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J81" t="str">
+        <f t="shared" si="11"/>
+        <v>document.getElementById("a7").textContent = Asamblea7;</v>
+      </c>
+    </row>
+    <row r="82" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J82" t="str">
+        <f t="shared" si="11"/>
+        <v>document.getElementById("a8").textContent = Asamblea8;</v>
+      </c>
+    </row>
+    <row r="83" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J83" t="str">
+        <f t="shared" si="11"/>
+        <v>document.getElementById("a9").textContent = Asamblea9;</v>
+      </c>
+    </row>
+    <row r="84" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J84" t="str">
+        <f t="shared" si="11"/>
+        <v>document.getElementById("a10").textContent = Asamblea10;</v>
+      </c>
+    </row>
+    <row r="85" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J85" t="str">
+        <f t="shared" si="11"/>
+        <v>document.getElementById("a11").textContent = Asamblea11;</v>
+      </c>
+    </row>
+    <row r="86" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J86" t="str">
+        <f t="shared" si="11"/>
+        <v>document.getElementById("a12").textContent = Asamblea12;</v>
+      </c>
+    </row>
+    <row r="87" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J87" t="str">
+        <f t="shared" si="11"/>
+        <v>document.getElementById("a13").textContent = Asamblea13;</v>
+      </c>
+    </row>
+    <row r="89" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I89" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J60" t="str">
-        <f>P18</f>
+    <row r="90" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J90" t="str">
+        <f>P46</f>
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
-    <row r="61" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J61" t="str">
-        <f>P19</f>
+    <row r="91" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J91" t="str">
+        <f>P47</f>
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
-    <row r="62" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J62" t="str">
-        <f>P20</f>
+    <row r="92" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J92" t="str">
+        <f>P48</f>
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
-    <row r="63" spans="9:10" x14ac:dyDescent="0.35">
-      <c r="J63" t="str">
-        <f>P21</f>
+    <row r="93" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J93" t="str">
+        <f>P49</f>
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I65" t="s">
+    <row r="94" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J94" t="str">
+        <f t="shared" ref="J94:J109" si="12">P50</f>
+        <v>document.getElementById("c5").textContent = Cantor5;</v>
+      </c>
+    </row>
+    <row r="95" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I95" t="s">
         <v>157</v>
+      </c>
+      <c r="J95" t="str">
+        <f t="shared" si="12"/>
+        <v>document.getElementById("c6").textContent = Cantor6;</v>
+      </c>
+    </row>
+    <row r="96" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J96" t="str">
+        <f t="shared" si="12"/>
+        <v>document.getElementById("c7").textContent = Cantor7;</v>
+      </c>
+    </row>
+    <row r="97" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J97" t="str">
+        <f t="shared" si="12"/>
+        <v>document.getElementById("c8").textContent = Cantor8;</v>
+      </c>
+    </row>
+    <row r="98" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J98" t="str">
+        <f t="shared" si="12"/>
+        <v>document.getElementById("c9").textContent = Cantor9;</v>
+      </c>
+    </row>
+    <row r="99" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J99" t="str">
+        <f t="shared" si="12"/>
+        <v>document.getElementById("c10").textContent = Cantor10;</v>
+      </c>
+    </row>
+    <row r="100" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J100" t="str">
+        <f t="shared" si="12"/>
+        <v>document.getElementById("c11").textContent = Cantor11;</v>
+      </c>
+    </row>
+    <row r="101" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J101" t="str">
+        <f t="shared" si="12"/>
+        <v>document.getElementById("c12").textContent = Cantor12;</v>
+      </c>
+    </row>
+    <row r="102" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J102" t="str">
+        <f t="shared" si="12"/>
+        <v>document.getElementById("c13").textContent = Cantor13;</v>
+      </c>
+    </row>
+    <row r="103" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J103" t="str">
+        <f t="shared" si="12"/>
+        <v>document.getElementById("c14").textContent = Cantor14;</v>
+      </c>
+    </row>
+    <row r="104" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J104" t="str">
+        <f t="shared" si="12"/>
+        <v>document.getElementById("c15").textContent = Cantor15;</v>
+      </c>
+    </row>
+    <row r="105" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J105" t="str">
+        <f t="shared" si="12"/>
+        <v>document.getElementById("c16").textContent = Cantor16;</v>
+      </c>
+    </row>
+    <row r="106" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J106" t="str">
+        <f t="shared" si="12"/>
+        <v>document.getElementById("c17").textContent = Cantor17;</v>
+      </c>
+    </row>
+    <row r="107" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J107" t="str">
+        <f t="shared" si="12"/>
+        <v>document.getElementById("c18").textContent = Cantor18;</v>
+      </c>
+    </row>
+    <row r="108" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J108" t="str">
+        <f t="shared" si="12"/>
+        <v>document.getElementById("c19").textContent = Cantor19;</v>
+      </c>
+    </row>
+    <row r="109" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J109" t="str">
+        <f t="shared" si="12"/>
+        <v>document.getElementById("c20").textContent = Cantor20;</v>
       </c>
     </row>
   </sheetData>

--- a/src/doc/codificador.xlsx
+++ b/src/doc/codificador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\db\Github\cantos\src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250A723D-6192-4B5F-AE23-1E0E083DC54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D74F9B-B971-4112-9E5C-9F0F71A2F1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="51840" windowHeight="21120" firstSheet="13" activeTab="17" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="13" activeTab="18" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <sheet name="A LA CENA DEL CORDERO " sheetId="16" r:id="rId16"/>
     <sheet name="ADÓNDE TE ESCONDISTE, AMADO" sheetId="17" r:id="rId17"/>
     <sheet name="ABBÁ, PADRE" sheetId="18" r:id="rId18"/>
+    <sheet name="ALELUYA INTERLECCIONAL" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7973" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8373" uniqueCount="404">
   <si>
     <t>viviendo en pureza, paciencia y bondad;</t>
   </si>
@@ -1258,6 +1259,36 @@
   <si>
     <t>para recaer en el temor.</t>
   </si>
+  <si>
+    <t>Liturgico</t>
+  </si>
+  <si>
+    <t>ALELUYA,ALELUYA,ALELUYA,ALELUYA.</t>
+  </si>
+  <si>
+    <t>ALELUYA,ALELUYA,ALELUYA.</t>
+  </si>
+  <si>
+    <t>Aleluya, aleluya, aleluya, aleluya.</t>
+  </si>
+  <si>
+    <t>Yo soy la vid, vosotros los sarmientos.</t>
+  </si>
+  <si>
+    <t>El que permanece en mí y yo en él,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ése da fruto abundante. </t>
+  </si>
+  <si>
+    <t>Con la música del «Aleluya, ya llegó el Reino».</t>
+  </si>
+  <si>
+    <t>ése da fruto abundante.</t>
+  </si>
+  <si>
+    <t>Aleluya, aleluya, aleluya.</t>
+  </si>
 </sst>
 </file>
 
@@ -19430,7 +19461,7 @@
         <v>29</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" ref="J25:J44" si="5">_xlfn.CONCAT(B25,C25," ",D25," ",E25,F25,G25,H25)</f>
+        <f t="shared" ref="J25:J39" si="5">_xlfn.CONCAT(B25,C25," ",D25," ",E25,F25,G25,H25)</f>
         <v>let Cantor5 = "salí tras ti, clamando, y eras ido.";</v>
       </c>
       <c r="K25" t="s">
@@ -19443,14 +19474,14 @@
         <v>26</v>
       </c>
       <c r="N25">
-        <f t="shared" ref="N25:N44" si="6">C25</f>
+        <f t="shared" ref="N25:N39" si="6">C25</f>
         <v>5</v>
       </c>
       <c r="O25" t="s">
         <v>29</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" ref="P25:P44" si="7">_xlfn.CONCAT("document.getElementById",K25,M25,"c",N25,M25,L25,".textContent = Cantor",N25,O25)</f>
+        <f t="shared" ref="P25:P39" si="7">_xlfn.CONCAT("document.getElementById",K25,M25,"c",N25,M25,L25,".textContent = Cantor",N25,O25)</f>
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
@@ -20489,61 +20520,61 @@
     </row>
     <row r="54" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J54" t="str">
-        <f>P9</f>
+        <f t="shared" ref="J54:J63" si="16">P9</f>
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
     <row r="55" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J55" t="str">
-        <f>P10</f>
+        <f t="shared" si="16"/>
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
     <row r="56" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J56" t="str">
-        <f>P11</f>
+        <f t="shared" si="16"/>
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
     <row r="57" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J57" t="str">
-        <f>P12</f>
+        <f t="shared" si="16"/>
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
     <row r="58" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J58" t="str">
-        <f>P13</f>
+        <f t="shared" si="16"/>
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
     <row r="59" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J59" t="str">
-        <f>P14</f>
+        <f t="shared" si="16"/>
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
     <row r="60" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J60" t="str">
-        <f>P15</f>
+        <f t="shared" si="16"/>
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
     <row r="61" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J61" t="str">
-        <f>P16</f>
+        <f t="shared" si="16"/>
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
     <row r="62" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J62" t="str">
-        <f>P17</f>
+        <f t="shared" si="16"/>
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
     <row r="63" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J63" t="str">
-        <f>P18</f>
+        <f t="shared" si="16"/>
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
@@ -20554,31 +20585,31 @@
     </row>
     <row r="66" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J66" t="str">
-        <f>P21</f>
+        <f t="shared" ref="J66:J85" si="17">P21</f>
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
     <row r="67" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J67" t="str">
-        <f>P22</f>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
     <row r="68" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J68" t="str">
-        <f>P23</f>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
     <row r="69" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J69" t="str">
-        <f>P24</f>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
     <row r="70" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J70" t="str">
-        <f>P25</f>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
@@ -20587,127 +20618,127 @@
         <v>157</v>
       </c>
       <c r="J71" t="str">
-        <f>P26</f>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
     <row r="72" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J72" t="str">
-        <f>P27</f>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
     <row r="73" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J73" t="str">
-        <f>P28</f>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
     <row r="74" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J74" t="str">
-        <f>P29</f>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
     <row r="75" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J75" t="str">
-        <f>P30</f>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
     <row r="76" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J76" t="str">
-        <f>P31</f>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
     <row r="77" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J77" t="str">
-        <f>P32</f>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
     <row r="78" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J78" t="str">
-        <f>P33</f>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
     <row r="79" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J79" t="str">
-        <f>P34</f>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
     <row r="80" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J80" t="str">
-        <f>P35</f>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
     <row r="81" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J81" t="str">
-        <f>P36</f>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
     <row r="82" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J82" t="str">
-        <f>P37</f>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c17").textContent = Cantor17;</v>
       </c>
     </row>
     <row r="83" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J83" t="str">
-        <f>P38</f>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c18").textContent = Cantor18;</v>
       </c>
     </row>
     <row r="84" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J84" t="str">
-        <f>P39</f>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c19").textContent = Cantor19;</v>
       </c>
     </row>
     <row r="85" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J85" t="str">
-        <f>P40</f>
+        <f t="shared" si="17"/>
         <v>document.getElementById("c20").textContent = Cantor20;</v>
       </c>
     </row>
     <row r="86" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J86" t="str">
-        <f t="shared" ref="J86:J92" si="16">P41</f>
+        <f t="shared" ref="J86:J91" si="18">P41</f>
         <v>document.getElementById("c21").textContent = Cantor21;</v>
       </c>
     </row>
     <row r="87" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J87" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>document.getElementById("c22").textContent = Cantor22;</v>
       </c>
     </row>
     <row r="88" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J88" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>document.getElementById("c23").textContent = Cantor23;</v>
       </c>
     </row>
     <row r="89" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J89" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>document.getElementById("c24").textContent = Cantor24;</v>
       </c>
     </row>
     <row r="90" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J90" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>document.getElementById("c25").textContent = Cantor25;</v>
       </c>
     </row>
     <row r="91" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J91" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>document.getElementById("c26").textContent = Cantor26;</v>
       </c>
     </row>
@@ -20721,7 +20752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8706EE-9850-4255-BD84-5F9C7873A73D}">
   <dimension ref="B1:P96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A48" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="J66" sqref="J66:J67"/>
     </sheetView>
   </sheetViews>
@@ -21701,7 +21732,7 @@
         <v>29</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" ref="J27:J46" si="8">_xlfn.CONCAT(B27,C27," ",D27," ",E27,F27,G27,H27)</f>
+        <f t="shared" ref="J27:J41" si="8">_xlfn.CONCAT(B27,C27," ",D27," ",E27,F27,G27,H27)</f>
         <v>let Cantor5 = "";</v>
       </c>
       <c r="K27" t="s">
@@ -21714,14 +21745,14 @@
         <v>26</v>
       </c>
       <c r="N27">
-        <f t="shared" ref="N27:N46" si="9">C27</f>
+        <f t="shared" ref="N27:N41" si="9">C27</f>
         <v>5</v>
       </c>
       <c r="O27" t="s">
         <v>29</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" ref="P27:P46" si="10">_xlfn.CONCAT("document.getElementById",K27,M27,"c",N27,M27,L27,".textContent = Cantor",N27,O27)</f>
+        <f t="shared" ref="P27:P41" si="10">_xlfn.CONCAT("document.getElementById",K27,M27,"c",N27,M27,L27,".textContent = Cantor",N27,O27)</f>
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
@@ -22697,73 +22728,73 @@
     </row>
     <row r="56" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J56" t="str">
-        <f>P9</f>
+        <f t="shared" ref="J56:J65" si="15">P9</f>
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
     <row r="57" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J57" t="str">
-        <f>P10</f>
+        <f t="shared" si="15"/>
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
     <row r="58" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J58" t="str">
-        <f>P11</f>
+        <f t="shared" si="15"/>
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
     <row r="59" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J59" t="str">
-        <f>P12</f>
+        <f t="shared" si="15"/>
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
     <row r="60" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J60" t="str">
-        <f>P13</f>
+        <f t="shared" si="15"/>
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
     <row r="61" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J61" t="str">
-        <f>P14</f>
+        <f t="shared" si="15"/>
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
     <row r="62" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J62" t="str">
-        <f>P15</f>
+        <f t="shared" si="15"/>
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
     <row r="63" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J63" t="str">
-        <f>P16</f>
+        <f t="shared" si="15"/>
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
     <row r="64" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J64" t="str">
-        <f>P17</f>
+        <f t="shared" si="15"/>
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
     <row r="65" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J65" t="str">
-        <f>P18</f>
+        <f t="shared" si="15"/>
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
     <row r="66" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J66" t="str">
-        <f t="shared" ref="J66:J67" si="15">P19</f>
+        <f t="shared" ref="J66:J67" si="16">P19</f>
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
     <row r="67" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J67" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
@@ -22774,162 +22805,2290 @@
     </row>
     <row r="70" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J70" t="str">
+        <f t="shared" ref="J70:J89" si="17">P23</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="71" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J71" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
+      </c>
+    </row>
+    <row r="72" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J72" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="73" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J73" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("c4").textContent = Cantor4;</v>
+      </c>
+    </row>
+    <row r="74" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J74" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("c5").textContent = Cantor5;</v>
+      </c>
+    </row>
+    <row r="75" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J75" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("c6").textContent = Cantor6;</v>
+      </c>
+    </row>
+    <row r="76" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J76" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("c7").textContent = Cantor7;</v>
+      </c>
+    </row>
+    <row r="77" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J77" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("c8").textContent = Cantor8;</v>
+      </c>
+    </row>
+    <row r="78" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J78" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("c9").textContent = Cantor9;</v>
+      </c>
+    </row>
+    <row r="79" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J79" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("c10").textContent = Cantor10;</v>
+      </c>
+    </row>
+    <row r="80" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J80" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("c11").textContent = Cantor11;</v>
+      </c>
+    </row>
+    <row r="81" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J81" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("c12").textContent = Cantor12;</v>
+      </c>
+    </row>
+    <row r="82" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J82" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("c13").textContent = Cantor13;</v>
+      </c>
+    </row>
+    <row r="83" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J83" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("c14").textContent = Cantor14;</v>
+      </c>
+    </row>
+    <row r="84" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J84" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("c15").textContent = Cantor15;</v>
+      </c>
+    </row>
+    <row r="85" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J85" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("c16").textContent = Cantor16;</v>
+      </c>
+    </row>
+    <row r="86" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J86" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("c17").textContent = Cantor17;</v>
+      </c>
+    </row>
+    <row r="87" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J87" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("c18").textContent = Cantor18;</v>
+      </c>
+    </row>
+    <row r="88" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J88" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("c19").textContent = Cantor19;</v>
+      </c>
+    </row>
+    <row r="89" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J89" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("c20").textContent = Cantor20;</v>
+      </c>
+    </row>
+    <row r="90" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J90" t="str">
+        <f t="shared" ref="J90:J95" si="18">P43</f>
+        <v>document.getElementById("c21").textContent = Cantor21;</v>
+      </c>
+    </row>
+    <row r="91" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J91" t="str">
+        <f t="shared" si="18"/>
+        <v>document.getElementById("c22").textContent = Cantor22;</v>
+      </c>
+    </row>
+    <row r="92" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J92" t="str">
+        <f t="shared" si="18"/>
+        <v>document.getElementById("c23").textContent = Cantor23;</v>
+      </c>
+    </row>
+    <row r="93" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J93" t="str">
+        <f t="shared" si="18"/>
+        <v>document.getElementById("c24").textContent = Cantor24;</v>
+      </c>
+    </row>
+    <row r="94" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J94" t="str">
+        <f t="shared" si="18"/>
+        <v>document.getElementById("c25").textContent = Cantor25;</v>
+      </c>
+    </row>
+    <row r="95" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J95" t="str">
+        <f t="shared" si="18"/>
+        <v>document.getElementById("c26").textContent = Cantor26;</v>
+      </c>
+    </row>
+    <row r="96" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I96" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EBD28A-7BF3-4E21-8764-F53F81D06747}">
+  <dimension ref="B1:P78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
+    <col min="6" max="6" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="4.42578125" customWidth="1"/>
+    <col min="10" max="10" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3" customWidth="1"/>
+    <col min="16" max="16" width="51.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="str">
+        <f ca="1">LOWER(SUBSTITUTE(SUBSTITUTE(F4, " ", ""), ",", ""))</f>
+        <v>aleluyainterleccional</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="str">
+        <f ca="1">(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F1, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"))</f>
+        <v>aleluyainterleccional</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="str">
+        <f ca="1">UPPER(LEFT(F4,1)) &amp; LOWER(MID(F4,2,LEN(F4)-1))</f>
+        <v>Aleluya interleccional</v>
+      </c>
+      <c r="I3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="F4" ca="1">MID(CELL("filename", A3), FIND("]", CELL("filename", A3)) + 1, 255)</f>
+        <v>ALELUYA INTERLECCIONAL</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="str">
+        <f ca="1">_xlfn.CONCAT(B4," ",D4," ",E4,F4,G4,H4)</f>
+        <v>let titulo = "ALELUYA INTERLECCIONAL";</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4">
+        <f>C4</f>
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K4,M4,"t",N4,M4,L4,".textContent = titulo",O4)</f>
+        <v>document.getElementById("t1").textContent = titulo;</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>394</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="str">
+        <f>_xlfn.CONCAT(B5," ",D5," ",E5,F5,G5,H5)</f>
+        <v>let salmo = "Liturgico";</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5">
+        <f>C5</f>
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K5,M5,"c",N5,M5,L5,".textContent = Cantor",N5,O5)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>180</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="str">
+        <f>_xlfn.CONCAT(B6," ",D6," ",E6,F6,G6,H6,"      //Numero del libro")</f>
+        <v>let dbnos = "180";      //Numero del libro</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6">
+        <f>C6</f>
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K6,M6,"c",N6,M6,L6,".textContent = Cantor",N6,O6)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" ref="J9:J20" si="0">_xlfn.CONCAT(B9,C9," ",D9," ",E9,F9,G9,H9)</f>
+        <v>let Asamblea1 = "ALELUYA,ALELUYA,ALELUYA,ALELUYA.";</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:N20" si="1">C9</f>
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K9,M9,"a",N9,M9,L9,".textContent = Asamblea",N9,O9)</f>
+        <v>document.getElementById("a1").textContent = Asamblea1;</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C20" si="2">+C9+1</f>
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>395</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea2 = "ALELUYA,ALELUYA,ALELUYA,ALELUYA.";</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" ref="P10:P20" si="3">_xlfn.CONCAT("document.getElementById",K10,M10,"a",N10,M10,L10,".textContent = Asamblea",N10,O10)</f>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>396</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea3 = "ALELUYA,ALELUYA,ALELUYA.";</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>396</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea4 = "ALELUYA,ALELUYA,ALELUYA.";</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea5 = "ALELUYA,ALELUYA,ALELUYA.";</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>396</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea6 = "ALELUYA,ALELUYA,ALELUYA.";</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a6").textContent = Asamblea6;</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>396</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea7 = "ALELUYA,ALELUYA,ALELUYA.";</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a7").textContent = Asamblea7;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea8 = "ALELUYA,ALELUYA,ALELUYA.";</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="O16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a8").textContent = Asamblea8;</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea9 = "";</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="O17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a9").textContent = Asamblea9;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea10 = "";</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a10").textContent = Asamblea10;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea11 = "";</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="O19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a11").textContent = Asamblea11;</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea12 = "";</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="O20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a12").textContent = Asamblea12;</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>397</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" t="str">
+        <f>_xlfn.CONCAT(B23,C23," ",D23," ",E23,F23,G23,H23)</f>
+        <v>let Cantor1 = "Aleluya, aleluya, aleluya, aleluya.";</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23">
+        <f>C23</f>
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K23,M23,"c",N23,M23,L23,".textContent = Cantor",N23,O23)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <f>+C23+1</f>
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>398</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" t="str">
+        <f>_xlfn.CONCAT(B24,C24," ",D24," ",E24,F24,G24,H24)</f>
+        <v>let Cantor2 = "Yo soy la vid, vosotros los sarmientos.";</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24">
+        <f>C24</f>
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K24,M24,"c",N24,M24,L24,".textContent = Cantor",N24,O24)</f>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <f>+C24+1</f>
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>399</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" t="str">
+        <f>_xlfn.CONCAT(B25,C25," ",D25," ",E25,F25,G25,H25)</f>
+        <v>let Cantor3 = "El que permanece en mí y yo en él,";</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25">
+        <f>C25</f>
+        <v>3</v>
+      </c>
+      <c r="O25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K25,M25,"c",N25,M25,L25,".textContent = Cantor",N25,O25)</f>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <f>+C25+1</f>
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" t="s">
+        <v>400</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" t="str">
+        <f>_xlfn.CONCAT(B26,C26," ",D26," ",E26,F26,G26,H26)</f>
+        <v>let Cantor4 = "ése da fruto abundante. ";</v>
+      </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26">
+        <f>C26</f>
+        <v>4</v>
+      </c>
+      <c r="O26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K26,M26,"c",N26,M26,L26,".textContent = Cantor",N26,O26)</f>
+        <v>document.getElementById("c4").textContent = Cantor4;</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:C41" si="4">+C26+1</f>
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>401</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" ref="J27:J41" si="5">_xlfn.CONCAT(B27,C27," ",D27," ",E27,F27,G27,H27)</f>
+        <v>let Cantor5 = "Con la música del «Aleluya, ya llegó el Reino».";</v>
+      </c>
+      <c r="K27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ref="N27:N41" si="6">C27</f>
+        <v>5</v>
+      </c>
+      <c r="O27" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" ref="P27:P41" si="7">_xlfn.CONCAT("document.getElementById",K27,M27,"c",N27,M27,L27,".textContent = Cantor",N27,O27)</f>
+        <v>document.getElementById("c5").textContent = Cantor5;</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" t="s">
+        <v>398</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor6 = "Yo soy la vid, vosotros los sarmientos.";</v>
+      </c>
+      <c r="K28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="O28" t="s">
+        <v>29</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c6").textContent = Cantor6;</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" t="s">
+        <v>399</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor7 = "El que permanece en mí y yo en él,";</v>
+      </c>
+      <c r="K29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="O29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c7").textContent = Cantor7;</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" t="s">
+        <v>402</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor8 = "ése da fruto abundante.";</v>
+      </c>
+      <c r="K30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="O30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c8").textContent = Cantor8;</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" t="s">
+        <v>403</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor9 = "Aleluya, aleluya, aleluya.";</v>
+      </c>
+      <c r="K31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="O31" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c9").textContent = Cantor9;</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>398</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor10 = "Yo soy la vid, vosotros los sarmientos.";</v>
+      </c>
+      <c r="K32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="O32" t="s">
+        <v>29</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c10").textContent = Cantor10;</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>399</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor11 = "El que permanece en mí y yo en él,";</v>
+      </c>
+      <c r="K33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="O33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c11").textContent = Cantor11;</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>400</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor12 = "ése da fruto abundante. ";</v>
+      </c>
+      <c r="K34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="O34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c12").textContent = Cantor12;</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor13 = "";</v>
+      </c>
+      <c r="K35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="O35" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c13").textContent = Cantor13;</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor14 = "";</v>
+      </c>
+      <c r="K36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="O36" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c14").textContent = Cantor14;</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor15 = "";</v>
+      </c>
+      <c r="K37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="O37" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c15").textContent = Cantor15;</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor16 = "";</v>
+      </c>
+      <c r="K38" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" t="s">
+        <v>28</v>
+      </c>
+      <c r="M38" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="O38" t="s">
+        <v>29</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c16").textContent = Cantor16;</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor17 = "";</v>
+      </c>
+      <c r="K39" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" t="s">
+        <v>28</v>
+      </c>
+      <c r="M39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="O39" t="s">
+        <v>29</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c17").textContent = Cantor17;</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor18 = "";</v>
+      </c>
+      <c r="K40" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" t="s">
+        <v>28</v>
+      </c>
+      <c r="M40" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="O40" t="s">
+        <v>29</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c18").textContent = Cantor18;</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor19 = "";</v>
+      </c>
+      <c r="K41" t="s">
+        <v>27</v>
+      </c>
+      <c r="L41" t="s">
+        <v>28</v>
+      </c>
+      <c r="M41" t="s">
+        <v>26</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="O41" t="s">
+        <v>29</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c19").textContent = Cantor19;</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42">
+        <f>+C41+1</f>
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" t="str">
+        <f>_xlfn.CONCAT(B42,C42," ",D42," ",E42,F42,G42,H42)</f>
+        <v>let Cantor20 = "";</v>
+      </c>
+      <c r="K42" t="s">
+        <v>27</v>
+      </c>
+      <c r="L42" t="s">
+        <v>28</v>
+      </c>
+      <c r="M42" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42">
+        <f>C42</f>
+        <v>20</v>
+      </c>
+      <c r="O42" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K42,M42,"c",N42,M42,L42,".textContent = Cantor",N42,O42)</f>
+        <v>document.getElementById("c20").textContent = Cantor20;</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:C48" si="8">+C42+1</f>
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" ref="J43:J48" si="9">_xlfn.CONCAT(B43,C43," ",D43," ",E43,F43,G43,H43)</f>
+        <v>let Cantor21 = "";</v>
+      </c>
+      <c r="K43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" t="s">
+        <v>28</v>
+      </c>
+      <c r="M43" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43">
+        <f t="shared" ref="N43:N48" si="10">C43</f>
+        <v>21</v>
+      </c>
+      <c r="O43" t="s">
+        <v>29</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" ref="P43:P48" si="11">_xlfn.CONCAT("document.getElementById",K43,M43,"c",N43,M43,L43,".textContent = Cantor",N43,O43)</f>
+        <v>document.getElementById("c21").textContent = Cantor21;</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="9"/>
+        <v>let Cantor22 = "";</v>
+      </c>
+      <c r="K44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" t="s">
+        <v>28</v>
+      </c>
+      <c r="M44" t="s">
+        <v>26</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="O44" t="s">
+        <v>29</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="11"/>
+        <v>document.getElementById("c22").textContent = Cantor22;</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="9"/>
+        <v>let Cantor23 = "";</v>
+      </c>
+      <c r="K45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L45" t="s">
+        <v>28</v>
+      </c>
+      <c r="M45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="O45" t="s">
+        <v>29</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="11"/>
+        <v>document.getElementById("c23").textContent = Cantor23;</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="9"/>
+        <v>let Cantor24 = "";</v>
+      </c>
+      <c r="K46" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M46" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="O46" t="s">
+        <v>29</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="11"/>
+        <v>document.getElementById("c24").textContent = Cantor24;</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="9"/>
+        <v>let Cantor25 = "";</v>
+      </c>
+      <c r="K47" t="s">
+        <v>27</v>
+      </c>
+      <c r="L47" t="s">
+        <v>28</v>
+      </c>
+      <c r="M47" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="O47" t="s">
+        <v>29</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="11"/>
+        <v>document.getElementById("c25").textContent = Cantor25;</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="9"/>
+        <v>let Cantor26 = "";</v>
+      </c>
+      <c r="K48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M48" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="O48" t="s">
+        <v>29</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="11"/>
+        <v>document.getElementById("c26").textContent = Cantor26;</v>
+      </c>
+    </row>
+    <row r="50" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J56" t="str">
+        <f t="shared" ref="J56:J67" si="12">P9</f>
+        <v>document.getElementById("a1").textContent = Asamblea1;</v>
+      </c>
+    </row>
+    <row r="57" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J57" t="str">
+        <f t="shared" si="12"/>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+      </c>
+    </row>
+    <row r="58" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J58" t="str">
+        <f t="shared" si="12"/>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+      </c>
+    </row>
+    <row r="59" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J59" t="str">
+        <f t="shared" si="12"/>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+      </c>
+    </row>
+    <row r="60" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J60" t="str">
+        <f t="shared" si="12"/>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="61" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J61" t="str">
+        <f t="shared" si="12"/>
+        <v>document.getElementById("a6").textContent = Asamblea6;</v>
+      </c>
+    </row>
+    <row r="62" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J62" t="str">
+        <f t="shared" si="12"/>
+        <v>document.getElementById("a7").textContent = Asamblea7;</v>
+      </c>
+    </row>
+    <row r="63" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J63" t="str">
+        <f t="shared" si="12"/>
+        <v>document.getElementById("a8").textContent = Asamblea8;</v>
+      </c>
+    </row>
+    <row r="65" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J66" t="str">
         <f>P23</f>
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
+    <row r="67" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J67" t="str">
+        <f>P24</f>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
+      </c>
+    </row>
+    <row r="68" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J68" t="str">
+        <f>P25</f>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="69" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J69" t="str">
+        <f>P26</f>
+        <v>document.getElementById("c4").textContent = Cantor4;</v>
+      </c>
+    </row>
+    <row r="70" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J70" t="str">
+        <f>P27</f>
+        <v>document.getElementById("c5").textContent = Cantor5;</v>
+      </c>
+    </row>
     <row r="71" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J71" t="str">
-        <f>P24</f>
-        <v>document.getElementById("c2").textContent = Cantor2;</v>
+        <f>P28</f>
+        <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
     <row r="72" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J72" t="str">
-        <f>P25</f>
-        <v>document.getElementById("c3").textContent = Cantor3;</v>
+        <f>P29</f>
+        <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
     <row r="73" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J73" t="str">
-        <f>P26</f>
-        <v>document.getElementById("c4").textContent = Cantor4;</v>
+        <f>P30</f>
+        <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
     <row r="74" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J74" t="str">
-        <f>P27</f>
-        <v>document.getElementById("c5").textContent = Cantor5;</v>
+        <f>P31</f>
+        <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
     <row r="75" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J75" t="str">
-        <f>P28</f>
-        <v>document.getElementById("c6").textContent = Cantor6;</v>
+        <f>P32</f>
+        <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
     <row r="76" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J76" t="str">
-        <f>P29</f>
-        <v>document.getElementById("c7").textContent = Cantor7;</v>
+        <f>P33</f>
+        <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
     <row r="77" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J77" t="str">
-        <f>P30</f>
-        <v>document.getElementById("c8").textContent = Cantor8;</v>
-      </c>
-    </row>
-    <row r="78" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J78" t="str">
-        <f>P31</f>
-        <v>document.getElementById("c9").textContent = Cantor9;</v>
-      </c>
-    </row>
-    <row r="79" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J79" t="str">
-        <f>P32</f>
-        <v>document.getElementById("c10").textContent = Cantor10;</v>
-      </c>
-    </row>
-    <row r="80" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J80" t="str">
-        <f>P33</f>
-        <v>document.getElementById("c11").textContent = Cantor11;</v>
-      </c>
-    </row>
-    <row r="81" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J81" t="str">
         <f>P34</f>
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
-    <row r="82" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J82" t="str">
-        <f>P35</f>
-        <v>document.getElementById("c13").textContent = Cantor13;</v>
-      </c>
-    </row>
-    <row r="83" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J83" t="str">
-        <f>P36</f>
-        <v>document.getElementById("c14").textContent = Cantor14;</v>
-      </c>
-    </row>
-    <row r="84" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J84" t="str">
-        <f>P37</f>
-        <v>document.getElementById("c15").textContent = Cantor15;</v>
-      </c>
-    </row>
-    <row r="85" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J85" t="str">
-        <f>P38</f>
-        <v>document.getElementById("c16").textContent = Cantor16;</v>
-      </c>
-    </row>
-    <row r="86" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J86" t="str">
-        <f>P39</f>
-        <v>document.getElementById("c17").textContent = Cantor17;</v>
-      </c>
-    </row>
-    <row r="87" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J87" t="str">
-        <f>P40</f>
-        <v>document.getElementById("c18").textContent = Cantor18;</v>
-      </c>
-    </row>
-    <row r="88" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J88" t="str">
-        <f>P41</f>
-        <v>document.getElementById("c19").textContent = Cantor19;</v>
-      </c>
-    </row>
-    <row r="89" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J89" t="str">
-        <f>P42</f>
-        <v>document.getElementById("c20").textContent = Cantor20;</v>
-      </c>
-    </row>
-    <row r="90" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J90" t="str">
-        <f t="shared" ref="J90:J95" si="16">P43</f>
-        <v>document.getElementById("c21").textContent = Cantor21;</v>
-      </c>
-    </row>
-    <row r="91" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J91" t="str">
-        <f t="shared" si="16"/>
-        <v>document.getElementById("c22").textContent = Cantor22;</v>
-      </c>
-    </row>
-    <row r="92" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J92" t="str">
-        <f t="shared" si="16"/>
-        <v>document.getElementById("c23").textContent = Cantor23;</v>
-      </c>
-    </row>
-    <row r="93" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J93" t="str">
-        <f t="shared" si="16"/>
-        <v>document.getElementById("c24").textContent = Cantor24;</v>
-      </c>
-    </row>
-    <row r="94" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J94" t="str">
-        <f t="shared" si="16"/>
-        <v>document.getElementById("c25").textContent = Cantor25;</v>
-      </c>
-    </row>
-    <row r="95" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="J95" t="str">
-        <f t="shared" si="16"/>
-        <v>document.getElementById("c26").textContent = Cantor26;</v>
-      </c>
-    </row>
-    <row r="96" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I96" t="s">
+    <row r="78" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I78" t="s">
         <v>157</v>
       </c>
     </row>

--- a/src/doc/codificador.xlsx
+++ b/src/doc/codificador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\db\Github\cantos\src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D74F9B-B971-4112-9E5C-9F0F71A2F1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069D049F-7BE9-4888-BB51-1F6AB17B6F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="13" activeTab="18" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="51840" windowHeight="21120" firstSheet="13" activeTab="19" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="ADÓNDE TE ESCONDISTE, AMADO" sheetId="17" r:id="rId17"/>
     <sheet name="ABBÁ, PADRE" sheetId="18" r:id="rId18"/>
     <sheet name="ALELUYA INTERLECCIONAL" sheetId="19" r:id="rId19"/>
+    <sheet name="ALELUYA PASCUAL" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8373" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8561" uniqueCount="405">
   <si>
     <t>viviendo en pureza, paciencia y bondad;</t>
   </si>
@@ -1289,6 +1290,9 @@
   <si>
     <t>Aleluya, aleluya, aleluya.</t>
   </si>
+  <si>
+    <t>Cristo Jesús ha resucitado.</t>
+  </si>
 </sst>
 </file>
 
@@ -22974,7 +22978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EBD28A-7BF3-4E21-8764-F53F81D06747}">
   <dimension ref="B1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -24964,7 +24968,7 @@
     </row>
     <row r="56" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J56" t="str">
-        <f t="shared" ref="J56:J67" si="12">P9</f>
+        <f t="shared" ref="J56:J63" si="12">P9</f>
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
@@ -25017,73 +25021,73 @@
     </row>
     <row r="66" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J66" t="str">
-        <f>P23</f>
+        <f t="shared" ref="J66:J77" si="13">P23</f>
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
     <row r="67" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J67" t="str">
-        <f>P24</f>
+        <f t="shared" si="13"/>
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
     <row r="68" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J68" t="str">
-        <f>P25</f>
+        <f t="shared" si="13"/>
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
     <row r="69" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J69" t="str">
-        <f>P26</f>
+        <f t="shared" si="13"/>
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
     <row r="70" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J70" t="str">
-        <f>P27</f>
+        <f t="shared" si="13"/>
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
     <row r="71" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J71" t="str">
-        <f>P28</f>
+        <f t="shared" si="13"/>
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
     <row r="72" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J72" t="str">
-        <f>P29</f>
+        <f t="shared" si="13"/>
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
     <row r="73" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J73" t="str">
-        <f>P30</f>
+        <f t="shared" si="13"/>
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
     <row r="74" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J74" t="str">
-        <f>P31</f>
+        <f t="shared" si="13"/>
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
     <row r="75" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J75" t="str">
-        <f>P32</f>
+        <f t="shared" si="13"/>
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
     <row r="76" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J76" t="str">
-        <f>P33</f>
+        <f t="shared" si="13"/>
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
     <row r="77" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J77" t="str">
-        <f>P34</f>
+        <f t="shared" si="13"/>
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
@@ -27198,6 +27202,1052 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED8DEE4-C526-47A3-9113-351F16279C81}">
+  <dimension ref="B1:P51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
+    <col min="6" max="6" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="4.42578125" customWidth="1"/>
+    <col min="10" max="10" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3" customWidth="1"/>
+    <col min="16" max="16" width="51.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F1" s="3" t="str">
+        <f ca="1">LOWER(SUBSTITUTE(SUBSTITUTE(F4, " ", ""), ",", ""))</f>
+        <v>aleluyapascual</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="str">
+        <f ca="1">(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F1, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"))</f>
+        <v>aleluyapascual</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="str">
+        <f ca="1">UPPER(LEFT(F4,1)) &amp; LOWER(MID(F4,2,LEN(F4)-1))</f>
+        <v>Aleluya pascual</v>
+      </c>
+      <c r="I3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="2" t="str" cm="1">
+        <f t="array" aca="1" ref="F4" ca="1">MID(CELL("filename", A3), FIND("]", CELL("filename", A3)) + 1, 255)</f>
+        <v>ALELUYA PASCUAL</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="str">
+        <f ca="1">_xlfn.CONCAT(B4," ",D4," ",E4,F4,G4,H4)</f>
+        <v>let titulo = "ALELUYA PASCUAL";</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4">
+        <f>C4</f>
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K4,M4,"t",N4,M4,L4,".textContent = titulo",O4)</f>
+        <v>document.getElementById("t1").textContent = titulo;</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>394</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="str">
+        <f>_xlfn.CONCAT(B5," ",D5," ",E5,F5,G5,H5)</f>
+        <v>let salmo = "Liturgico";</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5">
+        <f>C5</f>
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K5,M5,"c",N5,M5,L5,".textContent = Cantor",N5,O5)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6">
+        <v>181</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="str">
+        <f>_xlfn.CONCAT(B6," ",D6," ",E6,F6,G6,H6,"      //Numero del libro")</f>
+        <v>let dbnos = "181";      //Numero del libro</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6">
+        <f>C6</f>
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K6,M6,"c",N6,M6,L6,".textContent = Cantor",N6,O6)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" ref="J9:J20" si="0">_xlfn.CONCAT(B9,C9," ",D9," ",E9,F9,G9,H9)</f>
+        <v>let Asamblea1 = "ALELUYA,ALELUYA,ALELUYA.";</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:N20" si="1">C9</f>
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K9,M9,"a",N9,M9,L9,".textContent = Asamblea",N9,O9)</f>
+        <v>document.getElementById("a1").textContent = Asamblea1;</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C20" si="2">+C9+1</f>
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>396</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea2 = "ALELUYA,ALELUYA,ALELUYA.";</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" ref="P10:P20" si="3">_xlfn.CONCAT("document.getElementById",K10,M10,"a",N10,M10,L10,".textContent = Asamblea",N10,O10)</f>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>396</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea3 = "ALELUYA,ALELUYA,ALELUYA.";</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>396</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea4 = "ALELUYA,ALELUYA,ALELUYA.";</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea5 = "ALELUYA,ALELUYA,ALELUYA.";</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>396</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea6 = "ALELUYA,ALELUYA,ALELUYA.";</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a6").textContent = Asamblea6;</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" t="s">
+        <v>396</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea7 = "ALELUYA,ALELUYA,ALELUYA.";</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a7").textContent = Asamblea7;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea8 = "ALELUYA,ALELUYA,ALELUYA.";</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="O16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a8").textContent = Asamblea8;</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea9 = "ALELUYA,ALELUYA,ALELUYA.";</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="O17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a9").textContent = Asamblea9;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea10 = "ALELUYA,ALELUYA,ALELUYA.";</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a10").textContent = Asamblea10;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea11 = "ALELUYA,ALELUYA,ALELUYA.";</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="O19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a11").textContent = Asamblea11;</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea12 = "ALELUYA,ALELUYA,ALELUYA.";</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="O20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a12").textContent = Asamblea12;</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>404</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" t="str">
+        <f>_xlfn.CONCAT(B23,C23," ",D23," ",E23,F23,G23,H23)</f>
+        <v>let Cantor1 = "Cristo Jesús ha resucitado.";</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23">
+        <f>C23</f>
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K23,M23,"c",N23,M23,L23,".textContent = Cantor",N23,O23)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <f>+C23+1</f>
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>404</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" t="str">
+        <f>_xlfn.CONCAT(B24,C24," ",D24," ",E24,F24,G24,H24)</f>
+        <v>let Cantor2 = "Cristo Jesús ha resucitado.";</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24">
+        <f>C24</f>
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K24,M24,"c",N24,M24,L24,".textContent = Cantor",N24,O24)</f>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <f>+C24+1</f>
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>404</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" t="str">
+        <f>_xlfn.CONCAT(B25,C25," ",D25," ",E25,F25,G25,H25)</f>
+        <v>let Cantor3 = "Cristo Jesús ha resucitado.";</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25">
+        <f>C25</f>
+        <v>3</v>
+      </c>
+      <c r="O25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K25,M25,"c",N25,M25,L25,".textContent = Cantor",N25,O25)</f>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J33" t="str">
+        <f>P9</f>
+        <v>document.getElementById("a1").textContent = Asamblea1;</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J34" t="str">
+        <f>P10</f>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+      </c>
+    </row>
+    <row r="35" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J35" t="str">
+        <f>P11</f>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+      </c>
+    </row>
+    <row r="36" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J36" t="str">
+        <f>P12</f>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+      </c>
+    </row>
+    <row r="37" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J37" t="str">
+        <f>P13</f>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="38" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J38" t="str">
+        <f>P14</f>
+        <v>document.getElementById("a6").textContent = Asamblea6;</v>
+      </c>
+    </row>
+    <row r="39" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J39" t="str">
+        <f>P15</f>
+        <v>document.getElementById("a7").textContent = Asamblea7;</v>
+      </c>
+    </row>
+    <row r="40" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J40" t="str">
+        <f>P16</f>
+        <v>document.getElementById("a8").textContent = Asamblea8;</v>
+      </c>
+    </row>
+    <row r="41" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J41" t="str">
+        <f t="shared" ref="J41:J44" si="4">P17</f>
+        <v>document.getElementById("a9").textContent = Asamblea9;</v>
+      </c>
+    </row>
+    <row r="42" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J42" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a10").textContent = Asamblea10;</v>
+      </c>
+    </row>
+    <row r="43" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J43" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a11").textContent = Asamblea11;</v>
+      </c>
+    </row>
+    <row r="44" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J44" t="str">
+        <f t="shared" si="4"/>
+        <v>document.getElementById("a12").textContent = Asamblea12;</v>
+      </c>
+    </row>
+    <row r="46" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J47" t="str">
+        <f>P23</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="48" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J48" t="str">
+        <f>P24</f>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
+      </c>
+    </row>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J49" t="str">
+        <f>P25</f>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAAA137-FAE9-4E0E-84AF-F3BE0D33E015}">
   <sheetPr codeName="Sheet5"/>

--- a/src/doc/codificador.xlsx
+++ b/src/doc/codificador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\db\Github\cantos\src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5016A4-0CD3-481B-822B-D9688CDF8423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A91D94-7DC0-472E-8149-CD57B84DC24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="18" activeTab="21" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Inidce" sheetId="21" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="ABBÁ, PADRE" sheetId="18" r:id="rId19"/>
     <sheet name="ALELUYA INTERLECCIONAL" sheetId="19" r:id="rId20"/>
     <sheet name="ALELUYA, YA LLEGÓ EL REINO " sheetId="20" r:id="rId21"/>
+    <sheet name="ALZAOS,PUERTAS " sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8884" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9354" uniqueCount="678">
   <si>
     <t>viviendo en pureza, paciencia y bondad;</t>
   </si>
@@ -2034,12 +2035,117 @@
   <si>
     <t>Hecho</t>
   </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salmo 24 (23) </t>
+  </si>
+  <si>
+    <t>DEL SEÑOR ES LA TIERRA,</t>
+  </si>
+  <si>
+    <t>Y TODO AQUELLO QUE CONTIENE,</t>
+  </si>
+  <si>
+    <t>ALZAOS, PUERTAS,</t>
+  </si>
+  <si>
+    <t>ALZAD LOS DINTELES,</t>
+  </si>
+  <si>
+    <t>PUERTAS ETERNAS,</t>
+  </si>
+  <si>
+    <t>DEBE ENTRAR EL REY</t>
+  </si>
+  <si>
+    <t>DE LA GLORIA, DE LA GLORIA.</t>
+  </si>
+  <si>
+    <t>¿QUIÉN ES ESE REY DE LA GLORIA?</t>
+  </si>
+  <si>
+    <t>EL SEÑOR, EL FUERTE, EL VALIENTE,</t>
+  </si>
+  <si>
+    <t>VALIENTE EN LA BATALLA.</t>
+  </si>
+  <si>
+    <t>EL SEÑOR DE LOS EJÉRCITOS.</t>
+  </si>
+  <si>
+    <t>EL REY DE LA GLORIA.</t>
+  </si>
+  <si>
+    <t>EL DE MANOS INOCENTES</t>
+  </si>
+  <si>
+    <t>Y PURO CORAZÓN,</t>
+  </si>
+  <si>
+    <t>POR VANIDAD.</t>
+  </si>
+  <si>
+    <t>¿QUIÉN SUBIRÁ AL MONTE DEL SEÑOR?</t>
+  </si>
+  <si>
+    <t>Y NOSOTROS SOMOS SU IGLESIA,</t>
+  </si>
+  <si>
+    <t>QUE HOY VIENE A TU PRESENCIA,</t>
+  </si>
+  <si>
+    <t>OH DIOS DE JACOB.</t>
+  </si>
+  <si>
+    <t>Del Señor es la tierra,</t>
+  </si>
+  <si>
+    <t>y todo aquello que contiene,</t>
+  </si>
+  <si>
+    <t>el orbe y sus habitantes.</t>
+  </si>
+  <si>
+    <t>¿Quién es ese Rey de la gloria?</t>
+  </si>
+  <si>
+    <t>El Señor, el fuerte, el valiente,</t>
+  </si>
+  <si>
+    <t>el Señor, valiente en la batalla,</t>
+  </si>
+  <si>
+    <t>El Señor de los ejércitos,</t>
+  </si>
+  <si>
+    <t>Él es el Rey de la gloria,</t>
+  </si>
+  <si>
+    <t>¿Quién subirá al monte del Señor?</t>
+  </si>
+  <si>
+    <t>El de manos inocentes y puro corazón,</t>
+  </si>
+  <si>
+    <t>el que no conduce su vida por vanidad,</t>
+  </si>
+  <si>
+    <t>Y nosotros somos su Iglesia,</t>
+  </si>
+  <si>
+    <t>que hoy viene a tu presencia,</t>
+  </si>
+  <si>
+    <t>que busca tu rostro, oh Dios de Jacob,</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2088,6 +2194,19 @@
       <sz val="24"/>
       <color rgb="FFFF0000"/>
       <name val="Neocat"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2194,7 +2313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2209,10 +2328,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2252,11 +2373,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C04326B4-0F6F-4568-87DE-3C3095EB8695}" name="Table1" displayName="Table1" ref="A2:B233" totalsRowShown="0">
-  <autoFilter ref="A2:B233" xr:uid="{C04326B4-0F6F-4568-87DE-3C3095EB8695}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C04326B4-0F6F-4568-87DE-3C3095EB8695}" name="Table1" displayName="Table1" ref="A2:C233" totalsRowShown="0">
+  <autoFilter ref="A2:C233" xr:uid="{C04326B4-0F6F-4568-87DE-3C3095EB8695}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E18A3BBF-6598-43DE-BAD9-4597B3177AF0}" name="CANTOS" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{D0EE11A7-C5E6-40CF-A818-6FD7B8F79920}" name="Completado"/>
+    <tableColumn id="3" xr3:uid="{1E7E07CF-137C-4035-903B-AAF52AF87A08}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2581,23 +2703,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A361C4D-1540-4240-A338-E607C0F8CB94}">
   <dimension ref="A1:D233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.5" x14ac:dyDescent="0.5">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>641</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -2606,6 +2729,9 @@
       <c r="B2" t="s">
         <v>640</v>
       </c>
+      <c r="C2" t="s">
+        <v>643</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
@@ -2719,7 +2845,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>428</v>
       </c>
@@ -2727,7 +2853,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>429</v>
       </c>
@@ -2735,7 +2861,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>430</v>
       </c>
@@ -2743,7 +2869,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>431</v>
       </c>
@@ -2751,7 +2877,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>432</v>
       </c>
@@ -2759,1911 +2885,1914 @@
         <v>642</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="C22" s="14">
         <v>45763</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="14">
         <f t="shared" ref="B23:B86" ca="1" si="0">TODAY()</f>
-        <v>45764</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>45765</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>45765</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>45765</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+        <v>45765</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+        <v>45765</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+        <v>45765</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="B29" s="15">
+      <c r="B29" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+        <v>45765</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+        <v>45765</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+        <v>45765</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="B35" s="15">
+      <c r="B35" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="B36" s="15">
+      <c r="B36" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="B37" s="15">
+      <c r="B37" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B38" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="B41" s="15">
+      <c r="B41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="B42" s="15">
+      <c r="B42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="B43" s="15">
+      <c r="B43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="B44" s="15">
+      <c r="B44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="B45" s="15">
+      <c r="B45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="B46" s="15">
+      <c r="B46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="B47" s="15">
+      <c r="B47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="B48" s="15">
+      <c r="B48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="B49" s="15">
+      <c r="B49" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="B50" s="15">
+      <c r="B50" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="B51" s="15">
+      <c r="B51" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="B53" s="15">
+      <c r="B53" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="B54" s="15">
+      <c r="B54" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="B55" s="15">
+      <c r="B55" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="B56" s="15">
+      <c r="B56" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="B57" s="15">
+      <c r="B57" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="B58" s="15">
+      <c r="B58" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="B59" s="15">
+      <c r="B59" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="B60" s="15">
+      <c r="B60" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="B61" s="15">
+      <c r="B61" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="B62" s="15">
+      <c r="B62" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="B63" s="15">
+      <c r="B63" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="B64" s="15">
+      <c r="B64" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="B65" s="15">
+      <c r="B65" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="B66" s="15">
+      <c r="B66" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="B67" s="15">
+      <c r="B67" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="B68" s="15">
+      <c r="B68" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="B69" s="15">
+      <c r="B69" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="B70" s="15">
+      <c r="B70" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="B71" s="15">
+      <c r="B71" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="B72" s="15">
+      <c r="B72" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="B73" s="15">
+      <c r="B73" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="B74" s="15">
+      <c r="B74" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="B75" s="15">
+      <c r="B75" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="B76" s="15">
+      <c r="B76" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="B77" s="15">
+      <c r="B77" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="B78" s="15">
+      <c r="B78" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="B79" s="15">
+      <c r="B79" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="B80" s="15">
+      <c r="B80" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="11" t="s">
         <v>492</v>
       </c>
-      <c r="B81" s="15">
+      <c r="B81" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="B82" s="15">
+      <c r="B82" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="11" t="s">
         <v>494</v>
       </c>
-      <c r="B83" s="15">
+      <c r="B83" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="B84" s="15">
+      <c r="B84" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="B85" s="15">
+      <c r="B85" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="B86" s="15">
+      <c r="B86" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="B87" s="15">
+      <c r="B87" s="14">
         <f t="shared" ref="B87:B150" ca="1" si="1">TODAY()</f>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="B88" s="15">
+      <c r="B88" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="B89" s="15">
+      <c r="B89" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="B90" s="15">
+      <c r="B90" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="B91" s="15">
+      <c r="B91" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="B92" s="15">
+      <c r="B92" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="B93" s="15">
+      <c r="B93" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="B94" s="15">
+      <c r="B94" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="B95" s="15">
+      <c r="B95" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="B96" s="15">
+      <c r="B96" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="B97" s="15">
+      <c r="B97" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="B98" s="15">
+      <c r="B98" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="B99" s="15">
+      <c r="B99" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="B100" s="15">
+      <c r="B100" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="B101" s="15">
+      <c r="B101" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="B102" s="15">
+      <c r="B102" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="B103" s="15">
+      <c r="B103" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="B104" s="15">
+      <c r="B104" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="B105" s="15">
+      <c r="B105" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="B106" s="15">
+      <c r="B106" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="B107" s="15">
+      <c r="B107" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="B108" s="15">
+      <c r="B108" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="B109" s="15">
+      <c r="B109" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="B110" s="15">
+      <c r="B110" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="B111" s="15">
+      <c r="B111" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="B112" s="15">
+      <c r="B112" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="B113" s="15">
+      <c r="B113" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="B114" s="15">
+      <c r="B114" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="B115" s="15">
+      <c r="B115" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="B116" s="15">
+      <c r="B116" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="B117" s="15">
+      <c r="B117" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="B118" s="15">
+      <c r="B118" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="11" t="s">
         <v>530</v>
       </c>
-      <c r="B119" s="15">
+      <c r="B119" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="B120" s="15">
+      <c r="B120" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="B121" s="15">
+      <c r="B121" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="B122" s="15">
+      <c r="B122" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="B123" s="15">
+      <c r="B123" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="B124" s="15">
+      <c r="B124" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="11" t="s">
         <v>536</v>
       </c>
-      <c r="B125" s="15">
+      <c r="B125" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="B126" s="15">
+      <c r="B126" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="11" t="s">
         <v>538</v>
       </c>
-      <c r="B127" s="15">
+      <c r="B127" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="B128" s="15">
+      <c r="B128" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="11" t="s">
         <v>540</v>
       </c>
-      <c r="B129" s="15">
+      <c r="B129" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="B130" s="15">
+      <c r="B130" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="B131" s="15">
+      <c r="B131" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="B132" s="15">
+      <c r="B132" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="11" t="s">
         <v>544</v>
       </c>
-      <c r="B133" s="15">
+      <c r="B133" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="B134" s="15">
+      <c r="B134" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="B135" s="15">
+      <c r="B135" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="B136" s="15">
+      <c r="B136" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="11" t="s">
         <v>548</v>
       </c>
-      <c r="B137" s="15">
+      <c r="B137" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="B138" s="15">
+      <c r="B138" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="B139" s="15">
+      <c r="B139" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="B140" s="15">
+      <c r="B140" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="B141" s="15">
+      <c r="B141" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="B142" s="15">
+      <c r="B142" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="B143" s="15">
+      <c r="B143" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="B144" s="15">
+      <c r="B144" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="B145" s="15">
+      <c r="B145" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="12" t="s">
         <v>557</v>
       </c>
-      <c r="B146" s="15">
+      <c r="B146" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="B147" s="15">
+      <c r="B147" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="B148" s="15">
+      <c r="B148" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="B149" s="15">
+      <c r="B149" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="12" t="s">
         <v>561</v>
       </c>
-      <c r="B150" s="15">
+      <c r="B150" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="B151" s="15">
+      <c r="B151" s="14">
         <f t="shared" ref="B151:B214" ca="1" si="2">TODAY()</f>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="B152" s="15">
+      <c r="B152" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="B153" s="15">
+      <c r="B153" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="B154" s="15">
+      <c r="B154" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="B155" s="15">
+      <c r="B155" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="B156" s="15">
+      <c r="B156" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="B157" s="15">
+      <c r="B157" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="12" t="s">
         <v>569</v>
       </c>
-      <c r="B158" s="15">
+      <c r="B158" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="B159" s="15">
+      <c r="B159" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="12" t="s">
         <v>571</v>
       </c>
-      <c r="B160" s="15">
+      <c r="B160" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="B161" s="15">
+      <c r="B161" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="B162" s="15">
+      <c r="B162" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="B163" s="15">
+      <c r="B163" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="B164" s="15">
+      <c r="B164" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="B165" s="15">
+      <c r="B165" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="12" t="s">
         <v>576</v>
       </c>
-      <c r="B166" s="15">
+      <c r="B166" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="B167" s="15">
+      <c r="B167" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="12" t="s">
         <v>578</v>
       </c>
-      <c r="B168" s="15">
+      <c r="B168" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="B169" s="15">
+      <c r="B169" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="12" t="s">
         <v>580</v>
       </c>
-      <c r="B170" s="15">
+      <c r="B170" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="11" t="s">
         <v>581</v>
       </c>
-      <c r="B171" s="15">
+      <c r="B171" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="12" t="s">
         <v>582</v>
       </c>
-      <c r="B172" s="15">
+      <c r="B172" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="B173" s="15">
+      <c r="B173" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="B174" s="15">
+      <c r="B174" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="B175" s="15">
+      <c r="B175" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="B176" s="15">
+      <c r="B176" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="B177" s="15">
+      <c r="B177" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="12" t="s">
         <v>588</v>
       </c>
-      <c r="B178" s="15">
+      <c r="B178" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="11" t="s">
         <v>589</v>
       </c>
-      <c r="B179" s="15">
+      <c r="B179" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="12" t="s">
         <v>590</v>
       </c>
-      <c r="B180" s="15">
+      <c r="B180" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="B181" s="15">
+      <c r="B181" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="12" t="s">
         <v>592</v>
       </c>
-      <c r="B182" s="15">
+      <c r="B182" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="11" t="s">
         <v>593</v>
       </c>
-      <c r="B183" s="15">
+      <c r="B183" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="B184" s="15">
+      <c r="B184" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="B185" s="15">
+      <c r="B185" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="12" t="s">
         <v>596</v>
       </c>
-      <c r="B186" s="15">
+      <c r="B186" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="B187" s="15">
+      <c r="B187" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="12" t="s">
         <v>598</v>
       </c>
-      <c r="B188" s="15">
+      <c r="B188" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="B189" s="15">
+      <c r="B189" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="12" t="s">
         <v>598</v>
       </c>
-      <c r="B190" s="15">
+      <c r="B190" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="B191" s="15">
+      <c r="B191" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="12" t="s">
         <v>598</v>
       </c>
-      <c r="B192" s="15">
+      <c r="B192" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="B193" s="15">
+      <c r="B193" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="B194" s="15">
+      <c r="B194" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="11" t="s">
         <v>600</v>
       </c>
-      <c r="B195" s="15">
+      <c r="B195" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="12" t="s">
         <v>601</v>
       </c>
-      <c r="B196" s="15">
+      <c r="B196" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="11" t="s">
         <v>602</v>
       </c>
-      <c r="B197" s="15">
+      <c r="B197" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="B198" s="15">
+      <c r="B198" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="11" t="s">
         <v>604</v>
       </c>
-      <c r="B199" s="15">
+      <c r="B199" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="12" t="s">
         <v>605</v>
       </c>
-      <c r="B200" s="15">
+      <c r="B200" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="B201" s="15">
+      <c r="B201" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="12" t="s">
         <v>607</v>
       </c>
-      <c r="B202" s="15">
+      <c r="B202" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="B203" s="15">
+      <c r="B203" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="B204" s="15">
+      <c r="B204" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="B205" s="15">
+      <c r="B205" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="B206" s="15">
+      <c r="B206" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="B207" s="15">
+      <c r="B207" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="12" t="s">
         <v>613</v>
       </c>
-      <c r="B208" s="15">
+      <c r="B208" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="B209" s="15">
+      <c r="B209" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="B210" s="15">
+      <c r="B210" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="B211" s="15">
+      <c r="B211" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="12" t="s">
         <v>617</v>
       </c>
-      <c r="B212" s="15">
+      <c r="B212" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="B213" s="15">
+      <c r="B213" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="B214" s="15">
+      <c r="B214" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="B215" s="15">
+      <c r="B215" s="14">
         <f t="shared" ref="B215:B233" ca="1" si="3">TODAY()</f>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="12" t="s">
         <v>621</v>
       </c>
-      <c r="B216" s="15">
+      <c r="B216" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="B217" s="15">
+      <c r="B217" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="12" t="s">
         <v>623</v>
       </c>
-      <c r="B218" s="15">
+      <c r="B218" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="11" t="s">
         <v>624</v>
       </c>
-      <c r="B219" s="15">
+      <c r="B219" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="12" t="s">
         <v>625</v>
       </c>
-      <c r="B220" s="15">
+      <c r="B220" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="11" t="s">
         <v>626</v>
       </c>
-      <c r="B221" s="15">
+      <c r="B221" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="12" t="s">
         <v>627</v>
       </c>
-      <c r="B222" s="15">
+      <c r="B222" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="B223" s="15">
+      <c r="B223" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="B224" s="15">
+      <c r="B224" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="B225" s="15">
+      <c r="B225" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="B226" s="15">
+      <c r="B226" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="B227" s="15">
+      <c r="B227" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="B228" s="15">
+      <c r="B228" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="11" t="s">
         <v>634</v>
       </c>
-      <c r="B229" s="15">
+      <c r="B229" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="B230" s="15">
+      <c r="B230" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="11" t="s">
         <v>636</v>
       </c>
-      <c r="B231" s="15">
+      <c r="B231" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="12" t="s">
         <v>637</v>
       </c>
-      <c r="B232" s="15">
+      <c r="B232" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="B233" s="15">
+      <c r="B233" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
   </sheetData>
@@ -31645,7 +31774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ED8DEE4-C526-47A3-9113-351F16279C81}">
   <dimension ref="B1:P65"/>
   <sheetViews>
-    <sheetView topLeftCell="C51" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
@@ -33056,6 +33185,2567 @@
     </row>
     <row r="65" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I65" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA84B31-18C4-40A9-AA75-9A03A68F372E}">
+  <dimension ref="B1:P107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="2.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
+    <col min="6" max="6" width="45.453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="4.453125" customWidth="1"/>
+    <col min="10" max="10" width="60.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="1.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3" customWidth="1"/>
+    <col min="16" max="16" width="51.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="F1" s="16" t="str">
+        <f ca="1">LOWER(SUBSTITUTE(SUBSTITUTE(F4, " ", ""), ",", ""))</f>
+        <v>alzaospuertas</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="F2" s="16" t="str">
+        <f ca="1">(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F1, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"))</f>
+        <v>alzaospuertas</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="F3" s="16" t="str">
+        <f ca="1">UPPER(LEFT(F4,1)) &amp; LOWER(MID(F4,2,LEN(F4)-1))</f>
+        <v xml:space="preserve">Alzaos,puertas </v>
+      </c>
+      <c r="I3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="16" t="str" cm="1">
+        <f t="array" aca="1" ref="F4" ca="1">MID(CELL("filename", A3), FIND("]", CELL("filename", A3)) + 1, 255)</f>
+        <v xml:space="preserve">ALZAOS,PUERTAS </v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="str">
+        <f ca="1">_xlfn.CONCAT(B4," ",D4," ",E4,F4,G4,H4)</f>
+        <v>let titulo = "ALZAOS,PUERTAS ";</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4">
+        <f>C4</f>
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K4,M4,"t",N4,M4,L4,".textContent = titulo",O4)</f>
+        <v>document.getElementById("t1").textContent = titulo;</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>644</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="str">
+        <f>_xlfn.CONCAT(B5," ",D5," ",E5,F5,G5,H5)</f>
+        <v>let salmo = "Salmo 24 (23) ";</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5">
+        <f>C5</f>
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K5,M5,"c",N5,M5,L5,".textContent = Cantor",N5,O5)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="16">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="str">
+        <f>_xlfn.CONCAT(B6," ",D6," ",E6,F6,G6,H6,"      //Numero del libro")</f>
+        <v>let dbnos = "16";      //Numero del libro</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6">
+        <f>C6</f>
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K6,M6,"c",N6,M6,L6,".textContent = Cantor",N6,O6)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" ref="J9:J16" si="0">_xlfn.CONCAT(B9,C9," ",D9," ",E9,F9,G9,H9)</f>
+        <v>let Asamblea1 = "DEL SEÑOR ES LA TIERRA,";</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:N16" si="1">C9</f>
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K9,M9,"a",N9,M9,L9,".textContent = Asamblea",N9,O9)</f>
+        <v>document.getElementById("a1").textContent = Asamblea1;</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C37" si="2">+C9+1</f>
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea2 = "Y TODO AQUELLO QUE CONTIENE,";</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" ref="P10:P16" si="3">_xlfn.CONCAT("document.getElementById",K10,M10,"a",N10,M10,L10,".textContent = Asamblea",N10,O10)</f>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea3 = "ALZAOS, PUERTAS,";</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea4 = "ALZAD LOS DINTELES,";</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea5 = "PUERTAS ETERNAS,";</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea6 = "DEBE ENTRAR EL REY";</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a6").textContent = Asamblea6;</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea7 = "DE LA GLORIA, DE LA GLORIA.";</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a7").textContent = Asamblea7;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>652</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea8 = "¿QUIÉN ES ESE REY DE LA GLORIA?";</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="O16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a8").textContent = Asamblea8;</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" ref="J17:J33" si="4">_xlfn.CONCAT(B17,C17," ",D17," ",E17,F17,G17,H17)</f>
+        <v>let Asamblea9 = "EL SEÑOR, EL FUERTE, EL VALIENTE,";</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ref="N17:N33" si="5">C17</f>
+        <v>9</v>
+      </c>
+      <c r="O17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" ref="P17:P33" si="6">_xlfn.CONCAT("document.getElementById",K17,M17,"a",N17,M17,L17,".textContent = Asamblea",N17,O17)</f>
+        <v>document.getElementById("a9").textContent = Asamblea9;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>654</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="4"/>
+        <v>let Asamblea10 = "VALIENTE EN LA BATALLA.";</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="O18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("a10").textContent = Asamblea10;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="4"/>
+        <v>let Asamblea11 = "EL SEÑOR DE LOS EJÉRCITOS.";</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="O19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("a11").textContent = Asamblea11;</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="4"/>
+        <v>let Asamblea12 = "EL REY DE LA GLORIA.";</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="O20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("a12").textContent = Asamblea12;</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="4"/>
+        <v>let Asamblea13 = "ALZAOS, PUERTAS,";</v>
+      </c>
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="O21" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("a13").textContent = Asamblea13;</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="4"/>
+        <v>let Asamblea14 = "ALZAD LOS DINTELES,";</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="O22" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("a14").textContent = Asamblea14;</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="4"/>
+        <v>let Asamblea15 = "PUERTAS ETERNAS,";</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="O23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("a15").textContent = Asamblea15;</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="4"/>
+        <v>let Asamblea16 = "DEBE ENTRAR EL REY";</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="O24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("a16").textContent = Asamblea16;</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="4"/>
+        <v>let Asamblea17 = "DE LA GLORIA, DE LA GLORIA.";</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="O25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("a17").textContent = Asamblea17;</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="4"/>
+        <v>let Asamblea18 = "¿QUIÉN SUBIRÁ AL MONTE DEL SEÑOR?";</v>
+      </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="O26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("a18").textContent = Asamblea18;</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="4"/>
+        <v>let Asamblea19 = "EL DE MANOS INOCENTES";</v>
+      </c>
+      <c r="K27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="O27" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("a19").textContent = Asamblea19;</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="4"/>
+        <v>let Asamblea20 = "Y PURO CORAZÓN,";</v>
+      </c>
+      <c r="K28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="O28" t="s">
+        <v>29</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("a20").textContent = Asamblea20;</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="4"/>
+        <v>let Asamblea21 = "POR VANIDAD.";</v>
+      </c>
+      <c r="K29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="O29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("a21").textContent = Asamblea21;</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="4"/>
+        <v>let Asamblea22 = "Y NOSOTROS SOMOS SU IGLESIA,";</v>
+      </c>
+      <c r="K30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="O30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("a22").textContent = Asamblea22;</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>662</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="4"/>
+        <v>let Asamblea23 = "QUE HOY VIENE A TU PRESENCIA,";</v>
+      </c>
+      <c r="K31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="O31" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("a23").textContent = Asamblea23;</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>663</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="4"/>
+        <v>let Asamblea24 = "OH DIOS DE JACOB.";</v>
+      </c>
+      <c r="K32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="O32" t="s">
+        <v>29</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("a24").textContent = Asamblea24;</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="4"/>
+        <v>let Asamblea25 = "ALZAOS, PUERTAS,";</v>
+      </c>
+      <c r="K33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="O33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="6"/>
+        <v>document.getElementById("a25").textContent = Asamblea25;</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>648</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" ref="J34" si="7">_xlfn.CONCAT(B34,C34," ",D34," ",E34,F34,G34,H34)</f>
+        <v>let Asamblea26 = "ALZAD LOS DINTELES,";</v>
+      </c>
+      <c r="K34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34">
+        <f t="shared" ref="N34" si="8">C34</f>
+        <v>26</v>
+      </c>
+      <c r="O34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" ref="P34" si="9">_xlfn.CONCAT("document.getElementById",K34,M34,"a",N34,M34,L34,".textContent = Asamblea",N34,O34)</f>
+        <v>document.getElementById("a26").textContent = Asamblea26;</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" ref="J35:J37" si="10">_xlfn.CONCAT(B35,C35," ",D35," ",E35,F35,G35,H35)</f>
+        <v>let Asamblea27 = "PUERTAS ETERNAS,";</v>
+      </c>
+      <c r="K35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35">
+        <f t="shared" ref="N35:N37" si="11">C35</f>
+        <v>27</v>
+      </c>
+      <c r="O35" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" ref="P35:P37" si="12">_xlfn.CONCAT("document.getElementById",K35,M35,"a",N35,M35,L35,".textContent = Asamblea",N35,O35)</f>
+        <v>document.getElementById("a27").textContent = Asamblea27;</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>650</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="10"/>
+        <v>let Asamblea28 = "DEBE ENTRAR EL REY";</v>
+      </c>
+      <c r="K36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="O36" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="12"/>
+        <v>document.getElementById("a28").textContent = Asamblea28;</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="10"/>
+        <v>let Asamblea29 = "DE LA GLORIA, DE LA GLORIA.";</v>
+      </c>
+      <c r="K37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="O37" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="12"/>
+        <v>document.getElementById("a29").textContent = Asamblea29;</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="F38" s="17"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="I39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" t="str">
+        <f>_xlfn.CONCAT(B40,C40," ",D40," ",E40,F40,G40,H40)</f>
+        <v>let Cantor1 = "Del Señor es la tierra,";</v>
+      </c>
+      <c r="K40" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" t="s">
+        <v>28</v>
+      </c>
+      <c r="M40" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40">
+        <f>C40</f>
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
+        <v>29</v>
+      </c>
+      <c r="P40" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K40,M40,"c",N40,M40,L40,".textContent = Cantor",N40,O40)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41">
+        <f>+C40+1</f>
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" t="str">
+        <f>_xlfn.CONCAT(B41,C41," ",D41," ",E41,F41,G41,H41)</f>
+        <v>let Cantor2 = "y todo aquello que contiene,";</v>
+      </c>
+      <c r="K41" t="s">
+        <v>27</v>
+      </c>
+      <c r="L41" t="s">
+        <v>28</v>
+      </c>
+      <c r="M41" t="s">
+        <v>26</v>
+      </c>
+      <c r="N41">
+        <f>C41</f>
+        <v>2</v>
+      </c>
+      <c r="O41" t="s">
+        <v>29</v>
+      </c>
+      <c r="P41" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K41,M41,"c",N41,M41,L41,".textContent = Cantor",N41,O41)</f>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42">
+        <f>+C41+1</f>
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>666</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" t="str">
+        <f>_xlfn.CONCAT(B42,C42," ",D42," ",E42,F42,G42,H42)</f>
+        <v>let Cantor3 = "el orbe y sus habitantes.";</v>
+      </c>
+      <c r="K42" t="s">
+        <v>27</v>
+      </c>
+      <c r="L42" t="s">
+        <v>28</v>
+      </c>
+      <c r="M42" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42">
+        <f>C42</f>
+        <v>3</v>
+      </c>
+      <c r="O42" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K42,M42,"c",N42,M42,L42,".textContent = Cantor",N42,O42)</f>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43">
+        <f t="shared" ref="C43:C53" si="13">+C42+1</f>
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>667</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" ref="J43:J53" si="14">_xlfn.CONCAT(B43,C43," ",D43," ",E43,F43,G43,H43)</f>
+        <v>let Cantor4 = "¿Quién es ese Rey de la gloria?";</v>
+      </c>
+      <c r="K43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" t="s">
+        <v>28</v>
+      </c>
+      <c r="M43" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43">
+        <f t="shared" ref="N43:N53" si="15">C43</f>
+        <v>4</v>
+      </c>
+      <c r="O43" t="s">
+        <v>29</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" ref="P43:P53" si="16">_xlfn.CONCAT("document.getElementById",K43,M43,"c",N43,M43,L43,".textContent = Cantor",N43,O43)</f>
+        <v>document.getElementById("c4").textContent = Cantor4;</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>668</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="14"/>
+        <v>let Cantor5 = "El Señor, el fuerte, el valiente,";</v>
+      </c>
+      <c r="K44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" t="s">
+        <v>28</v>
+      </c>
+      <c r="M44" t="s">
+        <v>26</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="O44" t="s">
+        <v>29</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="16"/>
+        <v>document.getElementById("c5").textContent = Cantor5;</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>669</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="14"/>
+        <v>let Cantor6 = "el Señor, valiente en la batalla,";</v>
+      </c>
+      <c r="K45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L45" t="s">
+        <v>28</v>
+      </c>
+      <c r="M45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="O45" t="s">
+        <v>29</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="16"/>
+        <v>document.getElementById("c6").textContent = Cantor6;</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="13"/>
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>670</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="14"/>
+        <v>let Cantor7 = "El Señor de los ejércitos,";</v>
+      </c>
+      <c r="K46" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M46" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="O46" t="s">
+        <v>29</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="16"/>
+        <v>document.getElementById("c7").textContent = Cantor7;</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="13"/>
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>671</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="14"/>
+        <v>let Cantor8 = "Él es el Rey de la gloria,";</v>
+      </c>
+      <c r="K47" t="s">
+        <v>27</v>
+      </c>
+      <c r="L47" t="s">
+        <v>28</v>
+      </c>
+      <c r="M47" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="O47" t="s">
+        <v>29</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="16"/>
+        <v>document.getElementById("c8").textContent = Cantor8;</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>672</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="14"/>
+        <v>let Cantor9 = "¿Quién subirá al monte del Señor?";</v>
+      </c>
+      <c r="K48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M48" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="O48" t="s">
+        <v>29</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="16"/>
+        <v>document.getElementById("c9").textContent = Cantor9;</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>673</v>
+      </c>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="14"/>
+        <v>let Cantor10 = "El de manos inocentes y puro corazón,";</v>
+      </c>
+      <c r="K49" t="s">
+        <v>27</v>
+      </c>
+      <c r="L49" t="s">
+        <v>28</v>
+      </c>
+      <c r="M49" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="O49" t="s">
+        <v>29</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="16"/>
+        <v>document.getElementById("c10").textContent = Cantor10;</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>674</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="14"/>
+        <v>let Cantor11 = "el que no conduce su vida por vanidad,";</v>
+      </c>
+      <c r="K50" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" t="s">
+        <v>28</v>
+      </c>
+      <c r="M50" t="s">
+        <v>26</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="O50" t="s">
+        <v>29</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="16"/>
+        <v>document.getElementById("c11").textContent = Cantor11;</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>675</v>
+      </c>
+      <c r="G51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="14"/>
+        <v>let Cantor12 = "Y nosotros somos su Iglesia,";</v>
+      </c>
+      <c r="K51" t="s">
+        <v>27</v>
+      </c>
+      <c r="L51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M51" t="s">
+        <v>26</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="O51" t="s">
+        <v>29</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="16"/>
+        <v>document.getElementById("c12").textContent = Cantor12;</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>676</v>
+      </c>
+      <c r="G52" t="s">
+        <v>26</v>
+      </c>
+      <c r="H52" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="14"/>
+        <v>let Cantor13 = "que hoy viene a tu presencia,";</v>
+      </c>
+      <c r="K52" t="s">
+        <v>27</v>
+      </c>
+      <c r="L52" t="s">
+        <v>28</v>
+      </c>
+      <c r="M52" t="s">
+        <v>26</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="O52" t="s">
+        <v>29</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="16"/>
+        <v>document.getElementById("c13").textContent = Cantor13;</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="D53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>677</v>
+      </c>
+      <c r="G53" t="s">
+        <v>26</v>
+      </c>
+      <c r="H53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="14"/>
+        <v>let Cantor14 = "que busca tu rostro, oh Dios de Jacob,";</v>
+      </c>
+      <c r="K53" t="s">
+        <v>27</v>
+      </c>
+      <c r="L53" t="s">
+        <v>28</v>
+      </c>
+      <c r="M53" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="O53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="16"/>
+        <v>document.getElementById("c14").textContent = Cantor14;</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="I56" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="J57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="J58" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="J59" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="I61" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="J62" t="str">
+        <f>P9</f>
+        <v>document.getElementById("a1").textContent = Asamblea1;</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="J63" t="str">
+        <f>P10</f>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.35">
+      <c r="J64" t="str">
+        <f>P11</f>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+      </c>
+    </row>
+    <row r="65" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J65" t="str">
+        <f>P12</f>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+      </c>
+    </row>
+    <row r="66" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J66" t="str">
+        <f>P13</f>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="67" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J67" t="str">
+        <f>P14</f>
+        <v>document.getElementById("a6").textContent = Asamblea6;</v>
+      </c>
+    </row>
+    <row r="68" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J68" t="str">
+        <f>P15</f>
+        <v>document.getElementById("a7").textContent = Asamblea7;</v>
+      </c>
+    </row>
+    <row r="69" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J69" t="str">
+        <f>P16</f>
+        <v>document.getElementById("a8").textContent = Asamblea8;</v>
+      </c>
+    </row>
+    <row r="70" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J70" t="str">
+        <f t="shared" ref="J70:J90" si="17">P17</f>
+        <v>document.getElementById("a9").textContent = Asamblea9;</v>
+      </c>
+    </row>
+    <row r="71" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J71" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("a10").textContent = Asamblea10;</v>
+      </c>
+    </row>
+    <row r="72" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J72" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("a11").textContent = Asamblea11;</v>
+      </c>
+    </row>
+    <row r="73" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J73" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("a12").textContent = Asamblea12;</v>
+      </c>
+    </row>
+    <row r="74" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J74" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("a13").textContent = Asamblea13;</v>
+      </c>
+    </row>
+    <row r="75" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J75" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("a14").textContent = Asamblea14;</v>
+      </c>
+    </row>
+    <row r="76" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J76" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("a15").textContent = Asamblea15;</v>
+      </c>
+    </row>
+    <row r="77" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J77" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("a16").textContent = Asamblea16;</v>
+      </c>
+    </row>
+    <row r="78" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J78" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("a17").textContent = Asamblea17;</v>
+      </c>
+    </row>
+    <row r="79" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J79" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("a18").textContent = Asamblea18;</v>
+      </c>
+    </row>
+    <row r="80" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J80" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("a19").textContent = Asamblea19;</v>
+      </c>
+    </row>
+    <row r="81" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J81" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("a20").textContent = Asamblea20;</v>
+      </c>
+    </row>
+    <row r="82" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J82" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("a21").textContent = Asamblea21;</v>
+      </c>
+    </row>
+    <row r="83" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J83" t="str">
+        <f>P30</f>
+        <v>document.getElementById("a22").textContent = Asamblea22;</v>
+      </c>
+    </row>
+    <row r="84" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J84" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("a23").textContent = Asamblea23;</v>
+      </c>
+    </row>
+    <row r="85" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J85" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("a24").textContent = Asamblea24;</v>
+      </c>
+    </row>
+    <row r="86" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J86" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("a25").textContent = Asamblea25;</v>
+      </c>
+    </row>
+    <row r="87" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J87" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("a26").textContent = Asamblea26;</v>
+      </c>
+    </row>
+    <row r="88" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J88" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("a27").textContent = Asamblea27;</v>
+      </c>
+    </row>
+    <row r="89" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J89" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("a28").textContent = Asamblea28;</v>
+      </c>
+    </row>
+    <row r="90" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J90" t="str">
+        <f t="shared" si="17"/>
+        <v>document.getElementById("a29").textContent = Asamblea29;</v>
+      </c>
+    </row>
+    <row r="92" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I92" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="93" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J93" t="str">
+        <f t="shared" ref="J93:J106" si="18">P40</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="94" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J94" t="str">
+        <f t="shared" si="18"/>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
+      </c>
+    </row>
+    <row r="95" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J95" t="str">
+        <f t="shared" si="18"/>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="96" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J96" t="str">
+        <f t="shared" si="18"/>
+        <v>document.getElementById("c4").textContent = Cantor4;</v>
+      </c>
+    </row>
+    <row r="97" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J97" t="str">
+        <f t="shared" si="18"/>
+        <v>document.getElementById("c5").textContent = Cantor5;</v>
+      </c>
+    </row>
+    <row r="98" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J98" t="str">
+        <f t="shared" si="18"/>
+        <v>document.getElementById("c6").textContent = Cantor6;</v>
+      </c>
+    </row>
+    <row r="99" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J99" t="str">
+        <f t="shared" si="18"/>
+        <v>document.getElementById("c7").textContent = Cantor7;</v>
+      </c>
+    </row>
+    <row r="100" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J100" t="str">
+        <f t="shared" si="18"/>
+        <v>document.getElementById("c8").textContent = Cantor8;</v>
+      </c>
+    </row>
+    <row r="101" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J101" t="str">
+        <f t="shared" si="18"/>
+        <v>document.getElementById("c9").textContent = Cantor9;</v>
+      </c>
+    </row>
+    <row r="102" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J102" t="str">
+        <f t="shared" si="18"/>
+        <v>document.getElementById("c10").textContent = Cantor10;</v>
+      </c>
+    </row>
+    <row r="103" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J103" t="str">
+        <f t="shared" si="18"/>
+        <v>document.getElementById("c11").textContent = Cantor11;</v>
+      </c>
+    </row>
+    <row r="104" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J104" t="str">
+        <f t="shared" si="18"/>
+        <v>document.getElementById("c12").textContent = Cantor12;</v>
+      </c>
+    </row>
+    <row r="105" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J105" t="str">
+        <f t="shared" si="18"/>
+        <v>document.getElementById("c13").textContent = Cantor13;</v>
+      </c>
+    </row>
+    <row r="106" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="J106" t="str">
+        <f t="shared" si="18"/>
+        <v>document.getElementById("c14").textContent = Cantor14;</v>
+      </c>
+    </row>
+    <row r="107" spans="9:10" x14ac:dyDescent="0.35">
+      <c r="I107" t="s">
         <v>157</v>
       </c>
     </row>

--- a/src/doc/codificador.xlsx
+++ b/src/doc/codificador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\db\Github\cantos\src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C111D1CE-2B85-4BE2-A78D-161805E110BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C8BBDE-4C5C-4A36-9FE9-CEE411529B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="18" activeTab="22" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="18" activeTab="23" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Inidce" sheetId="21" r:id="rId1"/>
@@ -36,7 +36,8 @@
     <sheet name="ALELUYA, YA LLEGÓ EL REINO " sheetId="20" r:id="rId21"/>
     <sheet name="ALZAOS,PUERTAS " sheetId="22" r:id="rId22"/>
     <sheet name="AMÉN, AMÉN, AMÉN " sheetId="23" r:id="rId23"/>
-    <sheet name="PILOTO" sheetId="24" r:id="rId24"/>
+    <sheet name="AMO AL SEÑOR" sheetId="25" r:id="rId24"/>
+    <sheet name="PILOTO" sheetId="24" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10730" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11058" uniqueCount="722">
   <si>
     <t>viviendo en pureza, paciencia y bondad;</t>
   </si>
@@ -2204,6 +2205,75 @@
   </si>
   <si>
     <t>y de dónde vienen?</t>
+  </si>
+  <si>
+    <t>Salmo 116 (114-115)</t>
+  </si>
+  <si>
+    <t>RECOBRA, ALMA MÍA, TU REPOSO,</t>
+  </si>
+  <si>
+    <t>PORQUE EL SEÑOR FUE BUENO CONTIGO.</t>
+  </si>
+  <si>
+    <t>ÉL TE HA SALVADO DE LA MUERTE,</t>
+  </si>
+  <si>
+    <t>HA PRESERVADO TUS PIES DE LA CAÍDA.</t>
+  </si>
+  <si>
+    <t>HA PRESERVADO TUS PIES DE LA CAÍDA</t>
+  </si>
+  <si>
+    <t>Amo al Señor, porque escucha</t>
+  </si>
+  <si>
+    <t>mi voz suplicante;</t>
+  </si>
+  <si>
+    <t>inclina hacia mí su oído</t>
+  </si>
+  <si>
+    <t>el día en que lo invoco.</t>
+  </si>
+  <si>
+    <t>Me envolvían redes de muerte,</t>
+  </si>
+  <si>
+    <t>me alcanzaron los lazos del infierno;</t>
+  </si>
+  <si>
+    <t>me rodeaban tristeza y angustia,</t>
+  </si>
+  <si>
+    <t>invoqué el nombre del Señor:</t>
+  </si>
+  <si>
+    <t>«¡Te ruego, Señor, sálvame!»</t>
+  </si>
+  <si>
+    <t>¡Tenía fe, aun cuando dije:</t>
+  </si>
+  <si>
+    <t>«Yo soy un desgraciado»!,</t>
+  </si>
+  <si>
+    <t>y pensaba lleno de angustia:</t>
+  </si>
+  <si>
+    <t>((todo hombre es falso».</t>
+  </si>
+  <si>
+    <t>¿Cómo pagaré al Señor</t>
+  </si>
+  <si>
+    <t>todo el bien que me ha hecho?</t>
+  </si>
+  <si>
+    <t>Alzaré la copa de la bendición</t>
+  </si>
+  <si>
+    <t>e invocaré el nombre del Señor.</t>
   </si>
 </sst>
 </file>
@@ -2409,11 +2479,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2800,12 +2870,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="33.75" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -35844,7 +35914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0738D706-879F-40BF-97F6-539D4CCF74D0}">
   <dimension ref="B1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="I3" sqref="I3:J100"/>
     </sheetView>
   </sheetViews>
@@ -35881,10 +35951,10 @@
         <f ca="1">UPPER(LEFT(F4,1)) &amp; LOWER(MID(F4,2,LEN(F4)-1))</f>
         <v xml:space="preserve">Amén, amén, amén </v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="J3" s="18"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -36029,10 +36099,10 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="J8" s="18"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -36537,7 +36607,7 @@
         <v>29</v>
       </c>
       <c r="J19" t="str">
-        <f>_xlfn.CONCAT(B19,C19," ",D19," ",E19,F19,G19,H19)</f>
+        <f t="shared" ref="J19:J40" si="4">_xlfn.CONCAT(B19,C19," ",D19," ",E19,F19,G19,H19)</f>
         <v>let Asamblea11 = "BENDICIÓN Y GLORIA,";</v>
       </c>
       <c r="K19" t="s">
@@ -36585,7 +36655,7 @@
         <v>29</v>
       </c>
       <c r="J20" t="str">
-        <f>_xlfn.CONCAT(B20,C20," ",D20," ",E20,F20,G20,H20)</f>
+        <f t="shared" si="4"/>
         <v>let Asamblea12 = "SABIDURÍA,";</v>
       </c>
       <c r="K20" t="s">
@@ -36633,7 +36703,7 @@
         <v>29</v>
       </c>
       <c r="J21" t="str">
-        <f>_xlfn.CONCAT(B21,C21," ",D21," ",E21,F21,G21,H21)</f>
+        <f t="shared" si="4"/>
         <v>let Asamblea13 = "ACCIÓN DE GRACIAS";</v>
       </c>
       <c r="K21" t="s">
@@ -36681,7 +36751,7 @@
         <v>29</v>
       </c>
       <c r="J22" t="str">
-        <f>_xlfn.CONCAT(B22,C22," ",D22," ",E22,F22,G22,H22)</f>
+        <f t="shared" si="4"/>
         <v>let Asamblea14 = "DEMOS A DIOS.";</v>
       </c>
       <c r="K22" t="s">
@@ -36729,7 +36799,7 @@
         <v>29</v>
       </c>
       <c r="J23" t="str">
-        <f>_xlfn.CONCAT(B23,C23," ",D23," ",E23,F23,G23,H23)</f>
+        <f t="shared" si="4"/>
         <v>let Asamblea15 = "AMÉN, AMÉN, AMÉN.";</v>
       </c>
       <c r="K23" t="s">
@@ -36777,7 +36847,7 @@
         <v>29</v>
       </c>
       <c r="J24" t="str">
-        <f>_xlfn.CONCAT(B24,C24," ",D24," ",E24,F24,G24,H24)</f>
+        <f t="shared" si="4"/>
         <v>let Asamblea16 = "AMÉN, AMÉN, AMÉN.";</v>
       </c>
       <c r="K24" t="s">
@@ -36825,7 +36895,7 @@
         <v>29</v>
       </c>
       <c r="J25" t="str">
-        <f>_xlfn.CONCAT(B25,C25," ",D25," ",E25,F25,G25,H25)</f>
+        <f t="shared" si="4"/>
         <v>let Asamblea17 = "AMÉN, AMÉN, AMÉN.";</v>
       </c>
       <c r="K25" t="s">
@@ -36873,7 +36943,7 @@
         <v>29</v>
       </c>
       <c r="J26" t="str">
-        <f>_xlfn.CONCAT(B26,C26," ",D26," ",E26,F26,G26,H26)</f>
+        <f t="shared" si="4"/>
         <v>let Asamblea18 = "¿QUIÉNES SON";</v>
       </c>
       <c r="K26" t="s">
@@ -36921,7 +36991,7 @@
         <v>29</v>
       </c>
       <c r="J27" t="str">
-        <f>_xlfn.CONCAT(B27,C27," ",D27," ",E27,F27,G27,H27)</f>
+        <f t="shared" si="4"/>
         <v>let Asamblea19 = "Y DE DÓNDE VIENEN?";</v>
       </c>
       <c r="K27" t="s">
@@ -36969,7 +37039,7 @@
         <v>29</v>
       </c>
       <c r="J28" t="str">
-        <f>_xlfn.CONCAT(B28,C28," ",D28," ",E28,F28,G28,H28)</f>
+        <f t="shared" si="4"/>
         <v>let Asamblea20 = "ESTOS SON LOS QUE VIENEN";</v>
       </c>
       <c r="K28" t="s">
@@ -37017,7 +37087,7 @@
         <v>29</v>
       </c>
       <c r="J29" t="str">
-        <f>_xlfn.CONCAT(B29,C29," ",D29," ",E29,F29,G29,H29)</f>
+        <f t="shared" si="4"/>
         <v>let Asamblea21 = "DE LA GRAN TRIBULACIÓN.";</v>
       </c>
       <c r="K29" t="s">
@@ -37065,7 +37135,7 @@
         <v>29</v>
       </c>
       <c r="J30" t="str">
-        <f>_xlfn.CONCAT(B30,C30," ",D30," ",E30,F30,G30,H30)</f>
+        <f t="shared" si="4"/>
         <v>let Asamblea22 = "Y LAVARON SUS TÚNICAS";</v>
       </c>
       <c r="K30" t="s">
@@ -37113,7 +37183,7 @@
         <v>29</v>
       </c>
       <c r="J31" t="str">
-        <f>_xlfn.CONCAT(B31,C31," ",D31," ",E31,F31,G31,H31)</f>
+        <f t="shared" si="4"/>
         <v>let Asamblea23 = "Y LAS BLANQUEARON";</v>
       </c>
       <c r="K31" t="s">
@@ -37161,7 +37231,7 @@
         <v>29</v>
       </c>
       <c r="J32" t="str">
-        <f>_xlfn.CONCAT(B32,C32," ",D32," ",E32,F32,G32,H32)</f>
+        <f t="shared" si="4"/>
         <v>let Asamblea24 = "EN LA SANGRE DEL CORDERO,";</v>
       </c>
       <c r="K32" t="s">
@@ -37209,7 +37279,7 @@
         <v>29</v>
       </c>
       <c r="J33" t="str">
-        <f>_xlfn.CONCAT(B33,C33," ",D33," ",E33,F33,G33,H33)</f>
+        <f t="shared" si="4"/>
         <v>let Asamblea25 = "EN LA SANGRE DEL CORDERO. ";</v>
       </c>
       <c r="K33" t="s">
@@ -37257,7 +37327,7 @@
         <v>29</v>
       </c>
       <c r="J34" t="str">
-        <f>_xlfn.CONCAT(B34,C34," ",D34," ",E34,F34,G34,H34)</f>
+        <f t="shared" si="4"/>
         <v>let Asamblea26 = "ESTOS SON LOS QUE VIENEN";</v>
       </c>
       <c r="K34" t="s">
@@ -37305,7 +37375,7 @@
         <v>29</v>
       </c>
       <c r="J35" t="str">
-        <f>_xlfn.CONCAT(B35,C35," ",D35," ",E35,F35,G35,H35)</f>
+        <f t="shared" si="4"/>
         <v>let Asamblea27 = "DE LA GRAN TRIBULACIÓN.";</v>
       </c>
       <c r="K35" t="s">
@@ -37353,7 +37423,7 @@
         <v>29</v>
       </c>
       <c r="J36" t="str">
-        <f>_xlfn.CONCAT(B36,C36," ",D36," ",E36,F36,G36,H36)</f>
+        <f t="shared" si="4"/>
         <v>let Asamblea28 = "Y LAVARON SUS TÚNICAS";</v>
       </c>
       <c r="K36" t="s">
@@ -37401,7 +37471,7 @@
         <v>29</v>
       </c>
       <c r="J37" t="str">
-        <f>_xlfn.CONCAT(B37,C37," ",D37," ",E37,F37,G37,H37)</f>
+        <f t="shared" si="4"/>
         <v>let Asamblea29 = "Y LAS BLANQUEARON";</v>
       </c>
       <c r="K37" t="s">
@@ -37449,7 +37519,7 @@
         <v>29</v>
       </c>
       <c r="J38" t="str">
-        <f>_xlfn.CONCAT(B38,C38," ",D38," ",E38,F38,G38,H38)</f>
+        <f t="shared" si="4"/>
         <v>let Asamblea30 = "EN LA SANGRE DEL CORDERO,";</v>
       </c>
       <c r="K38" t="s">
@@ -37462,14 +37532,14 @@
         <v>26</v>
       </c>
       <c r="N38">
-        <f t="shared" ref="N38:N40" si="4">C38</f>
+        <f t="shared" ref="N38:N40" si="5">C38</f>
         <v>30</v>
       </c>
       <c r="O38" t="s">
         <v>29</v>
       </c>
       <c r="P38" t="str">
-        <f t="shared" ref="P38:P40" si="5">_xlfn.CONCAT("document.getElementById",K38,M38,"a",N38,M38,L38,".textContent = Asamblea",N38,O38)</f>
+        <f t="shared" ref="P38:P40" si="6">_xlfn.CONCAT("document.getElementById",K38,M38,"a",N38,M38,L38,".textContent = Asamblea",N38,O38)</f>
         <v>document.getElementById("a30").textContent = Asamblea30;</v>
       </c>
     </row>
@@ -37497,7 +37567,7 @@
         <v>29</v>
       </c>
       <c r="J39" t="str">
-        <f>_xlfn.CONCAT(B39,C39," ",D39," ",E39,F39,G39,H39)</f>
+        <f t="shared" si="4"/>
         <v>let Asamblea31 = "EN LA SANGRE DEL CORDERO. ";</v>
       </c>
       <c r="K39" t="s">
@@ -37510,14 +37580,14 @@
         <v>26</v>
       </c>
       <c r="N39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="O39" t="s">
         <v>29</v>
       </c>
       <c r="P39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>document.getElementById("a31").textContent = Asamblea31;</v>
       </c>
     </row>
@@ -37545,7 +37615,7 @@
         <v>29</v>
       </c>
       <c r="J40" t="str">
-        <f>_xlfn.CONCAT(B40,C40," ",D40," ",E40,F40,G40,H40)</f>
+        <f t="shared" si="4"/>
         <v>let Asamblea32 = "AMÉN, AMÉN, AMÉN.";</v>
       </c>
       <c r="K40" t="s">
@@ -37558,14 +37628,14 @@
         <v>26</v>
       </c>
       <c r="N40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="O40" t="s">
         <v>29</v>
       </c>
       <c r="P40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>document.getElementById("a32").textContent = Asamblea32;</v>
       </c>
     </row>
@@ -37593,7 +37663,7 @@
         <v>29</v>
       </c>
       <c r="J41" t="str">
-        <f t="shared" ref="J41:J42" si="6">_xlfn.CONCAT(B41,C41," ",D41," ",E41,F41,G41,H41)</f>
+        <f t="shared" ref="J41:J42" si="7">_xlfn.CONCAT(B41,C41," ",D41," ",E41,F41,G41,H41)</f>
         <v>let Asamblea33 = "AMÉN, AMÉN, AMÉN.";</v>
       </c>
       <c r="K41" t="s">
@@ -37606,14 +37676,14 @@
         <v>26</v>
       </c>
       <c r="N41">
-        <f t="shared" ref="N41:N42" si="7">C41</f>
+        <f t="shared" ref="N41:N42" si="8">C41</f>
         <v>33</v>
       </c>
       <c r="O41" t="s">
         <v>29</v>
       </c>
       <c r="P41" t="str">
-        <f t="shared" ref="P41:P42" si="8">_xlfn.CONCAT("document.getElementById",K41,M41,"a",N41,M41,L41,".textContent = Asamblea",N41,O41)</f>
+        <f t="shared" ref="P41:P42" si="9">_xlfn.CONCAT("document.getElementById",K41,M41,"a",N41,M41,L41,".textContent = Asamblea",N41,O41)</f>
         <v>document.getElementById("a33").textContent = Asamblea33;</v>
       </c>
     </row>
@@ -37641,7 +37711,7 @@
         <v>29</v>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>let Asamblea34 = "AMÉN, AMÉN, AMÉN.";</v>
       </c>
       <c r="K42" t="s">
@@ -37654,14 +37724,14 @@
         <v>26</v>
       </c>
       <c r="N42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="O42" t="s">
         <v>29</v>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>document.getElementById("a34").textContent = Asamblea34;</v>
       </c>
     </row>
@@ -37669,10 +37739,10 @@
       <c r="F43" s="16"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="I44" s="18" t="s">
+      <c r="I44" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="J44" s="18"/>
+      <c r="J44" s="19"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -37822,7 +37892,7 @@
         <v>25</v>
       </c>
       <c r="C48">
-        <f t="shared" ref="C48:C50" si="9">+C47+1</f>
+        <f t="shared" ref="C48:C50" si="10">+C47+1</f>
         <v>4</v>
       </c>
       <c r="D48" t="s">
@@ -37841,7 +37911,7 @@
         <v>29</v>
       </c>
       <c r="J48" t="str">
-        <f t="shared" ref="J48:J50" si="10">_xlfn.CONCAT(B48,C48," ",D48," ",E48,F48,G48,H48)</f>
+        <f t="shared" ref="J48:J50" si="11">_xlfn.CONCAT(B48,C48," ",D48," ",E48,F48,G48,H48)</f>
         <v>let Cantor4 = "demos a Dios.";</v>
       </c>
       <c r="K48" t="s">
@@ -37854,14 +37924,14 @@
         <v>26</v>
       </c>
       <c r="N48">
-        <f t="shared" ref="N48:N50" si="11">C48</f>
+        <f t="shared" ref="N48:N50" si="12">C48</f>
         <v>4</v>
       </c>
       <c r="O48" t="s">
         <v>29</v>
       </c>
       <c r="P48" t="str">
-        <f t="shared" ref="P48:P50" si="12">_xlfn.CONCAT("document.getElementById",K48,M48,"c",N48,M48,L48,".textContent = Cantor",N48,O48)</f>
+        <f t="shared" ref="P48:P50" si="13">_xlfn.CONCAT("document.getElementById",K48,M48,"c",N48,M48,L48,".textContent = Cantor",N48,O48)</f>
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
@@ -37870,7 +37940,7 @@
         <v>25</v>
       </c>
       <c r="C49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="D49" t="s">
@@ -37889,7 +37959,7 @@
         <v>29</v>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>let Cantor5 = "¿Quiénes son";</v>
       </c>
       <c r="K49" t="s">
@@ -37902,14 +37972,14 @@
         <v>26</v>
       </c>
       <c r="N49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="O49" t="s">
         <v>29</v>
       </c>
       <c r="P49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
@@ -37918,7 +37988,7 @@
         <v>25</v>
       </c>
       <c r="C50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="D50" t="s">
@@ -37937,7 +38007,7 @@
         <v>29</v>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>let Cantor6 = "y de dónde vienen?";</v>
       </c>
       <c r="K50" t="s">
@@ -37950,22 +38020,22 @@
         <v>26</v>
       </c>
       <c r="N50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="O50" t="s">
         <v>29</v>
       </c>
       <c r="P50" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="I52" s="18" t="s">
+      <c r="I52" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="J52" s="18"/>
+      <c r="J52" s="19"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J53" t="s">
@@ -37983,262 +38053,262 @@
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="I57" s="18" t="s">
+      <c r="I57" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="J57" s="18"/>
+      <c r="J57" s="19"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J58" t="str">
-        <f>P9</f>
+        <f t="shared" ref="J58:J91" si="14">P9</f>
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J59" t="str">
-        <f>P10</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J60" t="str">
-        <f>P11</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J61" t="str">
-        <f>P12</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J62" t="str">
-        <f>P13</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J63" t="str">
-        <f>P14</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J64" t="str">
-        <f>P15</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
     <row r="65" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J65" t="str">
-        <f>P16</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
     <row r="66" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J66" t="str">
-        <f>P17</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
     <row r="67" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J67" t="str">
-        <f>P18</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
     <row r="68" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J68" t="str">
-        <f>P19</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
     <row r="69" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J69" t="str">
-        <f>P20</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
     <row r="70" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J70" t="str">
-        <f>P21</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
     <row r="71" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J71" t="str">
-        <f>P22</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
     <row r="72" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J72" t="str">
-        <f>P23</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
     <row r="73" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J73" t="str">
-        <f>P24</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a16").textContent = Asamblea16;</v>
       </c>
     </row>
     <row r="74" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J74" t="str">
-        <f>P25</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a17").textContent = Asamblea17;</v>
       </c>
     </row>
     <row r="75" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J75" t="str">
-        <f>P26</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
     <row r="76" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J76" t="str">
-        <f>P27</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a19").textContent = Asamblea19;</v>
       </c>
     </row>
     <row r="77" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J77" t="str">
-        <f>P28</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a20").textContent = Asamblea20;</v>
       </c>
     </row>
     <row r="78" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J78" t="str">
-        <f>P29</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a21").textContent = Asamblea21;</v>
       </c>
     </row>
     <row r="79" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J79" t="str">
-        <f>P30</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a22").textContent = Asamblea22;</v>
       </c>
     </row>
     <row r="80" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J80" t="str">
-        <f>P31</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a23").textContent = Asamblea23;</v>
       </c>
     </row>
     <row r="81" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J81" t="str">
-        <f>P32</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a24").textContent = Asamblea24;</v>
       </c>
     </row>
     <row r="82" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J82" t="str">
-        <f>P33</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a25").textContent = Asamblea25;</v>
       </c>
     </row>
     <row r="83" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J83" t="str">
-        <f>P34</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a26").textContent = Asamblea26;</v>
       </c>
     </row>
     <row r="84" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J84" t="str">
-        <f>P35</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a27").textContent = Asamblea27;</v>
       </c>
     </row>
     <row r="85" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J85" t="str">
-        <f>P36</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a28").textContent = Asamblea28;</v>
       </c>
     </row>
     <row r="86" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J86" t="str">
-        <f>P37</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a29").textContent = Asamblea29;</v>
       </c>
     </row>
     <row r="87" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J87" t="str">
-        <f>P38</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a30").textContent = Asamblea30;</v>
       </c>
     </row>
     <row r="88" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J88" t="str">
-        <f>P39</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a31").textContent = Asamblea31;</v>
       </c>
     </row>
     <row r="89" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J89" t="str">
-        <f>P40</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a32").textContent = Asamblea32;</v>
       </c>
     </row>
     <row r="90" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J90" t="str">
-        <f>P41</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a33").textContent = Asamblea33;</v>
       </c>
     </row>
     <row r="91" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J91" t="str">
-        <f>P42</f>
+        <f t="shared" si="14"/>
         <v>document.getElementById("a34").textContent = Asamblea34;</v>
       </c>
     </row>
     <row r="93" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I93" s="18" t="s">
+      <c r="I93" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="J93" s="18"/>
+      <c r="J93" s="19"/>
     </row>
     <row r="94" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J94" t="str">
-        <f>P45</f>
+        <f t="shared" ref="J94:J99" si="15">P45</f>
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
     <row r="95" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J95" t="str">
-        <f>P46</f>
+        <f t="shared" si="15"/>
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
     <row r="96" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J96" t="str">
-        <f>P47</f>
+        <f t="shared" si="15"/>
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
     <row r="97" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J97" t="str">
-        <f>P48</f>
+        <f t="shared" si="15"/>
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
     <row r="98" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J98" t="str">
-        <f>P49</f>
+        <f t="shared" si="15"/>
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
     <row r="99" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J99" t="str">
-        <f>P50</f>
+        <f t="shared" si="15"/>
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
     <row r="100" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I100" s="18" t="s">
+      <c r="I100" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="J100" s="18"/>
+      <c r="J100" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -38256,6 +38326,1826 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990A6374-F939-4C2C-9C4D-AA412B28E4B1}">
+  <dimension ref="B1:P78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="P81" sqref="P81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
+    <col min="6" max="6" width="45.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="4.42578125" customWidth="1"/>
+    <col min="10" max="10" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3" customWidth="1"/>
+    <col min="16" max="16" width="51.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F1" s="15" t="str">
+        <f ca="1">LOWER(SUBSTITUTE(SUBSTITUTE(F4, " ", ""), ",", ""))</f>
+        <v>amoalseñor</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F2" s="15" t="str">
+        <f ca="1">(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F1, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"))</f>
+        <v>amoalseñor</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F3" s="15" t="str">
+        <f ca="1">UPPER(LEFT(F4,1)) &amp; LOWER(MID(F4,2,LEN(F4)-1))</f>
+        <v>Amo al señor</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="15" t="str" cm="1">
+        <f t="array" aca="1" ref="F4" ca="1">MID(CELL("filename", A3), FIND("]", CELL("filename", A3)) + 1, 255)</f>
+        <v>AMO AL SEÑOR</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="str">
+        <f ca="1">_xlfn.CONCAT(B4," ",D4," ",E4,F4,G4,H4)</f>
+        <v>let titulo = "AMO AL SEÑOR";</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4">
+        <f>C4</f>
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K4,M4,"t",N4,M4,L4,".textContent = titulo",O4)</f>
+        <v>document.getElementById("t1").textContent = titulo;</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>699</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="str">
+        <f>_xlfn.CONCAT(B5," ",D5," ",E5,F5,G5,H5)</f>
+        <v>let salmo = "Salmo 116 (114-115)";</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5">
+        <f>C5</f>
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K5,M5,"c",N5,M5,L5,".textContent = Cantor",N5,O5)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="15">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="str">
+        <f>_xlfn.CONCAT(B6," ",D6," ",E6,F6,G6,H6,"      //Numero del libro")</f>
+        <v>let dbnos = "18";      //Numero del libro</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6">
+        <f>C6</f>
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K6,M6,"c",N6,M6,L6,".textContent = Cantor",N6,O6)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I8" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>700</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" ref="J9:J20" si="0">_xlfn.CONCAT(B9,C9," ",D9," ",E9,F9,G9,H9)</f>
+        <v>let Asamblea1 = "RECOBRA, ALMA MÍA, TU REPOSO,";</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:N20" si="1">C9</f>
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K9,M9,"a",N9,M9,L9,".textContent = Asamblea",N9,O9)</f>
+        <v>document.getElementById("a1").textContent = Asamblea1;</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C20" si="2">+C9+1</f>
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>701</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea2 = "PORQUE EL SEÑOR FUE BUENO CONTIGO.";</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" ref="P10:P20" si="3">_xlfn.CONCAT("document.getElementById",K10,M10,"a",N10,M10,L10,".textContent = Asamblea",N10,O10)</f>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>702</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea3 = "ÉL TE HA SALVADO DE LA MUERTE,";</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>703</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea4 = "HA PRESERVADO TUS PIES DE LA CAÍDA.";</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>702</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea5 = "ÉL TE HA SALVADO DE LA MUERTE,";</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>704</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea6 = "HA PRESERVADO TUS PIES DE LA CAÍDA";</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a6").textContent = Asamblea6;</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>700</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea7 = "RECOBRA, ALMA MÍA, TU REPOSO,";</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a7").textContent = Asamblea7;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>701</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea8 = "PORQUE EL SEÑOR FUE BUENO CONTIGO.";</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="O16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a8").textContent = Asamblea8;</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>702</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea9 = "ÉL TE HA SALVADO DE LA MUERTE,";</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="O17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a9").textContent = Asamblea9;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>703</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea10 = "HA PRESERVADO TUS PIES DE LA CAÍDA.";</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a10").textContent = Asamblea10;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>702</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea11 = "ÉL TE HA SALVADO DE LA MUERTE,";</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="O19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a11").textContent = Asamblea11;</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>704</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea12 = "HA PRESERVADO TUS PIES DE LA CAÍDA";</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="O20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a12").textContent = Asamblea12;</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I22" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22" s="19"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" t="str">
+        <f>_xlfn.CONCAT(B23,C23," ",D23," ",E23,F23,G23,H23)</f>
+        <v>let Cantor1 = "Amo al Señor, porque escucha";</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23">
+        <f>C23</f>
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K23,M23,"c",N23,M23,L23,".textContent = Cantor",N23,O23)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <f>+C23+1</f>
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" t="str">
+        <f>_xlfn.CONCAT(B24,C24," ",D24," ",E24,F24,G24,H24)</f>
+        <v>let Cantor2 = "mi voz suplicante;";</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24">
+        <f>C24</f>
+        <v>2</v>
+      </c>
+      <c r="O24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K24,M24,"c",N24,M24,L24,".textContent = Cantor",N24,O24)</f>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <f>+C24+1</f>
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" t="str">
+        <f>_xlfn.CONCAT(B25,C25," ",D25," ",E25,F25,G25,H25)</f>
+        <v>let Cantor3 = "inclina hacia mí su oído";</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25">
+        <f>C25</f>
+        <v>3</v>
+      </c>
+      <c r="O25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K25,M25,"c",N25,M25,L25,".textContent = Cantor",N25,O25)</f>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:C39" si="4">+C25+1</f>
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" ref="J26:J39" si="5">_xlfn.CONCAT(B26,C26," ",D26," ",E26,F26,G26,H26)</f>
+        <v>let Cantor4 = "el día en que lo invoco.";</v>
+      </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ref="N26:N39" si="6">C26</f>
+        <v>4</v>
+      </c>
+      <c r="O26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" ref="P26:P39" si="7">_xlfn.CONCAT("document.getElementById",K26,M26,"c",N26,M26,L26,".textContent = Cantor",N26,O26)</f>
+        <v>document.getElementById("c4").textContent = Cantor4;</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor5 = "Me envolvían redes de muerte,";</v>
+      </c>
+      <c r="K27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="O27" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c5").textContent = Cantor5;</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>710</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor6 = "me alcanzaron los lazos del infierno;";</v>
+      </c>
+      <c r="K28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="O28" t="s">
+        <v>29</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c6").textContent = Cantor6;</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>711</v>
+      </c>
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor7 = "me rodeaban tristeza y angustia,";</v>
+      </c>
+      <c r="K29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="O29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c7").textContent = Cantor7;</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor8 = "invoqué el nombre del Señor:";</v>
+      </c>
+      <c r="K30" t="s">
+        <v>27</v>
+      </c>
+      <c r="L30" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="O30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c8").textContent = Cantor8;</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>713</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor9 = "«¡Te ruego, Señor, sálvame!»";</v>
+      </c>
+      <c r="K31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="O31" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c9").textContent = Cantor9;</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor10 = "¡Tenía fe, aun cuando dije:";</v>
+      </c>
+      <c r="K32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="O32" t="s">
+        <v>29</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c10").textContent = Cantor10;</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor11 = "«Yo soy un desgraciado»!,";</v>
+      </c>
+      <c r="K33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="O33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c11").textContent = Cantor11;</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>716</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor12 = "y pensaba lleno de angustia:";</v>
+      </c>
+      <c r="K34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="O34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c12").textContent = Cantor12;</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>717</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor13 = "((todo hombre es falso».";</v>
+      </c>
+      <c r="K35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="O35" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c13").textContent = Cantor13;</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor14 = "¿Cómo pagaré al Señor";</v>
+      </c>
+      <c r="K36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="O36" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c14").textContent = Cantor14;</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>719</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor15 = "todo el bien que me ha hecho?";</v>
+      </c>
+      <c r="K37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="O37" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c15").textContent = Cantor15;</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>720</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor16 = "Alzaré la copa de la bendición";</v>
+      </c>
+      <c r="K38" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" t="s">
+        <v>28</v>
+      </c>
+      <c r="M38" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="O38" t="s">
+        <v>29</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c16").textContent = Cantor16;</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor17 = "e invocaré el nombre del Señor.";</v>
+      </c>
+      <c r="K39" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" t="s">
+        <v>28</v>
+      </c>
+      <c r="M39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="O39" t="s">
+        <v>29</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c17").textContent = Cantor17;</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I41" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J41" s="19"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I46" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J46" s="19"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J47" t="str">
+        <f>P9</f>
+        <v>document.getElementById("a1").textContent = Asamblea1;</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J48" t="str">
+        <f>P10</f>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+      </c>
+    </row>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J49" t="str">
+        <f>P11</f>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+      </c>
+    </row>
+    <row r="50" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J50" t="str">
+        <f>P12</f>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+      </c>
+    </row>
+    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J51" t="str">
+        <f>P13</f>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="52" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J52" t="str">
+        <f>P14</f>
+        <v>document.getElementById("a6").textContent = Asamblea6;</v>
+      </c>
+    </row>
+    <row r="53" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J53" t="str">
+        <f>P15</f>
+        <v>document.getElementById("a7").textContent = Asamblea7;</v>
+      </c>
+    </row>
+    <row r="54" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J54" t="str">
+        <f>P16</f>
+        <v>document.getElementById("a8").textContent = Asamblea8;</v>
+      </c>
+    </row>
+    <row r="55" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J55" t="str">
+        <f>P17</f>
+        <v>document.getElementById("a9").textContent = Asamblea9;</v>
+      </c>
+    </row>
+    <row r="56" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J56" t="str">
+        <f>P18</f>
+        <v>document.getElementById("a10").textContent = Asamblea10;</v>
+      </c>
+    </row>
+    <row r="57" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J57" t="str">
+        <f>P19</f>
+        <v>document.getElementById("a11").textContent = Asamblea11;</v>
+      </c>
+    </row>
+    <row r="58" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J58" t="str">
+        <f>P20</f>
+        <v>document.getElementById("a12").textContent = Asamblea12;</v>
+      </c>
+    </row>
+    <row r="60" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I60" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J60" s="19"/>
+    </row>
+    <row r="61" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J61" t="str">
+        <f>P23</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="62" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J62" t="str">
+        <f>P24</f>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
+      </c>
+    </row>
+    <row r="63" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J63" t="str">
+        <f>P25</f>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="64" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J64" t="str">
+        <f>P26</f>
+        <v>document.getElementById("c4").textContent = Cantor4;</v>
+      </c>
+    </row>
+    <row r="65" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J65" t="str">
+        <f>P27</f>
+        <v>document.getElementById("c5").textContent = Cantor5;</v>
+      </c>
+    </row>
+    <row r="66" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J66" t="str">
+        <f>P28</f>
+        <v>document.getElementById("c6").textContent = Cantor6;</v>
+      </c>
+    </row>
+    <row r="67" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J67" t="str">
+        <f>P29</f>
+        <v>document.getElementById("c7").textContent = Cantor7;</v>
+      </c>
+    </row>
+    <row r="68" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J68" t="str">
+        <f>P30</f>
+        <v>document.getElementById("c8").textContent = Cantor8;</v>
+      </c>
+    </row>
+    <row r="69" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J69" t="str">
+        <f>P31</f>
+        <v>document.getElementById("c9").textContent = Cantor9;</v>
+      </c>
+    </row>
+    <row r="70" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J70" t="str">
+        <f>P32</f>
+        <v>document.getElementById("c10").textContent = Cantor10;</v>
+      </c>
+    </row>
+    <row r="71" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J71" t="str">
+        <f>P33</f>
+        <v>document.getElementById("c11").textContent = Cantor11;</v>
+      </c>
+    </row>
+    <row r="72" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J72" t="str">
+        <f>P34</f>
+        <v>document.getElementById("c12").textContent = Cantor12;</v>
+      </c>
+    </row>
+    <row r="73" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J73" t="str">
+        <f>P35</f>
+        <v>document.getElementById("c13").textContent = Cantor13;</v>
+      </c>
+    </row>
+    <row r="74" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J74" t="str">
+        <f>P36</f>
+        <v>document.getElementById("c14").textContent = Cantor14;</v>
+      </c>
+    </row>
+    <row r="75" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J75" t="str">
+        <f>P37</f>
+        <v>document.getElementById("c15").textContent = Cantor15;</v>
+      </c>
+    </row>
+    <row r="76" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J76" t="str">
+        <f>P38</f>
+        <v>document.getElementById("c16").textContent = Cantor16;</v>
+      </c>
+    </row>
+    <row r="77" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J77" t="str">
+        <f>P39</f>
+        <v>document.getElementById("c17").textContent = Cantor17;</v>
+      </c>
+    </row>
+    <row r="78" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I78" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J78" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I78:J78"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B8FB2B-4DC1-4AFD-B6C8-31306B741E54}">
   <dimension ref="B1:P200"/>
   <sheetViews>
@@ -38294,10 +40184,10 @@
         <f ca="1">UPPER(LEFT(F4,1)) &amp; LOWER(MID(F4,2,LEN(F4)-1))</f>
         <v>Piloto</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="J3" s="19"/>
+      <c r="J3" s="17"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -38442,10 +40332,10 @@
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="J8" s="18"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -40850,10 +42740,10 @@
       <c r="F59" s="16"/>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="I60" s="18" t="s">
+      <c r="I60" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="J60" s="18"/>
+      <c r="J60" s="19"/>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
@@ -42775,10 +44665,10 @@
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="I102" s="18" t="s">
+      <c r="I102" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="J102" s="18"/>
+      <c r="J102" s="19"/>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J103" t="s">
@@ -42796,562 +44686,562 @@
       </c>
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="I107" s="18" t="s">
+      <c r="I107" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="J107" s="18"/>
+      <c r="J107" s="19"/>
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J108" t="str">
-        <f>P9</f>
+        <f t="shared" ref="J108:J139" si="8">P9</f>
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J109" t="str">
-        <f>P10</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J110" t="str">
-        <f>P11</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
     <row r="111" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J111" t="str">
-        <f>P12</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
     <row r="112" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J112" t="str">
-        <f>P13</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
     <row r="113" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J113" t="str">
-        <f>P14</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
     <row r="114" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J114" t="str">
-        <f>P15</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
     <row r="115" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J115" t="str">
-        <f>P16</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
     <row r="116" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J116" t="str">
-        <f>P17</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
     <row r="117" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J117" t="str">
-        <f>P18</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
     <row r="118" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J118" t="str">
-        <f>P19</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
     <row r="119" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J119" t="str">
-        <f>P20</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
     <row r="120" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J120" t="str">
-        <f>P21</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a13").textContent = Asamblea13;</v>
       </c>
     </row>
     <row r="121" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J121" t="str">
-        <f>P22</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a14").textContent = Asamblea14;</v>
       </c>
     </row>
     <row r="122" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J122" t="str">
-        <f>P23</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a15").textContent = Asamblea15;</v>
       </c>
     </row>
     <row r="123" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J123" t="str">
-        <f>P24</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a16").textContent = Asamblea16;</v>
       </c>
     </row>
     <row r="124" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J124" t="str">
-        <f>P25</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a17").textContent = Asamblea17;</v>
       </c>
     </row>
     <row r="125" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J125" t="str">
-        <f>P26</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a18").textContent = Asamblea18;</v>
       </c>
     </row>
     <row r="126" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J126" t="str">
-        <f>P27</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a19").textContent = Asamblea19;</v>
       </c>
     </row>
     <row r="127" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J127" t="str">
-        <f>P28</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a20").textContent = Asamblea20;</v>
       </c>
     </row>
     <row r="128" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J128" t="str">
-        <f>P29</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a21").textContent = Asamblea21;</v>
       </c>
     </row>
     <row r="129" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J129" t="str">
-        <f>P30</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a22").textContent = Asamblea22;</v>
       </c>
     </row>
     <row r="130" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J130" t="str">
-        <f>P31</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a23").textContent = Asamblea23;</v>
       </c>
     </row>
     <row r="131" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J131" t="str">
-        <f>P32</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a24").textContent = Asamblea24;</v>
       </c>
     </row>
     <row r="132" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J132" t="str">
-        <f>P33</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a25").textContent = Asamblea25;</v>
       </c>
     </row>
     <row r="133" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J133" t="str">
-        <f>P34</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a26").textContent = Asamblea26;</v>
       </c>
     </row>
     <row r="134" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J134" t="str">
-        <f>P35</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a27").textContent = Asamblea27;</v>
       </c>
     </row>
     <row r="135" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J135" t="str">
-        <f>P36</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a28").textContent = Asamblea28;</v>
       </c>
     </row>
     <row r="136" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J136" t="str">
-        <f>P37</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a29").textContent = Asamblea29;</v>
       </c>
     </row>
     <row r="137" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J137" t="str">
-        <f>P38</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a30").textContent = Asamblea30;</v>
       </c>
     </row>
     <row r="138" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J138" t="str">
-        <f>P39</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a31").textContent = Asamblea31;</v>
       </c>
     </row>
     <row r="139" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J139" t="str">
-        <f>P40</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a32").textContent = Asamblea32;</v>
       </c>
     </row>
     <row r="140" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J140" t="str">
-        <f t="shared" ref="J140:J157" si="8">P41</f>
+        <f t="shared" ref="J140:J157" si="9">P41</f>
         <v>document.getElementById("a33").textContent = Asamblea33;</v>
       </c>
     </row>
     <row r="141" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J141" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>document.getElementById("a34").textContent = Asamblea34;</v>
       </c>
     </row>
     <row r="142" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J142" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>document.getElementById("a35").textContent = Asamblea35;</v>
       </c>
     </row>
     <row r="143" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J143" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>document.getElementById("a36").textContent = Asamblea36;</v>
       </c>
     </row>
     <row r="144" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J144" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>document.getElementById("a37").textContent = Asamblea37;</v>
       </c>
     </row>
     <row r="145" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J145" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>document.getElementById("a38").textContent = Asamblea38;</v>
       </c>
     </row>
     <row r="146" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J146" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>document.getElementById("a39").textContent = Asamblea39;</v>
       </c>
     </row>
     <row r="147" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J147" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>document.getElementById("a40").textContent = Asamblea40;</v>
       </c>
     </row>
     <row r="148" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J148" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>document.getElementById("a41").textContent = Asamblea41;</v>
       </c>
     </row>
     <row r="149" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J149" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>document.getElementById("a42").textContent = Asamblea42;</v>
       </c>
     </row>
     <row r="150" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J150" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>document.getElementById("a43").textContent = Asamblea43;</v>
       </c>
     </row>
     <row r="151" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J151" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>document.getElementById("a44").textContent = Asamblea44;</v>
       </c>
     </row>
     <row r="152" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J152" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>document.getElementById("a45").textContent = Asamblea45;</v>
       </c>
     </row>
     <row r="153" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J153" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>document.getElementById("a46").textContent = Asamblea46;</v>
       </c>
     </row>
     <row r="154" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J154" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>document.getElementById("a47").textContent = Asamblea47;</v>
       </c>
     </row>
     <row r="155" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J155" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>document.getElementById("a48").textContent = Asamblea48;</v>
       </c>
     </row>
     <row r="156" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J156" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>document.getElementById("a49").textContent = Asamblea49;</v>
       </c>
     </row>
     <row r="157" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J157" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>document.getElementById("a50").textContent = Asamblea50;</v>
       </c>
     </row>
     <row r="159" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I159" s="18" t="s">
+      <c r="I159" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="J159" s="18"/>
+      <c r="J159" s="19"/>
     </row>
     <row r="160" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J160" t="str">
-        <f>P61</f>
+        <f t="shared" ref="J160:J199" si="10">P61</f>
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
     <row r="161" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J161" t="str">
-        <f>P62</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
     <row r="162" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J162" t="str">
-        <f>P63</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
     <row r="163" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J163" t="str">
-        <f>P64</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
     <row r="164" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J164" t="str">
-        <f>P65</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
     <row r="165" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J165" t="str">
-        <f>P66</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
     <row r="166" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J166" t="str">
-        <f>P67</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
     <row r="167" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J167" t="str">
-        <f>P68</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
     <row r="168" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J168" t="str">
-        <f>P69</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
     <row r="169" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J169" t="str">
-        <f>P70</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
     <row r="170" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J170" t="str">
-        <f>P71</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
     <row r="171" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J171" t="str">
-        <f>P72</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
     <row r="172" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J172" t="str">
-        <f>P73</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
     <row r="173" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J173" t="str">
-        <f>P74</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
     <row r="174" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J174" t="str">
-        <f>P75</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
     <row r="175" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J175" t="str">
-        <f>P76</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
     <row r="176" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J176" t="str">
-        <f>P77</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c17").textContent = Cantor17;</v>
       </c>
     </row>
     <row r="177" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J177" t="str">
-        <f>P78</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c18").textContent = Cantor18;</v>
       </c>
     </row>
     <row r="178" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J178" t="str">
-        <f>P79</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c19").textContent = Cantor19;</v>
       </c>
     </row>
     <row r="179" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J179" t="str">
-        <f>P80</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c20").textContent = Cantor20;</v>
       </c>
     </row>
     <row r="180" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J180" t="str">
-        <f>P81</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c21").textContent = Cantor21;</v>
       </c>
     </row>
     <row r="181" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J181" t="str">
-        <f>P82</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c22").textContent = Cantor22;</v>
       </c>
     </row>
     <row r="182" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J182" t="str">
-        <f>P83</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c23").textContent = Cantor23;</v>
       </c>
     </row>
     <row r="183" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J183" t="str">
-        <f>P84</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c24").textContent = Cantor24;</v>
       </c>
     </row>
     <row r="184" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J184" t="str">
-        <f>P85</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c25").textContent = Cantor25;</v>
       </c>
     </row>
     <row r="185" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J185" t="str">
-        <f>P86</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c26").textContent = Cantor26;</v>
       </c>
     </row>
     <row r="186" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J186" t="str">
-        <f>P87</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c27").textContent = Cantor27;</v>
       </c>
     </row>
     <row r="187" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J187" t="str">
-        <f>P88</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c28").textContent = Cantor28;</v>
       </c>
     </row>
     <row r="188" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J188" t="str">
-        <f>P89</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c29").textContent = Cantor29;</v>
       </c>
     </row>
     <row r="189" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J189" t="str">
-        <f>P90</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c30").textContent = Cantor30;</v>
       </c>
     </row>
     <row r="190" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J190" t="str">
-        <f>P91</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c31").textContent = Cantor31;</v>
       </c>
     </row>
     <row r="191" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J191" t="str">
-        <f>P92</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c32").textContent = Cantor32;</v>
       </c>
     </row>
     <row r="192" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J192" t="str">
-        <f>P93</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c33").textContent = Cantor33;</v>
       </c>
     </row>
     <row r="193" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J193" t="str">
-        <f>P94</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c34").textContent = Cantor34;</v>
       </c>
     </row>
     <row r="194" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J194" t="str">
-        <f>P95</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c35").textContent = Cantor35;</v>
       </c>
     </row>
     <row r="195" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J195" t="str">
-        <f>P96</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c36").textContent = Cantor36;</v>
       </c>
     </row>
     <row r="196" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J196" t="str">
-        <f>P97</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c37").textContent = Cantor37;</v>
       </c>
     </row>
     <row r="197" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J197" t="str">
-        <f>P98</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c38").textContent = Cantor38;</v>
       </c>
     </row>
     <row r="198" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J198" t="str">
-        <f>P99</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c39").textContent = Cantor39;</v>
       </c>
     </row>
     <row r="199" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J199" t="str">
-        <f>P100</f>
+        <f t="shared" si="10"/>
         <v>document.getElementById("c40").textContent = Cantor40;</v>
       </c>
     </row>
     <row r="200" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I200" s="18" t="s">
+      <c r="I200" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="J200" s="18"/>
+      <c r="J200" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/src/doc/codificador.xlsx
+++ b/src/doc/codificador.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\db\Github\cantos\src\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C8BBDE-4C5C-4A36-9FE9-CEE411529B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF682C7B-C1D3-4E5C-9B80-92046428BAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="18" activeTab="23" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="51840" windowHeight="21120" firstSheet="18" activeTab="21" xr2:uid="{09BA45BA-166A-4A77-86FA-07F2A91DA1B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Inidce" sheetId="21" r:id="rId1"/>
@@ -34,10 +34,11 @@
     <sheet name="ABBÁ, PADRE" sheetId="18" r:id="rId19"/>
     <sheet name="ALELUYA INTERLECCIONAL" sheetId="19" r:id="rId20"/>
     <sheet name="ALELUYA, YA LLEGÓ EL REINO " sheetId="20" r:id="rId21"/>
-    <sheet name="ALZAOS,PUERTAS " sheetId="22" r:id="rId22"/>
-    <sheet name="AMÉN, AMÉN, AMÉN " sheetId="23" r:id="rId23"/>
-    <sheet name="AMO AL SEÑOR" sheetId="25" r:id="rId24"/>
-    <sheet name="PILOTO" sheetId="24" r:id="rId25"/>
+    <sheet name="ALEGRÍA, HA NACIDO EL SALVADOR " sheetId="26" r:id="rId22"/>
+    <sheet name="ALZAOS,PUERTAS " sheetId="22" r:id="rId23"/>
+    <sheet name="AMÉN, AMÉN, AMÉN " sheetId="23" r:id="rId24"/>
+    <sheet name="AMO AL SEÑOR" sheetId="25" r:id="rId25"/>
+    <sheet name="PILOTO" sheetId="24" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -82,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11058" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11496" uniqueCount="746">
   <si>
     <t>viviendo en pureza, paciencia y bondad;</t>
   </si>
@@ -2274,6 +2275,78 @@
   </si>
   <si>
     <t>e invocaré el nombre del Señor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HA NACIDO EL SALVADOR </t>
+  </si>
+  <si>
+    <t>ACOSTADO EN UN PESEBRE!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡ÉL ES EL CRISTO, EL SEÑOR! </t>
+  </si>
+  <si>
+    <t>VIiiancico (Klko Argüello)</t>
+  </si>
+  <si>
+    <t>Un ángel vino del cielo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trayendo una gran noticia: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">¡Hoy os ha nacido, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ha nacido el Salvador! </t>
+  </si>
+  <si>
+    <t>¡Fajado con lindos pañales</t>
+  </si>
+  <si>
+    <t>y acostado en un pesebre!</t>
+  </si>
+  <si>
+    <t>Esta será la señal</t>
+  </si>
+  <si>
+    <t>de que Él es el Señor</t>
+  </si>
+  <si>
+    <t>Al establo de Belén</t>
+  </si>
+  <si>
+    <t>han llegado los pastores.</t>
+  </si>
+  <si>
+    <t>Vienen trayendo regalos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesús el Salvador. </t>
+  </si>
+  <si>
+    <t>Encontraron a María,</t>
+  </si>
+  <si>
+    <t>encontraron a José.</t>
+  </si>
+  <si>
+    <t>El buey, el asno y el niño,</t>
+  </si>
+  <si>
+    <t>que se llamará Emmanuel.</t>
+  </si>
+  <si>
+    <t>El buey reconoce a su dueño,</t>
+  </si>
+  <si>
+    <t>el borrico su pesebre.</t>
+  </si>
+  <si>
+    <t>Pero Israel no conoce,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no conoce a su Señor. </t>
   </si>
 </sst>
 </file>
@@ -3057,7 +3130,7 @@
       </c>
       <c r="B23" s="14">
         <f t="shared" ref="B23:B86" ca="1" si="0">TODAY()</f>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3066,7 +3139,7 @@
       </c>
       <c r="B24" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3075,7 +3148,7 @@
       </c>
       <c r="B25" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -3084,7 +3157,7 @@
       </c>
       <c r="B26" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -3093,7 +3166,7 @@
       </c>
       <c r="B27" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -3102,7 +3175,7 @@
       </c>
       <c r="B28" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -3111,7 +3184,7 @@
       </c>
       <c r="B29" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3120,7 +3193,7 @@
       </c>
       <c r="B30" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3129,7 +3202,7 @@
       </c>
       <c r="B31" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3138,7 +3211,7 @@
       </c>
       <c r="B32" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -3147,7 +3220,7 @@
       </c>
       <c r="B33" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3156,7 +3229,7 @@
       </c>
       <c r="B34" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,7 +3238,7 @@
       </c>
       <c r="B35" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3174,7 +3247,7 @@
       </c>
       <c r="B36" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3183,7 +3256,7 @@
       </c>
       <c r="B37" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3192,7 +3265,7 @@
       </c>
       <c r="B38" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3201,7 +3274,7 @@
       </c>
       <c r="B39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3210,7 +3283,7 @@
       </c>
       <c r="B40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -3219,7 +3292,7 @@
       </c>
       <c r="B41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3228,7 +3301,7 @@
       </c>
       <c r="B42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3237,7 +3310,7 @@
       </c>
       <c r="B43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3246,7 +3319,7 @@
       </c>
       <c r="B44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3255,7 +3328,7 @@
       </c>
       <c r="B45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3264,7 +3337,7 @@
       </c>
       <c r="B46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3273,7 +3346,7 @@
       </c>
       <c r="B47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3282,7 +3355,7 @@
       </c>
       <c r="B48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3291,7 +3364,7 @@
       </c>
       <c r="B49" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3300,7 +3373,7 @@
       </c>
       <c r="B50" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3309,7 +3382,7 @@
       </c>
       <c r="B51" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -3318,7 +3391,7 @@
       </c>
       <c r="B52" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -3327,7 +3400,7 @@
       </c>
       <c r="B53" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -3336,7 +3409,7 @@
       </c>
       <c r="B54" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -3345,7 +3418,7 @@
       </c>
       <c r="B55" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -3354,7 +3427,7 @@
       </c>
       <c r="B56" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -3363,7 +3436,7 @@
       </c>
       <c r="B57" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -3372,7 +3445,7 @@
       </c>
       <c r="B58" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -3381,7 +3454,7 @@
       </c>
       <c r="B59" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -3390,7 +3463,7 @@
       </c>
       <c r="B60" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -3399,7 +3472,7 @@
       </c>
       <c r="B61" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -3408,7 +3481,7 @@
       </c>
       <c r="B62" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -3417,7 +3490,7 @@
       </c>
       <c r="B63" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -3426,7 +3499,7 @@
       </c>
       <c r="B64" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -3435,7 +3508,7 @@
       </c>
       <c r="B65" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -3444,7 +3517,7 @@
       </c>
       <c r="B66" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -3453,7 +3526,7 @@
       </c>
       <c r="B67" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -3462,7 +3535,7 @@
       </c>
       <c r="B68" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -3471,7 +3544,7 @@
       </c>
       <c r="B69" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -3480,7 +3553,7 @@
       </c>
       <c r="B70" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -3489,7 +3562,7 @@
       </c>
       <c r="B71" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -3498,7 +3571,7 @@
       </c>
       <c r="B72" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -3507,7 +3580,7 @@
       </c>
       <c r="B73" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -3516,7 +3589,7 @@
       </c>
       <c r="B74" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -3525,7 +3598,7 @@
       </c>
       <c r="B75" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -3534,7 +3607,7 @@
       </c>
       <c r="B76" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -3543,7 +3616,7 @@
       </c>
       <c r="B77" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -3552,7 +3625,7 @@
       </c>
       <c r="B78" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -3561,7 +3634,7 @@
       </c>
       <c r="B79" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -3570,7 +3643,7 @@
       </c>
       <c r="B80" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -3579,7 +3652,7 @@
       </c>
       <c r="B81" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -3588,7 +3661,7 @@
       </c>
       <c r="B82" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -3597,7 +3670,7 @@
       </c>
       <c r="B83" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -3606,7 +3679,7 @@
       </c>
       <c r="B84" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -3615,7 +3688,7 @@
       </c>
       <c r="B85" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -3624,7 +3697,7 @@
       </c>
       <c r="B86" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -3633,7 +3706,7 @@
       </c>
       <c r="B87" s="14">
         <f t="shared" ref="B87:B150" ca="1" si="1">TODAY()</f>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -3642,7 +3715,7 @@
       </c>
       <c r="B88" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -3651,7 +3724,7 @@
       </c>
       <c r="B89" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -3660,7 +3733,7 @@
       </c>
       <c r="B90" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -3669,7 +3742,7 @@
       </c>
       <c r="B91" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -3678,7 +3751,7 @@
       </c>
       <c r="B92" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -3687,7 +3760,7 @@
       </c>
       <c r="B93" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -3696,7 +3769,7 @@
       </c>
       <c r="B94" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -3705,7 +3778,7 @@
       </c>
       <c r="B95" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -3714,7 +3787,7 @@
       </c>
       <c r="B96" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -3723,7 +3796,7 @@
       </c>
       <c r="B97" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -3732,7 +3805,7 @@
       </c>
       <c r="B98" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -3741,7 +3814,7 @@
       </c>
       <c r="B99" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -3750,7 +3823,7 @@
       </c>
       <c r="B100" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -3759,7 +3832,7 @@
       </c>
       <c r="B101" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -3768,7 +3841,7 @@
       </c>
       <c r="B102" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -3777,7 +3850,7 @@
       </c>
       <c r="B103" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -3786,7 +3859,7 @@
       </c>
       <c r="B104" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -3795,7 +3868,7 @@
       </c>
       <c r="B105" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -3804,7 +3877,7 @@
       </c>
       <c r="B106" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -3813,7 +3886,7 @@
       </c>
       <c r="B107" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -3822,7 +3895,7 @@
       </c>
       <c r="B108" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -3831,7 +3904,7 @@
       </c>
       <c r="B109" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -3840,7 +3913,7 @@
       </c>
       <c r="B110" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -3849,7 +3922,7 @@
       </c>
       <c r="B111" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -3858,7 +3931,7 @@
       </c>
       <c r="B112" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -3867,7 +3940,7 @@
       </c>
       <c r="B113" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -3876,7 +3949,7 @@
       </c>
       <c r="B114" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -3885,7 +3958,7 @@
       </c>
       <c r="B115" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -3894,7 +3967,7 @@
       </c>
       <c r="B116" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -3903,7 +3976,7 @@
       </c>
       <c r="B117" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -3912,7 +3985,7 @@
       </c>
       <c r="B118" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -3921,7 +3994,7 @@
       </c>
       <c r="B119" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -3930,7 +4003,7 @@
       </c>
       <c r="B120" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -3939,7 +4012,7 @@
       </c>
       <c r="B121" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -3948,7 +4021,7 @@
       </c>
       <c r="B122" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -3957,7 +4030,7 @@
       </c>
       <c r="B123" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -3966,7 +4039,7 @@
       </c>
       <c r="B124" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -3975,7 +4048,7 @@
       </c>
       <c r="B125" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -3984,7 +4057,7 @@
       </c>
       <c r="B126" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -3993,7 +4066,7 @@
       </c>
       <c r="B127" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -4002,7 +4075,7 @@
       </c>
       <c r="B128" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -4011,7 +4084,7 @@
       </c>
       <c r="B129" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -4020,7 +4093,7 @@
       </c>
       <c r="B130" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -4029,7 +4102,7 @@
       </c>
       <c r="B131" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -4038,7 +4111,7 @@
       </c>
       <c r="B132" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -4047,7 +4120,7 @@
       </c>
       <c r="B133" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -4056,7 +4129,7 @@
       </c>
       <c r="B134" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -4065,7 +4138,7 @@
       </c>
       <c r="B135" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -4074,7 +4147,7 @@
       </c>
       <c r="B136" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -4083,7 +4156,7 @@
       </c>
       <c r="B137" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -4092,7 +4165,7 @@
       </c>
       <c r="B138" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -4101,7 +4174,7 @@
       </c>
       <c r="B139" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -4110,7 +4183,7 @@
       </c>
       <c r="B140" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -4119,7 +4192,7 @@
       </c>
       <c r="B141" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -4128,7 +4201,7 @@
       </c>
       <c r="B142" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -4137,7 +4210,7 @@
       </c>
       <c r="B143" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -4146,7 +4219,7 @@
       </c>
       <c r="B144" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -4155,7 +4228,7 @@
       </c>
       <c r="B145" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -4164,7 +4237,7 @@
       </c>
       <c r="B146" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -4173,7 +4246,7 @@
       </c>
       <c r="B147" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -4182,7 +4255,7 @@
       </c>
       <c r="B148" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -4191,7 +4264,7 @@
       </c>
       <c r="B149" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -4200,7 +4273,7 @@
       </c>
       <c r="B150" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -4209,7 +4282,7 @@
       </c>
       <c r="B151" s="14">
         <f t="shared" ref="B151:B214" ca="1" si="2">TODAY()</f>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -4218,7 +4291,7 @@
       </c>
       <c r="B152" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -4227,7 +4300,7 @@
       </c>
       <c r="B153" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -4236,7 +4309,7 @@
       </c>
       <c r="B154" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -4245,7 +4318,7 @@
       </c>
       <c r="B155" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -4254,7 +4327,7 @@
       </c>
       <c r="B156" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -4263,7 +4336,7 @@
       </c>
       <c r="B157" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -4272,7 +4345,7 @@
       </c>
       <c r="B158" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -4281,7 +4354,7 @@
       </c>
       <c r="B159" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -4290,7 +4363,7 @@
       </c>
       <c r="B160" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -4299,7 +4372,7 @@
       </c>
       <c r="B161" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -4308,7 +4381,7 @@
       </c>
       <c r="B162" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -4317,7 +4390,7 @@
       </c>
       <c r="B163" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -4326,7 +4399,7 @@
       </c>
       <c r="B164" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -4335,7 +4408,7 @@
       </c>
       <c r="B165" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -4344,7 +4417,7 @@
       </c>
       <c r="B166" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -4353,7 +4426,7 @@
       </c>
       <c r="B167" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -4362,7 +4435,7 @@
       </c>
       <c r="B168" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -4371,7 +4444,7 @@
       </c>
       <c r="B169" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -4380,7 +4453,7 @@
       </c>
       <c r="B170" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -4389,7 +4462,7 @@
       </c>
       <c r="B171" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -4398,7 +4471,7 @@
       </c>
       <c r="B172" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -4407,7 +4480,7 @@
       </c>
       <c r="B173" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -4416,7 +4489,7 @@
       </c>
       <c r="B174" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -4425,7 +4498,7 @@
       </c>
       <c r="B175" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -4434,7 +4507,7 @@
       </c>
       <c r="B176" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -4443,7 +4516,7 @@
       </c>
       <c r="B177" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -4452,7 +4525,7 @@
       </c>
       <c r="B178" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -4461,7 +4534,7 @@
       </c>
       <c r="B179" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -4470,7 +4543,7 @@
       </c>
       <c r="B180" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -4479,7 +4552,7 @@
       </c>
       <c r="B181" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -4488,7 +4561,7 @@
       </c>
       <c r="B182" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -4497,7 +4570,7 @@
       </c>
       <c r="B183" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -4506,7 +4579,7 @@
       </c>
       <c r="B184" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -4515,7 +4588,7 @@
       </c>
       <c r="B185" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -4524,7 +4597,7 @@
       </c>
       <c r="B186" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -4533,7 +4606,7 @@
       </c>
       <c r="B187" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -4542,7 +4615,7 @@
       </c>
       <c r="B188" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -4551,7 +4624,7 @@
       </c>
       <c r="B189" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -4560,7 +4633,7 @@
       </c>
       <c r="B190" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -4569,7 +4642,7 @@
       </c>
       <c r="B191" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -4578,7 +4651,7 @@
       </c>
       <c r="B192" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -4587,7 +4660,7 @@
       </c>
       <c r="B193" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -4596,7 +4669,7 @@
       </c>
       <c r="B194" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -4605,7 +4678,7 @@
       </c>
       <c r="B195" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -4614,7 +4687,7 @@
       </c>
       <c r="B196" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -4623,7 +4696,7 @@
       </c>
       <c r="B197" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -4632,7 +4705,7 @@
       </c>
       <c r="B198" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -4641,7 +4714,7 @@
       </c>
       <c r="B199" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -4650,7 +4723,7 @@
       </c>
       <c r="B200" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -4659,7 +4732,7 @@
       </c>
       <c r="B201" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -4668,7 +4741,7 @@
       </c>
       <c r="B202" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -4677,7 +4750,7 @@
       </c>
       <c r="B203" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -4686,7 +4759,7 @@
       </c>
       <c r="B204" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -4695,7 +4768,7 @@
       </c>
       <c r="B205" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -4704,7 +4777,7 @@
       </c>
       <c r="B206" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -4713,7 +4786,7 @@
       </c>
       <c r="B207" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -4722,7 +4795,7 @@
       </c>
       <c r="B208" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -4731,7 +4804,7 @@
       </c>
       <c r="B209" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -4740,7 +4813,7 @@
       </c>
       <c r="B210" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -4749,7 +4822,7 @@
       </c>
       <c r="B211" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -4758,7 +4831,7 @@
       </c>
       <c r="B212" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -4767,7 +4840,7 @@
       </c>
       <c r="B213" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -4776,7 +4849,7 @@
       </c>
       <c r="B214" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -4785,7 +4858,7 @@
       </c>
       <c r="B215" s="14">
         <f t="shared" ref="B215:B233" ca="1" si="3">TODAY()</f>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -4794,7 +4867,7 @@
       </c>
       <c r="B216" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -4803,7 +4876,7 @@
       </c>
       <c r="B217" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -4812,7 +4885,7 @@
       </c>
       <c r="B218" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -4821,7 +4894,7 @@
       </c>
       <c r="B219" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -4830,7 +4903,7 @@
       </c>
       <c r="B220" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -4839,7 +4912,7 @@
       </c>
       <c r="B221" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -4848,7 +4921,7 @@
       </c>
       <c r="B222" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -4857,7 +4930,7 @@
       </c>
       <c r="B223" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -4866,7 +4939,7 @@
       </c>
       <c r="B224" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -4875,7 +4948,7 @@
       </c>
       <c r="B225" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -4884,7 +4957,7 @@
       </c>
       <c r="B226" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -4893,7 +4966,7 @@
       </c>
       <c r="B227" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -4902,7 +4975,7 @@
       </c>
       <c r="B228" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -4911,7 +4984,7 @@
       </c>
       <c r="B229" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -4920,7 +4993,7 @@
       </c>
       <c r="B230" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -4929,7 +5002,7 @@
       </c>
       <c r="B231" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -4938,7 +5011,7 @@
       </c>
       <c r="B232" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -4947,7 +5020,7 @@
       </c>
       <c r="B233" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>45768</v>
+        <v>45770</v>
       </c>
     </row>
   </sheetData>
@@ -33350,6 +33423,2420 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17907CFE-ACF5-4B5A-BE00-3DA9FD135D1C}">
+  <dimension ref="B1:P101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:J101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
+    <col min="6" max="6" width="45.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="4.42578125" customWidth="1"/>
+    <col min="10" max="10" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="1.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3" customWidth="1"/>
+    <col min="16" max="16" width="51.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F1" s="15" t="str">
+        <f ca="1">LOWER(SUBSTITUTE(SUBSTITUTE(F4, " ", ""), ",", ""))</f>
+        <v>alegríahanacidoelsalvador</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F2" s="15" t="str">
+        <f ca="1">(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(F1, "á", "a"), "é", "e"), "í", "i"), "ó", "o"), "ú", "u"))</f>
+        <v>alegriahanacidoelsalvador</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F3" s="15" t="str">
+        <f ca="1">UPPER(LEFT(F4,1)) &amp; LOWER(MID(F4,2,LEN(F4)-1))</f>
+        <v xml:space="preserve">Alegría, ha nacido el salvador </v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="15" t="str" cm="1">
+        <f t="array" aca="1" ref="F4" ca="1">MID(CELL("filename", A3), FIND("]", CELL("filename", A3)) + 1, 255)</f>
+        <v xml:space="preserve">ALEGRÍA, HA NACIDO EL SALVADOR </v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="str">
+        <f ca="1">_xlfn.CONCAT(B4," ",D4," ",E4,F4,G4,H4)</f>
+        <v>let titulo = "ALEGRÍA, HA NACIDO EL SALVADOR ";</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4">
+        <f>C4</f>
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K4,M4,"t",N4,M4,L4,".textContent = titulo",O4)</f>
+        <v>document.getElementById("t1").textContent = titulo;</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>725</v>
+      </c>
+      <c r="G5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="str">
+        <f>_xlfn.CONCAT(B5," ",D5," ",E5,F5,G5,H5)</f>
+        <v>let salmo = "VIiiancico (Klko Argüello)";</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5">
+        <f>C5</f>
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K5,M5,"c",N5,M5,L5,".textContent = Cantor",N5,O5)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="15">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="str">
+        <f>_xlfn.CONCAT(B6," ",D6," ",E6,F6,G6,H6,"      //Numero del libro")</f>
+        <v>let dbnos = "12";      //Numero del libro</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6">
+        <f>C6</f>
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K6,M6,"c",N6,M6,L6,".textContent = Cantor",N6,O6)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I8" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" ref="J9:J28" si="0">_xlfn.CONCAT(B9,C9," ",D9," ",E9,F9,G9,H9)</f>
+        <v>let Asamblea1 = "¡ALEGRÍA, ALEGRÍA, ALEGRÍA, ";</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9">
+        <f t="shared" ref="N9:N28" si="1">C9</f>
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K9,M9,"a",N9,M9,L9,".textContent = Asamblea",N9,O9)</f>
+        <v>document.getElementById("a1").textContent = Asamblea1;</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:C28" si="2">+C9+1</f>
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>722</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea2 = "HA NACIDO EL SALVADOR ";</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" ref="P10:P28" si="3">_xlfn.CONCAT("document.getElementById",K10,M10,"a",N10,M10,L10,".textContent = Asamblea",N10,O10)</f>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>723</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea3 = "ACOSTADO EN UN PESEBRE!";</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>724</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea4 = "¡ÉL ES EL CRISTO, EL SEÑOR! ";</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea5 = "¡ALEGRÍA, ALEGRÍA, ALEGRÍA, ";</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>722</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea6 = "HA NACIDO EL SALVADOR ";</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a6").textContent = Asamblea6;</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>723</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea7 = "ACOSTADO EN UN PESEBRE!";</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="O15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a7").textContent = Asamblea7;</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>724</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea8 = "¡ÉL ES EL CRISTO, EL SEÑOR! ";</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="O16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a8").textContent = Asamblea8;</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea9 = "¡ALEGRÍA, ALEGRÍA, ALEGRÍA, ";</v>
+      </c>
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="O17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a9").textContent = Asamblea9;</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>722</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea10 = "HA NACIDO EL SALVADOR ";</v>
+      </c>
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="O18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a10").textContent = Asamblea10;</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>723</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea11 = "ACOSTADO EN UN PESEBRE!";</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="O19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a11").textContent = Asamblea11;</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>724</v>
+      </c>
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea12 = "¡ÉL ES EL CRISTO, EL SEÑOR! ";</v>
+      </c>
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="O20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a12").textContent = Asamblea12;</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea13 = "¡ALEGRÍA, ALEGRÍA, ALEGRÍA, ";</v>
+      </c>
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="O21" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a13").textContent = Asamblea13;</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>722</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea14 = "HA NACIDO EL SALVADOR ";</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" t="s">
+        <v>28</v>
+      </c>
+      <c r="M22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="O22" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a14").textContent = Asamblea14;</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>723</v>
+      </c>
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea15 = "ACOSTADO EN UN PESEBRE!";</v>
+      </c>
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="O23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a15").textContent = Asamblea15;</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea16 = "¡ÉL ES EL CRISTO, EL SEÑOR!";</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="O24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a16").textContent = Asamblea16;</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea17 = "¡ALEGRÍA, ALEGRÍA, ALEGRÍA, ";</v>
+      </c>
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="O25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a17").textContent = Asamblea17;</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>722</v>
+      </c>
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea18 = "HA NACIDO EL SALVADOR ";</v>
+      </c>
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
+      <c r="L26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="O26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a18").textContent = Asamblea18;</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>723</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea19 = "ACOSTADO EN UN PESEBRE!";</v>
+      </c>
+      <c r="K27" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="O27" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a19").textContent = Asamblea19;</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>let Asamblea20 = "¡ÉL ES EL CRISTO, EL SEÑOR!";</v>
+      </c>
+      <c r="K28" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="O28" t="s">
+        <v>29</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="3"/>
+        <v>document.getElementById("a20").textContent = Asamblea20;</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I30" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="J30" s="19"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>726</v>
+      </c>
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" t="str">
+        <f>_xlfn.CONCAT(B31,C31," ",D31," ",E31,F31,G31,H31)</f>
+        <v>let Cantor1 = "Un ángel vino del cielo";</v>
+      </c>
+      <c r="K31" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" t="s">
+        <v>28</v>
+      </c>
+      <c r="M31" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31">
+        <f>C31</f>
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K31,M31,"c",N31,M31,L31,".textContent = Cantor",N31,O31)</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <f>+C31+1</f>
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>727</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" t="str">
+        <f>_xlfn.CONCAT(B32,C32," ",D32," ",E32,F32,G32,H32)</f>
+        <v>let Cantor2 = "trayendo una gran noticia: ";</v>
+      </c>
+      <c r="K32" t="s">
+        <v>27</v>
+      </c>
+      <c r="L32" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32">
+        <f>C32</f>
+        <v>2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>29</v>
+      </c>
+      <c r="P32" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K32,M32,"c",N32,M32,L32,".textContent = Cantor",N32,O32)</f>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <f>+C32+1</f>
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" t="str">
+        <f>_xlfn.CONCAT(B33,C33," ",D33," ",E33,F33,G33,H33)</f>
+        <v>let Cantor3 = "¡Hoy os ha nacido, ";</v>
+      </c>
+      <c r="K33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33">
+        <f>C33</f>
+        <v>3</v>
+      </c>
+      <c r="O33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" t="str">
+        <f>_xlfn.CONCAT("document.getElementById",K33,M33,"c",N33,M33,L33,".textContent = Cantor",N33,O33)</f>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <f t="shared" ref="C34:C50" si="4">+C33+1</f>
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>26</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="G34" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" ref="J34:J50" si="5">_xlfn.CONCAT(B34,C34," ",D34," ",E34,F34,G34,H34)</f>
+        <v>let Cantor4 = "ha nacido el Salvador! ";</v>
+      </c>
+      <c r="K34" t="s">
+        <v>27</v>
+      </c>
+      <c r="L34" t="s">
+        <v>28</v>
+      </c>
+      <c r="M34" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34">
+        <f t="shared" ref="N34:N50" si="6">C34</f>
+        <v>4</v>
+      </c>
+      <c r="O34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" ref="P34:P50" si="7">_xlfn.CONCAT("document.getElementById",K34,M34,"c",N34,M34,L34,".textContent = Cantor",N34,O34)</f>
+        <v>document.getElementById("c4").textContent = Cantor4;</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="G35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor5 = "¡Fajado con lindos pañales";</v>
+      </c>
+      <c r="K35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" t="s">
+        <v>28</v>
+      </c>
+      <c r="M35" t="s">
+        <v>26</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="O35" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c5").textContent = Cantor5;</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>731</v>
+      </c>
+      <c r="G36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor6 = "y acostado en un pesebre!";</v>
+      </c>
+      <c r="K36" t="s">
+        <v>27</v>
+      </c>
+      <c r="L36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" t="s">
+        <v>26</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="O36" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c6").textContent = Cantor6;</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>732</v>
+      </c>
+      <c r="G37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor7 = "Esta será la señal";</v>
+      </c>
+      <c r="K37" t="s">
+        <v>27</v>
+      </c>
+      <c r="L37" t="s">
+        <v>28</v>
+      </c>
+      <c r="M37" t="s">
+        <v>26</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="O37" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c7").textContent = Cantor7;</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>733</v>
+      </c>
+      <c r="G38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor8 = "de que Él es el Señor";</v>
+      </c>
+      <c r="K38" t="s">
+        <v>27</v>
+      </c>
+      <c r="L38" t="s">
+        <v>28</v>
+      </c>
+      <c r="M38" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="O38" t="s">
+        <v>29</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c8").textContent = Cantor8;</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>734</v>
+      </c>
+      <c r="G39" t="s">
+        <v>26</v>
+      </c>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor9 = "Al establo de Belén";</v>
+      </c>
+      <c r="K39" t="s">
+        <v>27</v>
+      </c>
+      <c r="L39" t="s">
+        <v>28</v>
+      </c>
+      <c r="M39" t="s">
+        <v>26</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="O39" t="s">
+        <v>29</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c9").textContent = Cantor9;</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>735</v>
+      </c>
+      <c r="G40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor10 = "han llegado los pastores.";</v>
+      </c>
+      <c r="K40" t="s">
+        <v>27</v>
+      </c>
+      <c r="L40" t="s">
+        <v>28</v>
+      </c>
+      <c r="M40" t="s">
+        <v>26</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="O40" t="s">
+        <v>29</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c10").textContent = Cantor10;</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor11 = "Vienen trayendo regalos";</v>
+      </c>
+      <c r="K41" t="s">
+        <v>27</v>
+      </c>
+      <c r="L41" t="s">
+        <v>28</v>
+      </c>
+      <c r="M41" t="s">
+        <v>26</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="O41" t="s">
+        <v>29</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c11").textContent = Cantor11;</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="D42" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="G42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor12 = "Jesús el Salvador. ";</v>
+      </c>
+      <c r="K42" t="s">
+        <v>27</v>
+      </c>
+      <c r="L42" t="s">
+        <v>28</v>
+      </c>
+      <c r="M42" t="s">
+        <v>26</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="O42" t="s">
+        <v>29</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c12").textContent = Cantor12;</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>738</v>
+      </c>
+      <c r="G43" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor13 = "Encontraron a María,";</v>
+      </c>
+      <c r="K43" t="s">
+        <v>27</v>
+      </c>
+      <c r="L43" t="s">
+        <v>28</v>
+      </c>
+      <c r="M43" t="s">
+        <v>26</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="O43" t="s">
+        <v>29</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c13").textContent = Cantor13;</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="D44" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>739</v>
+      </c>
+      <c r="G44" t="s">
+        <v>26</v>
+      </c>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor14 = "encontraron a José.";</v>
+      </c>
+      <c r="K44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" t="s">
+        <v>28</v>
+      </c>
+      <c r="M44" t="s">
+        <v>26</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="O44" t="s">
+        <v>29</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c14").textContent = Cantor14;</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>740</v>
+      </c>
+      <c r="G45" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor15 = "El buey, el asno y el niño,";</v>
+      </c>
+      <c r="K45" t="s">
+        <v>27</v>
+      </c>
+      <c r="L45" t="s">
+        <v>28</v>
+      </c>
+      <c r="M45" t="s">
+        <v>26</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="O45" t="s">
+        <v>29</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c15").textContent = Cantor15;</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>741</v>
+      </c>
+      <c r="G46" t="s">
+        <v>26</v>
+      </c>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor16 = "que se llamará Emmanuel.";</v>
+      </c>
+      <c r="K46" t="s">
+        <v>27</v>
+      </c>
+      <c r="L46" t="s">
+        <v>28</v>
+      </c>
+      <c r="M46" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="O46" t="s">
+        <v>29</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c16").textContent = Cantor16;</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" t="s">
+        <v>26</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>742</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor17 = "El buey reconoce a su dueño,";</v>
+      </c>
+      <c r="K47" t="s">
+        <v>27</v>
+      </c>
+      <c r="L47" t="s">
+        <v>28</v>
+      </c>
+      <c r="M47" t="s">
+        <v>26</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="O47" t="s">
+        <v>29</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c17").textContent = Cantor17;</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="D48" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" t="s">
+        <v>26</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>743</v>
+      </c>
+      <c r="G48" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor18 = "el borrico su pesebre.";</v>
+      </c>
+      <c r="K48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M48" t="s">
+        <v>26</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="O48" t="s">
+        <v>29</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c18").textContent = Cantor18;</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" t="s">
+        <v>26</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>744</v>
+      </c>
+      <c r="G49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor19 = "Pero Israel no conoce,";</v>
+      </c>
+      <c r="K49" t="s">
+        <v>27</v>
+      </c>
+      <c r="L49" t="s">
+        <v>28</v>
+      </c>
+      <c r="M49" t="s">
+        <v>26</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="O49" t="s">
+        <v>29</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c19").textContent = Cantor19;</v>
+      </c>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" t="s">
+        <v>26</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>745</v>
+      </c>
+      <c r="G50" t="s">
+        <v>26</v>
+      </c>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="5"/>
+        <v>let Cantor20 = "no conoce a su Señor. ";</v>
+      </c>
+      <c r="K50" t="s">
+        <v>27</v>
+      </c>
+      <c r="L50" t="s">
+        <v>28</v>
+      </c>
+      <c r="M50" t="s">
+        <v>26</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="O50" t="s">
+        <v>29</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="7"/>
+        <v>document.getElementById("c20").textContent = Cantor20;</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I52" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J52" s="19"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I57" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J57" s="19"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J58" t="str">
+        <f>P9</f>
+        <v>document.getElementById("a1").textContent = Asamblea1;</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J59" t="str">
+        <f>P10</f>
+        <v>document.getElementById("a2").textContent = Asamblea2;</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J60" t="str">
+        <f>P11</f>
+        <v>document.getElementById("a3").textContent = Asamblea3;</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J61" t="str">
+        <f>P12</f>
+        <v>document.getElementById("a4").textContent = Asamblea4;</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J62" t="str">
+        <f>P13</f>
+        <v>document.getElementById("a5").textContent = Asamblea5;</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J63" t="str">
+        <f>P14</f>
+        <v>document.getElementById("a6").textContent = Asamblea6;</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="J64" t="str">
+        <f>P15</f>
+        <v>document.getElementById("a7").textContent = Asamblea7;</v>
+      </c>
+    </row>
+    <row r="65" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J65" t="str">
+        <f>P16</f>
+        <v>document.getElementById("a8").textContent = Asamblea8;</v>
+      </c>
+    </row>
+    <row r="66" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J66" t="str">
+        <f>P17</f>
+        <v>document.getElementById("a9").textContent = Asamblea9;</v>
+      </c>
+    </row>
+    <row r="67" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J67" t="str">
+        <f>P18</f>
+        <v>document.getElementById("a10").textContent = Asamblea10;</v>
+      </c>
+    </row>
+    <row r="68" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J68" t="str">
+        <f>P19</f>
+        <v>document.getElementById("a11").textContent = Asamblea11;</v>
+      </c>
+    </row>
+    <row r="69" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J69" t="str">
+        <f>P20</f>
+        <v>document.getElementById("a12").textContent = Asamblea12;</v>
+      </c>
+    </row>
+    <row r="70" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J70" t="str">
+        <f>P21</f>
+        <v>document.getElementById("a13").textContent = Asamblea13;</v>
+      </c>
+    </row>
+    <row r="71" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J71" t="str">
+        <f>P22</f>
+        <v>document.getElementById("a14").textContent = Asamblea14;</v>
+      </c>
+    </row>
+    <row r="72" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J72" t="str">
+        <f>P23</f>
+        <v>document.getElementById("a15").textContent = Asamblea15;</v>
+      </c>
+    </row>
+    <row r="73" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J73" t="str">
+        <f>P24</f>
+        <v>document.getElementById("a16").textContent = Asamblea16;</v>
+      </c>
+    </row>
+    <row r="74" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J74" t="str">
+        <f>P25</f>
+        <v>document.getElementById("a17").textContent = Asamblea17;</v>
+      </c>
+    </row>
+    <row r="75" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J75" t="str">
+        <f>P26</f>
+        <v>document.getElementById("a18").textContent = Asamblea18;</v>
+      </c>
+    </row>
+    <row r="76" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J76" t="str">
+        <f>P27</f>
+        <v>document.getElementById("a19").textContent = Asamblea19;</v>
+      </c>
+    </row>
+    <row r="77" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J77" t="str">
+        <f>P28</f>
+        <v>document.getElementById("a20").textContent = Asamblea20;</v>
+      </c>
+    </row>
+    <row r="79" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I79" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J79" s="19"/>
+    </row>
+    <row r="80" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J80" t="str">
+        <f>P31</f>
+        <v>document.getElementById("c1").textContent = Cantor1;</v>
+      </c>
+    </row>
+    <row r="81" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J81" t="str">
+        <f>P32</f>
+        <v>document.getElementById("c2").textContent = Cantor2;</v>
+      </c>
+    </row>
+    <row r="82" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J82" t="str">
+        <f>P33</f>
+        <v>document.getElementById("c3").textContent = Cantor3;</v>
+      </c>
+    </row>
+    <row r="83" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J83" t="str">
+        <f>P34</f>
+        <v>document.getElementById("c4").textContent = Cantor4;</v>
+      </c>
+    </row>
+    <row r="84" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J84" t="str">
+        <f>P35</f>
+        <v>document.getElementById("c5").textContent = Cantor5;</v>
+      </c>
+    </row>
+    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J85" t="str">
+        <f>P36</f>
+        <v>document.getElementById("c6").textContent = Cantor6;</v>
+      </c>
+    </row>
+    <row r="86" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J86" t="str">
+        <f>P37</f>
+        <v>document.getElementById("c7").textContent = Cantor7;</v>
+      </c>
+    </row>
+    <row r="87" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J87" t="str">
+        <f>P38</f>
+        <v>document.getElementById("c8").textContent = Cantor8;</v>
+      </c>
+    </row>
+    <row r="88" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J88" t="str">
+        <f>P39</f>
+        <v>document.getElementById("c9").textContent = Cantor9;</v>
+      </c>
+    </row>
+    <row r="89" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J89" t="str">
+        <f>P40</f>
+        <v>document.getElementById("c10").textContent = Cantor10;</v>
+      </c>
+    </row>
+    <row r="90" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J90" t="str">
+        <f>P41</f>
+        <v>document.getElementById("c11").textContent = Cantor11;</v>
+      </c>
+    </row>
+    <row r="91" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J91" t="str">
+        <f>P42</f>
+        <v>document.getElementById("c12").textContent = Cantor12;</v>
+      </c>
+    </row>
+    <row r="92" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J92" t="str">
+        <f>P43</f>
+        <v>document.getElementById("c13").textContent = Cantor13;</v>
+      </c>
+    </row>
+    <row r="93" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J93" t="str">
+        <f>P44</f>
+        <v>document.getElementById("c14").textContent = Cantor14;</v>
+      </c>
+    </row>
+    <row r="94" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J94" t="str">
+        <f>P45</f>
+        <v>document.getElementById("c15").textContent = Cantor15;</v>
+      </c>
+    </row>
+    <row r="95" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J95" t="str">
+        <f>P46</f>
+        <v>document.getElementById("c16").textContent = Cantor16;</v>
+      </c>
+    </row>
+    <row r="96" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J96" t="str">
+        <f>P47</f>
+        <v>document.getElementById("c17").textContent = Cantor17;</v>
+      </c>
+    </row>
+    <row r="97" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J97" t="str">
+        <f>P48</f>
+        <v>document.getElementById("c18").textContent = Cantor18;</v>
+      </c>
+    </row>
+    <row r="98" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J98" t="str">
+        <f>P49</f>
+        <v>document.getElementById("c19").textContent = Cantor19;</v>
+      </c>
+    </row>
+    <row r="99" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="J99" t="str">
+        <f>P50</f>
+        <v>document.getElementById("c20").textContent = Cantor20;</v>
+      </c>
+    </row>
+    <row r="101" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I101" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J101" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I101:J101"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA84B31-18C4-40A9-AA75-9A03A68F372E}">
   <dimension ref="B1:P107"/>
   <sheetViews>
@@ -35910,7 +38397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0738D706-879F-40BF-97F6-539D4CCF74D0}">
   <dimension ref="B1:P100"/>
   <sheetViews>
@@ -38325,11 +40812,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{990A6374-F939-4C2C-9C4D-AA412B28E4B1}">
   <dimension ref="B1:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="P81" sqref="P81"/>
     </sheetView>
   </sheetViews>
@@ -39947,73 +42434,73 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J47" t="str">
-        <f>P9</f>
+        <f t="shared" ref="J47:J58" si="8">P9</f>
         <v>document.getElementById("a1").textContent = Asamblea1;</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J48" t="str">
-        <f>P10</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a2").textContent = Asamblea2;</v>
       </c>
     </row>
     <row r="49" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J49" t="str">
-        <f>P11</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a3").textContent = Asamblea3;</v>
       </c>
     </row>
     <row r="50" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J50" t="str">
-        <f>P12</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a4").textContent = Asamblea4;</v>
       </c>
     </row>
     <row r="51" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J51" t="str">
-        <f>P13</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a5").textContent = Asamblea5;</v>
       </c>
     </row>
     <row r="52" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J52" t="str">
-        <f>P14</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a6").textContent = Asamblea6;</v>
       </c>
     </row>
     <row r="53" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J53" t="str">
-        <f>P15</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a7").textContent = Asamblea7;</v>
       </c>
     </row>
     <row r="54" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J54" t="str">
-        <f>P16</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a8").textContent = Asamblea8;</v>
       </c>
     </row>
     <row r="55" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J55" t="str">
-        <f>P17</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a9").textContent = Asamblea9;</v>
       </c>
     </row>
     <row r="56" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J56" t="str">
-        <f>P18</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a10").textContent = Asamblea10;</v>
       </c>
     </row>
     <row r="57" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J57" t="str">
-        <f>P19</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a11").textContent = Asamblea11;</v>
       </c>
     </row>
     <row r="58" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J58" t="str">
-        <f>P20</f>
+        <f t="shared" si="8"/>
         <v>document.getElementById("a12").textContent = Asamblea12;</v>
       </c>
     </row>
@@ -40025,103 +42512,103 @@
     </row>
     <row r="61" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J61" t="str">
-        <f>P23</f>
+        <f t="shared" ref="J61:J77" si="9">P23</f>
         <v>document.getElementById("c1").textContent = Cantor1;</v>
       </c>
     </row>
     <row r="62" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J62" t="str">
-        <f>P24</f>
+        <f t="shared" si="9"/>
         <v>document.getElementById("c2").textContent = Cantor2;</v>
       </c>
     </row>
     <row r="63" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J63" t="str">
-        <f>P25</f>
+        <f t="shared" si="9"/>
         <v>document.getElementById("c3").textContent = Cantor3;</v>
       </c>
     </row>
     <row r="64" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J64" t="str">
-        <f>P26</f>
+        <f t="shared" si="9"/>
         <v>document.getElementById("c4").textContent = Cantor4;</v>
       </c>
     </row>
     <row r="65" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J65" t="str">
-        <f>P27</f>
+        <f t="shared" si="9"/>
         <v>document.getElementById("c5").textContent = Cantor5;</v>
       </c>
     </row>
     <row r="66" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J66" t="str">
-        <f>P28</f>
+        <f t="shared" si="9"/>
         <v>document.getElementById("c6").textContent = Cantor6;</v>
       </c>
     </row>
     <row r="67" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J67" t="str">
-        <f>P29</f>
+        <f t="shared" si="9"/>
         <v>document.getElementById("c7").textContent = Cantor7;</v>
       </c>
     </row>
     <row r="68" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J68" t="str">
-        <f>P30</f>
+        <f t="shared" si="9"/>
         <v>document.getElementById("c8").textContent = Cantor8;</v>
       </c>
     </row>
     <row r="69" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J69" t="str">
-        <f>P31</f>
+        <f t="shared" si="9"/>
         <v>document.getElementById("c9").textContent = Cantor9;</v>
       </c>
     </row>
     <row r="70" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J70" t="str">
-        <f>P32</f>
+        <f t="shared" si="9"/>
         <v>document.getElementById("c10").textContent = Cantor10;</v>
       </c>
     </row>
     <row r="71" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J71" t="str">
-        <f>P33</f>
+        <f t="shared" si="9"/>
         <v>document.getElementById("c11").textContent = Cantor11;</v>
       </c>
     </row>
     <row r="72" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J72" t="str">
-        <f>P34</f>
+        <f t="shared" si="9"/>
         <v>document.getElementById("c12").textContent = Cantor12;</v>
       </c>
     </row>
     <row r="73" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J73" t="str">
-        <f>P35</f>
+        <f t="shared" si="9"/>
         <v>document.getElementById("c13").textContent = Cantor13;</v>
       </c>
     </row>
     <row r="74" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J74" t="str">
-        <f>P36</f>
+        <f t="shared" si="9"/>
         <v>document.getElementById("c14").textContent = Cantor14;</v>
       </c>
     </row>
     <row r="75" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J75" t="str">
-        <f>P37</f>
+        <f t="shared" si="9"/>
         <v>document.getElementById("c15").textContent = Cantor15;</v>
       </c>
     </row>
     <row r="76" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J76" t="str">
-        <f>P38</f>
+        <f t="shared" si="9"/>
         <v>document.getElementById("c16").textContent = Cantor16;</v>
       </c>
     </row>
     <row r="77" spans="9:10" x14ac:dyDescent="0.25">
       <c r="J77" t="str">
-        <f>P39</f>
+        <f t="shared" si="9"/>
         <v>document.getElementById("c17").textContent = Cantor17;</v>
       </c>
     </row>
@@ -40133,19 +42620,19 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="I78:J78"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I46:J46"/>
     <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I78:J78"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B8FB2B-4DC1-4AFD-B6C8-31306B741E54}">
   <dimension ref="B1:P200"/>
   <sheetViews>
